--- a/SMP_3PP.xlsx
+++ b/SMP_3PP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\My Paper\Geotexile and Geomembrane\anal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -133,67 +132,67 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ds_r_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ds_a_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s_r_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s_a_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ev_ela</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ev_pla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>er_from_ev</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dev_pla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ratio^4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>q</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>eq_pred</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ds_r_pred</t>
+    <t>dratio</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ds_a_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>s_r_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>s_a_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ev_ela</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ev_pla</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>er_from_ev</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dev_pla</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>deq</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>dev/deq</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ratio^4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>q</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dratio</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -526,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AM1" sqref="AM1:AM1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AI1" sqref="AI1:AI1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -640,34 +639,34 @@
         <v>27</v>
       </c>
       <c r="AC1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD1" t="s">
         <v>40</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>41</v>
       </c>
       <c r="AE1" t="s">
         <v>28</v>
       </c>
       <c r="AF1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG1" t="s">
         <v>42</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>43</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>44</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>45</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>46</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>48</v>
       </c>
       <c r="AM1" t="s">
         <v>29</v>
@@ -676,10 +675,10 @@
         <v>30</v>
       </c>
       <c r="AO1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP1" t="s">
         <v>49</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>50</v>
       </c>
       <c r="AQ1" t="s">
         <v>31</v>
@@ -694,19 +693,19 @@
         <v>34</v>
       </c>
       <c r="AU1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV1" t="s">
         <v>35</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>36</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>37</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>38</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
@@ -827,8 +826,9 @@
         <f t="shared" ref="AO2" si="4">(3*(1-2*0.33))/(0.0762*0.2606*(AK2)^(0.2606-1))</f>
         <v>17803.111387790152</v>
       </c>
-      <c r="AS2">
-        <v>0</v>
+      <c r="AS2" s="1">
+        <f>(1+2*AM3)*AK3*(1-AP3/3)/(2*AN3*AO3*AM3)</f>
+        <v>3.4156458709427363E-4</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -944,9 +944,9 @@
         <f t="shared" si="8"/>
         <v>0.7922717576754027</v>
       </c>
-      <c r="AI3">
-        <f>-AG3/AH3</f>
-        <v>-5.7939119724451024E-3</v>
+      <c r="AI3" s="1">
+        <f>-AD3/AE3</f>
+        <v>3.5017148347061366E-3</v>
       </c>
       <c r="AJ3">
         <f>(1.35*(AK3/3255000)^-0.0723)^4</f>
@@ -965,50 +965,50 @@
       </c>
       <c r="AN3">
         <f t="shared" ref="AN3:AN18" si="9">1/(2+AM3*AQ3-2*0.33*(1+AM3+AQ3))</f>
-        <v>-0.20719051566487512</v>
+        <v>-0.19867363157073495</v>
       </c>
       <c r="AO3">
         <v>139000.03413519132</v>
       </c>
-      <c r="AP3">
-        <f>(AK3*1.35*(AK3/3255000)^-0.0723-AK2*1.35*(AK2/3255000)^-0.0723)/(AK3-AK2)</f>
-        <v>1.8160383272446403</v>
+      <c r="AP3" s="1">
+        <f>AJ3^0.25</f>
+        <v>1.8431886306208904</v>
       </c>
       <c r="AQ3">
         <f>(2*AP3+3)/(3-AP3)</f>
-        <v>5.6015974225372211</v>
+        <v>5.7800065233025251</v>
       </c>
       <c r="AR3">
         <f>(1+2*AM3)*(AK3-AK2)*(1-AP3/3)/(2*AN3*AO3*AM3)</f>
-        <v>3.1440290436111809E-4</v>
-      </c>
-      <c r="AS3">
-        <f>(AS2+AR3)</f>
-        <v>3.1440290436111809E-4</v>
+        <v>3.2036207275603978E-4</v>
+      </c>
+      <c r="AS3" s="1">
+        <f t="shared" ref="AS3:AS18" si="10">(1+2*AM4)*AK4*(1-AP4/3)/(2*AN4*AO4*AM4)</f>
+        <v>1.6067945065317252E-2</v>
       </c>
       <c r="AT3">
         <f>(1-AM3)*(AK3-AK2)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
-        <v>0.56393365802109807</v>
-      </c>
-      <c r="AU3">
-        <f>AU2+AT3</f>
-        <v>0.56393365802109807</v>
+        <v>0.57462241307105766</v>
+      </c>
+      <c r="AU3" s="1">
+        <f>(1-AM3)*(AK3)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
+        <v>0.6126526325892323</v>
       </c>
       <c r="AV3">
-        <f t="shared" ref="AV3:AV18" si="10">AN3*AO3*(AM3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
-        <v>-113.04715818679227</v>
+        <f t="shared" ref="AV3:AV18" si="11">AN3*AO3*(AM3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
+        <v>-108.40018127108173</v>
       </c>
       <c r="AW3">
-        <f t="shared" ref="AW3:AW18" si="11">AN3*AO3*(AM3*AQ3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*AQ3*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
-        <v>-633.24466992429302</v>
+        <f t="shared" ref="AW3:AW18" si="12">AN3*AO3*(AM3*AQ3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*AQ3*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
+        <v>-626.55375487402841</v>
       </c>
       <c r="AX3">
-        <f t="shared" ref="AX3:AX18" si="12">AV3+(AK2-1.35*(AK2/3255000)^-0.0723*AK2/3)</f>
-        <v>564.49538896517038</v>
+        <f t="shared" ref="AX3:AX18" si="13">AV3+(AK2-1.35*(AK2/3255000)^-0.0723*AK2/3)</f>
+        <v>569.14236588088102</v>
       </c>
       <c r="AY3">
-        <f t="shared" ref="AY3:AY18" si="13">AW3+(AK2+2*1.35*(AK2/3255000)^-0.0723*AK2/3)</f>
-        <v>6179.4211096817817</v>
+        <f t="shared" ref="AY3:AY18" si="14">AW3+(AK2+2*1.35*(AK2/3255000)^-0.0723*AK2/3)</f>
+        <v>6186.1120247320459</v>
       </c>
     </row>
     <row r="4" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1122,11 +1122,11 @@
         <v>0.85447503670958291</v>
       </c>
       <c r="AI4" s="1">
-        <f t="shared" ref="AI4:AI18" si="14">-AG4/AH4</f>
-        <v>-4.5444225039413991E-2</v>
+        <f t="shared" ref="AI4:AI18" si="15">-AD4/AE4</f>
+        <v>-2.1895644143307781E-2</v>
       </c>
       <c r="AJ4" s="1">
-        <f t="shared" ref="AJ4:AJ18" si="15">(1.35*(AK4/3255000)^-0.0723)^4</f>
+        <f t="shared" ref="AJ4:AJ18" si="16">(1.35*(AK4/3255000)^-0.0723)^4</f>
         <v>8.5103085248626336</v>
       </c>
       <c r="AK4" s="1">
@@ -1138,55 +1138,55 @@
         <v>156194.36397390001</v>
       </c>
       <c r="AM4" s="1">
-        <f t="shared" ref="AM4:AM18" si="16">(-2*AI4-3)/(-2*AI4+6)</f>
-        <v>-0.47761694763651802</v>
+        <f t="shared" ref="AM4:AM18" si="17">(-2*AI4-3)/(-2*AI4+6)</f>
+        <v>-0.48913150218187873</v>
       </c>
       <c r="AN4" s="1">
         <f t="shared" si="9"/>
-        <v>-0.27981988435257132</v>
+        <v>-0.24730079327076127</v>
       </c>
       <c r="AO4" s="1">
         <v>302938.08896634029</v>
       </c>
       <c r="AP4" s="1">
-        <f t="shared" ref="AP4:AP18" si="17">(AK4*1.35*(AK4/3255000)^-0.0723-AK3*1.35*(AK3/3255000)^-0.0723)/(AK4-AK3)</f>
-        <v>1.6356216271168877</v>
+        <f t="shared" ref="AP4:AP18" si="18">AJ4^0.25</f>
+        <v>1.7079939429529858</v>
       </c>
       <c r="AQ4" s="1">
-        <f t="shared" ref="AQ4:AQ18" si="18">(2*AP4+3)/(3-AP4)</f>
-        <v>4.5964106283668276</v>
+        <f t="shared" ref="AQ4:AQ18" si="19">(2*AP4+3)/(3-AP4)</f>
+        <v>4.9659116154379639</v>
       </c>
       <c r="AR4" s="1">
-        <f t="shared" ref="AR4:AR18" si="19">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(2*AN4*AO4*AM4)</f>
-        <v>2.0600347981067094E-2</v>
+        <f t="shared" ref="AR4:AR18" si="20">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(2*AN4*AO4*AM4)</f>
+        <v>1.0465540176903522E-2</v>
       </c>
       <c r="AS4" s="1">
-        <f t="shared" ref="AS4:AS18" si="20">AS3+AR4</f>
-        <v>2.0914750885428213E-2</v>
+        <f t="shared" si="10"/>
+        <v>-2.7422703459324797E-2</v>
       </c>
       <c r="AT4" s="1">
         <f t="shared" ref="AT4:AT18" si="21">(1-AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
-        <v>0.45331057935744989</v>
+        <v>0.47797361467907373</v>
       </c>
       <c r="AU4" s="1">
-        <f>AU3+AT4</f>
-        <v>1.017244237378548</v>
+        <f t="shared" ref="AU4:AU18" si="22">(1-AM4)*(AK4)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
+        <v>0.73384208110763738</v>
       </c>
       <c r="AV4" s="1">
-        <f t="shared" si="10"/>
-        <v>-351.18904319347303</v>
+        <f t="shared" si="11"/>
+        <v>-302.89318254991474</v>
       </c>
       <c r="AW4" s="1">
-        <f t="shared" si="11"/>
-        <v>-1614.2090507004561</v>
+        <f t="shared" si="12"/>
+        <v>-1504.1407734615934</v>
       </c>
       <c r="AX4" s="1">
-        <f t="shared" si="12"/>
-        <v>16561.318115225458</v>
+        <f t="shared" si="13"/>
+        <v>16609.613975869019</v>
       </c>
       <c r="AY4" s="1">
-        <f t="shared" si="13"/>
-        <v>96140.192650361656</v>
+        <f t="shared" si="14"/>
+        <v>96250.260927600524</v>
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
@@ -1299,12 +1299,12 @@
         <f t="shared" si="8"/>
         <v>0.93185184629018014</v>
       </c>
-      <c r="AI5">
-        <f t="shared" si="14"/>
-        <v>9.6460783240644582E-2</v>
+      <c r="AI5" s="1">
+        <f t="shared" si="15"/>
+        <v>2.0875861810211605E-2</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7.0541039445366129</v>
       </c>
       <c r="AK5">
@@ -1316,55 +1316,55 @@
         <v>306116.13573950005</v>
       </c>
       <c r="AM5">
-        <f t="shared" si="16"/>
-        <v>-0.54983269178036354</v>
+        <f t="shared" si="17"/>
+        <v>-0.51051107347757063</v>
       </c>
       <c r="AN5">
         <f t="shared" si="9"/>
-        <v>-0.29798529854237638</v>
-      </c>
-      <c r="AO5">
+        <v>-0.27248663255355177</v>
+      </c>
+      <c r="AO5" s="1">
         <v>302938.08896634029</v>
       </c>
-      <c r="AP5">
-        <f t="shared" si="17"/>
-        <v>1.5440124208187311</v>
+      <c r="AP5" s="1">
+        <f t="shared" si="18"/>
+        <v>1.6297105002118593</v>
       </c>
       <c r="AQ5">
-        <f t="shared" si="18"/>
-        <v>4.1813714132512594</v>
+        <f t="shared" si="19"/>
+        <v>4.5679551666939595</v>
       </c>
       <c r="AR5">
-        <f t="shared" si="19"/>
-        <v>-5.5991597405135318E-2</v>
-      </c>
-      <c r="AS5">
         <f t="shared" si="20"/>
-        <v>-3.5076846519707106E-2</v>
+        <v>-1.3091375224016818E-2</v>
+      </c>
+      <c r="AS5" s="1">
+        <f t="shared" si="10"/>
+        <v>-1.2045759921995631E-2</v>
       </c>
       <c r="AT5">
         <f t="shared" si="21"/>
-        <v>0.58045970107303335</v>
-      </c>
-      <c r="AU5">
-        <f>AU4+AT5</f>
-        <v>1.5977039384515814</v>
+        <v>0.62710585761844662</v>
+      </c>
+      <c r="AU5" s="1">
+        <f t="shared" si="22"/>
+        <v>1.3136082097415962</v>
       </c>
       <c r="AV5">
-        <f t="shared" si="10"/>
-        <v>-447.64381625547992</v>
+        <f t="shared" si="11"/>
+        <v>-438.61295399320272</v>
       </c>
       <c r="AW5">
-        <f t="shared" si="11"/>
-        <v>-1871.7650566093625</v>
+        <f t="shared" si="12"/>
+        <v>-2003.5643093721501</v>
       </c>
       <c r="AX5">
-        <f t="shared" si="12"/>
-        <v>53726.972074341575</v>
+        <f t="shared" si="13"/>
+        <v>53736.002936603851</v>
       </c>
       <c r="AY5">
-        <f t="shared" si="13"/>
-        <v>267154.58925639658</v>
+        <f t="shared" si="14"/>
+        <v>267022.79000363377</v>
       </c>
     </row>
     <row r="6" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1477,12 +1477,12 @@
         <f t="shared" si="8"/>
         <v>0.90117031669604186</v>
       </c>
-      <c r="AI6" s="2">
-        <f t="shared" si="14"/>
-        <v>-3.6585791878108835E-2</v>
+      <c r="AI6" s="1">
+        <f t="shared" si="15"/>
+        <v>5.9947879175552519E-3</v>
       </c>
       <c r="AJ6" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.1618132648045494</v>
       </c>
       <c r="AK6" s="2">
@@ -1494,55 +1494,55 @@
         <v>501230.93967000005</v>
       </c>
       <c r="AM6" s="2">
-        <f t="shared" si="16"/>
-        <v>-0.48192750293308162</v>
+        <f t="shared" si="17"/>
+        <v>-0.50300339553185958</v>
       </c>
       <c r="AN6" s="2">
         <f t="shared" si="9"/>
-        <v>-0.35207872542129992</v>
-      </c>
-      <c r="AO6" s="2">
+        <v>-0.29850416098875449</v>
+      </c>
+      <c r="AO6" s="1">
         <v>302938.08896634029</v>
       </c>
-      <c r="AP6" s="2">
-        <f t="shared" si="17"/>
-        <v>1.4846589622644111</v>
+      <c r="AP6" s="1">
+        <f t="shared" si="18"/>
+        <v>1.57553165468834</v>
       </c>
       <c r="AQ6" s="2">
-        <f t="shared" si="18"/>
-        <v>3.9392570885884006</v>
+        <f t="shared" si="19"/>
+        <v>4.3181467174203059</v>
       </c>
       <c r="AR6" s="2">
-        <f t="shared" si="19"/>
-        <v>2.5486173641137515E-2</v>
-      </c>
-      <c r="AS6" s="2">
         <f t="shared" si="20"/>
-        <v>-9.5906728785695901E-3</v>
+        <v>-4.4992654008511671E-3</v>
+      </c>
+      <c r="AS6" s="1">
+        <f t="shared" si="10"/>
+        <v>-0.10716903912271379</v>
       </c>
       <c r="AT6" s="2">
         <f t="shared" si="21"/>
-        <v>0.6966139676858345</v>
-      </c>
-      <c r="AU6" s="2">
-        <f t="shared" ref="AU6:AU18" si="22">AU5+AT6</f>
-        <v>2.2943179061374162</v>
+        <v>0.7505295371126508</v>
+      </c>
+      <c r="AU6" s="1">
+        <f t="shared" si="22"/>
+        <v>2.0093721558890905</v>
       </c>
       <c r="AV6" s="2">
-        <f t="shared" si="10"/>
-        <v>-468.86364069782724</v>
+        <f t="shared" si="11"/>
+        <v>-380.13386319324655</v>
       </c>
       <c r="AW6" s="2">
-        <f t="shared" si="11"/>
-        <v>-1846.974420200281</v>
+        <f t="shared" si="12"/>
+        <v>-1641.4737935282171</v>
       </c>
       <c r="AX6" s="2">
-        <f t="shared" si="12"/>
-        <v>109474.10143658602</v>
+        <f t="shared" si="13"/>
+        <v>109562.83121409061</v>
       </c>
       <c r="AY6" s="2">
-        <f t="shared" si="13"/>
-        <v>500367.560946232</v>
+        <f t="shared" si="14"/>
+        <v>500573.06157290406</v>
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
@@ -1655,12 +1655,12 @@
         <f t="shared" si="8"/>
         <v>0.98055792025334343</v>
       </c>
-      <c r="AI7">
-        <f t="shared" si="14"/>
-        <v>0.15468043846794832</v>
+      <c r="AI7" s="1">
+        <f t="shared" si="15"/>
+        <v>3.868181143293406E-2</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.5543506655416293</v>
       </c>
       <c r="AK7">
@@ -1672,55 +1672,55 @@
         <v>729574.25835999998</v>
       </c>
       <c r="AM7">
-        <f t="shared" si="16"/>
-        <v>-0.58154467457321091</v>
+        <f t="shared" si="17"/>
+        <v>-0.51959354363655108</v>
       </c>
       <c r="AN7">
         <f t="shared" si="9"/>
-        <v>-0.33741819581349336</v>
-      </c>
-      <c r="AO7">
+        <v>-0.31197312904565527</v>
+      </c>
+      <c r="AO7" s="1">
         <v>302938.08896634029</v>
       </c>
-      <c r="AP7">
-        <f t="shared" si="17"/>
-        <v>1.4417039812757488</v>
+      <c r="AP7" s="1">
+        <f t="shared" si="18"/>
+        <v>1.5351765352315057</v>
       </c>
       <c r="AQ7">
-        <f t="shared" si="18"/>
-        <v>3.7755393659852499</v>
+        <f t="shared" si="19"/>
+        <v>4.1440850836058871</v>
       </c>
       <c r="AR7">
-        <f t="shared" si="19"/>
-        <v>-0.11819488634525863</v>
-      </c>
-      <c r="AS7">
         <f t="shared" si="20"/>
-        <v>-0.12778555922382823</v>
+        <v>-3.2316330887243373E-2</v>
+      </c>
+      <c r="AS7" s="1">
+        <f t="shared" si="10"/>
+        <v>-7.9662853745677067E-2</v>
       </c>
       <c r="AT7">
         <f t="shared" si="21"/>
-        <v>0.76412303660330105</v>
-      </c>
-      <c r="AU7">
+        <v>0.83543995718175901</v>
+      </c>
+      <c r="AU7" s="1">
         <f t="shared" si="22"/>
-        <v>3.0584409427407171</v>
+        <v>2.7705279342597908</v>
       </c>
       <c r="AV7">
-        <f t="shared" si="10"/>
-        <v>-552.82606378157527</v>
+        <f t="shared" si="11"/>
+        <v>-565.58754553365395</v>
       </c>
       <c r="AW7">
-        <f t="shared" si="11"/>
-        <v>-2087.2165663500105</v>
+        <f t="shared" si="12"/>
+        <v>-2343.8429109192812</v>
       </c>
       <c r="AX7">
-        <f t="shared" si="12"/>
-        <v>181877.42693208653</v>
+        <f t="shared" si="13"/>
+        <v>181864.66545033443</v>
       </c>
       <c r="AY7">
-        <f t="shared" si="13"/>
-        <v>785673.38156591391</v>
+        <f t="shared" si="14"/>
+        <v>785416.75522134453</v>
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
@@ -1833,12 +1833,12 @@
         <f t="shared" si="8"/>
         <v>0.92038342181520338</v>
       </c>
-      <c r="AI8">
-        <f t="shared" si="14"/>
-        <v>-5.7444999005097835E-2</v>
+      <c r="AI8" s="1">
+        <f t="shared" si="15"/>
+        <v>2.2239097334903039E-2</v>
       </c>
       <c r="AJ8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.1185836264926623</v>
       </c>
       <c r="AK8">
@@ -1850,55 +1850,55 @@
         <v>975027.36638299993</v>
       </c>
       <c r="AM8">
-        <f t="shared" si="16"/>
-        <v>-0.47181715499847554</v>
+        <f t="shared" si="17"/>
+        <v>-0.51120259385919764</v>
       </c>
       <c r="AN8">
         <f t="shared" si="9"/>
-        <v>-0.40197900496875721</v>
-      </c>
-      <c r="AO8">
+        <v>-0.33037621920477567</v>
+      </c>
+      <c r="AO8" s="1">
         <v>302938.08896634029</v>
       </c>
-      <c r="AP8">
-        <f t="shared" si="17"/>
-        <v>1.4090597034444348</v>
+      <c r="AP8" s="1">
+        <f t="shared" si="18"/>
+        <v>1.5041371948276157</v>
       </c>
       <c r="AQ8">
-        <f t="shared" si="18"/>
-        <v>3.6570318945879223</v>
+        <f t="shared" si="19"/>
+        <v>4.0165945492326305</v>
       </c>
       <c r="AR8">
-        <f t="shared" si="19"/>
-        <v>4.6714142403812733E-2</v>
-      </c>
-      <c r="AS8">
         <f t="shared" si="20"/>
-        <v>-8.1071416820015493E-2</v>
+        <v>-1.9606284109103828E-2</v>
+      </c>
+      <c r="AS8" s="1">
+        <f t="shared" si="10"/>
+        <v>-0.2120986149868225</v>
       </c>
       <c r="AT8">
         <f t="shared" si="21"/>
-        <v>0.81319772326338047</v>
-      </c>
-      <c r="AU8">
+        <v>0.8816133053355848</v>
+      </c>
+      <c r="AU8" s="1">
         <f t="shared" si="22"/>
-        <v>3.8716386660040976</v>
+        <v>3.582108236949435</v>
       </c>
       <c r="AV8">
-        <f t="shared" si="10"/>
-        <v>-538.93596398888928</v>
+        <f t="shared" si="11"/>
+        <v>-405.96293657068333</v>
       </c>
       <c r="AW8">
-        <f t="shared" si="11"/>
-        <v>-1970.9060094478557</v>
+        <f t="shared" si="12"/>
+        <v>-1630.5885182202785</v>
       </c>
       <c r="AX8">
-        <f t="shared" si="12"/>
-        <v>268051.88375517615</v>
+        <f t="shared" si="13"/>
+        <v>268184.85678259435</v>
       </c>
       <c r="AY8">
-        <f t="shared" si="13"/>
-        <v>1111092.3035822222</v>
+        <f t="shared" si="14"/>
+        <v>1111432.6210734497</v>
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
@@ -2011,12 +2011,12 @@
         <f t="shared" si="8"/>
         <v>1.0126257723401473</v>
       </c>
-      <c r="AI9">
-        <f t="shared" si="14"/>
-        <v>0.18468715528136079</v>
+      <c r="AI9" s="1">
+        <f t="shared" si="15"/>
+        <v>4.7968860820986864E-2</v>
       </c>
       <c r="AJ9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.7816156102478056</v>
       </c>
       <c r="AK9">
@@ -2028,55 +2028,55 @@
         <v>1241129.2505049999</v>
       </c>
       <c r="AM9">
-        <f t="shared" si="16"/>
-        <v>-0.59840140268664443</v>
+        <f t="shared" si="17"/>
+        <v>-0.52437416403794823</v>
       </c>
       <c r="AN9">
         <f t="shared" si="9"/>
-        <v>-0.36326104745989507</v>
-      </c>
-      <c r="AO9">
+        <v>-0.33873881073689133</v>
+      </c>
+      <c r="AO9" s="1">
         <v>302938.08896634029</v>
       </c>
-      <c r="AP9">
-        <f t="shared" si="17"/>
-        <v>1.3831153210120573</v>
+      <c r="AP9" s="1">
+        <f t="shared" si="18"/>
+        <v>1.4787462801832456</v>
       </c>
       <c r="AQ9">
-        <f t="shared" si="18"/>
-        <v>3.5662596825602759</v>
+        <f t="shared" si="19"/>
+        <v>3.9161728794879216</v>
       </c>
       <c r="AR9">
-        <f t="shared" si="19"/>
-        <v>-0.15602567421674923</v>
-      </c>
-      <c r="AS9">
         <f t="shared" si="20"/>
-        <v>-0.23709709103676474</v>
+        <v>-4.4499210428084135E-2</v>
+      </c>
+      <c r="AS9" s="1">
+        <f t="shared" si="10"/>
+        <v>-0.28522364329040478</v>
       </c>
       <c r="AT9">
         <f t="shared" si="21"/>
-        <v>0.8448106419694027</v>
-      </c>
-      <c r="AU9">
+        <v>0.9276686931163306</v>
+      </c>
+      <c r="AU9" s="1">
         <f t="shared" si="22"/>
-        <v>4.7164493079734999</v>
+        <v>4.4215895761699375</v>
       </c>
       <c r="AV9">
-        <f t="shared" si="10"/>
-        <v>-625.77714660028357</v>
+        <f t="shared" si="11"/>
+        <v>-655.72150468188977</v>
       </c>
       <c r="AW9">
-        <f t="shared" si="11"/>
-        <v>-2231.683808188202</v>
+        <f t="shared" si="12"/>
+        <v>-2567.9187731322295</v>
       </c>
       <c r="AX9">
-        <f t="shared" si="12"/>
-        <v>363199.59124276345</v>
+        <f t="shared" si="13"/>
+        <v>363169.64688468183</v>
       </c>
       <c r="AY9">
-        <f t="shared" si="13"/>
-        <v>1459107.3077370843</v>
+        <f t="shared" si="14"/>
+        <v>1458771.0727721404</v>
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.25">
@@ -2189,12 +2189,12 @@
         <f t="shared" si="8"/>
         <v>0.98400381181948493</v>
       </c>
-      <c r="AI10">
-        <f t="shared" si="14"/>
-        <v>9.3728361180953165E-2</v>
+      <c r="AI10" s="1">
+        <f t="shared" si="15"/>
+        <v>5.4072349075828322E-2</v>
       </c>
       <c r="AJ10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.5183374352198342</v>
       </c>
       <c r="AK10">
@@ -2206,55 +2206,55 @@
         <v>1510068.0090015002</v>
       </c>
       <c r="AM10">
-        <f t="shared" si="16"/>
-        <v>-0.54837556816559618</v>
+        <f t="shared" si="17"/>
+        <v>-0.52753242211779972</v>
       </c>
       <c r="AN10">
         <f t="shared" si="9"/>
-        <v>-0.39680190248855823</v>
-      </c>
-      <c r="AO10">
+        <v>-0.34871238480801076</v>
+      </c>
+      <c r="AO10" s="1">
         <v>302938.08896634029</v>
       </c>
-      <c r="AP10">
-        <f t="shared" si="17"/>
-        <v>1.3618524601923803</v>
+      <c r="AP10" s="1">
+        <f t="shared" si="18"/>
+        <v>1.4579568320904985</v>
       </c>
       <c r="AQ10">
-        <f t="shared" si="18"/>
-        <v>3.4940106317022819</v>
+        <f t="shared" si="19"/>
+        <v>3.8364124865589928</v>
       </c>
       <c r="AR10">
-        <f t="shared" si="19"/>
-        <v>-8.0046022944808684E-2</v>
-      </c>
-      <c r="AS10">
         <f t="shared" si="20"/>
-        <v>-0.31714311398157341</v>
+        <v>-5.0726737542441426E-2</v>
+      </c>
+      <c r="AS10" s="1">
+        <f t="shared" si="10"/>
+        <v>-0.37456053872223666</v>
       </c>
       <c r="AT10">
         <f t="shared" si="21"/>
-        <v>0.85402136489158109</v>
-      </c>
-      <c r="AU10">
+        <v>0.93812712799484332</v>
+      </c>
+      <c r="AU10" s="1">
         <f t="shared" si="22"/>
-        <v>5.5704706728650812</v>
+        <v>5.2748520854979262</v>
       </c>
       <c r="AV10">
-        <f t="shared" si="10"/>
-        <v>-628.37291096666399</v>
+        <f t="shared" si="11"/>
+        <v>-573.20788150261592</v>
       </c>
       <c r="AW10">
-        <f t="shared" si="11"/>
-        <v>-2195.5416315912348</v>
+        <f t="shared" si="12"/>
+        <v>-2199.0618739906631</v>
       </c>
       <c r="AX10">
-        <f t="shared" si="12"/>
-        <v>467611.32254562975</v>
+        <f t="shared" si="13"/>
+        <v>467666.48757509381</v>
       </c>
       <c r="AY10">
-        <f t="shared" si="13"/>
-        <v>1831512.0548152158</v>
+        <f t="shared" si="14"/>
+        <v>1831508.5345728165</v>
       </c>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.25">
@@ -2367,12 +2367,12 @@
         <f t="shared" si="8"/>
         <v>0.99205203279142751</v>
       </c>
-      <c r="AI11">
-        <f t="shared" si="14"/>
-        <v>0.11387270641319085</v>
+      <c r="AI11" s="1">
+        <f t="shared" si="15"/>
+        <v>6.1160683414603824E-2</v>
       </c>
       <c r="AJ11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.3067416055433272</v>
       </c>
       <c r="AK11">
@@ -2384,55 +2384,55 @@
         <v>1777141.4462240003</v>
       </c>
       <c r="AM11">
-        <f t="shared" si="16"/>
-        <v>-0.55918278795233212</v>
+        <f t="shared" si="17"/>
+        <v>-0.5312167543846863</v>
       </c>
       <c r="AN11">
         <f t="shared" si="9"/>
-        <v>-0.40329791265956311</v>
-      </c>
-      <c r="AO11">
+        <v>-0.35689796508649801</v>
+      </c>
+      <c r="AO11" s="1">
         <v>302938.08896634029</v>
       </c>
-      <c r="AP11">
-        <f t="shared" si="17"/>
-        <v>1.3442472387769562</v>
+      <c r="AP11" s="1">
+        <f t="shared" si="18"/>
+        <v>1.4405794126443006</v>
       </c>
       <c r="AQ11">
-        <f t="shared" si="18"/>
-        <v>3.4355941362598301</v>
+        <f t="shared" si="19"/>
+        <v>3.7713743636418502</v>
       </c>
       <c r="AR11">
-        <f t="shared" si="19"/>
-        <v>-9.6869300184241072E-2</v>
-      </c>
-      <c r="AS11">
         <f t="shared" si="20"/>
-        <v>-0.41401241416581447</v>
+        <v>-5.7241393621227175E-2</v>
+      </c>
+      <c r="AS11" s="1">
+        <f t="shared" si="10"/>
+        <v>-0.53804332828629375</v>
       </c>
       <c r="AT11">
         <f t="shared" si="21"/>
-        <v>0.85068058216468156</v>
-      </c>
-      <c r="AU11">
+        <v>0.93591814913499261</v>
+      </c>
+      <c r="AU11" s="1">
         <f t="shared" si="22"/>
-        <v>6.4211512550297627</v>
+        <v>6.1242046002514146</v>
       </c>
       <c r="AV11">
-        <f t="shared" si="10"/>
-        <v>-652.02211954117263</v>
+        <f t="shared" si="11"/>
+        <v>-605.86354998422689</v>
       </c>
       <c r="AW11">
-        <f t="shared" si="11"/>
-        <v>-2240.0833706073581</v>
+        <f t="shared" si="12"/>
+        <v>-2284.9382602755559</v>
       </c>
       <c r="AX11">
-        <f t="shared" si="12"/>
-        <v>576661.21241051843</v>
+        <f t="shared" si="13"/>
+        <v>576707.37098007544</v>
       </c>
       <c r="AY11">
-        <f t="shared" si="13"/>
-        <v>2212571.6182362735</v>
+        <f t="shared" si="14"/>
+        <v>2212526.7633466055</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.25">
@@ -2545,12 +2545,12 @@
         <f t="shared" si="8"/>
         <v>1.0303656708661162</v>
       </c>
-      <c r="AI12">
-        <f t="shared" si="14"/>
-        <v>0.20631084567275165</v>
+      <c r="AI12" s="1">
+        <f t="shared" si="15"/>
+        <v>7.7071487778270484E-2</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.1286421353061593</v>
       </c>
       <c r="AK12">
@@ -2562,55 +2562,55 @@
         <v>2050200.3846515003</v>
       </c>
       <c r="AM12">
-        <f t="shared" si="16"/>
-        <v>-0.61077333640708864</v>
+        <f t="shared" si="17"/>
+        <v>-0.5395518505444159</v>
       </c>
       <c r="AN12">
         <f t="shared" si="9"/>
-        <v>-0.39052695466147519</v>
-      </c>
-      <c r="AO12">
+        <v>-0.36214425746593726</v>
+      </c>
+      <c r="AO12" s="1">
         <v>302938.08896634029</v>
       </c>
-      <c r="AP12">
-        <f t="shared" si="17"/>
-        <v>1.329224375110359</v>
+      <c r="AP12" s="1">
+        <f t="shared" si="18"/>
+        <v>1.4254494151173009</v>
       </c>
       <c r="AQ12">
-        <f t="shared" si="18"/>
-        <v>3.3867197162362674</v>
+        <f t="shared" si="19"/>
+        <v>3.715916710716844</v>
       </c>
       <c r="AR12">
-        <f t="shared" si="19"/>
-        <v>-0.17797536228550198</v>
-      </c>
-      <c r="AS12">
         <f t="shared" si="20"/>
-        <v>-0.59198777645131639</v>
+        <v>-7.3104858178589624E-2</v>
+      </c>
+      <c r="AS12" s="1">
+        <f t="shared" si="10"/>
+        <v>-0.6629629679769472</v>
       </c>
       <c r="AT12">
         <f t="shared" si="21"/>
-        <v>0.86265635577784883</v>
-      </c>
-      <c r="AU12">
+        <v>0.94853311238661142</v>
+      </c>
+      <c r="AU12" s="1">
         <f t="shared" si="22"/>
-        <v>7.283807610807612</v>
+        <v>6.9810943553368032</v>
       </c>
       <c r="AV12">
-        <f t="shared" si="10"/>
-        <v>-693.3191141150761</v>
+        <f t="shared" si="11"/>
+        <v>-717.90134933767808</v>
       </c>
       <c r="AW12">
-        <f t="shared" si="11"/>
-        <v>-2348.0775134169903</v>
+        <f t="shared" si="12"/>
+        <v>-2667.661620650048</v>
       </c>
       <c r="AX12">
-        <f t="shared" si="12"/>
-        <v>688441.17839442554</v>
+        <f t="shared" si="13"/>
+        <v>688416.59615920298</v>
       </c>
       <c r="AY12">
-        <f t="shared" si="13"/>
-        <v>2596636.0994915017</v>
+        <f t="shared" si="14"/>
+        <v>2596316.5153842685</v>
       </c>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.25">
@@ -2723,12 +2723,12 @@
         <f t="shared" si="8"/>
         <v>1.0215136992501108</v>
       </c>
-      <c r="AI13">
-        <f t="shared" si="14"/>
-        <v>0.15455865949953521</v>
+      <c r="AI13" s="1">
+        <f t="shared" si="15"/>
+        <v>8.4666932328850739E-2</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.9791317249275808</v>
       </c>
       <c r="AK13">
@@ -2740,55 +2740,55 @@
         <v>2315571.1698899996</v>
       </c>
       <c r="AM13">
-        <f t="shared" si="16"/>
-        <v>-0.58147698775210965</v>
+        <f t="shared" si="17"/>
+        <v>-0.54356291221116892</v>
       </c>
       <c r="AN13">
         <f t="shared" si="9"/>
-        <v>-0.41169868785894764</v>
-      </c>
-      <c r="AO13">
+        <v>-0.36806748217192076</v>
+      </c>
+      <c r="AO13" s="1">
         <v>302938.08896634029</v>
       </c>
-      <c r="AP13">
-        <f t="shared" si="17"/>
-        <v>1.3161821183565607</v>
+      <c r="AP13" s="1">
+        <f t="shared" si="18"/>
+        <v>1.4123654303941768</v>
       </c>
       <c r="AQ13">
-        <f t="shared" si="18"/>
-        <v>3.3449960937674703</v>
+        <f t="shared" si="19"/>
+        <v>3.6688108033793401</v>
       </c>
       <c r="AR13">
-        <f t="shared" si="19"/>
-        <v>-0.13160336133922965</v>
-      </c>
-      <c r="AS13">
         <f t="shared" si="20"/>
-        <v>-0.72359113779054607</v>
+        <v>-7.938511889793641E-2</v>
+      </c>
+      <c r="AS13" s="1">
+        <f t="shared" si="10"/>
+        <v>-0.77738815707083919</v>
       </c>
       <c r="AT13">
         <f t="shared" si="21"/>
-        <v>0.85147840803850516</v>
-      </c>
-      <c r="AU13">
+        <v>0.93761657254334596</v>
+      </c>
+      <c r="AU13" s="1">
         <f t="shared" si="22"/>
-        <v>8.1352860188461165</v>
+        <v>7.8302467060217209</v>
       </c>
       <c r="AV13">
-        <f t="shared" si="10"/>
-        <v>-702.6490665979228</v>
+        <f t="shared" si="11"/>
+        <v>-669.14285370384584</v>
       </c>
       <c r="AW13">
-        <f t="shared" si="11"/>
-        <v>-2350.3583830594112</v>
+        <f t="shared" si="12"/>
+        <v>-2454.9585306727513</v>
       </c>
       <c r="AX13">
-        <f t="shared" si="12"/>
-        <v>804525.80562335451</v>
+        <f t="shared" si="13"/>
+        <v>804559.31183624861</v>
       </c>
       <c r="AY13">
-        <f t="shared" si="13"/>
-        <v>2989811.5123440353</v>
+        <f t="shared" si="14"/>
+        <v>2989706.912196422</v>
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.25">
@@ -2901,12 +2901,12 @@
         <f t="shared" si="8"/>
         <v>1.0154020932349503</v>
       </c>
-      <c r="AI14">
-        <f t="shared" si="14"/>
-        <v>0.14384002374294735</v>
+      <c r="AI14" s="1">
+        <f t="shared" si="15"/>
+        <v>8.9920598809611063E-2</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.8546136316205919</v>
       </c>
       <c r="AK14">
@@ -2918,55 +2918,55 @@
         <v>2562275.2800349998</v>
       </c>
       <c r="AM14">
-        <f t="shared" si="16"/>
-        <v>-0.57554199954064567</v>
+        <f t="shared" si="17"/>
+        <v>-0.54634955945162267</v>
       </c>
       <c r="AN14">
         <f t="shared" si="9"/>
-        <v>-0.42206284050024157</v>
-      </c>
-      <c r="AO14">
+        <v>-0.37348939529574959</v>
+      </c>
+      <c r="AO14" s="1">
         <v>302938.08896634029</v>
       </c>
-      <c r="AP14">
-        <f t="shared" si="17"/>
-        <v>1.3049630913246724</v>
+      <c r="AP14" s="1">
+        <f t="shared" si="18"/>
+        <v>1.4011841410864352</v>
       </c>
       <c r="AQ14">
-        <f t="shared" si="18"/>
-        <v>3.3096188961652198</v>
+        <f t="shared" si="19"/>
+        <v>3.6291660792730216</v>
       </c>
       <c r="AR14">
-        <f t="shared" si="19"/>
-        <v>-0.11747200357216434</v>
-      </c>
-      <c r="AS14">
         <f t="shared" si="20"/>
-        <v>-0.84106314136271043</v>
+        <v>-8.0931215874134779E-2</v>
+      </c>
+      <c r="AS14" s="1">
+        <f t="shared" si="10"/>
+        <v>-0.8831604905687318</v>
       </c>
       <c r="AT14">
         <f t="shared" si="21"/>
-        <v>0.81668509581238347</v>
-      </c>
-      <c r="AU14">
+        <v>0.90002977010296148</v>
+      </c>
+      <c r="AU14" s="1">
         <f t="shared" si="22"/>
-        <v>8.9519711146584999</v>
+        <v>8.6452733562951973</v>
       </c>
       <c r="AV14">
-        <f t="shared" si="10"/>
-        <v>-711.38933296618211</v>
+        <f t="shared" si="11"/>
+        <v>-661.44873104663361</v>
       </c>
       <c r="AW14">
-        <f t="shared" si="11"/>
-        <v>-2354.427578915248</v>
+        <f t="shared" si="12"/>
+        <v>-2400.5072978926264</v>
       </c>
       <c r="AX14">
-        <f t="shared" si="12"/>
-        <v>921655.09474919969</v>
+        <f t="shared" si="13"/>
+        <v>921705.03535111924</v>
       </c>
       <c r="AY14">
-        <f t="shared" si="13"/>
-        <v>3381633.6938967532</v>
+        <f t="shared" si="14"/>
+        <v>3381587.614177776</v>
       </c>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.25">
@@ -3079,12 +3079,12 @@
         <f t="shared" si="8"/>
         <v>1.0172125326169983</v>
       </c>
-      <c r="AI15">
-        <f t="shared" si="14"/>
-        <v>0.13269958398232701</v>
+      <c r="AI15" s="1">
+        <f t="shared" si="15"/>
+        <v>9.3414713924521081E-2</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.7455515748213779</v>
       </c>
       <c r="AK15">
@@ -3096,55 +3096,55 @@
         <v>2810370.078675</v>
       </c>
       <c r="AM15">
-        <f t="shared" si="16"/>
-        <v>-0.5694204816703321</v>
+        <f t="shared" si="17"/>
+        <v>-0.54820848421619062</v>
       </c>
       <c r="AN15">
         <f t="shared" si="9"/>
-        <v>-0.43186862204774734</v>
-      </c>
-      <c r="AO15">
+        <v>-0.37869884211004229</v>
+      </c>
+      <c r="AO15" s="1">
         <v>302938.08896634029</v>
       </c>
-      <c r="AP15">
-        <f t="shared" si="17"/>
-        <v>1.2951491902278758</v>
+      <c r="AP15" s="1">
+        <f t="shared" si="18"/>
+        <v>1.3911659691909273</v>
       </c>
       <c r="AQ15">
-        <f t="shared" si="18"/>
-        <v>3.2790543010640141</v>
+        <f t="shared" si="19"/>
+        <v>3.5941133937065937</v>
       </c>
       <c r="AR15">
-        <f t="shared" si="19"/>
-        <v>-0.10749130822187181</v>
-      </c>
-      <c r="AS15">
         <f t="shared" si="20"/>
-        <v>-0.94855444958458224</v>
+        <v>-8.3440917680440249E-2</v>
+      </c>
+      <c r="AS15" s="1">
+        <f t="shared" si="10"/>
+        <v>-1.0378061195572004</v>
       </c>
       <c r="AT15">
         <f t="shared" si="21"/>
-        <v>0.81003500535606476</v>
-      </c>
-      <c r="AU15">
+        <v>0.89323099300887809</v>
+      </c>
+      <c r="AU15" s="1">
         <f t="shared" si="22"/>
-        <v>9.7620061200145649</v>
+        <v>9.4541903889180006</v>
       </c>
       <c r="AV15">
-        <f t="shared" si="10"/>
-        <v>-724.27294415515462</v>
+        <f t="shared" si="11"/>
+        <v>-658.76243968747326</v>
       </c>
       <c r="AW15">
-        <f t="shared" si="11"/>
-        <v>-2374.9303126762557</v>
+        <f t="shared" si="12"/>
+        <v>-2367.6669077515799</v>
       </c>
       <c r="AX15">
-        <f t="shared" si="12"/>
-        <v>1036075.905814069</v>
+        <f t="shared" si="13"/>
+        <v>1036141.4163185366</v>
       </c>
       <c r="AY15">
-        <f t="shared" si="13"/>
-        <v>3760345.1094208756</v>
+        <f t="shared" si="14"/>
+        <v>3760352.3728258004</v>
       </c>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.25">
@@ -3257,12 +3257,12 @@
         <f t="shared" si="8"/>
         <v>1.0402085005391708</v>
       </c>
-      <c r="AI16">
-        <f t="shared" si="14"/>
-        <v>0.19792027106704868</v>
+      <c r="AI16" s="1">
+        <f t="shared" si="15"/>
+        <v>0.10147064900064615</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.6520373341150312</v>
       </c>
       <c r="AK16">
@@ -3274,55 +3274,55 @@
         <v>3046157.0020749997</v>
       </c>
       <c r="AM16">
-        <f t="shared" si="16"/>
-        <v>-0.60595002117003527</v>
+        <f t="shared" si="17"/>
+        <v>-0.55251144807227559</v>
       </c>
       <c r="AN16">
         <f t="shared" si="9"/>
-        <v>-0.42064807001299731</v>
-      </c>
-      <c r="AO16">
+        <v>-0.38219146657830666</v>
+      </c>
+      <c r="AO16" s="1">
         <v>302938.08896634029</v>
       </c>
-      <c r="AP16">
-        <f t="shared" si="17"/>
-        <v>1.2864551675378204</v>
+      <c r="AP16" s="1">
+        <f t="shared" si="18"/>
+        <v>1.3824002451454775</v>
       </c>
       <c r="AQ16">
-        <f t="shared" si="18"/>
-        <v>3.2522699316060306</v>
+        <f t="shared" si="19"/>
+        <v>3.5637990627721186</v>
       </c>
       <c r="AR16">
-        <f t="shared" si="19"/>
-        <v>-0.15383336888143098</v>
-      </c>
-      <c r="AS16">
         <f t="shared" si="20"/>
-        <v>-1.1023878184660132</v>
+        <v>-8.6878544649625383E-2</v>
+      </c>
+      <c r="AS16" s="1">
+        <f t="shared" si="10"/>
+        <v>-1.1905617030137958</v>
       </c>
       <c r="AT16">
         <f t="shared" si="21"/>
-        <v>0.77724918247165042</v>
-      </c>
-      <c r="AU16">
+        <v>0.85619384033970403</v>
+      </c>
+      <c r="AU16" s="1">
         <f t="shared" si="22"/>
-        <v>10.539255302486215</v>
+        <v>10.227648386782191</v>
       </c>
       <c r="AV16">
-        <f t="shared" si="10"/>
-        <v>-750.22100430721434</v>
+        <f t="shared" si="11"/>
+        <v>-741.74722506476064</v>
       </c>
       <c r="AW16">
-        <f t="shared" si="11"/>
-        <v>-2439.9212143676323</v>
+        <f t="shared" si="12"/>
+        <v>-2643.4380654996135</v>
       </c>
       <c r="AX16">
-        <f t="shared" si="12"/>
-        <v>1151401.7489255406</v>
+        <f t="shared" si="13"/>
+        <v>1151410.2227047831</v>
       </c>
       <c r="AY16">
-        <f t="shared" si="13"/>
-        <v>4138524.9054959356</v>
+        <f t="shared" si="14"/>
+        <v>4138321.3886448038</v>
       </c>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.25">
@@ -3435,12 +3435,12 @@
         <f t="shared" si="8"/>
         <v>1.0489142113867409</v>
       </c>
-      <c r="AI17">
-        <f t="shared" si="14"/>
-        <v>0.19978093166421609</v>
+      <c r="AI17" s="1">
+        <f t="shared" si="15"/>
+        <v>0.10856127497268256</v>
       </c>
       <c r="AJ17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.5710667871674415</v>
       </c>
       <c r="AK17">
@@ -3452,55 +3452,55 @@
         <v>3263078.8216599999</v>
       </c>
       <c r="AM17">
-        <f t="shared" si="16"/>
-        <v>-0.60701712622592197</v>
+        <f t="shared" si="17"/>
+        <v>-0.55631864547206877</v>
       </c>
       <c r="AN17">
         <f t="shared" si="9"/>
-        <v>-0.4254367247677896</v>
-      </c>
-      <c r="AO17">
+        <v>-0.38530117627215088</v>
+      </c>
+      <c r="AO17" s="1">
         <v>302938.08896634029</v>
       </c>
-      <c r="AP17">
-        <f t="shared" si="17"/>
-        <v>1.2788189027392434</v>
+      <c r="AP17" s="1">
+        <f t="shared" si="18"/>
+        <v>1.3746732860951418</v>
       </c>
       <c r="AQ17">
-        <f t="shared" si="18"/>
-        <v>3.228967488850194</v>
+        <f t="shared" si="19"/>
+        <v>3.5373482285155089</v>
       </c>
       <c r="AR17">
-        <f t="shared" si="19"/>
-        <v>-0.14833853709018302</v>
-      </c>
-      <c r="AS17">
         <f t="shared" si="20"/>
-        <v>-1.2507263555561963</v>
+        <v>-8.8813499732474321E-2</v>
+      </c>
+      <c r="AS17" s="1">
+        <f t="shared" si="10"/>
+        <v>-2.2125124235299829</v>
       </c>
       <c r="AT17">
         <f t="shared" si="21"/>
-        <v>0.74250598320116246</v>
-      </c>
-      <c r="AU17">
+        <v>0.81809558477295408</v>
+      </c>
+      <c r="AU17" s="1">
         <f t="shared" si="22"/>
-        <v>11.281761285687377</v>
+        <v>10.966725504222174</v>
       </c>
       <c r="AV17">
-        <f t="shared" si="10"/>
-        <v>-765.95018570685556</v>
+        <f t="shared" si="11"/>
+        <v>-751.62823688274864</v>
       </c>
       <c r="AW17">
-        <f t="shared" si="11"/>
-        <v>-2473.2282477262061</v>
+        <f t="shared" si="12"/>
+        <v>-2658.770812239426</v>
       </c>
       <c r="AX17">
-        <f t="shared" si="12"/>
-        <v>1263499.8242301841</v>
+        <f t="shared" si="13"/>
+        <v>1263514.1461790081</v>
       </c>
       <c r="AY17">
-        <f t="shared" si="13"/>
-        <v>4503115.9537104927</v>
+        <f t="shared" si="14"/>
+        <v>4502930.4111459795</v>
       </c>
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.25">
@@ -3613,12 +3613,12 @@
         <f t="shared" si="8"/>
         <v>1.5846711400369387</v>
       </c>
-      <c r="AI18">
-        <f t="shared" si="14"/>
-        <v>1.100888646458672</v>
+      <c r="AI18" s="1">
+        <f t="shared" si="15"/>
+        <v>0.20606521374331233</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.5948819244840498</v>
       </c>
       <c r="AK18">
@@ -3630,55 +3630,55 @@
         <v>2984181.5885450002</v>
       </c>
       <c r="AM18">
-        <f t="shared" si="16"/>
-        <v>-1.3695293020120802</v>
+        <f t="shared" si="17"/>
+        <v>-0.61063172345160488</v>
       </c>
       <c r="AN18">
         <f t="shared" si="9"/>
-        <v>-0.23287573927317734</v>
-      </c>
-      <c r="AO18">
+        <v>-0.36211408599058154</v>
+      </c>
+      <c r="AO18" s="1">
         <v>302938.08896634029</v>
       </c>
-      <c r="AP18">
-        <f t="shared" si="17"/>
-        <v>1.2763404986788218</v>
+      <c r="AP18" s="1">
+        <f t="shared" si="18"/>
+        <v>1.3769594711061914</v>
       </c>
       <c r="AQ18">
-        <f t="shared" si="18"/>
-        <v>3.2214488958530012</v>
+        <f t="shared" si="19"/>
+        <v>3.5451480352952096</v>
       </c>
       <c r="AR18">
-        <f t="shared" si="19"/>
-        <v>0.29768339092912394</v>
-      </c>
-      <c r="AS18">
         <f t="shared" si="20"/>
-        <v>-0.95304296462707239</v>
+        <v>5.1439737165385642E-2</v>
+      </c>
+      <c r="AS18" s="1" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="AT18">
         <f t="shared" si="21"/>
-        <v>-0.27040281674873201</v>
-      </c>
-      <c r="AU18">
+        <v>-0.24962843670189847</v>
+      </c>
+      <c r="AU18" s="1">
         <f t="shared" si="22"/>
-        <v>11.011358468938646</v>
+        <v>10.736952556611643</v>
       </c>
       <c r="AV18">
-        <f t="shared" si="10"/>
-        <v>-969.20976431442853</v>
+        <f t="shared" si="11"/>
+        <v>-2342.212851168053</v>
       </c>
       <c r="AW18">
-        <f t="shared" si="11"/>
-        <v>-3122.2597251006637</v>
+        <f t="shared" si="12"/>
+        <v>-8303.4912875616155</v>
       </c>
       <c r="AX18">
-        <f t="shared" si="12"/>
-        <v>1371736.8144923125</v>
+        <f t="shared" si="13"/>
+        <v>1370363.8114054587</v>
       </c>
       <c r="AY18">
-        <f t="shared" si="13"/>
-        <v>4852616.9634516453</v>
+        <f t="shared" si="14"/>
+        <v>4847435.7318891836</v>
       </c>
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.25">
@@ -4032,7 +4032,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/SMP_3PP.xlsx
+++ b/SMP_3PP.xlsx
@@ -14,12 +14,16 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t># avgT</t>
   </si>
@@ -168,31 +172,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>q</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eq_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ratio</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ratio^4</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>p</t>
+    <t>ev/eq</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>q</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>eq_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dratio</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dev/deq</t>
+    <t>ev/eq_pred</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -258,6 +266,300 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="AV1" t="str">
+            <v>eq_pred</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="AT3">
+            <v>4.0986129748253566E-2</v>
+          </cell>
+          <cell r="AV3">
+            <v>0.54357683165796811</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="AT4">
+            <v>-9.0962195149273492E-2</v>
+          </cell>
+          <cell r="AV4">
+            <v>1.2527111791161281</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="AT5">
+            <v>-0.30063791090157771</v>
+          </cell>
+          <cell r="AV5">
+            <v>2.0871329538978531</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="AT6">
+            <v>-0.56553324006309658</v>
+          </cell>
+          <cell r="AV6">
+            <v>3.0063815311831945</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="AT7">
+            <v>-0.85166398322474335</v>
+          </cell>
+          <cell r="AV7">
+            <v>3.9234264603892344</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="AT8">
+            <v>-1.1603409336828321</v>
+          </cell>
+          <cell r="AV8">
+            <v>4.8622436133342513</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="AT9">
+            <v>-1.4790824591228682</v>
+          </cell>
+          <cell r="AV9">
+            <v>5.7954908188107046</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="AT10">
+            <v>-1.8002705451505174</v>
+          </cell>
+          <cell r="AV10">
+            <v>6.7092379197771779</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="AT11">
+            <v>-2.1079529542419553</v>
+          </cell>
+          <cell r="AV11">
+            <v>7.5653663812129777</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AT12">
+            <v>-2.3880056213378253</v>
+          </cell>
+          <cell r="AV12">
+            <v>8.3314634872135844</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AT13">
+            <v>-2.5155536550409514</v>
+          </cell>
+          <cell r="AV13">
+            <v>8.6768046510639714</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="AT14">
+            <v>-2.5322933196544137</v>
+          </cell>
+          <cell r="AV14">
+            <v>8.7219751250687416</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="AT15">
+            <v>-2.3841945141380516</v>
+          </cell>
+          <cell r="AV15">
+            <v>8.3211122100347197</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="AT16">
+            <v>-2.1515573847430454</v>
+          </cell>
+          <cell r="AV16">
+            <v>7.685409866182721</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="AT17">
+            <v>-2.1952380146765509</v>
+          </cell>
+          <cell r="AV17">
+            <v>7.8053702409389594</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="AT18">
+            <v>-2.0495594831534385</v>
+          </cell>
+          <cell r="AV18">
+            <v>7.4041363881637494</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="AV1" t="str">
+            <v>eq_pred</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="AD3">
+            <v>3.8319450699044966E-2</v>
+          </cell>
+          <cell r="AE3">
+            <v>0.78881789650508294</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="AD4">
+            <v>-4.6776410363131404E-2</v>
+          </cell>
+          <cell r="AE4">
+            <v>1.6964328109948899</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="AD5">
+            <v>-0.22792370372989579</v>
+          </cell>
+          <cell r="AE5">
+            <v>2.6687025817170649</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="AD6">
+            <v>-0.21825719498578811</v>
+          </cell>
+          <cell r="AE6">
+            <v>3.5894703995944859</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="AD7">
+            <v>-0.43793676714494434</v>
+          </cell>
+          <cell r="AE7">
+            <v>4.5971902850329718</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="AD8">
+            <v>-0.53587894121895219</v>
+          </cell>
+          <cell r="AE8">
+            <v>5.5707389170981036</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="AD9">
+            <v>-0.78842716158120285</v>
+          </cell>
+          <cell r="AE9">
+            <v>6.6047566541380522</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="AD10">
+            <v>-0.96929930922372654</v>
+          </cell>
+          <cell r="AE10">
+            <v>7.6222196992331996</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="AD11">
+            <v>-1.137882342869037</v>
+          </cell>
+          <cell r="AE11">
+            <v>8.6452885353400131</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AD12">
+            <v>-1.3686695110261904</v>
+          </cell>
+          <cell r="AE12">
+            <v>9.6871456706652967</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AD13">
+            <v>-1.6192080908604187</v>
+          </cell>
+          <cell r="AE13">
+            <v>10.740525300466734</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="AD14">
+            <v>-1.8833367834300265</v>
+          </cell>
+          <cell r="AE14">
+            <v>11.799224683651081</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="AD15">
+            <v>-2.0951970683876726</v>
+          </cell>
+          <cell r="AE15">
+            <v>12.842394085569522</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="AD16">
+            <v>-2.4463817128654188</v>
+          </cell>
+          <cell r="AE16">
+            <v>13.939128383436827</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="AD17">
+            <v>-4.249647241085512</v>
+          </cell>
+          <cell r="AE17">
+            <v>15.541604670769804</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="AD18">
+            <v>-5.8818119636968698</v>
+          </cell>
+          <cell r="AE18">
+            <v>17.121634609997798</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -523,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY22"/>
+  <dimension ref="A1:AZ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AI1" sqref="AI1:AI1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AQ3" sqref="AQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -546,14 +848,16 @@
     <col min="28" max="28" width="11.5546875"/>
     <col min="31" max="31" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="13.109375" customWidth="1"/>
-    <col min="41" max="41" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.77734375" customWidth="1"/>
-    <col min="44" max="44" width="12.44140625" customWidth="1"/>
-    <col min="45" max="45" width="11.21875" customWidth="1"/>
-    <col min="52" max="1031" width="11.5546875"/>
+    <col min="36" max="36" width="10.33203125" customWidth="1"/>
+    <col min="37" max="37" width="10.21875" style="2" customWidth="1"/>
+    <col min="42" max="42" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.77734375" customWidth="1"/>
+    <col min="45" max="45" width="12.44140625" customWidth="1"/>
+    <col min="46" max="46" width="11.21875" customWidth="1"/>
+    <col min="53" max="1032" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -660,55 +964,58 @@
         <v>50</v>
       </c>
       <c r="AJ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL1" t="s">
         <v>44</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>45</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP1" t="s">
         <v>46</v>
       </c>
-      <c r="AM1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV1" t="s">
         <v>47</v>
       </c>
-      <c r="AP1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>35</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>36</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>37</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.20571021300299999</v>
       </c>
@@ -795,7 +1102,7 @@
         <v>-1.2581269359657199E-9</v>
       </c>
       <c r="AC2">
-        <f>0.0762*AK2^0.2606-0.5912</f>
+        <f>0.0762*AL2^0.2606-0.5912</f>
         <v>7.3646701948911764E-3</v>
       </c>
       <c r="AD2">
@@ -810,31 +1117,27 @@
         <f t="shared" ref="AF2:AF18" si="1">AB2-P2/2</f>
         <v>-1.2666885935459658E-6</v>
       </c>
-      <c r="AJ2">
-        <f>(1.35*(AK2/3255000)^-0.0723)^4</f>
-        <v>25.785066154262143</v>
-      </c>
-      <c r="AK2">
-        <f t="shared" ref="AK2:AK18" si="2">(X2+Y2+Z2)/3</f>
+      <c r="AL2">
+        <f t="shared" ref="AL2:AL18" si="2">(X2+Y2+Z2)/3</f>
         <v>2722.5836246366666</v>
       </c>
-      <c r="AL2">
-        <f t="shared" ref="AL2:AL18" si="3">Z2-(Y2+X2)/2</f>
+      <c r="AM2">
+        <f t="shared" ref="AM2:AM18" si="3">Z2-(Y2+X2)/2</f>
         <v>3181.7856324049999</v>
       </c>
-      <c r="AO2">
-        <f t="shared" ref="AO2" si="4">(3*(1-2*0.33))/(0.0762*0.2606*(AK2)^(0.2606-1))</f>
+      <c r="AP2">
+        <f t="shared" ref="AP2" si="4">(3*(1-2*0.33))/(0.0762*0.2606*(AL2)^(0.2606-1))</f>
         <v>17803.111387790152</v>
       </c>
-      <c r="AS2" s="1">
-        <f>(1+2*AM3)*AK3*(1-AP3/3)/(2*AN3*AO3*AM3)</f>
-        <v>3.4156458709427363E-4</v>
-      </c>
-      <c r="AU2">
+      <c r="AT2" s="1" t="e">
+        <f>(1+2*AN2)*AL2*(1-AQ2/3)/(2*AO2*AP2*AN2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3.3246957367399999</v>
       </c>
@@ -921,7 +1224,7 @@
         <v>0.64105581271286516</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC18" si="5">0.0762*AK3^0.2606-0.5912</f>
+        <f t="shared" ref="AC3:AC18" si="5">0.0762*AL3^0.2606-0.5912</f>
         <v>0.64383013134365763</v>
       </c>
       <c r="AD3">
@@ -948,70 +1251,75 @@
         <f>-AD3/AE3</f>
         <v>3.5017148347061366E-3</v>
       </c>
-      <c r="AJ3">
-        <f>(1.35*(AK3/3255000)^-0.0723)^4</f>
+      <c r="AJ3" s="1">
+        <f>-0.0427*AK3-0.1047*(3*232)^0.2917+0.9625</f>
+        <v>-0.23687964313012133</v>
+      </c>
+      <c r="AK3" s="2">
+        <f>AQ3^4</f>
         <v>11.541948483334281</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <f t="shared" si="2"/>
         <v>43859.805339299994</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <f t="shared" si="3"/>
         <v>52250.990047350002</v>
       </c>
-      <c r="AM3">
-        <v>-0.49972129302590063</v>
-      </c>
       <c r="AN3">
-        <f t="shared" ref="AN3:AN18" si="9">1/(2+AM3*AQ3-2*0.33*(1+AM3+AQ3))</f>
-        <v>-0.19867363157073495</v>
+        <f>(-2*AJ3-3)/(-2*AJ3+6)</f>
+        <v>-0.39022777987766594</v>
       </c>
       <c r="AO3">
+        <f t="shared" ref="AO3:AO18" si="9">1/(2+AN3*AR3-2*0.33*(1+AN3+AR3))</f>
+        <v>-0.2235749458414244</v>
+      </c>
+      <c r="AP3">
         <v>139000.03413519132</v>
       </c>
-      <c r="AP3" s="1">
-        <f>AJ3^0.25</f>
-        <v>1.8431886306208904</v>
-      </c>
-      <c r="AQ3">
-        <f>(2*AP3+3)/(3-AP3)</f>
-        <v>5.7800065233025251</v>
+      <c r="AQ3" s="1">
+        <f>1.35*(AL3/3255000)^-0.0723</f>
+        <v>1.8431886306208907</v>
       </c>
       <c r="AR3">
-        <f>(1+2*AM3)*(AK3-AK2)*(1-AP3/3)/(2*AN3*AO3*AM3)</f>
-        <v>3.2036207275603978E-4</v>
-      </c>
-      <c r="AS3" s="1">
-        <f t="shared" ref="AS3:AS18" si="10">(1+2*AM4)*AK4*(1-AP4/3)/(2*AN4*AO4*AM4)</f>
-        <v>1.6067945065317252E-2</v>
-      </c>
-      <c r="AT3">
-        <f>(1-AM3)*(AK3-AK2)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
-        <v>0.57462241307105766</v>
-      </c>
-      <c r="AU3" s="1">
-        <f>(1-AM3)*(AK3)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
-        <v>0.6126526325892323</v>
-      </c>
-      <c r="AV3">
-        <f t="shared" ref="AV3:AV18" si="11">AN3*AO3*(AM3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
-        <v>-108.40018127108173</v>
+        <f>(2*AQ3+3)/(3-AQ3)</f>
+        <v>5.7800065233025268</v>
+      </c>
+      <c r="AS3">
+        <f>(1+2*AN3)*(AL3-AL2)*(1-AQ3/3)/(2*AO3*AP3*AN3)</f>
+        <v>0.14358612478277036</v>
+      </c>
+      <c r="AT3" s="1">
+        <f>(1+2*AN3)*AL3*(1-AQ3/3)/(2*AO3*AP3*AN3)</f>
+        <v>0.15308908136963345</v>
+      </c>
+      <c r="AU3">
+        <f>(1-AN3)*(AL3-AL2)*(1-AQ3/3)/(3*AO3*AP3*AN3)</f>
+        <v>0.60615645517456551</v>
+      </c>
+      <c r="AV3" s="1">
+        <f>(1-AN3)*(AL3)*(1-AQ3/3)/(3*AO3*AP3*AN3)</f>
+        <v>0.64627369134265178</v>
       </c>
       <c r="AW3">
-        <f t="shared" ref="AW3:AW18" si="12">AN3*AO3*(AM3*AQ3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*AQ3*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
-        <v>-626.55375487402841</v>
+        <f t="shared" ref="AW3:AW18" si="10">AO3*AP3*(AN3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
+        <v>-148.99768934712574</v>
       </c>
       <c r="AX3">
-        <f t="shared" ref="AX3:AX18" si="13">AV3+(AK2-1.35*(AK2/3255000)^-0.0723*AK2/3)</f>
-        <v>569.14236588088102</v>
+        <f t="shared" ref="AX3:AX18" si="11">AO3*AP3*(AN3*AR3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*AR3*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
+        <v>-861.20761638339002</v>
       </c>
       <c r="AY3">
-        <f t="shared" ref="AY3:AY18" si="14">AW3+(AK2+2*1.35*(AK2/3255000)^-0.0723*AK2/3)</f>
-        <v>6186.1120247320459</v>
+        <f t="shared" ref="AY3:AY18" si="12">AW3+(AL2-1.35*(AL2/3255000)^-0.0723*AL2/3)</f>
+        <v>528.54485780483697</v>
+      </c>
+      <c r="AZ3">
+        <f t="shared" ref="AZ3:AZ18" si="13">AX3+(AL2+2*1.35*(AL2/3255000)^-0.0723*AL2/3)</f>
+        <v>5951.4581632226846</v>
       </c>
     </row>
-    <row r="4" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>9.6041318680199996</v>
       </c>
@@ -1122,74 +1430,78 @@
         <v>0.85447503670958291</v>
       </c>
       <c r="AI4" s="1">
-        <f t="shared" ref="AI4:AI18" si="15">-AD4/AE4</f>
+        <f t="shared" ref="AI4:AI18" si="14">-AD4/AE4</f>
         <v>-2.1895644143307781E-2</v>
       </c>
       <c r="AJ4" s="1">
-        <f t="shared" ref="AJ4:AJ18" si="16">(1.35*(AK4/3255000)^-0.0723)^4</f>
+        <f t="shared" ref="AJ4:AJ18" si="15">-0.0427*AK4-0.1047*(3*232)^0.2917+0.9625</f>
+        <v>-0.1074286169033819</v>
+      </c>
+      <c r="AK4" s="2">
+        <f t="shared" ref="AK4:AK18" si="16">AQ4^4</f>
         <v>8.5103085248626336</v>
       </c>
-      <c r="AK4" s="1">
+      <c r="AL4" s="1">
         <f t="shared" si="2"/>
         <v>125791.86203140001</v>
       </c>
-      <c r="AL4" s="1">
+      <c r="AM4" s="1">
         <f t="shared" si="3"/>
         <v>156194.36397390001</v>
       </c>
-      <c r="AM4" s="1">
-        <f t="shared" ref="AM4:AM18" si="17">(-2*AI4-3)/(-2*AI4+6)</f>
-        <v>-0.48913150218187873</v>
-      </c>
-      <c r="AN4" s="1">
+      <c r="AN4">
+        <f t="shared" ref="AN4:AN18" si="17">(-2*AJ4-3)/(-2*AJ4+6)</f>
+        <v>-0.44814267832943655</v>
+      </c>
+      <c r="AO4" s="1">
         <f t="shared" si="9"/>
-        <v>-0.24730079327076127</v>
-      </c>
-      <c r="AO4" s="1">
+        <v>-0.25858740119647033</v>
+      </c>
+      <c r="AP4" s="1">
         <v>302938.08896634029</v>
       </c>
-      <c r="AP4" s="1">
-        <f t="shared" ref="AP4:AP18" si="18">AJ4^0.25</f>
+      <c r="AQ4" s="1">
+        <f t="shared" ref="AQ4:AQ18" si="18">1.35*(AL4/3255000)^-0.0723</f>
         <v>1.7079939429529858</v>
       </c>
-      <c r="AQ4" s="1">
-        <f t="shared" ref="AQ4:AQ18" si="19">(2*AP4+3)/(3-AP4)</f>
+      <c r="AR4" s="1">
+        <f t="shared" ref="AR4:AR18" si="19">(2*AQ4+3)/(3-AQ4)</f>
         <v>4.9659116154379639</v>
       </c>
-      <c r="AR4" s="1">
-        <f t="shared" ref="AR4:AR18" si="20">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(2*AN4*AO4*AM4)</f>
-        <v>1.0465540176903522E-2</v>
-      </c>
       <c r="AS4" s="1">
+        <f t="shared" ref="AS4:AS18" si="20">(1+2*AN4)*(AL4-AL3)*(1-AQ4/3)/(2*AO4*AP4*AN4)</f>
+        <v>5.2123033836506259E-2</v>
+      </c>
+      <c r="AT4" s="1">
+        <f t="shared" ref="AT4:AT18" si="21">(1+2*AN4)*AL4*(1-AQ4/3)/(2*AO4*AP4*AN4)</f>
+        <v>8.0025496072430327E-2</v>
+      </c>
+      <c r="AU4" s="1">
+        <f t="shared" ref="AU4:AU18" si="22">(1-AN4)*(AL4-AL3)*(1-AQ4/3)/(3*AO4*AP4*AN4)</f>
+        <v>0.48518760958622598</v>
+      </c>
+      <c r="AV4" s="1">
+        <f t="shared" ref="AV4:AV18" si="23">(1-AN4)*(AL4)*(1-AQ4/3)/(3*AO4*AP4*AN4)</f>
+        <v>0.74491786619949651</v>
+      </c>
+      <c r="AW4" s="1">
         <f t="shared" si="10"/>
-        <v>-2.7422703459324797E-2</v>
-      </c>
-      <c r="AT4" s="1">
-        <f t="shared" ref="AT4:AT18" si="21">(1-AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
-        <v>0.47797361467907373</v>
-      </c>
-      <c r="AU4" s="1">
-        <f t="shared" ref="AU4:AU18" si="22">(1-AM4)*(AK4)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
-        <v>0.73384208110763738</v>
-      </c>
-      <c r="AV4" s="1">
+        <v>-344.56892361096351</v>
+      </c>
+      <c r="AX4" s="1">
         <f t="shared" si="11"/>
-        <v>-302.89318254991474</v>
-      </c>
-      <c r="AW4" s="1">
+        <v>-1711.0988200786405</v>
+      </c>
+      <c r="AY4" s="1">
         <f t="shared" si="12"/>
-        <v>-1504.1407734615934</v>
-      </c>
-      <c r="AX4" s="1">
+        <v>16567.938234807967</v>
+      </c>
+      <c r="AZ4" s="1">
         <f t="shared" si="13"/>
-        <v>16609.613975869019</v>
-      </c>
-      <c r="AY4" s="1">
-        <f t="shared" si="14"/>
-        <v>96250.260927600524</v>
+        <v>96043.30288098348</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>18.633378606600001</v>
       </c>
@@ -1300,74 +1612,78 @@
         <v>0.93185184629018014</v>
       </c>
       <c r="AI5" s="1">
+        <f t="shared" si="14"/>
+        <v>2.0875861810211605E-2</v>
+      </c>
+      <c r="AJ5" s="1">
         <f t="shared" si="15"/>
-        <v>2.0875861810211605E-2</v>
-      </c>
-      <c r="AJ5">
+        <v>-4.5248681323460826E-2</v>
+      </c>
+      <c r="AK5" s="2">
         <f t="shared" si="16"/>
         <v>7.0541039445366129</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <f t="shared" si="2"/>
         <v>240700.15517366666</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <f t="shared" si="3"/>
         <v>306116.13573950005</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <f t="shared" si="17"/>
-        <v>-0.51051107347757063</v>
-      </c>
-      <c r="AN5">
+        <v>-0.47771182944714596</v>
+      </c>
+      <c r="AO5">
         <f t="shared" si="9"/>
-        <v>-0.27248663255355177</v>
-      </c>
-      <c r="AO5" s="1">
+        <v>-0.28234814547553649</v>
+      </c>
+      <c r="AP5" s="1">
         <v>302938.08896634029</v>
       </c>
-      <c r="AP5" s="1">
+      <c r="AQ5" s="1">
         <f t="shared" si="18"/>
         <v>1.6297105002118593</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
         <f t="shared" si="19"/>
         <v>4.5679551666939595</v>
       </c>
-      <c r="AR5">
+      <c r="AS5">
         <f t="shared" si="20"/>
-        <v>-1.3091375224016818E-2</v>
-      </c>
-      <c r="AS5" s="1">
+        <v>2.8629387347685553E-2</v>
+      </c>
+      <c r="AT5" s="1">
+        <f t="shared" si="21"/>
+        <v>5.9970414568625889E-2</v>
+      </c>
+      <c r="AU5">
+        <f t="shared" si="22"/>
+        <v>0.63271208155278658</v>
+      </c>
+      <c r="AV5" s="1">
+        <f t="shared" si="23"/>
+        <v>1.3253516525692015</v>
+      </c>
+      <c r="AW5">
         <f t="shared" si="10"/>
-        <v>-1.2045759921995631E-2</v>
-      </c>
-      <c r="AT5">
-        <f t="shared" si="21"/>
-        <v>0.62710585761844662</v>
-      </c>
-      <c r="AU5" s="1">
-        <f t="shared" si="22"/>
-        <v>1.3136082097415962</v>
-      </c>
-      <c r="AV5">
+        <v>-479.78877861247281</v>
+      </c>
+      <c r="AX5">
         <f t="shared" si="11"/>
-        <v>-438.61295399320272</v>
-      </c>
-      <c r="AW5">
+        <v>-2191.6536301846286</v>
+      </c>
+      <c r="AY5">
         <f t="shared" si="12"/>
-        <v>-2003.5643093721501</v>
-      </c>
-      <c r="AX5">
+        <v>53694.827111984581</v>
+      </c>
+      <c r="AZ5">
         <f t="shared" si="13"/>
-        <v>53736.002936603851</v>
-      </c>
-      <c r="AY5">
-        <f t="shared" si="14"/>
-        <v>267022.79000363377</v>
+        <v>266834.70068282128</v>
       </c>
     </row>
-    <row r="6" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>29.2880362171</v>
       </c>
@@ -1478,74 +1794,78 @@
         <v>0.90117031669604186</v>
       </c>
       <c r="AI6" s="1">
+        <f t="shared" si="14"/>
+        <v>5.9947879175552519E-3</v>
+      </c>
+      <c r="AJ6" s="1">
         <f t="shared" si="15"/>
-        <v>5.9947879175552519E-3</v>
-      </c>
-      <c r="AJ6" s="2">
+        <v>-7.1478692989017656E-3</v>
+      </c>
+      <c r="AK6" s="2">
         <f t="shared" si="16"/>
         <v>6.1618132648045494</v>
       </c>
-      <c r="AK6" s="2">
+      <c r="AL6" s="2">
         <f t="shared" si="2"/>
         <v>384207.03470800002</v>
       </c>
-      <c r="AL6" s="2">
+      <c r="AM6" s="2">
         <f t="shared" si="3"/>
         <v>501230.93967000005</v>
       </c>
-      <c r="AM6" s="2">
+      <c r="AN6">
         <f t="shared" si="17"/>
-        <v>-0.50300339553185958</v>
-      </c>
-      <c r="AN6" s="2">
+        <v>-0.49643456044918322</v>
+      </c>
+      <c r="AO6" s="2">
         <f t="shared" si="9"/>
-        <v>-0.29850416098875449</v>
-      </c>
-      <c r="AO6" s="1">
+        <v>-0.30066079609633761</v>
+      </c>
+      <c r="AP6" s="1">
         <v>302938.08896634029</v>
       </c>
-      <c r="AP6" s="1">
+      <c r="AQ6" s="1">
         <f t="shared" si="18"/>
         <v>1.57553165468834</v>
       </c>
-      <c r="AQ6" s="2">
+      <c r="AR6" s="2">
         <f t="shared" si="19"/>
         <v>4.3181467174203059</v>
       </c>
-      <c r="AR6" s="2">
+      <c r="AS6" s="2">
         <f t="shared" si="20"/>
-        <v>-4.4992654008511671E-3</v>
-      </c>
-      <c r="AS6" s="1">
+        <v>5.3730966677514817E-3</v>
+      </c>
+      <c r="AT6" s="1">
+        <f t="shared" si="21"/>
+        <v>1.4385244419047791E-2</v>
+      </c>
+      <c r="AU6" s="2">
+        <f t="shared" si="22"/>
+        <v>0.7517060599550961</v>
+      </c>
+      <c r="AV6" s="1">
+        <f t="shared" si="23"/>
+        <v>2.0125220282438439</v>
+      </c>
+      <c r="AW6" s="2">
         <f t="shared" si="10"/>
-        <v>-0.10716903912271379</v>
-      </c>
-      <c r="AT6" s="2">
-        <f t="shared" si="21"/>
-        <v>0.7505295371126508</v>
-      </c>
-      <c r="AU6" s="1">
-        <f t="shared" si="22"/>
-        <v>2.0093721558890905</v>
-      </c>
-      <c r="AV6" s="2">
+        <v>-388.33771292681308</v>
+      </c>
+      <c r="AX6" s="2">
         <f t="shared" si="11"/>
-        <v>-380.13386319324655</v>
-      </c>
-      <c r="AW6" s="2">
+        <v>-1676.8992203254275</v>
+      </c>
+      <c r="AY6" s="2">
         <f t="shared" si="12"/>
-        <v>-1641.4737935282171</v>
-      </c>
-      <c r="AX6" s="2">
+        <v>109554.62736435703</v>
+      </c>
+      <c r="AZ6" s="2">
         <f t="shared" si="13"/>
-        <v>109562.83121409061</v>
-      </c>
-      <c r="AY6" s="2">
-        <f t="shared" si="14"/>
-        <v>500573.06157290406</v>
+        <v>500537.63614610687</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>41.434693351200004</v>
       </c>
@@ -1656,74 +1976,78 @@
         <v>0.98055792025334343</v>
       </c>
       <c r="AI7" s="1">
+        <f t="shared" si="14"/>
+        <v>3.868181143293406E-2</v>
+      </c>
+      <c r="AJ7" s="1">
         <f t="shared" si="15"/>
-        <v>3.868181143293406E-2</v>
-      </c>
-      <c r="AJ7">
+        <v>1.8790783689624946E-2</v>
+      </c>
+      <c r="AK7" s="2">
         <f t="shared" si="16"/>
         <v>5.5543506655416293</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <f t="shared" si="2"/>
         <v>550081.61634333339</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <f t="shared" si="3"/>
         <v>729574.25835999998</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <f t="shared" si="17"/>
-        <v>-0.51959354363655108</v>
-      </c>
-      <c r="AN7">
+        <v>-0.5094546116992491</v>
+      </c>
+      <c r="AO7">
         <f t="shared" si="9"/>
-        <v>-0.31197312904565527</v>
-      </c>
-      <c r="AO7" s="1">
+        <v>-0.31544951521178088</v>
+      </c>
+      <c r="AP7" s="1">
         <v>302938.08896634029</v>
       </c>
-      <c r="AP7" s="1">
+      <c r="AQ7" s="1">
         <f t="shared" si="18"/>
         <v>1.5351765352315057</v>
       </c>
-      <c r="AQ7">
+      <c r="AR7">
         <f t="shared" si="19"/>
         <v>4.1440850836058871</v>
       </c>
-      <c r="AR7">
+      <c r="AS7">
         <f t="shared" si="20"/>
-        <v>-3.2316330887243373E-2</v>
-      </c>
-      <c r="AS7" s="1">
+        <v>-1.5728899135812519E-2</v>
+      </c>
+      <c r="AT7" s="1">
+        <f t="shared" si="21"/>
+        <v>-5.2160965077520889E-2</v>
+      </c>
+      <c r="AU7">
+        <f t="shared" si="22"/>
+        <v>0.83705391939012364</v>
+      </c>
+      <c r="AV7" s="1">
+        <f t="shared" si="23"/>
+        <v>2.7758802367737836</v>
+      </c>
+      <c r="AW7">
         <f t="shared" si="10"/>
-        <v>-7.9662853745677067E-2</v>
-      </c>
-      <c r="AT7">
-        <f t="shared" si="21"/>
-        <v>0.83543995718175901</v>
-      </c>
-      <c r="AU7" s="1">
-        <f t="shared" si="22"/>
-        <v>2.7705279342597908</v>
-      </c>
-      <c r="AV7">
+        <v>-580.90072345789542</v>
+      </c>
+      <c r="AX7">
         <f t="shared" si="11"/>
-        <v>-565.58754553365395</v>
-      </c>
-      <c r="AW7">
+        <v>-2407.3020231377327</v>
+      </c>
+      <c r="AY7">
         <f t="shared" si="12"/>
-        <v>-2343.8429109192812</v>
-      </c>
-      <c r="AX7">
+        <v>181849.35227241021</v>
+      </c>
+      <c r="AZ7">
         <f t="shared" si="13"/>
-        <v>181864.66545033443</v>
-      </c>
-      <c r="AY7">
-        <f t="shared" si="14"/>
-        <v>785416.75522134453</v>
+        <v>785353.29610912618</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>54.623573886000003</v>
       </c>
@@ -1834,74 +2158,78 @@
         <v>0.92038342181520338</v>
       </c>
       <c r="AI8" s="1">
+        <f t="shared" si="14"/>
+        <v>2.2239097334903039E-2</v>
+      </c>
+      <c r="AJ8" s="1">
         <f t="shared" si="15"/>
-        <v>2.2239097334903039E-2</v>
-      </c>
-      <c r="AJ8">
+        <v>3.7398036257015765E-2</v>
+      </c>
+      <c r="AK8" s="2">
         <f t="shared" si="16"/>
         <v>5.1185836264926623</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <f t="shared" si="2"/>
         <v>729663.24277466664</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <f t="shared" si="3"/>
         <v>975027.36638299993</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <f t="shared" si="17"/>
-        <v>-0.51120259385919764</v>
-      </c>
-      <c r="AN8">
+        <v>-0.51893506285084945</v>
+      </c>
+      <c r="AO8">
         <f t="shared" si="9"/>
-        <v>-0.33037621920477567</v>
-      </c>
-      <c r="AO8" s="1">
+        <v>-0.32756738243820105</v>
+      </c>
+      <c r="AP8" s="1">
         <v>302938.08896634029</v>
       </c>
-      <c r="AP8" s="1">
+      <c r="AQ8" s="1">
         <f t="shared" si="18"/>
         <v>1.5041371948276157</v>
       </c>
-      <c r="AQ8">
+      <c r="AR8">
         <f t="shared" si="19"/>
         <v>4.0165945492326305</v>
       </c>
-      <c r="AR8">
+      <c r="AS8">
         <f t="shared" si="20"/>
-        <v>-1.9606284109103828E-2</v>
-      </c>
-      <c r="AS8" s="1">
+        <v>-3.2925441942249702E-2</v>
+      </c>
+      <c r="AT8" s="1">
+        <f t="shared" si="21"/>
+        <v>-0.13378030489414905</v>
+      </c>
+      <c r="AU8">
+        <f t="shared" si="22"/>
+        <v>0.88040563723645038</v>
+      </c>
+      <c r="AV8" s="1">
+        <f t="shared" si="23"/>
+        <v>3.5772013261539315</v>
+      </c>
+      <c r="AW8">
         <f t="shared" si="10"/>
-        <v>-0.2120986149868225</v>
-      </c>
-      <c r="AT8">
-        <f t="shared" si="21"/>
-        <v>0.8816133053355848</v>
-      </c>
-      <c r="AU8" s="1">
-        <f t="shared" si="22"/>
-        <v>3.582108236949435</v>
-      </c>
-      <c r="AV8">
+        <v>-395.31401241929808</v>
+      </c>
+      <c r="AX8">
         <f t="shared" si="11"/>
-        <v>-405.96293657068333</v>
-      </c>
-      <c r="AW8">
+        <v>-1587.8161075186329</v>
+      </c>
+      <c r="AY8">
         <f t="shared" si="12"/>
-        <v>-1630.5885182202785</v>
-      </c>
-      <c r="AX8">
+        <v>268195.50570674572</v>
+      </c>
+      <c r="AZ8">
         <f t="shared" si="13"/>
-        <v>268184.85678259435</v>
-      </c>
-      <c r="AY8">
-        <f t="shared" si="14"/>
-        <v>1111432.6210734497</v>
+        <v>1111475.3934841512</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>68.694755584199996</v>
       </c>
@@ -2012,74 +2340,78 @@
         <v>1.0126257723401473</v>
       </c>
       <c r="AI9" s="1">
+        <f t="shared" si="14"/>
+        <v>4.7968860820986864E-2</v>
+      </c>
+      <c r="AJ9" s="1">
         <f t="shared" si="15"/>
-        <v>4.7968860820986864E-2</v>
-      </c>
-      <c r="AJ9">
+        <v>5.1786570550671152E-2</v>
+      </c>
+      <c r="AK9" s="2">
         <f t="shared" si="16"/>
         <v>4.7816156102478056</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <f t="shared" si="2"/>
         <v>923395.66245333327</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <f t="shared" si="3"/>
         <v>1241129.2505049999</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <f t="shared" si="17"/>
-        <v>-0.52437416403794823</v>
-      </c>
-      <c r="AN9">
+        <v>-0.52634811138504167</v>
+      </c>
+      <c r="AO9">
         <f t="shared" si="9"/>
-        <v>-0.33873881073689133</v>
-      </c>
-      <c r="AO9" s="1">
+        <v>-0.33800289448028092</v>
+      </c>
+      <c r="AP9" s="1">
         <v>302938.08896634029</v>
       </c>
-      <c r="AP9" s="1">
+      <c r="AQ9" s="1">
         <f t="shared" si="18"/>
         <v>1.4787462801832456</v>
       </c>
-      <c r="AQ9">
+      <c r="AR9">
         <f t="shared" si="19"/>
         <v>3.9161728794879216</v>
       </c>
-      <c r="AR9">
+      <c r="AS9">
         <f t="shared" si="20"/>
-        <v>-4.4499210428084135E-2</v>
-      </c>
-      <c r="AS9" s="1">
+        <v>-4.8026929541819606E-2</v>
+      </c>
+      <c r="AT9" s="1">
+        <f t="shared" si="21"/>
+        <v>-0.22891294339597598</v>
+      </c>
+      <c r="AU9">
+        <f t="shared" si="22"/>
+        <v>0.92740123609512215</v>
+      </c>
+      <c r="AV9" s="1">
+        <f t="shared" si="23"/>
+        <v>4.4203147835787631</v>
+      </c>
+      <c r="AW9">
         <f t="shared" si="10"/>
-        <v>-0.28522364329040478</v>
-      </c>
-      <c r="AT9">
-        <f t="shared" si="21"/>
-        <v>0.9276686931163306</v>
-      </c>
-      <c r="AU9" s="1">
-        <f t="shared" si="22"/>
-        <v>4.4215895761699375</v>
-      </c>
-      <c r="AV9">
+        <v>-652.37621689055015</v>
+      </c>
+      <c r="AX9">
         <f t="shared" si="11"/>
-        <v>-655.72150468188977</v>
-      </c>
-      <c r="AW9">
+        <v>-2554.8180478097033</v>
+      </c>
+      <c r="AY9">
         <f t="shared" si="12"/>
-        <v>-2567.9187731322295</v>
-      </c>
-      <c r="AX9">
+        <v>363172.99217247323</v>
+      </c>
+      <c r="AZ9">
         <f t="shared" si="13"/>
-        <v>363169.64688468183</v>
-      </c>
-      <c r="AY9">
-        <f t="shared" si="14"/>
-        <v>1458771.0727721404</v>
+        <v>1458784.1734974629</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>83.406379524100004</v>
       </c>
@@ -2190,74 +2522,78 @@
         <v>0.98400381181948493</v>
       </c>
       <c r="AI10" s="1">
+        <f t="shared" si="14"/>
+        <v>5.4072349075828322E-2</v>
+      </c>
+      <c r="AJ10" s="1">
         <f t="shared" si="15"/>
-        <v>5.4072349075828322E-2</v>
-      </c>
-      <c r="AJ10">
+        <v>6.3028548624365577E-2</v>
+      </c>
+      <c r="AK10" s="2">
         <f t="shared" si="16"/>
         <v>4.5183374352198342</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <f t="shared" si="2"/>
         <v>1123146.0568890001</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <f t="shared" si="3"/>
         <v>1510068.0090015002</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <f t="shared" si="17"/>
-        <v>-0.52753242211779972</v>
-      </c>
-      <c r="AN10">
+        <v>-0.53219058288505527</v>
+      </c>
+      <c r="AO10">
         <f t="shared" si="9"/>
-        <v>-0.34871238480801076</v>
-      </c>
-      <c r="AO10" s="1">
+        <v>-0.34692239287772947</v>
+      </c>
+      <c r="AP10" s="1">
         <v>302938.08896634029</v>
       </c>
-      <c r="AP10" s="1">
+      <c r="AQ10" s="1">
         <f t="shared" si="18"/>
         <v>1.4579568320904985</v>
       </c>
-      <c r="AQ10">
+      <c r="AR10">
         <f t="shared" si="19"/>
         <v>3.8364124865589928</v>
       </c>
-      <c r="AR10">
+      <c r="AS10">
         <f t="shared" si="20"/>
-        <v>-5.0726737542441426E-2</v>
-      </c>
-      <c r="AS10" s="1">
+        <v>-5.909331626850195E-2</v>
+      </c>
+      <c r="AT10" s="1">
+        <f t="shared" si="21"/>
+        <v>-0.33226680399291197</v>
+      </c>
+      <c r="AU10">
+        <f t="shared" si="22"/>
+        <v>0.9375642872673986</v>
+      </c>
+      <c r="AV10" s="1">
+        <f t="shared" si="23"/>
+        <v>5.2716873741316634</v>
+      </c>
+      <c r="AW10">
         <f t="shared" si="10"/>
-        <v>-0.37456053872223666</v>
-      </c>
-      <c r="AT10">
-        <f t="shared" si="21"/>
-        <v>0.93812712799484332</v>
-      </c>
-      <c r="AU10" s="1">
-        <f t="shared" si="22"/>
-        <v>5.2748520854979262</v>
-      </c>
-      <c r="AV10">
+        <v>-565.59879395052712</v>
+      </c>
+      <c r="AX10">
         <f t="shared" si="11"/>
-        <v>-573.20788150261592</v>
-      </c>
-      <c r="AW10">
+        <v>-2169.8702754945089</v>
+      </c>
+      <c r="AY10">
         <f t="shared" si="12"/>
-        <v>-2199.0618739906631</v>
-      </c>
-      <c r="AX10">
+        <v>467674.09666264593</v>
+      </c>
+      <c r="AZ10">
         <f t="shared" si="13"/>
-        <v>467666.48757509381</v>
-      </c>
-      <c r="AY10">
-        <f t="shared" si="14"/>
-        <v>1831508.5345728165</v>
+        <v>1831537.7261713126</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>98.506007605299999</v>
       </c>
@@ -2368,74 +2704,78 @@
         <v>0.99205203279142751</v>
       </c>
       <c r="AI11" s="1">
+        <f t="shared" si="14"/>
+        <v>6.1160683414603824E-2</v>
+      </c>
+      <c r="AJ11" s="1">
         <f t="shared" si="15"/>
-        <v>6.1160683414603824E-2</v>
-      </c>
-      <c r="AJ11">
+        <v>7.2063690551552484E-2</v>
+      </c>
+      <c r="AK11" s="2">
         <f t="shared" si="16"/>
         <v>4.3067416055433272</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <f t="shared" si="2"/>
         <v>1325751.0573406667</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <f t="shared" si="3"/>
         <v>1777141.4462240003</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <f t="shared" si="17"/>
-        <v>-0.5312167543846863</v>
-      </c>
-      <c r="AN11">
+        <v>-0.53691867732180665</v>
+      </c>
+      <c r="AO11">
         <f t="shared" si="9"/>
-        <v>-0.35689796508649801</v>
-      </c>
-      <c r="AO11" s="1">
+        <v>-0.35465242599877272</v>
+      </c>
+      <c r="AP11" s="1">
         <v>302938.08896634029</v>
       </c>
-      <c r="AP11" s="1">
+      <c r="AQ11" s="1">
         <f t="shared" si="18"/>
         <v>1.4405794126443006</v>
       </c>
-      <c r="AQ11">
+      <c r="AR11">
         <f t="shared" si="19"/>
         <v>3.7713743636418502</v>
       </c>
-      <c r="AR11">
+      <c r="AS11">
         <f t="shared" si="20"/>
-        <v>-5.7241393621227175E-2</v>
-      </c>
-      <c r="AS11" s="1">
+        <v>-6.7402029549032502E-2</v>
+      </c>
+      <c r="AT11" s="1">
+        <f t="shared" si="21"/>
+        <v>-0.44104692254549765</v>
+      </c>
+      <c r="AU11">
+        <f t="shared" si="22"/>
+        <v>0.93531193078176988</v>
+      </c>
+      <c r="AV11" s="1">
+        <f t="shared" si="23"/>
+        <v>6.120237794787716</v>
+      </c>
+      <c r="AW11">
         <f t="shared" si="10"/>
-        <v>-0.53804332828629375</v>
-      </c>
-      <c r="AT11">
-        <f t="shared" si="21"/>
-        <v>0.93591814913499261</v>
-      </c>
-      <c r="AU11" s="1">
-        <f t="shared" si="22"/>
-        <v>6.1242046002514146</v>
-      </c>
-      <c r="AV11">
+        <v>-596.20491679313932</v>
+      </c>
+      <c r="AX11">
         <f t="shared" si="11"/>
-        <v>-605.86354998422689</v>
-      </c>
-      <c r="AW11">
+        <v>-2248.5119386708684</v>
+      </c>
+      <c r="AY11">
         <f t="shared" si="12"/>
-        <v>-2284.9382602755559</v>
-      </c>
-      <c r="AX11">
+        <v>576717.02961326647</v>
+      </c>
+      <c r="AZ11">
         <f t="shared" si="13"/>
-        <v>576707.37098007544</v>
-      </c>
-      <c r="AY11">
-        <f t="shared" si="14"/>
-        <v>2212526.7633466055</v>
+        <v>2212563.1896682102</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>114.008215518</v>
       </c>
@@ -2546,74 +2886,78 @@
         <v>1.0303656708661162</v>
       </c>
       <c r="AI12" s="1">
+        <f t="shared" si="14"/>
+        <v>7.7071487778270484E-2</v>
+      </c>
+      <c r="AJ12" s="1">
         <f t="shared" si="15"/>
-        <v>7.7071487778270484E-2</v>
-      </c>
-      <c r="AJ12">
+        <v>7.9668537930679517E-2</v>
+      </c>
+      <c r="AK12" s="2">
         <f t="shared" si="16"/>
         <v>4.1286421353061593</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <f t="shared" si="2"/>
         <v>1534206.2600356666</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <f t="shared" si="3"/>
         <v>2050200.3846515003</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <f t="shared" si="17"/>
-        <v>-0.5395518505444159</v>
-      </c>
-      <c r="AN12">
+        <v>-0.54092097367993308</v>
+      </c>
+      <c r="AO12">
         <f t="shared" si="9"/>
-        <v>-0.36214425746593726</v>
-      </c>
-      <c r="AO12" s="1">
+        <v>-0.36159637211316781</v>
+      </c>
+      <c r="AP12" s="1">
         <v>302938.08896634029</v>
       </c>
-      <c r="AP12" s="1">
+      <c r="AQ12" s="1">
         <f t="shared" si="18"/>
         <v>1.4254494151173009</v>
       </c>
-      <c r="AQ12">
+      <c r="AR12">
         <f t="shared" si="19"/>
         <v>3.715916710716844</v>
       </c>
-      <c r="AR12">
+      <c r="AS12">
         <f t="shared" si="20"/>
-        <v>-7.3104858178589624E-2</v>
-      </c>
-      <c r="AS12" s="1">
+        <v>-7.5558320074651658E-2</v>
+      </c>
+      <c r="AT12" s="1">
+        <f t="shared" si="21"/>
+        <v>-0.5561005249934674</v>
+      </c>
+      <c r="AU12">
+        <f t="shared" si="22"/>
+        <v>0.94840851906176404</v>
+      </c>
+      <c r="AV12" s="1">
+        <f t="shared" si="23"/>
+        <v>6.9801773628296946</v>
+      </c>
+      <c r="AW12">
         <f t="shared" si="10"/>
-        <v>-0.6629629679769472</v>
-      </c>
-      <c r="AT12">
-        <f t="shared" si="21"/>
-        <v>0.94853311238661142</v>
-      </c>
-      <c r="AU12" s="1">
-        <f t="shared" si="22"/>
-        <v>6.9810943553368032</v>
-      </c>
-      <c r="AV12">
+        <v>-715.37621565379641</v>
+      </c>
+      <c r="AX12">
         <f t="shared" si="11"/>
-        <v>-717.90134933767808</v>
-      </c>
-      <c r="AW12">
+        <v>-2658.2784341973183</v>
+      </c>
+      <c r="AY12">
         <f t="shared" si="12"/>
-        <v>-2667.661620650048</v>
-      </c>
-      <c r="AX12">
+        <v>688419.12129288679</v>
+      </c>
+      <c r="AZ12">
         <f t="shared" si="13"/>
-        <v>688416.59615920298</v>
-      </c>
-      <c r="AY12">
-        <f t="shared" si="14"/>
-        <v>2596316.5153842685</v>
+        <v>2596325.898570721</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>129.77406091500001</v>
       </c>
@@ -2724,74 +3068,78 @@
         <v>1.0215136992501108</v>
       </c>
       <c r="AI13" s="1">
+        <f t="shared" si="14"/>
+        <v>8.4666932328850739E-2</v>
+      </c>
+      <c r="AJ13" s="1">
         <f t="shared" si="15"/>
-        <v>8.4666932328850739E-2</v>
-      </c>
-      <c r="AJ13">
+        <v>8.6052632453844757E-2</v>
+      </c>
+      <c r="AK13" s="2">
         <f t="shared" si="16"/>
         <v>3.9791317249275808</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <f t="shared" si="2"/>
         <v>1742907.02988</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <f t="shared" si="3"/>
         <v>2315571.1698899996</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <f t="shared" si="17"/>
-        <v>-0.54356291221116892</v>
-      </c>
-      <c r="AN13">
+        <v>-0.5442969389627188</v>
+      </c>
+      <c r="AO13">
         <f t="shared" si="9"/>
-        <v>-0.36806748217192076</v>
-      </c>
-      <c r="AO13" s="1">
+        <v>-0.36776852513784891</v>
+      </c>
+      <c r="AP13" s="1">
         <v>302938.08896634029</v>
       </c>
-      <c r="AP13" s="1">
+      <c r="AQ13" s="1">
         <f t="shared" si="18"/>
         <v>1.4123654303941768</v>
       </c>
-      <c r="AQ13">
+      <c r="AR13">
         <f t="shared" si="19"/>
         <v>3.6688108033793401</v>
       </c>
-      <c r="AR13">
+      <c r="AS13">
         <f t="shared" si="20"/>
-        <v>-7.938511889793641E-2</v>
-      </c>
-      <c r="AS13" s="1">
+        <v>-8.0679412680909321E-2</v>
+      </c>
+      <c r="AT13" s="1">
+        <f t="shared" si="21"/>
+        <v>-0.67377190622262806</v>
+      </c>
+      <c r="AU13">
+        <f t="shared" si="22"/>
+        <v>0.93755891458849383</v>
+      </c>
+      <c r="AV13" s="1">
+        <f t="shared" si="23"/>
+        <v>7.8297651914833919</v>
+      </c>
+      <c r="AW13">
         <f t="shared" si="10"/>
-        <v>-0.77738815707083919</v>
-      </c>
-      <c r="AT13">
-        <f t="shared" si="21"/>
-        <v>0.93761657254334596</v>
-      </c>
-      <c r="AU13" s="1">
-        <f t="shared" si="22"/>
-        <v>7.8302467060217209</v>
-      </c>
-      <c r="AV13">
+        <v>-667.80701051053597</v>
+      </c>
+      <c r="AX13">
         <f t="shared" si="11"/>
-        <v>-669.14285370384584</v>
-      </c>
-      <c r="AW13">
+        <v>-2450.0575747335151</v>
+      </c>
+      <c r="AY13">
         <f t="shared" si="12"/>
-        <v>-2454.9585306727513</v>
-      </c>
-      <c r="AX13">
+        <v>804560.64767944184</v>
+      </c>
+      <c r="AZ13">
         <f t="shared" si="13"/>
-        <v>804559.31183624861</v>
-      </c>
-      <c r="AY13">
-        <f t="shared" si="14"/>
-        <v>2989706.912196422</v>
+        <v>2989711.8131523612</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>145.475280191</v>
       </c>
@@ -2902,74 +3250,78 @@
         <v>1.0154020932349503</v>
       </c>
       <c r="AI14" s="1">
+        <f t="shared" si="14"/>
+        <v>8.9920598809611063E-2</v>
+      </c>
+      <c r="AJ14" s="1">
         <f t="shared" si="15"/>
-        <v>8.9920598809611063E-2</v>
-      </c>
-      <c r="AJ14">
+        <v>9.1369555038053218E-2</v>
+      </c>
+      <c r="AK14" s="2">
         <f t="shared" si="16"/>
         <v>3.8546136316205919</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <f t="shared" si="2"/>
         <v>1945440.1324166667</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <f t="shared" si="3"/>
         <v>2562275.2800349998</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <f t="shared" si="17"/>
-        <v>-0.54634955945162267</v>
-      </c>
-      <c r="AN14">
+        <v>-0.54711988516604859</v>
+      </c>
+      <c r="AO14">
         <f t="shared" si="9"/>
-        <v>-0.37348939529574959</v>
-      </c>
-      <c r="AO14" s="1">
+        <v>-0.37317061270448343</v>
+      </c>
+      <c r="AP14" s="1">
         <v>302938.08896634029</v>
       </c>
-      <c r="AP14" s="1">
+      <c r="AQ14" s="1">
         <f t="shared" si="18"/>
         <v>1.4011841410864352</v>
       </c>
-      <c r="AQ14">
+      <c r="AR14">
         <f t="shared" si="19"/>
         <v>3.6291660792730216</v>
       </c>
-      <c r="AR14">
+      <c r="AS14">
         <f t="shared" si="20"/>
-        <v>-8.0931215874134779E-2</v>
-      </c>
-      <c r="AS14" s="1">
+        <v>-8.2230629530703828E-2</v>
+      </c>
+      <c r="AT14" s="1">
+        <f t="shared" si="21"/>
+        <v>-0.7898697289444645</v>
+      </c>
+      <c r="AU14">
+        <f t="shared" si="22"/>
+        <v>0.89997843916889819</v>
+      </c>
+      <c r="AV14" s="1">
+        <f t="shared" si="23"/>
+        <v>8.6447802948750621</v>
+      </c>
+      <c r="AW14">
         <f t="shared" si="10"/>
-        <v>-0.8831604905687318</v>
-      </c>
-      <c r="AT14">
-        <f t="shared" si="21"/>
-        <v>0.90002977010296148</v>
-      </c>
-      <c r="AU14" s="1">
-        <f t="shared" si="22"/>
-        <v>8.6452733562951973</v>
-      </c>
-      <c r="AV14">
+        <v>-660.04231729109824</v>
+      </c>
+      <c r="AX14">
         <f t="shared" si="11"/>
-        <v>-661.44873104663361</v>
-      </c>
-      <c r="AW14">
+        <v>-2395.4031887976148</v>
+      </c>
+      <c r="AY14">
         <f t="shared" si="12"/>
-        <v>-2400.5072978926264</v>
-      </c>
-      <c r="AX14">
+        <v>921706.44176487473</v>
+      </c>
+      <c r="AZ14">
         <f t="shared" si="13"/>
-        <v>921705.03535111924</v>
-      </c>
-      <c r="AY14">
-        <f t="shared" si="14"/>
-        <v>3381587.614177776</v>
+        <v>3381592.718286871</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>160.97110197399999</v>
       </c>
@@ -3080,74 +3432,78 @@
         <v>1.0172125326169983</v>
       </c>
       <c r="AI15" s="1">
+        <f t="shared" si="14"/>
+        <v>9.3414713924521081E-2</v>
+      </c>
+      <c r="AJ15" s="1">
         <f t="shared" si="15"/>
-        <v>9.3414713924521081E-2</v>
-      </c>
-      <c r="AJ15">
+        <v>9.6026504863379714E-2</v>
+      </c>
+      <c r="AK15" s="2">
         <f t="shared" si="16"/>
         <v>3.7455515748213779</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <f t="shared" si="2"/>
         <v>2148422.9221899998</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <f t="shared" si="3"/>
         <v>2810370.078675</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <f t="shared" si="17"/>
-        <v>-0.54820848421619062</v>
-      </c>
-      <c r="AN15">
+        <v>-0.54960092009665296</v>
+      </c>
+      <c r="AO15">
         <f t="shared" si="9"/>
-        <v>-0.37869884211004229</v>
-      </c>
-      <c r="AO15" s="1">
+        <v>-0.37811382491190398</v>
+      </c>
+      <c r="AP15" s="1">
         <v>302938.08896634029</v>
       </c>
-      <c r="AP15" s="1">
+      <c r="AQ15" s="1">
         <f t="shared" si="18"/>
         <v>1.3911659691909273</v>
       </c>
-      <c r="AQ15">
+      <c r="AR15">
         <f t="shared" si="19"/>
         <v>3.5941133937065937</v>
       </c>
-      <c r="AR15">
+      <c r="AS15">
         <f t="shared" si="20"/>
-        <v>-8.3440917680440249E-2</v>
-      </c>
-      <c r="AS15" s="1">
+        <v>-8.5765979123749003E-2</v>
+      </c>
+      <c r="AT15" s="1">
+        <f t="shared" si="21"/>
+        <v>-0.9077695488336357</v>
+      </c>
+      <c r="AU15">
+        <f t="shared" si="22"/>
+        <v>0.89314902428002885</v>
+      </c>
+      <c r="AV15" s="1">
+        <f t="shared" si="23"/>
+        <v>9.4533228104589639</v>
+      </c>
+      <c r="AW15">
         <f t="shared" si="10"/>
-        <v>-1.0378061195572004</v>
-      </c>
-      <c r="AT15">
-        <f t="shared" si="21"/>
-        <v>0.89323099300887809</v>
-      </c>
-      <c r="AU15" s="1">
-        <f t="shared" si="22"/>
-        <v>9.4541903889180006</v>
-      </c>
-      <c r="AV15">
+        <v>-656.19412248161132</v>
+      </c>
+      <c r="AX15">
         <f t="shared" si="11"/>
-        <v>-658.76243968747326</v>
-      </c>
-      <c r="AW15">
+        <v>-2358.4360844827042</v>
+      </c>
+      <c r="AY15">
         <f t="shared" si="12"/>
-        <v>-2367.6669077515799</v>
-      </c>
-      <c r="AX15">
+        <v>1036143.9846357425</v>
+      </c>
+      <c r="AZ15">
         <f t="shared" si="13"/>
-        <v>1036141.4163185366</v>
-      </c>
-      <c r="AY15">
-        <f t="shared" si="14"/>
-        <v>3760352.3728258004</v>
+        <v>3760361.6036490691</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>176.24245648600001</v>
       </c>
@@ -3258,74 +3614,78 @@
         <v>1.0402085005391708</v>
       </c>
       <c r="AI16" s="1">
+        <f t="shared" si="14"/>
+        <v>0.10147064900064615</v>
+      </c>
+      <c r="AJ16" s="1">
         <f t="shared" si="15"/>
-        <v>0.10147064900064615</v>
-      </c>
-      <c r="AJ16">
+        <v>0.10001956294154069</v>
+      </c>
+      <c r="AK16" s="2">
         <f t="shared" si="16"/>
         <v>3.6520373341150312</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <f t="shared" si="2"/>
         <v>2344706.9102633335</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <f t="shared" si="3"/>
         <v>3046157.0020749997</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <f t="shared" si="17"/>
-        <v>-0.55251144807227559</v>
-      </c>
-      <c r="AN16">
+        <v>-0.55173460568737154</v>
+      </c>
+      <c r="AO16">
         <f t="shared" si="9"/>
-        <v>-0.38219146657830666</v>
-      </c>
-      <c r="AO16" s="1">
+        <v>-0.38252125547683874</v>
+      </c>
+      <c r="AP16" s="1">
         <v>302938.08896634029</v>
       </c>
-      <c r="AP16" s="1">
+      <c r="AQ16" s="1">
         <f t="shared" si="18"/>
         <v>1.3824002451454775</v>
       </c>
-      <c r="AQ16">
+      <c r="AR16">
         <f t="shared" si="19"/>
         <v>3.5637990627721186</v>
       </c>
-      <c r="AR16">
+      <c r="AS16">
         <f t="shared" si="20"/>
-        <v>-8.6878544649625383E-2</v>
-      </c>
-      <c r="AS16" s="1">
+        <v>-8.5639900881547368E-2</v>
+      </c>
+      <c r="AT16" s="1">
+        <f t="shared" si="21"/>
+        <v>-1.02300992231832</v>
+      </c>
+      <c r="AU16">
+        <f t="shared" si="22"/>
+        <v>0.8562315047467487</v>
+      </c>
+      <c r="AV16" s="1">
+        <f t="shared" si="23"/>
+        <v>10.228098306290832</v>
+      </c>
+      <c r="AW16">
         <f t="shared" si="10"/>
-        <v>-1.1905617030137958</v>
-      </c>
-      <c r="AT16">
-        <f t="shared" si="21"/>
-        <v>0.85619384033970403</v>
-      </c>
-      <c r="AU16" s="1">
-        <f t="shared" si="22"/>
-        <v>10.227648386782191</v>
-      </c>
-      <c r="AV16">
+        <v>-743.26189597867494</v>
+      </c>
+      <c r="AX16">
         <f t="shared" si="11"/>
-        <v>-741.74722506476064</v>
-      </c>
-      <c r="AW16">
+        <v>-2648.8360482830294</v>
+      </c>
+      <c r="AY16">
         <f t="shared" si="12"/>
-        <v>-2643.4380654996135</v>
-      </c>
-      <c r="AX16">
+        <v>1151408.7080338693</v>
+      </c>
+      <c r="AZ16">
         <f t="shared" si="13"/>
-        <v>1151410.2227047831</v>
-      </c>
-      <c r="AY16">
-        <f t="shared" si="14"/>
-        <v>4138321.3886448038</v>
+        <v>4138315.9906620202</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>191.27767915699999</v>
       </c>
@@ -3436,74 +3796,78 @@
         <v>1.0489142113867409</v>
       </c>
       <c r="AI17" s="1">
+        <f t="shared" si="14"/>
+        <v>0.10856127497268256</v>
+      </c>
+      <c r="AJ17" s="1">
         <f t="shared" si="15"/>
-        <v>0.10856127497268256</v>
-      </c>
-      <c r="AJ17">
+        <v>0.10347700529620274</v>
+      </c>
+      <c r="AK17" s="2">
         <f t="shared" si="16"/>
         <v>3.5710667871674415</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <f t="shared" si="2"/>
         <v>2533717.0905633331</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <f t="shared" si="3"/>
         <v>3263078.8216599999</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <f t="shared" si="17"/>
-        <v>-0.55631864547206877</v>
-      </c>
-      <c r="AN17">
+        <v>-0.55358683781489426</v>
+      </c>
+      <c r="AO17">
         <f t="shared" si="9"/>
-        <v>-0.38530117627215088</v>
-      </c>
-      <c r="AO17" s="1">
+        <v>-0.38647164688929458</v>
+      </c>
+      <c r="AP17" s="1">
         <v>302938.08896634029</v>
       </c>
-      <c r="AP17" s="1">
+      <c r="AQ17" s="1">
         <f t="shared" si="18"/>
         <v>1.3746732860951418</v>
       </c>
-      <c r="AQ17">
+      <c r="AR17">
         <f t="shared" si="19"/>
         <v>3.5373482285155089</v>
       </c>
-      <c r="AR17">
+      <c r="AS17">
         <f t="shared" si="20"/>
-        <v>-8.8813499732474321E-2</v>
-      </c>
-      <c r="AS17" s="1">
+        <v>-8.4665303606470302E-2</v>
+      </c>
+      <c r="AT17" s="1">
+        <f t="shared" si="21"/>
+        <v>-1.1349543521145862</v>
+      </c>
+      <c r="AU17">
+        <f t="shared" si="22"/>
+        <v>0.81820403831861943</v>
+      </c>
+      <c r="AV17" s="1">
+        <f t="shared" si="23"/>
+        <v>10.968179344442571</v>
+      </c>
+      <c r="AW17">
         <f t="shared" si="10"/>
-        <v>-2.2125124235299829</v>
-      </c>
-      <c r="AT17">
-        <f t="shared" si="21"/>
-        <v>0.81809558477295408</v>
-      </c>
-      <c r="AU17" s="1">
-        <f t="shared" si="22"/>
-        <v>10.966725504222174</v>
-      </c>
-      <c r="AV17">
+        <v>-757.04289380908619</v>
+      </c>
+      <c r="AX17">
         <f t="shared" si="11"/>
-        <v>-751.62823688274864</v>
-      </c>
-      <c r="AW17">
+        <v>-2677.9243393258262</v>
+      </c>
+      <c r="AY17">
         <f t="shared" si="12"/>
-        <v>-2658.770812239426</v>
-      </c>
-      <c r="AX17">
+        <v>1263508.7315220819</v>
+      </c>
+      <c r="AZ17">
         <f t="shared" si="13"/>
-        <v>1263514.1461790081</v>
-      </c>
-      <c r="AY17">
-        <f t="shared" si="14"/>
-        <v>4502930.4111459795</v>
+        <v>4502911.2576188929</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>198.126511647</v>
       </c>
@@ -3614,74 +3978,78 @@
         <v>1.5846711400369387</v>
       </c>
       <c r="AI18" s="1">
+        <f t="shared" si="14"/>
+        <v>0.20606521374331233</v>
+      </c>
+      <c r="AJ18" s="1">
         <f t="shared" si="15"/>
-        <v>0.20606521374331233</v>
-      </c>
-      <c r="AJ18">
+        <v>0.10246009893278363</v>
+      </c>
+      <c r="AK18" s="2">
         <f t="shared" si="16"/>
         <v>3.5948819244840498</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <f t="shared" si="2"/>
         <v>2476147.9672166668</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <f t="shared" si="3"/>
         <v>2984181.5885450002</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <f t="shared" si="17"/>
-        <v>-0.61063172345160488</v>
-      </c>
-      <c r="AN18">
+        <v>-0.55304159861355784</v>
+      </c>
+      <c r="AO18">
         <f t="shared" si="9"/>
-        <v>-0.36211408599058154</v>
-      </c>
-      <c r="AO18" s="1">
+        <v>-0.38529638338104077</v>
+      </c>
+      <c r="AP18" s="1">
         <v>302938.08896634029</v>
       </c>
-      <c r="AP18" s="1">
+      <c r="AQ18" s="1">
         <f t="shared" si="18"/>
         <v>1.3769594711061914</v>
       </c>
-      <c r="AQ18">
+      <c r="AR18">
         <f t="shared" si="19"/>
         <v>3.5451480352952096</v>
       </c>
-      <c r="AR18">
+      <c r="AS18">
         <f t="shared" si="20"/>
-        <v>5.1439737165385642E-2</v>
-      </c>
-      <c r="AS18" s="1" t="e">
+        <v>2.5592205697094129E-2</v>
+      </c>
+      <c r="AT18" s="1">
+        <f t="shared" si="21"/>
+        <v>-1.1007652093614866</v>
+      </c>
+      <c r="AU18">
+        <f t="shared" si="22"/>
+        <v>-0.24977728856072312</v>
+      </c>
+      <c r="AV18" s="1">
+        <f t="shared" si="23"/>
+        <v>10.743354933549462</v>
+      </c>
+      <c r="AW18">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT18">
-        <f t="shared" si="21"/>
-        <v>-0.24962843670189847</v>
-      </c>
-      <c r="AU18" s="1">
-        <f t="shared" si="22"/>
-        <v>10.736952556611643</v>
-      </c>
-      <c r="AV18">
+        <v>-2559.5915870924136</v>
+      </c>
+      <c r="AX18">
         <f t="shared" si="11"/>
-        <v>-2342.212851168053</v>
-      </c>
-      <c r="AW18">
+        <v>-9074.1310861388192</v>
+      </c>
+      <c r="AY18">
         <f t="shared" si="12"/>
-        <v>-8303.4912875616155</v>
-      </c>
-      <c r="AX18">
+        <v>1370146.4326695343</v>
+      </c>
+      <c r="AZ18">
         <f t="shared" si="13"/>
-        <v>1370363.8114054587</v>
-      </c>
-      <c r="AY18">
-        <f t="shared" si="14"/>
-        <v>4847435.7318891836</v>
+        <v>4846665.0920906067</v>
       </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>197.87447431800001</v>
       </c>
@@ -3768,7 +4136,7 @@
         <v>-1.9658156996697373</v>
       </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>186.57943324600001</v>
       </c>
@@ -3855,7 +4223,7 @@
         <v>-3.381817502498885</v>
       </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>183.777742348</v>
       </c>
@@ -3942,7 +4310,7 @@
         <v>-4.4086754197059319</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>184.13538001000001</v>
       </c>

--- a/SMP_3PP.xlsx
+++ b/SMP_3PP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\My Paper\Geotexile and Geomembrane\anal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,12 +15,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t># avgT</t>
   </si>
@@ -104,19 +103,56 @@
   </si>
   <si>
     <t>ev</t>
-  </si>
-  <si>
-    <t>eq</t>
   </si>
   <si>
     <t>K_phi</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>q</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ev_ela</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ev_pla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>er_from_ev</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dev_pla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dev/deq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>D/E</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>dratio</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>K_p</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -137,63 +173,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ds_r_pred</t>
+    <t>dev/deq_pred</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ds_a_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>s_r_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>s_a_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ev_ela</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ev_pla</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>er_from_ev</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dev_pla</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>deq</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dev/deq</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ratio^4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>q</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dratio</t>
+    <t>eq_pla</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -524,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY22"/>
+  <dimension ref="A1:AU22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AM1" sqref="AM1:AM1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AO3" sqref="AO3:AO18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -547,14 +531,15 @@
     <col min="28" max="28" width="11.5546875"/>
     <col min="31" max="31" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="13.109375" customWidth="1"/>
+    <col min="36" max="36" width="12.88671875" customWidth="1"/>
     <col min="41" max="41" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="12.77734375" customWidth="1"/>
     <col min="44" max="44" width="12.44140625" customWidth="1"/>
     <col min="45" max="45" width="11.21875" customWidth="1"/>
-    <col min="52" max="1031" width="11.5546875"/>
+    <col min="48" max="1027" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -640,76 +625,64 @@
         <v>27</v>
       </c>
       <c r="AC1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>40</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AR1" t="s">
         <v>41</v>
       </c>
-      <c r="AE1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF1" t="s">
+      <c r="AS1" t="s">
         <v>42</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AT1" t="s">
         <v>43</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AU1" t="s">
         <v>44</v>
       </c>
-      <c r="AI1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.20571021300299999</v>
       </c>
@@ -803,17 +776,17 @@
         <f>AB2-AC2</f>
         <v>-7.3646714530181123E-3</v>
       </c>
-      <c r="AE2">
-        <f>P2-AB2/3</f>
-        <v>2.531280308865322E-6</v>
+      <c r="AE2" s="1">
+        <f>P2-AB2/3-2*(1.35*(AK2/3255000)^-0.0723)*(1+0.33)/(9*(1-2*0.33))</f>
+        <v>-1.9588523927937214</v>
       </c>
       <c r="AF2">
         <f t="shared" ref="AF2:AF18" si="1">AB2-P2/2</f>
         <v>-1.2666885935459658E-6</v>
       </c>
-      <c r="AJ2">
-        <f>(1.35*(AK2/3255000)^-0.0723)^4</f>
-        <v>25.785066154262143</v>
+      <c r="AJ2" t="e">
+        <f>(( 1.588*EXP(-0.0005387*3*232))^2-AP2^2)/(2*AP2)+0.4</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="AK2">
         <f t="shared" ref="AK2:AK18" si="2">(X2+Y2+Z2)/3</f>
@@ -823,9 +796,17 @@
         <f t="shared" ref="AL2:AL18" si="3">Z2-(Y2+X2)/2</f>
         <v>3181.7856324049999</v>
       </c>
-      <c r="AO2">
-        <f t="shared" ref="AO2" si="4">(3*(1-2*0.33))/(0.0762*0.2606*(AK2)^(0.2606-1))</f>
-        <v>17803.111387790152</v>
+      <c r="AM2" s="1" t="e">
+        <f t="shared" ref="AM2:AM18" si="4">(-2*AJ2-3)/(-2*AJ2+6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN2" t="e">
+        <f t="shared" ref="AN2:AN18" si="5">1/(2+AM2*AQ2-2*0.33*(1+AM2+AQ2))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO2" s="1" t="e">
+        <f>3*(1-2*0.33)*(AK2-AK1)/(AC2-AC1)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AS2">
         <v>0</v>
@@ -834,184 +815,169 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>3.3246957367399999</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>4.7614505776499998</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>2.60646884253</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>0.209305688613</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>0.25430360308700001</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>8.2307694230499995E-2</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>0.115193397586</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>0.65843335421799998</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>9.8317337471399993E-2</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <v>5.9211831086700001E-2</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2">
         <v>-2.0740151358399999E-2</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <v>2.3664089217999999E-2</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="2">
         <v>-0.17662569046599999</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="2">
         <v>0.51203647887100001</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="2">
         <v>2.8445726886499999E-2</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="2">
         <v>1.00595955986</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="2">
         <v>-0.43052455913100002</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="2">
         <v>47684</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="2">
         <v>25996.806757300001</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="2">
         <v>25244.926522599999</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="2">
         <v>75653.391263500002</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="2">
         <v>91.661218864099993</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="2">
         <v>68.239404295900002</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="2">
         <v>26761.821759999999</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="2">
         <v>26123.795553700002</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="2">
         <v>78693.798704200002</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="2">
         <v>9.8770286700499994E-4</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" s="2">
         <f t="shared" si="0"/>
         <v>0.64105581271286516</v>
       </c>
-      <c r="AC3">
-        <f t="shared" ref="AC3:AC18" si="5">0.0762*AK3^0.2606-0.5912</f>
+      <c r="AC3" s="2">
+        <f t="shared" ref="AC3:AC18" si="6">0.0762*AK3^0.2606-0.5912</f>
         <v>0.64383013134365763</v>
       </c>
-      <c r="AD3">
-        <f t="shared" ref="AD3:AD18" si="6">AB3-AC3</f>
+      <c r="AD3" s="2">
+        <f t="shared" ref="AD3:AD18" si="7">AB3-AC3</f>
         <v>-2.7743186307924717E-3</v>
       </c>
-      <c r="AE3">
-        <f t="shared" ref="AE3:AE18" si="7">P3-AB3/3</f>
-        <v>0.79227428895571161</v>
-      </c>
-      <c r="AF3">
+      <c r="AE3" s="1">
+        <f t="shared" ref="AE3:AE18" si="8">P3-AB3/3-2*(1.35*(AK3/3255000)^-0.0723)*(1+0.33)/(9*(1-2*0.33))</f>
+        <v>-0.80997465138793878</v>
+      </c>
+      <c r="AF3" s="2">
         <f t="shared" si="1"/>
         <v>0.13807603278286518</v>
       </c>
-      <c r="AG3">
-        <f t="shared" ref="AG3:AH18" si="8">AD3-AD2</f>
+      <c r="AG3" s="2">
+        <f t="shared" ref="AG3:AH18" si="9">AD3-AD2</f>
         <v>4.5903528222256407E-3</v>
       </c>
-      <c r="AH3">
-        <f t="shared" si="8"/>
-        <v>0.7922717576754027</v>
-      </c>
-      <c r="AI3">
+      <c r="AH3" s="2">
+        <f t="shared" si="9"/>
+        <v>1.1488777414057827</v>
+      </c>
+      <c r="AI3" s="2">
         <f>-AG3/AH3</f>
-        <v>-5.7939119724451024E-3</v>
+        <v>-3.9955102764971506E-3</v>
       </c>
       <c r="AJ3">
-        <f>(1.35*(AK3/3255000)^-0.0723)^4</f>
-        <v>11.541948483334281</v>
-      </c>
-      <c r="AK3">
+        <f t="shared" ref="AJ3:AJ18" si="10">(( 1.588*EXP(-0.0005387*3*232))^2-AP3^2)/(2*AP3)+0.4</f>
+        <v>-0.18001344639452888</v>
+      </c>
+      <c r="AK3" s="2">
         <f t="shared" si="2"/>
         <v>43859.805339299994</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" s="2">
         <f t="shared" si="3"/>
         <v>52250.990047350002</v>
       </c>
-      <c r="AM3">
-        <v>-0.49972129302590063</v>
-      </c>
-      <c r="AN3">
-        <f t="shared" ref="AN3:AN18" si="9">1/(2+AM3*AQ3-2*0.33*(1+AM3+AQ3))</f>
-        <v>-0.20719051566487512</v>
-      </c>
-      <c r="AO3">
-        <v>139000.03413519132</v>
-      </c>
-      <c r="AP3">
+      <c r="AM3" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.41508835602631183</v>
+      </c>
+      <c r="AN3" s="2">
+        <f t="shared" si="5"/>
+        <v>-0.2268471903439101</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>289903.46571090003</v>
+      </c>
+      <c r="AP3" s="2">
         <f>(AK3*1.35*(AK3/3255000)^-0.0723-AK2*1.35*(AK2/3255000)^-0.0723)/(AK3-AK2)</f>
         <v>1.8160383272446403</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" s="2">
         <f>(2*AP3+3)/(3-AP3)</f>
         <v>5.6015974225372211</v>
       </c>
-      <c r="AR3">
-        <f>(1+2*AM3)*(AK3-AK2)*(1-AP3/3)/(2*AN3*AO3*AM3)</f>
-        <v>3.1440290436111809E-4</v>
-      </c>
-      <c r="AS3">
+      <c r="AR3" s="2">
+        <f>(1+2*AM3)*(AK3-AK2)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
+        <v>3.3666655414395487E-2</v>
+      </c>
+      <c r="AS3" s="2">
         <f>(AS2+AR3)</f>
-        <v>3.1440290436111809E-4</v>
-      </c>
-      <c r="AT3">
-        <f>(1-AM3)*(AK3-AK2)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
-        <v>0.56393365802109807</v>
-      </c>
-      <c r="AU3">
+        <v>3.3666655414395487E-2</v>
+      </c>
+      <c r="AT3" s="2">
+        <f>2*(1-AM3)*(AK3-AK2)*(1-AP3/3)/(9*AN3*AO3*AM3)</f>
+        <v>0.1870230034961361</v>
+      </c>
+      <c r="AU3" s="2">
         <f>AU2+AT3</f>
-        <v>0.56393365802109807</v>
-      </c>
-      <c r="AV3">
-        <f t="shared" ref="AV3:AV18" si="10">AN3*AO3*(AM3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
-        <v>-113.04715818679227</v>
-      </c>
-      <c r="AW3">
-        <f t="shared" ref="AW3:AW18" si="11">AN3*AO3*(AM3*AQ3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*AQ3*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
-        <v>-633.24466992429302</v>
-      </c>
-      <c r="AX3">
-        <f t="shared" ref="AX3:AX18" si="12">AV3+(AK2-1.35*(AK2/3255000)^-0.0723*AK2/3)</f>
-        <v>564.49538896517038</v>
-      </c>
-      <c r="AY3">
-        <f t="shared" ref="AY3:AY18" si="13">AW3+(AK2+2*1.35*(AK2/3255000)^-0.0723*AK2/3)</f>
-        <v>6179.4211096817817</v>
+        <v>0.1870230034961361</v>
       </c>
     </row>
-    <row r="4" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>9.6041318680199996</v>
       </c>
@@ -1098,36 +1064,36 @@
         <v>1.0701225422241167</v>
       </c>
       <c r="AC4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0340659049961174</v>
       </c>
       <c r="AD4" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.6056637227999344E-2</v>
       </c>
       <c r="AE4" s="1">
-        <f t="shared" si="7"/>
-        <v>1.6467493256652945</v>
+        <f t="shared" si="8"/>
+        <v>0.1620225647976663</v>
       </c>
       <c r="AF4" s="1">
         <f t="shared" si="1"/>
         <v>6.8394122354116682E-2</v>
       </c>
       <c r="AG4" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.8830955858791816E-2</v>
       </c>
       <c r="AH4" s="1">
-        <f t="shared" si="8"/>
-        <v>0.85447503670958291</v>
+        <f t="shared" si="9"/>
+        <v>0.97199721618560508</v>
       </c>
       <c r="AI4" s="1">
-        <f t="shared" ref="AI4:AI18" si="14">-AG4/AH4</f>
-        <v>-4.5444225039413991E-2</v>
-      </c>
-      <c r="AJ4" s="1">
-        <f t="shared" ref="AJ4:AJ18" si="15">(1.35*(AK4/3255000)^-0.0723)^4</f>
-        <v>8.5103085248626336</v>
+        <f t="shared" ref="AI4:AI18" si="11">-AG4/AH4</f>
+        <v>-3.9949657480682493E-2</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" si="10"/>
+        <v>-5.3624534674967361E-2</v>
       </c>
       <c r="AK4" s="1">
         <f t="shared" si="2"/>
@@ -1138,58 +1104,42 @@
         <v>156194.36397390001</v>
       </c>
       <c r="AM4" s="1">
-        <f t="shared" ref="AM4:AM18" si="16">(-2*AI4-3)/(-2*AI4+6)</f>
-        <v>-0.47761694763651802</v>
+        <f t="shared" si="4"/>
+        <v>-0.47365858143361661</v>
       </c>
       <c r="AN4" s="1">
-        <f t="shared" si="9"/>
-        <v>-0.27981988435257132</v>
+        <f t="shared" si="5"/>
+        <v>-0.28104526554973119</v>
       </c>
       <c r="AO4" s="1">
-        <v>302938.08896634029</v>
+        <v>289903.46571090003</v>
       </c>
       <c r="AP4" s="1">
-        <f t="shared" ref="AP4:AP18" si="17">(AK4*1.35*(AK4/3255000)^-0.0723-AK3*1.35*(AK3/3255000)^-0.0723)/(AK4-AK3)</f>
+        <f t="shared" ref="AP4:AP18" si="12">(AK4*1.35*(AK4/3255000)^-0.0723-AK3*1.35*(AK3/3255000)^-0.0723)/(AK4-AK3)</f>
         <v>1.6356216271168877</v>
       </c>
       <c r="AQ4" s="1">
-        <f t="shared" ref="AQ4:AQ18" si="18">(2*AP4+3)/(3-AP4)</f>
+        <f t="shared" ref="AQ4:AQ18" si="13">(2*AP4+3)/(3-AP4)</f>
         <v>4.5964106283668276</v>
       </c>
       <c r="AR4" s="1">
-        <f t="shared" ref="AR4:AR18" si="19">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(2*AN4*AO4*AM4)</f>
-        <v>2.0600347981067094E-2</v>
+        <f t="shared" ref="AR4:AR18" si="14">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
+        <v>1.6955876248553377E-2</v>
       </c>
       <c r="AS4" s="1">
-        <f t="shared" ref="AS4:AS18" si="20">AS3+AR4</f>
-        <v>2.0914750885428213E-2</v>
+        <f t="shared" ref="AS4:AS18" si="15">AS3+AR4</f>
+        <v>5.0622531662948861E-2</v>
       </c>
       <c r="AT4" s="1">
-        <f t="shared" ref="AT4:AT18" si="21">(1-AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
-        <v>0.45331057935744989</v>
+        <f t="shared" ref="AT4:AT18" si="16">2*(1-AM4)*(AK4-AK3)*(1-AP4/3)/(9*AN4*AO4*AM4)</f>
+        <v>0.31619624023457688</v>
       </c>
       <c r="AU4" s="1">
         <f>AU3+AT4</f>
-        <v>1.017244237378548</v>
-      </c>
-      <c r="AV4" s="1">
-        <f t="shared" si="10"/>
-        <v>-351.18904319347303</v>
-      </c>
-      <c r="AW4" s="1">
-        <f t="shared" si="11"/>
-        <v>-1614.2090507004561</v>
-      </c>
-      <c r="AX4" s="1">
-        <f t="shared" si="12"/>
-        <v>16561.318115225458</v>
-      </c>
-      <c r="AY4" s="1">
-        <f t="shared" si="13"/>
-        <v>96140.192650361656</v>
+        <v>0.50321924373071303</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>18.633378606600001</v>
       </c>
@@ -1276,36 +1226,36 @@
         <v>1.2796901620335754</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3335206837629676</v>
       </c>
       <c r="AD5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-5.3830521729392178E-2</v>
       </c>
-      <c r="AE5">
-        <f t="shared" si="7"/>
-        <v>2.5786011719554747</v>
+      <c r="AE5" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1619247240588908</v>
       </c>
       <c r="AF5">
         <f t="shared" si="1"/>
         <v>-0.22289211761642447</v>
       </c>
       <c r="AG5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-8.9887158957391522E-2</v>
       </c>
       <c r="AH5">
-        <f t="shared" si="8"/>
-        <v>0.93185184629018014</v>
+        <f t="shared" si="9"/>
+        <v>0.9999021592612245</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="14"/>
-        <v>9.6460783240644582E-2</v>
+        <f t="shared" si="11"/>
+        <v>8.989595444398725E-2</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="15"/>
-        <v>7.0541039445366129</v>
+        <f t="shared" si="10"/>
+        <v>1.3787936068533124E-2</v>
       </c>
       <c r="AK5">
         <f t="shared" si="2"/>
@@ -1315,59 +1265,43 @@
         <f t="shared" si="3"/>
         <v>306116.13573950005</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.50692579885822686</v>
+      </c>
+      <c r="AN5">
+        <f t="shared" si="5"/>
+        <v>-0.3120339821733974</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>289903.46571090003</v>
+      </c>
+      <c r="AP5">
+        <f t="shared" si="12"/>
+        <v>1.5440124208187311</v>
+      </c>
+      <c r="AQ5">
+        <f t="shared" si="13"/>
+        <v>4.1813714132512594</v>
+      </c>
+      <c r="AR5" s="1">
+        <f t="shared" si="14"/>
+        <v>-5.6152191347350914E-3</v>
+      </c>
+      <c r="AS5">
+        <f t="shared" si="15"/>
+        <v>4.5007312528213772E-2</v>
+      </c>
+      <c r="AT5" s="1">
         <f t="shared" si="16"/>
-        <v>-0.54983269178036354</v>
-      </c>
-      <c r="AN5">
-        <f t="shared" si="9"/>
-        <v>-0.29798529854237638</v>
-      </c>
-      <c r="AO5">
-        <v>302938.08896634029</v>
-      </c>
-      <c r="AP5">
-        <f t="shared" si="17"/>
-        <v>1.5440124208187311</v>
-      </c>
-      <c r="AQ5">
-        <f t="shared" si="18"/>
-        <v>4.1813714132512594</v>
-      </c>
-      <c r="AR5">
-        <f t="shared" si="19"/>
-        <v>-5.5991597405135318E-2</v>
-      </c>
-      <c r="AS5">
-        <f t="shared" si="20"/>
-        <v>-3.5076846519707106E-2</v>
-      </c>
-      <c r="AT5">
-        <f t="shared" si="21"/>
-        <v>0.58045970107303335</v>
+        <v>0.4072559596174895</v>
       </c>
       <c r="AU5">
         <f>AU4+AT5</f>
-        <v>1.5977039384515814</v>
-      </c>
-      <c r="AV5">
-        <f t="shared" si="10"/>
-        <v>-447.64381625547992</v>
-      </c>
-      <c r="AW5">
-        <f t="shared" si="11"/>
-        <v>-1871.7650566093625</v>
-      </c>
-      <c r="AX5">
-        <f t="shared" si="12"/>
-        <v>53726.972074341575</v>
-      </c>
-      <c r="AY5">
-        <f t="shared" si="13"/>
-        <v>267154.58925639658</v>
+        <v>0.91047520334820253</v>
       </c>
     </row>
-    <row r="6" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>29.2880362171</v>
       </c>
@@ -1453,99 +1387,83 @@
         <f t="shared" si="0"/>
         <v>1.5621054671954515</v>
       </c>
-      <c r="AC6" s="2">
-        <f t="shared" si="5"/>
+      <c r="AC6">
+        <f t="shared" si="6"/>
         <v>1.5829659592714729</v>
       </c>
-      <c r="AD6" s="2">
-        <f t="shared" si="6"/>
+      <c r="AD6">
+        <f t="shared" si="7"/>
         <v>-2.0860492076021364E-2</v>
       </c>
-      <c r="AE6" s="2">
-        <f t="shared" si="7"/>
-        <v>3.4797714886515165</v>
-      </c>
-      <c r="AF6" s="2">
+      <c r="AE6" s="1">
+        <f t="shared" si="8"/>
+        <v>2.1101916842492336</v>
+      </c>
+      <c r="AF6">
         <f t="shared" si="1"/>
         <v>-0.43813118832954867</v>
       </c>
-      <c r="AG6" s="2">
-        <f t="shared" si="8"/>
+      <c r="AG6">
+        <f t="shared" si="9"/>
         <v>3.2970029653370814E-2</v>
       </c>
-      <c r="AH6" s="2">
-        <f t="shared" si="8"/>
-        <v>0.90117031669604186</v>
-      </c>
-      <c r="AI6" s="2">
-        <f t="shared" si="14"/>
-        <v>-3.6585791878108835E-2</v>
-      </c>
-      <c r="AJ6" s="2">
-        <f t="shared" si="15"/>
-        <v>6.1618132648045494</v>
-      </c>
-      <c r="AK6" s="2">
+      <c r="AH6">
+        <f t="shared" si="9"/>
+        <v>0.94826696019034284</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="11"/>
+        <v>-3.476872129632444E-2</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="10"/>
+        <v>5.8887882034157957E-2</v>
+      </c>
+      <c r="AK6">
         <f t="shared" si="2"/>
         <v>384207.03470800002</v>
       </c>
-      <c r="AL6" s="2">
+      <c r="AL6">
         <f t="shared" si="3"/>
         <v>501230.93967000005</v>
       </c>
-      <c r="AM6" s="2">
+      <c r="AM6" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.53003347696664138</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" si="5"/>
+        <v>-0.3335528427913701</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>289903.46571090003</v>
+      </c>
+      <c r="AP6">
+        <f t="shared" si="12"/>
+        <v>1.4846589622644111</v>
+      </c>
+      <c r="AQ6">
+        <f t="shared" si="13"/>
+        <v>3.9392570885884006</v>
+      </c>
+      <c r="AR6" s="1">
+        <f t="shared" si="14"/>
+        <v>-2.8317496213823384E-2</v>
+      </c>
+      <c r="AS6">
+        <f t="shared" si="15"/>
+        <v>1.6689816314390388E-2</v>
+      </c>
+      <c r="AT6" s="1">
         <f t="shared" si="16"/>
-        <v>-0.48192750293308162</v>
-      </c>
-      <c r="AN6" s="2">
-        <f t="shared" si="9"/>
-        <v>-0.35207872542129992</v>
-      </c>
-      <c r="AO6" s="2">
-        <v>302938.08896634029</v>
-      </c>
-      <c r="AP6" s="2">
-        <f t="shared" si="17"/>
-        <v>1.4846589622644111</v>
-      </c>
-      <c r="AQ6" s="2">
-        <f t="shared" si="18"/>
-        <v>3.9392570885884006</v>
-      </c>
-      <c r="AR6" s="2">
-        <f t="shared" si="19"/>
-        <v>2.5486173641137515E-2</v>
-      </c>
-      <c r="AS6" s="2">
-        <f t="shared" si="20"/>
-        <v>-9.5906728785695901E-3</v>
-      </c>
-      <c r="AT6" s="2">
-        <f t="shared" si="21"/>
-        <v>0.6966139676858345</v>
-      </c>
-      <c r="AU6" s="2">
-        <f t="shared" ref="AU6:AU18" si="22">AU5+AT6</f>
-        <v>2.2943179061374162</v>
-      </c>
-      <c r="AV6" s="2">
-        <f t="shared" si="10"/>
-        <v>-468.86364069782724</v>
-      </c>
-      <c r="AW6" s="2">
-        <f t="shared" si="11"/>
-        <v>-1846.974420200281</v>
-      </c>
-      <c r="AX6" s="2">
-        <f t="shared" si="12"/>
-        <v>109474.10143658602</v>
-      </c>
-      <c r="AY6" s="2">
-        <f t="shared" si="13"/>
-        <v>500367.560946232</v>
+        <v>0.48087136496771588</v>
+      </c>
+      <c r="AU6">
+        <f t="shared" ref="AU6:AU18" si="17">AU5+AT6</f>
+        <v>1.3913465683159183</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>41.434693351200004</v>
       </c>
@@ -1632,36 +1550,36 @@
         <v>1.6235844291454193</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7961180502694474</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.17253362112402804</v>
       </c>
-      <c r="AE7">
-        <f t="shared" si="7"/>
-        <v>4.46032940890486</v>
+      <c r="AE7" s="1">
+        <f t="shared" si="8"/>
+        <v>3.1258295449454465</v>
       </c>
       <c r="AF7">
         <f t="shared" si="1"/>
         <v>-0.87717768016458075</v>
       </c>
       <c r="AG7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.15167312904800667</v>
       </c>
       <c r="AH7">
-        <f t="shared" si="8"/>
-        <v>0.98055792025334343</v>
+        <f t="shared" si="9"/>
+        <v>1.0156378606962129</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="14"/>
-        <v>0.15468043846794832</v>
+        <f t="shared" si="11"/>
+        <v>0.14933780525278545</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="15"/>
-        <v>5.5543506655416293</v>
+        <f t="shared" si="10"/>
+        <v>9.2319479911810443E-2</v>
       </c>
       <c r="AK7">
         <f t="shared" si="2"/>
@@ -1671,59 +1589,43 @@
         <f t="shared" si="3"/>
         <v>729574.25835999998</v>
       </c>
-      <c r="AM7">
+      <c r="AM7" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.54762532159603139</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="5"/>
+        <v>-0.34989451377484876</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>289903.46571090003</v>
+      </c>
+      <c r="AP7">
+        <f t="shared" si="12"/>
+        <v>1.4417039812757488</v>
+      </c>
+      <c r="AQ7">
+        <f t="shared" si="13"/>
+        <v>3.7755393659852499</v>
+      </c>
+      <c r="AR7" s="1">
+        <f t="shared" si="14"/>
+        <v>-4.9247155145680059E-2</v>
+      </c>
+      <c r="AS7">
+        <f t="shared" si="15"/>
+        <v>-3.2557338831289667E-2</v>
+      </c>
+      <c r="AT7" s="1">
         <f t="shared" si="16"/>
-        <v>-0.58154467457321091</v>
-      </c>
-      <c r="AN7">
-        <f t="shared" si="9"/>
-        <v>-0.33741819581349336</v>
-      </c>
-      <c r="AO7">
-        <v>302938.08896634029</v>
-      </c>
-      <c r="AP7">
+        <v>0.53344272728490316</v>
+      </c>
+      <c r="AU7">
         <f t="shared" si="17"/>
-        <v>1.4417039812757488</v>
-      </c>
-      <c r="AQ7">
-        <f t="shared" si="18"/>
-        <v>3.7755393659852499</v>
-      </c>
-      <c r="AR7">
-        <f t="shared" si="19"/>
-        <v>-0.11819488634525863</v>
-      </c>
-      <c r="AS7">
-        <f t="shared" si="20"/>
-        <v>-0.12778555922382823</v>
-      </c>
-      <c r="AT7">
-        <f t="shared" si="21"/>
-        <v>0.76412303660330105</v>
-      </c>
-      <c r="AU7">
-        <f t="shared" si="22"/>
-        <v>3.0584409427407171</v>
-      </c>
-      <c r="AV7">
-        <f t="shared" si="10"/>
-        <v>-552.82606378157527</v>
-      </c>
-      <c r="AW7">
-        <f t="shared" si="11"/>
-        <v>-2087.2165663500105</v>
-      </c>
-      <c r="AX7">
-        <f t="shared" si="12"/>
-        <v>181877.42693208653</v>
-      </c>
-      <c r="AY7">
-        <f t="shared" si="13"/>
-        <v>785673.38156591391</v>
+        <v>1.9247892956008215</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>54.623573886000003</v>
       </c>
@@ -1810,36 +1712,36 @@
         <v>1.858851189179811</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9785133855533561</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.11966219637354514</v>
       </c>
-      <c r="AE8">
-        <f t="shared" si="7"/>
-        <v>5.3807128307200633</v>
+      <c r="AE8" s="1">
+        <f t="shared" si="8"/>
+        <v>4.0731948770463839</v>
       </c>
       <c r="AF8">
         <f t="shared" si="1"/>
         <v>-1.1413137577101891</v>
       </c>
       <c r="AG8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.2871424750482898E-2</v>
       </c>
       <c r="AH8">
-        <f t="shared" si="8"/>
-        <v>0.92038342181520338</v>
+        <f t="shared" si="9"/>
+        <v>0.94736533210093743</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="14"/>
-        <v>-5.7444999005097835E-2</v>
+        <f t="shared" si="11"/>
+        <v>-5.5808908093809888E-2</v>
       </c>
       <c r="AJ8">
-        <f t="shared" si="15"/>
-        <v>5.1185836264926623</v>
+        <f t="shared" si="10"/>
+        <v>0.11821373578150851</v>
       </c>
       <c r="AK8">
         <f t="shared" si="2"/>
@@ -1849,59 +1751,43 @@
         <f t="shared" si="3"/>
         <v>975027.36638299993</v>
       </c>
-      <c r="AM8">
+      <c r="AM8" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.56153149033776462</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" si="5"/>
+        <v>-0.36276982698752952</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>289903.46571090003</v>
+      </c>
+      <c r="AP8">
+        <f t="shared" si="12"/>
+        <v>1.4090597034444348</v>
+      </c>
+      <c r="AQ8">
+        <f t="shared" si="13"/>
+        <v>3.6570318945879223</v>
+      </c>
+      <c r="AR8" s="1">
+        <f t="shared" si="14"/>
+        <v>-6.6151854189660284E-2</v>
+      </c>
+      <c r="AS8">
+        <f t="shared" si="15"/>
+        <v>-9.8709193020949951E-2</v>
+      </c>
+      <c r="AT8" s="1">
         <f t="shared" si="16"/>
-        <v>-0.47181715499847554</v>
-      </c>
-      <c r="AN8">
-        <f t="shared" si="9"/>
-        <v>-0.40197900496875721</v>
-      </c>
-      <c r="AO8">
-        <v>302938.08896634029</v>
-      </c>
-      <c r="AP8">
+        <v>0.55959532750007202</v>
+      </c>
+      <c r="AU8">
         <f t="shared" si="17"/>
-        <v>1.4090597034444348</v>
-      </c>
-      <c r="AQ8">
-        <f t="shared" si="18"/>
-        <v>3.6570318945879223</v>
-      </c>
-      <c r="AR8">
-        <f t="shared" si="19"/>
-        <v>4.6714142403812733E-2</v>
-      </c>
-      <c r="AS8">
-        <f t="shared" si="20"/>
-        <v>-8.1071416820015493E-2</v>
-      </c>
-      <c r="AT8">
-        <f t="shared" si="21"/>
-        <v>0.81319772326338047</v>
-      </c>
-      <c r="AU8">
-        <f t="shared" si="22"/>
-        <v>3.8716386660040976</v>
-      </c>
-      <c r="AV8">
-        <f t="shared" si="10"/>
-        <v>-538.93596398888928</v>
-      </c>
-      <c r="AW8">
-        <f t="shared" si="11"/>
-        <v>-1970.9060094478557</v>
-      </c>
-      <c r="AX8">
-        <f t="shared" si="12"/>
-        <v>268051.88375517615</v>
-      </c>
-      <c r="AY8">
-        <f t="shared" si="13"/>
-        <v>1111092.3035822222</v>
+        <v>2.4843846231008935</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>68.694755584199996</v>
       </c>
@@ -1988,36 +1874,36 @@
         <v>1.8344607170093674</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1411418866410052</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.30668116963163783</v>
       </c>
-      <c r="AE9">
-        <f t="shared" si="7"/>
-        <v>6.3933386030602106</v>
+      <c r="AE9" s="1">
+        <f t="shared" si="8"/>
+        <v>5.1078924902211797</v>
       </c>
       <c r="AF9">
         <f t="shared" si="1"/>
         <v>-1.6679520373556325</v>
       </c>
       <c r="AG9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.18701897325809269</v>
       </c>
       <c r="AH9">
-        <f t="shared" si="8"/>
-        <v>1.0126257723401473</v>
+        <f t="shared" si="9"/>
+        <v>1.0346976131747958</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="14"/>
-        <v>0.18468715528136079</v>
+        <f t="shared" si="11"/>
+        <v>0.18074746754682885</v>
       </c>
       <c r="AJ9">
-        <f t="shared" si="15"/>
-        <v>4.7816156102478056</v>
+        <f t="shared" si="10"/>
+        <v>0.13911572224933721</v>
       </c>
       <c r="AK9">
         <f t="shared" si="2"/>
@@ -2027,59 +1913,43 @@
         <f t="shared" si="3"/>
         <v>1241129.2505049999</v>
       </c>
-      <c r="AM9">
+      <c r="AM9" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.57294023914105074</v>
+      </c>
+      <c r="AN9">
+        <f t="shared" si="5"/>
+        <v>-0.37329527600630685</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>289903.46571090003</v>
+      </c>
+      <c r="AP9">
+        <f t="shared" si="12"/>
+        <v>1.3831153210120573</v>
+      </c>
+      <c r="AQ9">
+        <f t="shared" si="13"/>
+        <v>3.5662596825602759</v>
+      </c>
+      <c r="AR9" s="1">
+        <f t="shared" si="14"/>
+        <v>-8.1888099402798328E-2</v>
+      </c>
+      <c r="AS9">
+        <f t="shared" si="15"/>
+        <v>-0.18059729242374828</v>
+      </c>
+      <c r="AT9" s="1">
         <f t="shared" si="16"/>
-        <v>-0.59840140268664443</v>
-      </c>
-      <c r="AN9">
-        <f t="shared" si="9"/>
-        <v>-0.36326104745989507</v>
-      </c>
-      <c r="AO9">
-        <v>302938.08896634029</v>
-      </c>
-      <c r="AP9">
+        <v>0.5886329602345759</v>
+      </c>
+      <c r="AU9">
         <f t="shared" si="17"/>
-        <v>1.3831153210120573</v>
-      </c>
-      <c r="AQ9">
-        <f t="shared" si="18"/>
-        <v>3.5662596825602759</v>
-      </c>
-      <c r="AR9">
-        <f t="shared" si="19"/>
-        <v>-0.15602567421674923</v>
-      </c>
-      <c r="AS9">
-        <f t="shared" si="20"/>
-        <v>-0.23709709103676474</v>
-      </c>
-      <c r="AT9">
-        <f t="shared" si="21"/>
-        <v>0.8448106419694027</v>
-      </c>
-      <c r="AU9">
-        <f t="shared" si="22"/>
-        <v>4.7164493079734999</v>
-      </c>
-      <c r="AV9">
-        <f t="shared" si="10"/>
-        <v>-625.77714660028357</v>
-      </c>
-      <c r="AW9">
-        <f t="shared" si="11"/>
-        <v>-2231.683808188202</v>
-      </c>
-      <c r="AX9">
-        <f t="shared" si="12"/>
-        <v>363199.59124276345</v>
-      </c>
-      <c r="AY9">
-        <f t="shared" si="13"/>
-        <v>1459107.3077370843</v>
+        <v>3.0730175833354694</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>83.406379524100004</v>
       </c>
@@ -2166,36 +2036,36 @@
         <v>1.8852923228709129</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.284202557180202</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.39891023430928918</v>
       </c>
-      <c r="AE10">
-        <f t="shared" si="7"/>
-        <v>7.3773424148796956</v>
+      <c r="AE10" s="1">
+        <f t="shared" si="8"/>
+        <v>6.1099681752193273</v>
       </c>
       <c r="AF10">
         <f t="shared" si="1"/>
         <v>-2.1175942717140872</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-9.2229064677651351E-2</v>
       </c>
       <c r="AH10">
-        <f t="shared" si="8"/>
-        <v>0.98400381181948493</v>
+        <f t="shared" si="9"/>
+        <v>1.0020756849981476</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="14"/>
-        <v>9.3728361180953165E-2</v>
+        <f t="shared" si="11"/>
+        <v>9.2038022734601974E-2</v>
       </c>
       <c r="AJ10">
-        <f t="shared" si="15"/>
-        <v>4.5183374352198342</v>
+        <f t="shared" si="10"/>
+        <v>0.15647133788770864</v>
       </c>
       <c r="AK10">
         <f t="shared" si="2"/>
@@ -2205,59 +2075,43 @@
         <f t="shared" si="3"/>
         <v>1510068.0090015002</v>
       </c>
-      <c r="AM10">
+      <c r="AM10" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.58254075647586856</v>
+      </c>
+      <c r="AN10">
+        <f t="shared" si="5"/>
+        <v>-0.38212076589957822</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>289903.46571090003</v>
+      </c>
+      <c r="AP10">
+        <f t="shared" si="12"/>
+        <v>1.3618524601923803</v>
+      </c>
+      <c r="AQ10">
+        <f t="shared" si="13"/>
+        <v>3.4940106317022819</v>
+      </c>
+      <c r="AR10" s="1">
+        <f t="shared" si="14"/>
+        <v>-9.3007126811585017E-2</v>
+      </c>
+      <c r="AS10">
+        <f t="shared" si="15"/>
+        <v>-0.2736044192353333</v>
+      </c>
+      <c r="AT10" s="1">
         <f t="shared" si="16"/>
-        <v>-0.54837556816559618</v>
-      </c>
-      <c r="AN10">
-        <f t="shared" si="9"/>
-        <v>-0.39680190248855823</v>
-      </c>
-      <c r="AO10">
-        <v>302938.08896634029</v>
-      </c>
-      <c r="AP10">
+        <v>0.59440360175313012</v>
+      </c>
+      <c r="AU10">
         <f t="shared" si="17"/>
-        <v>1.3618524601923803</v>
-      </c>
-      <c r="AQ10">
-        <f t="shared" si="18"/>
-        <v>3.4940106317022819</v>
-      </c>
-      <c r="AR10">
-        <f t="shared" si="19"/>
-        <v>-8.0046022944808684E-2</v>
-      </c>
-      <c r="AS10">
-        <f t="shared" si="20"/>
-        <v>-0.31714311398157341</v>
-      </c>
-      <c r="AT10">
-        <f t="shared" si="21"/>
-        <v>0.85402136489158109</v>
-      </c>
-      <c r="AU10">
-        <f t="shared" si="22"/>
-        <v>5.5704706728650812</v>
-      </c>
-      <c r="AV10">
-        <f t="shared" si="10"/>
-        <v>-628.37291096666399</v>
-      </c>
-      <c r="AW10">
-        <f t="shared" si="11"/>
-        <v>-2195.5416315912348</v>
-      </c>
-      <c r="AX10">
-        <f t="shared" si="12"/>
-        <v>467611.32254562975</v>
-      </c>
-      <c r="AY10">
-        <f t="shared" si="13"/>
-        <v>1831512.0548152158</v>
+        <v>3.6674211850885996</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>98.506007605299999</v>
       </c>
@@ -2344,36 +2198,36 @@
         <v>1.8993222021266298</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4112000863125864</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.51187788418595659</v>
       </c>
-      <c r="AE11">
-        <f t="shared" si="7"/>
-        <v>8.3693944476711231</v>
+      <c r="AE11" s="1">
+        <f t="shared" si="8"/>
+        <v>7.1171260693594105</v>
       </c>
       <c r="AF11">
         <f t="shared" si="1"/>
         <v>-2.60192872206337</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.11296764987666741</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="8"/>
-        <v>0.99205203279142751</v>
+        <f t="shared" si="9"/>
+        <v>1.0071578941400832</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="14"/>
-        <v>0.11387270641319085</v>
+        <f t="shared" si="11"/>
+        <v>0.11216478621072597</v>
       </c>
       <c r="AJ11">
-        <f t="shared" si="15"/>
-        <v>4.3067416055433272</v>
+        <f t="shared" si="10"/>
+        <v>0.17100241937727681</v>
       </c>
       <c r="AK11">
         <f t="shared" si="2"/>
@@ -2383,59 +2237,43 @@
         <f t="shared" si="3"/>
         <v>1777141.4462240003</v>
       </c>
-      <c r="AM11">
+      <c r="AM11" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.59066944094361984</v>
+      </c>
+      <c r="AN11">
+        <f t="shared" si="5"/>
+        <v>-0.38956726906468903</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>289903.46571090003</v>
+      </c>
+      <c r="AP11">
+        <f t="shared" si="12"/>
+        <v>1.3442472387769562</v>
+      </c>
+      <c r="AQ11">
+        <f t="shared" si="13"/>
+        <v>3.4355941362598301</v>
+      </c>
+      <c r="AR11" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.101324320798295</v>
+      </c>
+      <c r="AS11">
+        <f t="shared" si="15"/>
+        <v>-0.3749287400336283</v>
+      </c>
+      <c r="AT11" s="1">
         <f t="shared" si="16"/>
-        <v>-0.55918278795233212</v>
-      </c>
-      <c r="AN11">
-        <f t="shared" si="9"/>
-        <v>-0.40329791265956311</v>
-      </c>
-      <c r="AO11">
-        <v>302938.08896634029</v>
-      </c>
-      <c r="AP11">
+        <v>0.59253150433355295</v>
+      </c>
+      <c r="AU11">
         <f t="shared" si="17"/>
-        <v>1.3442472387769562</v>
-      </c>
-      <c r="AQ11">
-        <f t="shared" si="18"/>
-        <v>3.4355941362598301</v>
-      </c>
-      <c r="AR11">
-        <f t="shared" si="19"/>
-        <v>-9.6869300184241072E-2</v>
-      </c>
-      <c r="AS11">
-        <f t="shared" si="20"/>
-        <v>-0.41401241416581447</v>
-      </c>
-      <c r="AT11">
-        <f t="shared" si="21"/>
-        <v>0.85068058216468156</v>
-      </c>
-      <c r="AU11">
-        <f t="shared" si="22"/>
-        <v>6.4211512550297627</v>
-      </c>
-      <c r="AV11">
-        <f t="shared" si="10"/>
-        <v>-652.02211954117263</v>
-      </c>
-      <c r="AW11">
-        <f t="shared" si="11"/>
-        <v>-2240.0833706073581</v>
-      </c>
-      <c r="AX11">
-        <f t="shared" si="12"/>
-        <v>576661.21241051843</v>
-      </c>
-      <c r="AY11">
-        <f t="shared" si="13"/>
-        <v>2212571.6182362735</v>
+        <v>4.2599526894221524</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>114.008215518</v>
       </c>
@@ -2522,36 +2360,36 @@
         <v>1.8032093482882816</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.5276628453827987</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.72445349709451712</v>
       </c>
-      <c r="AE12">
-        <f t="shared" si="7"/>
-        <v>9.3997601185372393</v>
+      <c r="AE12" s="1">
+        <f t="shared" si="8"/>
+        <v>8.1606439602980174</v>
       </c>
       <c r="AF12">
         <f t="shared" si="1"/>
         <v>-3.1972056023617181</v>
       </c>
       <c r="AG12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.21257561290856053</v>
       </c>
       <c r="AH12">
-        <f t="shared" si="8"/>
-        <v>1.0303656708661162</v>
+        <f t="shared" si="9"/>
+        <v>1.0435178909386069</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="14"/>
-        <v>0.20631084567275165</v>
+        <f t="shared" si="11"/>
+        <v>0.20371055901816537</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="15"/>
-        <v>4.1286421353061593</v>
+        <f t="shared" si="10"/>
+        <v>0.18352205162590746</v>
       </c>
       <c r="AK12">
         <f t="shared" si="2"/>
@@ -2561,59 +2399,43 @@
         <f t="shared" si="3"/>
         <v>2050200.3846515003</v>
       </c>
-      <c r="AM12">
+      <c r="AM12" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.59774018560939834</v>
+      </c>
+      <c r="AN12">
+        <f t="shared" si="5"/>
+        <v>-0.39602314163069291</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>289903.46571090003</v>
+      </c>
+      <c r="AP12">
+        <f t="shared" si="12"/>
+        <v>1.329224375110359</v>
+      </c>
+      <c r="AQ12">
+        <f t="shared" si="13"/>
+        <v>3.3867197162362674</v>
+      </c>
+      <c r="AR12" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.11023134058775416</v>
+      </c>
+      <c r="AS12">
+        <f t="shared" si="15"/>
+        <v>-0.48516008062138249</v>
+      </c>
+      <c r="AT12" s="1">
         <f t="shared" si="16"/>
-        <v>-0.61077333640708864</v>
-      </c>
-      <c r="AN12">
-        <f t="shared" si="9"/>
-        <v>-0.39052695466147519</v>
-      </c>
-      <c r="AO12">
-        <v>302938.08896634029</v>
-      </c>
-      <c r="AP12">
+        <v>0.60064357177332772</v>
+      </c>
+      <c r="AU12">
         <f t="shared" si="17"/>
-        <v>1.329224375110359</v>
-      </c>
-      <c r="AQ12">
-        <f t="shared" si="18"/>
-        <v>3.3867197162362674</v>
-      </c>
-      <c r="AR12">
-        <f t="shared" si="19"/>
-        <v>-0.17797536228550198</v>
-      </c>
-      <c r="AS12">
-        <f t="shared" si="20"/>
-        <v>-0.59198777645131639</v>
-      </c>
-      <c r="AT12">
-        <f t="shared" si="21"/>
-        <v>0.86265635577784883</v>
-      </c>
-      <c r="AU12">
-        <f t="shared" si="22"/>
-        <v>7.283807610807612</v>
-      </c>
-      <c r="AV12">
-        <f t="shared" si="10"/>
-        <v>-693.3191141150761</v>
-      </c>
-      <c r="AW12">
-        <f t="shared" si="11"/>
-        <v>-2348.0775134169903</v>
-      </c>
-      <c r="AX12">
-        <f t="shared" si="12"/>
-        <v>688441.17839442554</v>
-      </c>
-      <c r="AY12">
-        <f t="shared" si="13"/>
-        <v>2596636.0994915017</v>
+        <v>4.8605962611954805</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>129.77406091500001</v>
       </c>
@@ -2700,36 +2522,36 @@
         <v>1.7507299758379502</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.6330672609489758</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.8823372851110256</v>
       </c>
-      <c r="AE13">
-        <f t="shared" si="7"/>
-        <v>10.42127381778735</v>
+      <c r="AE13" s="1">
+        <f t="shared" si="8"/>
+        <v>9.1935313194708428</v>
       </c>
       <c r="AF13">
         <f t="shared" si="1"/>
         <v>-3.7516952623620496</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.15788378801650849</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="8"/>
-        <v>1.0215136992501108</v>
+        <f t="shared" si="9"/>
+        <v>1.0328873591728254</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="14"/>
-        <v>0.15455865949953521</v>
+        <f t="shared" si="11"/>
+        <v>0.15285673371290717</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="15"/>
-        <v>3.9791317249275808</v>
+        <f t="shared" si="10"/>
+        <v>0.19448381304746887</v>
       </c>
       <c r="AK13">
         <f t="shared" si="2"/>
@@ -2739,59 +2561,43 @@
         <f t="shared" si="3"/>
         <v>2315571.1698899996</v>
       </c>
-      <c r="AM13">
+      <c r="AM13" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.60398290372656449</v>
+      </c>
+      <c r="AN13">
+        <f t="shared" si="5"/>
+        <v>-0.40170497101532632</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>289903.46571090003</v>
+      </c>
+      <c r="AP13">
+        <f t="shared" si="12"/>
+        <v>1.3161821183565607</v>
+      </c>
+      <c r="AQ13">
+        <f t="shared" si="13"/>
+        <v>3.3449960937674703</v>
+      </c>
+      <c r="AR13" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.11544718200409795</v>
+      </c>
+      <c r="AS13">
+        <f t="shared" si="15"/>
+        <v>-0.60060726262548048</v>
+      </c>
+      <c r="AT13" s="1">
         <f t="shared" si="16"/>
-        <v>-0.58147698775210965</v>
-      </c>
-      <c r="AN13">
-        <f t="shared" si="9"/>
-        <v>-0.41169868785894764</v>
-      </c>
-      <c r="AO13">
-        <v>302938.08896634029</v>
-      </c>
-      <c r="AP13">
+        <v>0.59360817846532044</v>
+      </c>
+      <c r="AU13">
         <f t="shared" si="17"/>
-        <v>1.3161821183565607</v>
-      </c>
-      <c r="AQ13">
-        <f t="shared" si="18"/>
-        <v>3.3449960937674703</v>
-      </c>
-      <c r="AR13">
-        <f t="shared" si="19"/>
-        <v>-0.13160336133922965</v>
-      </c>
-      <c r="AS13">
-        <f t="shared" si="20"/>
-        <v>-0.72359113779054607</v>
-      </c>
-      <c r="AT13">
-        <f t="shared" si="21"/>
-        <v>0.85147840803850516</v>
-      </c>
-      <c r="AU13">
-        <f t="shared" si="22"/>
-        <v>8.1352860188461165</v>
-      </c>
-      <c r="AV13">
-        <f t="shared" si="10"/>
-        <v>-702.6490665979228</v>
-      </c>
-      <c r="AW13">
-        <f t="shared" si="11"/>
-        <v>-2350.3583830594112</v>
-      </c>
-      <c r="AX13">
-        <f t="shared" si="12"/>
-        <v>804525.80562335451</v>
-      </c>
-      <c r="AY13">
-        <f t="shared" si="13"/>
-        <v>2989811.5123440353</v>
+        <v>5.4542044396608009</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>145.475280191</v>
       </c>
@@ -2878,36 +2684,36 @@
         <v>1.6983816350330971</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.7267743813436764</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1.0283927463105793</v>
       </c>
-      <c r="AE14">
-        <f t="shared" si="7"/>
-        <v>11.4366759110223</v>
+      <c r="AE14" s="1">
+        <f t="shared" si="8"/>
+        <v>10.218653095568079</v>
       </c>
       <c r="AF14">
         <f t="shared" si="1"/>
         <v>-4.3030199263169031</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.1460554611995537</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="8"/>
-        <v>1.0154020932349503</v>
+        <f t="shared" si="9"/>
+        <v>1.0251217760972366</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="14"/>
-        <v>0.14384002374294735</v>
+        <f t="shared" si="11"/>
+        <v>0.14247620585683451</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="15"/>
-        <v>3.8546136316205919</v>
+        <f t="shared" si="10"/>
+        <v>0.20398420268029996</v>
       </c>
       <c r="AK14">
         <f t="shared" si="2"/>
@@ -2917,59 +2723,43 @@
         <f t="shared" si="3"/>
         <v>2562275.2800349998</v>
       </c>
-      <c r="AM14">
+      <c r="AM14" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.60943296683579651</v>
+      </c>
+      <c r="AN14">
+        <f t="shared" si="5"/>
+        <v>-0.40665059540968351</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>289903.46571090003</v>
+      </c>
+      <c r="AP14">
+        <f t="shared" si="12"/>
+        <v>1.3049630913246724</v>
+      </c>
+      <c r="AQ14">
+        <f t="shared" si="13"/>
+        <v>3.3096188961652198</v>
+      </c>
+      <c r="AR14" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.11620105508834198</v>
+      </c>
+      <c r="AS14">
+        <f t="shared" si="15"/>
+        <v>-0.71680831771382247</v>
+      </c>
+      <c r="AT14" s="1">
         <f t="shared" si="16"/>
-        <v>-0.57554199954064567</v>
-      </c>
-      <c r="AN14">
-        <f t="shared" si="9"/>
-        <v>-0.42206284050024157</v>
-      </c>
-      <c r="AO14">
-        <v>302938.08896634029</v>
-      </c>
-      <c r="AP14">
+        <v>0.56965712815742608</v>
+      </c>
+      <c r="AU14">
         <f t="shared" si="17"/>
-        <v>1.3049630913246724</v>
-      </c>
-      <c r="AQ14">
-        <f t="shared" si="18"/>
-        <v>3.3096188961652198</v>
-      </c>
-      <c r="AR14">
-        <f t="shared" si="19"/>
-        <v>-0.11747200357216434</v>
-      </c>
-      <c r="AS14">
-        <f t="shared" si="20"/>
-        <v>-0.84106314136271043</v>
-      </c>
-      <c r="AT14">
-        <f t="shared" si="21"/>
-        <v>0.81668509581238347</v>
-      </c>
-      <c r="AU14">
-        <f t="shared" si="22"/>
-        <v>8.9519711146584999</v>
-      </c>
-      <c r="AV14">
-        <f t="shared" si="10"/>
-        <v>-711.38933296618211</v>
-      </c>
-      <c r="AW14">
-        <f t="shared" si="11"/>
-        <v>-2354.427578915248</v>
-      </c>
-      <c r="AX14">
-        <f t="shared" si="12"/>
-        <v>921655.09474919969</v>
-      </c>
-      <c r="AY14">
-        <f t="shared" si="13"/>
-        <v>3381633.6938967532</v>
+        <v>6.0238615678182272</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>160.97110197399999</v>
       </c>
@@ -3056,36 +2846,36 @@
         <v>1.6503316009821023</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.8137080271925665</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1.1633764262104642</v>
       </c>
-      <c r="AE15">
-        <f t="shared" si="7"/>
-        <v>12.453888443639299</v>
+      <c r="AE15" s="1">
+        <f t="shared" si="8"/>
+        <v>11.244574235126924</v>
       </c>
       <c r="AF15">
         <f t="shared" si="1"/>
         <v>-4.8516678876678974</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.13498367989988491</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="8"/>
-        <v>1.0172125326169983</v>
+        <f t="shared" si="9"/>
+        <v>1.0259211395588448</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="14"/>
-        <v>0.13269958398232701</v>
+        <f t="shared" si="11"/>
+        <v>0.13157315381758203</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="15"/>
-        <v>3.7455515748213779</v>
+        <f t="shared" si="10"/>
+        <v>0.2123499900500545</v>
       </c>
       <c r="AK15">
         <f t="shared" si="2"/>
@@ -3095,59 +2885,43 @@
         <f t="shared" si="3"/>
         <v>2810370.078675</v>
       </c>
-      <c r="AM15">
+      <c r="AM15" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.61426290385743265</v>
+      </c>
+      <c r="AN15">
+        <f t="shared" si="5"/>
+        <v>-0.41102133334588598</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>289903.46571090003</v>
+      </c>
+      <c r="AP15">
+        <f t="shared" si="12"/>
+        <v>1.2951491902278758</v>
+      </c>
+      <c r="AQ15">
+        <f t="shared" si="13"/>
+        <v>3.2790543010640141</v>
+      </c>
+      <c r="AR15" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.12005113793419774</v>
+      </c>
+      <c r="AS15">
+        <f t="shared" si="15"/>
+        <v>-0.83685945564802022</v>
+      </c>
+      <c r="AT15" s="1">
         <f t="shared" si="16"/>
-        <v>-0.5694204816703321</v>
-      </c>
-      <c r="AN15">
-        <f t="shared" si="9"/>
-        <v>-0.43186862204774734</v>
-      </c>
-      <c r="AO15">
-        <v>302938.08896634029</v>
-      </c>
-      <c r="AP15">
+        <v>0.56534562542668187</v>
+      </c>
+      <c r="AU15">
         <f t="shared" si="17"/>
-        <v>1.2951491902278758</v>
-      </c>
-      <c r="AQ15">
-        <f t="shared" si="18"/>
-        <v>3.2790543010640141</v>
-      </c>
-      <c r="AR15">
-        <f t="shared" si="19"/>
-        <v>-0.10749130822187181</v>
-      </c>
-      <c r="AS15">
-        <f t="shared" si="20"/>
-        <v>-0.94855444958458224</v>
-      </c>
-      <c r="AT15">
-        <f t="shared" si="21"/>
-        <v>0.81003500535606476</v>
-      </c>
-      <c r="AU15">
-        <f t="shared" si="22"/>
-        <v>9.7620061200145649</v>
-      </c>
-      <c r="AV15">
-        <f t="shared" si="10"/>
-        <v>-724.27294415515462</v>
-      </c>
-      <c r="AW15">
-        <f t="shared" si="11"/>
-        <v>-2374.9303126762557</v>
-      </c>
-      <c r="AX15">
-        <f t="shared" si="12"/>
-        <v>1036075.905814069</v>
-      </c>
-      <c r="AY15">
-        <f t="shared" si="13"/>
-        <v>3760345.1094208756</v>
+        <v>6.589207193244909</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>176.24245648600001</v>
       </c>
@@ -3234,36 +3008,36 @@
         <v>1.5229187844645886</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.8921735590680138</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1.3692547746034252</v>
       </c>
-      <c r="AE16">
-        <f t="shared" si="7"/>
-        <v>13.494096944178469</v>
+      <c r="AE16" s="1">
+        <f t="shared" si="8"/>
+        <v>12.292402613431094</v>
       </c>
       <c r="AF16">
         <f t="shared" si="1"/>
         <v>-5.4779494850354116</v>
       </c>
       <c r="AG16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.20587834839296093</v>
       </c>
       <c r="AH16">
-        <f t="shared" si="8"/>
-        <v>1.0402085005391708</v>
+        <f t="shared" si="9"/>
+        <v>1.0478283783041693</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="14"/>
-        <v>0.19792027106704868</v>
+        <f t="shared" si="11"/>
+        <v>0.19648098167197897</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="15"/>
-        <v>3.6520373341150312</v>
+        <f t="shared" si="10"/>
+        <v>0.21980522846745118</v>
       </c>
       <c r="AK16">
         <f t="shared" si="2"/>
@@ -3273,59 +3047,43 @@
         <f t="shared" si="3"/>
         <v>3046157.0020749997</v>
       </c>
-      <c r="AM16">
+      <c r="AM16" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.6185916346858783</v>
+      </c>
+      <c r="AN16">
+        <f t="shared" si="5"/>
+        <v>-0.41492835037964265</v>
+      </c>
+      <c r="AO16" s="1">
+        <v>289903.46571090003</v>
+      </c>
+      <c r="AP16">
+        <f t="shared" si="12"/>
+        <v>1.2864551675378204</v>
+      </c>
+      <c r="AQ16">
+        <f t="shared" si="13"/>
+        <v>3.2522699316060306</v>
+      </c>
+      <c r="AR16" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.11912182196284361</v>
+      </c>
+      <c r="AS16">
+        <f t="shared" si="15"/>
+        <v>-0.95598127761086382</v>
+      </c>
+      <c r="AT16" s="1">
         <f t="shared" si="16"/>
-        <v>-0.60595002117003527</v>
-      </c>
-      <c r="AN16">
-        <f t="shared" si="9"/>
-        <v>-0.42064807001299731</v>
-      </c>
-      <c r="AO16">
-        <v>302938.08896634029</v>
-      </c>
-      <c r="AP16">
+        <v>0.54194262253631131</v>
+      </c>
+      <c r="AU16">
         <f t="shared" si="17"/>
-        <v>1.2864551675378204</v>
-      </c>
-      <c r="AQ16">
-        <f t="shared" si="18"/>
-        <v>3.2522699316060306</v>
-      </c>
-      <c r="AR16">
-        <f t="shared" si="19"/>
-        <v>-0.15383336888143098</v>
-      </c>
-      <c r="AS16">
-        <f t="shared" si="20"/>
-        <v>-1.1023878184660132</v>
-      </c>
-      <c r="AT16">
-        <f t="shared" si="21"/>
-        <v>0.77724918247165042</v>
-      </c>
-      <c r="AU16">
-        <f t="shared" si="22"/>
-        <v>10.539255302486215</v>
-      </c>
-      <c r="AV16">
-        <f t="shared" si="10"/>
-        <v>-750.22100430721434</v>
-      </c>
-      <c r="AW16">
-        <f t="shared" si="11"/>
-        <v>-2439.9212143676323</v>
-      </c>
-      <c r="AX16">
-        <f t="shared" si="12"/>
-        <v>1151401.7489255406</v>
-      </c>
-      <c r="AY16">
-        <f t="shared" si="13"/>
-        <v>4138524.9054959356</v>
+        <v>7.1311498157812201</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>191.27767915699999</v>
       </c>
@@ -3412,36 +3170,36 @@
         <v>1.3844579482043651</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.9632657811944698</v>
       </c>
       <c r="AD17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1.5788078329901047</v>
       </c>
-      <c r="AE17">
-        <f t="shared" si="7"/>
-        <v>14.54301115556521</v>
+      <c r="AE17" s="1">
+        <f t="shared" si="8"/>
+        <v>13.34803372386159</v>
       </c>
       <c r="AF17">
         <f t="shared" si="1"/>
         <v>-6.1177906209456347</v>
       </c>
       <c r="AG17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.20955305838667959</v>
       </c>
       <c r="AH17">
-        <f t="shared" si="8"/>
-        <v>1.0489142113867409</v>
+        <f t="shared" si="9"/>
+        <v>1.0556311104304967</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="14"/>
-        <v>0.19978093166421609</v>
+        <f t="shared" si="11"/>
+        <v>0.1985097410602287</v>
       </c>
       <c r="AJ17">
-        <f t="shared" si="15"/>
-        <v>3.5710667871674415</v>
+        <f t="shared" si="10"/>
+        <v>0.22638828806408789</v>
       </c>
       <c r="AK17">
         <f t="shared" si="2"/>
@@ -3451,59 +3209,43 @@
         <f t="shared" si="3"/>
         <v>3263078.8216599999</v>
       </c>
-      <c r="AM17">
+      <c r="AM17" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.62243329902119271</v>
+      </c>
+      <c r="AN17">
+        <f t="shared" si="5"/>
+        <v>-0.41838738033418454</v>
+      </c>
+      <c r="AO17" s="1">
+        <v>289903.46571090003</v>
+      </c>
+      <c r="AP17">
+        <f t="shared" si="12"/>
+        <v>1.2788189027392434</v>
+      </c>
+      <c r="AQ17">
+        <f t="shared" si="13"/>
+        <v>3.228967488850194</v>
+      </c>
+      <c r="AR17" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.1172395114376945</v>
+      </c>
+      <c r="AS17">
+        <f t="shared" si="15"/>
+        <v>-1.0732207890485583</v>
+      </c>
+      <c r="AT17" s="1">
         <f t="shared" si="16"/>
-        <v>-0.60701712622592197</v>
-      </c>
-      <c r="AN17">
-        <f t="shared" si="9"/>
-        <v>-0.4254367247677896</v>
-      </c>
-      <c r="AO17">
-        <v>302938.08896634029</v>
-      </c>
-      <c r="AP17">
+        <v>0.51786915498254649</v>
+      </c>
+      <c r="AU17">
         <f t="shared" si="17"/>
-        <v>1.2788189027392434</v>
-      </c>
-      <c r="AQ17">
-        <f t="shared" si="18"/>
-        <v>3.228967488850194</v>
-      </c>
-      <c r="AR17">
-        <f t="shared" si="19"/>
-        <v>-0.14833853709018302</v>
-      </c>
-      <c r="AS17">
-        <f t="shared" si="20"/>
-        <v>-1.2507263555561963</v>
-      </c>
-      <c r="AT17">
-        <f t="shared" si="21"/>
-        <v>0.74250598320116246</v>
-      </c>
-      <c r="AU17">
-        <f t="shared" si="22"/>
-        <v>11.281761285687377</v>
-      </c>
-      <c r="AV17">
-        <f t="shared" si="10"/>
-        <v>-765.95018570685556</v>
-      </c>
-      <c r="AW17">
-        <f t="shared" si="11"/>
-        <v>-2473.2282477262061</v>
-      </c>
-      <c r="AX17">
-        <f t="shared" si="12"/>
-        <v>1263499.8242301841</v>
-      </c>
-      <c r="AY17">
-        <f t="shared" si="13"/>
-        <v>4503115.9537104927</v>
+        <v>7.6490189707637661</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>198.126511647</v>
       </c>
@@ -3590,36 +3332,36 @@
         <v>-0.38131419300644342</v>
       </c>
       <c r="AC18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.9420401064210475</v>
       </c>
       <c r="AD18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.3233542994274909</v>
       </c>
-      <c r="AE18">
-        <f t="shared" si="7"/>
-        <v>16.127682295602149</v>
+      <c r="AE18" s="1">
+        <f t="shared" si="8"/>
+        <v>14.930717526601342</v>
       </c>
       <c r="AF18">
         <f t="shared" si="1"/>
         <v>-8.3816029753064427</v>
       </c>
       <c r="AG18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.7445464664373862</v>
       </c>
       <c r="AH18">
-        <f t="shared" si="8"/>
-        <v>1.5846711400369387</v>
+        <f t="shared" si="9"/>
+        <v>1.5826838027397514</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="14"/>
-        <v>1.100888646458672</v>
+        <f t="shared" si="11"/>
+        <v>1.1022710053754501</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="15"/>
-        <v>3.5948819244840498</v>
+        <f t="shared" si="10"/>
+        <v>0.2285319783636458</v>
       </c>
       <c r="AK18">
         <f t="shared" si="2"/>
@@ -3629,59 +3371,43 @@
         <f t="shared" si="3"/>
         <v>2984181.5885450002</v>
       </c>
-      <c r="AM18">
+      <c r="AM18" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.62368822763578957</v>
+      </c>
+      <c r="AN18">
+        <f t="shared" si="5"/>
+        <v>-0.41951556306746651</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>289903.46571090003</v>
+      </c>
+      <c r="AP18">
+        <f t="shared" si="12"/>
+        <v>1.2763404986788218</v>
+      </c>
+      <c r="AQ18">
+        <f t="shared" si="13"/>
+        <v>3.2214488958530012</v>
+      </c>
+      <c r="AR18" s="1">
+        <f t="shared" si="14"/>
+        <v>3.5957369734673485E-2</v>
+      </c>
+      <c r="AS18">
+        <f t="shared" si="15"/>
+        <v>-1.0372634193138848</v>
+      </c>
+      <c r="AT18" s="1">
         <f t="shared" si="16"/>
-        <v>-1.3695293020120802</v>
-      </c>
-      <c r="AN18">
-        <f t="shared" si="9"/>
-        <v>-0.23287573927317734</v>
-      </c>
-      <c r="AO18">
-        <v>302938.08896634029</v>
-      </c>
-      <c r="AP18">
+        <v>-0.15734064874482123</v>
+      </c>
+      <c r="AU18">
         <f t="shared" si="17"/>
-        <v>1.2763404986788218</v>
-      </c>
-      <c r="AQ18">
-        <f t="shared" si="18"/>
-        <v>3.2214488958530012</v>
-      </c>
-      <c r="AR18">
-        <f t="shared" si="19"/>
-        <v>0.29768339092912394</v>
-      </c>
-      <c r="AS18">
-        <f t="shared" si="20"/>
-        <v>-0.95304296462707239</v>
-      </c>
-      <c r="AT18">
-        <f t="shared" si="21"/>
-        <v>-0.27040281674873201</v>
-      </c>
-      <c r="AU18">
-        <f t="shared" si="22"/>
-        <v>11.011358468938646</v>
-      </c>
-      <c r="AV18">
-        <f t="shared" si="10"/>
-        <v>-969.20976431442853</v>
-      </c>
-      <c r="AW18">
-        <f t="shared" si="11"/>
-        <v>-3122.2597251006637</v>
-      </c>
-      <c r="AX18">
-        <f t="shared" si="12"/>
-        <v>1371736.8144923125</v>
-      </c>
-      <c r="AY18">
-        <f t="shared" si="13"/>
-        <v>4852616.9634516453</v>
+        <v>7.4916783220189451</v>
       </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>197.87447431800001</v>
       </c>
@@ -3768,7 +3494,7 @@
         <v>-1.9658156996697373</v>
       </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>186.57943324600001</v>
       </c>
@@ -3855,7 +3581,7 @@
         <v>-3.381817502498885</v>
       </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>183.777742348</v>
       </c>
@@ -3942,7 +3668,7 @@
         <v>-4.4086754197059319</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>184.13538001000001</v>
       </c>

--- a/SMP_3PP.xlsx
+++ b/SMP_3PP.xlsx
@@ -950,7 +950,7 @@
         <v>-0.2268471903439101</v>
       </c>
       <c r="AO3" s="1">
-        <v>289903.46571090003</v>
+        <v>317303.66712625924</v>
       </c>
       <c r="AP3" s="2">
         <f>(AK3*1.35*(AK3/3255000)^-0.0723-AK2*1.35*(AK2/3255000)^-0.0723)/(AK3-AK2)</f>
@@ -962,19 +962,19 @@
       </c>
       <c r="AR3" s="2">
         <f>(1+2*AM3)*(AK3-AK2)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
-        <v>3.3666655414395487E-2</v>
+        <v>3.0759430459542176E-2</v>
       </c>
       <c r="AS3" s="2">
         <f>(AS2+AR3)</f>
-        <v>3.3666655414395487E-2</v>
+        <v>3.0759430459542176E-2</v>
       </c>
       <c r="AT3" s="2">
         <f>2*(1-AM3)*(AK3-AK2)*(1-AP3/3)/(9*AN3*AO3*AM3)</f>
-        <v>0.1870230034961361</v>
+        <v>0.17087296019058407</v>
       </c>
       <c r="AU3" s="2">
         <f>AU2+AT3</f>
-        <v>0.1870230034961361</v>
+        <v>0.17087296019058407</v>
       </c>
     </row>
     <row r="4" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1112,7 +1112,7 @@
         <v>-0.28104526554973119</v>
       </c>
       <c r="AO4" s="1">
-        <v>289903.46571090003</v>
+        <v>317303.66712625924</v>
       </c>
       <c r="AP4" s="1">
         <f t="shared" ref="AP4:AP18" si="12">(AK4*1.35*(AK4/3255000)^-0.0723-AK3*1.35*(AK3/3255000)^-0.0723)/(AK4-AK3)</f>
@@ -1124,19 +1124,19 @@
       </c>
       <c r="AR4" s="1">
         <f t="shared" ref="AR4:AR18" si="14">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
-        <v>1.6955876248553377E-2</v>
+        <v>1.5491681306868697E-2</v>
       </c>
       <c r="AS4" s="1">
         <f t="shared" ref="AS4:AS18" si="15">AS3+AR4</f>
-        <v>5.0622531662948861E-2</v>
+        <v>4.6251111766410877E-2</v>
       </c>
       <c r="AT4" s="1">
         <f t="shared" ref="AT4:AT18" si="16">2*(1-AM4)*(AK4-AK3)*(1-AP4/3)/(9*AN4*AO4*AM4)</f>
-        <v>0.31619624023457688</v>
+        <v>0.28889166872529376</v>
       </c>
       <c r="AU4" s="1">
         <f>AU3+AT4</f>
-        <v>0.50321924373071303</v>
+        <v>0.45976462891587783</v>
       </c>
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.25">
@@ -1274,7 +1274,7 @@
         <v>-0.3120339821733974</v>
       </c>
       <c r="AO5" s="1">
-        <v>289903.46571090003</v>
+        <v>317303.66712625924</v>
       </c>
       <c r="AP5">
         <f t="shared" si="12"/>
@@ -1286,19 +1286,19 @@
       </c>
       <c r="AR5" s="1">
         <f t="shared" si="14"/>
-        <v>-5.6152191347350914E-3</v>
+        <v>-5.1303267391426431E-3</v>
       </c>
       <c r="AS5">
         <f t="shared" si="15"/>
-        <v>4.5007312528213772E-2</v>
+        <v>4.1120785027268236E-2</v>
       </c>
       <c r="AT5" s="1">
         <f t="shared" si="16"/>
-        <v>0.4072559596174895</v>
+        <v>0.37208808581953451</v>
       </c>
       <c r="AU5">
         <f>AU4+AT5</f>
-        <v>0.91047520334820253</v>
+        <v>0.83185271473541234</v>
       </c>
     </row>
     <row r="6" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1436,7 +1436,7 @@
         <v>-0.3335528427913701</v>
       </c>
       <c r="AO6" s="1">
-        <v>289903.46571090003</v>
+        <v>317303.66712625924</v>
       </c>
       <c r="AP6">
         <f t="shared" si="12"/>
@@ -1448,19 +1448,19 @@
       </c>
       <c r="AR6" s="1">
         <f t="shared" si="14"/>
-        <v>-2.8317496213823384E-2</v>
+        <v>-2.5872188515791993E-2</v>
       </c>
       <c r="AS6">
         <f t="shared" si="15"/>
-        <v>1.6689816314390388E-2</v>
+        <v>1.5248596511476243E-2</v>
       </c>
       <c r="AT6" s="1">
         <f t="shared" si="16"/>
-        <v>0.48087136496771588</v>
+        <v>0.43934656201058131</v>
       </c>
       <c r="AU6">
         <f t="shared" ref="AU6:AU18" si="17">AU5+AT6</f>
-        <v>1.3913465683159183</v>
+        <v>1.2711992767459936</v>
       </c>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.25">
@@ -1598,7 +1598,7 @@
         <v>-0.34989451377484876</v>
       </c>
       <c r="AO7" s="1">
-        <v>289903.46571090003</v>
+        <v>317303.66712625924</v>
       </c>
       <c r="AP7">
         <f t="shared" si="12"/>
@@ -1610,19 +1610,19 @@
       </c>
       <c r="AR7" s="1">
         <f t="shared" si="14"/>
-        <v>-4.9247155145680059E-2</v>
+        <v>-4.4994503474975786E-2</v>
       </c>
       <c r="AS7">
         <f t="shared" si="15"/>
-        <v>-3.2557338831289667E-2</v>
+        <v>-2.9745906963499543E-2</v>
       </c>
       <c r="AT7" s="1">
         <f t="shared" si="16"/>
-        <v>0.53344272728490316</v>
+        <v>0.48737821657961455</v>
       </c>
       <c r="AU7">
         <f t="shared" si="17"/>
-        <v>1.9247892956008215</v>
+        <v>1.7585774933256082</v>
       </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.25">
@@ -1760,7 +1760,7 @@
         <v>-0.36276982698752952</v>
       </c>
       <c r="AO8" s="1">
-        <v>289903.46571090003</v>
+        <v>317303.66712625924</v>
       </c>
       <c r="AP8">
         <f t="shared" si="12"/>
@@ -1772,19 +1772,19 @@
       </c>
       <c r="AR8" s="1">
         <f t="shared" si="14"/>
-        <v>-6.6151854189660284E-2</v>
+        <v>-6.043942689497378E-2</v>
       </c>
       <c r="AS8">
         <f t="shared" si="15"/>
-        <v>-9.8709193020949951E-2</v>
+        <v>-9.0185333858473327E-2</v>
       </c>
       <c r="AT8" s="1">
         <f t="shared" si="16"/>
-        <v>0.55959532750007202</v>
+        <v>0.51127245489206441</v>
       </c>
       <c r="AU8">
         <f t="shared" si="17"/>
-        <v>2.4843846231008935</v>
+        <v>2.2698499482176726</v>
       </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.25">
@@ -1922,7 +1922,7 @@
         <v>-0.37329527600630685</v>
       </c>
       <c r="AO9" s="1">
-        <v>289903.46571090003</v>
+        <v>317303.66712625924</v>
       </c>
       <c r="AP9">
         <f t="shared" si="12"/>
@@ -1934,19 +1934,19 @@
       </c>
       <c r="AR9" s="1">
         <f t="shared" si="14"/>
-        <v>-8.1888099402798328E-2</v>
+        <v>-7.4816796264455421E-2</v>
       </c>
       <c r="AS9">
         <f t="shared" si="15"/>
-        <v>-0.18059729242374828</v>
+        <v>-0.16500213012292875</v>
       </c>
       <c r="AT9" s="1">
         <f t="shared" si="16"/>
-        <v>0.5886329602345759</v>
+        <v>0.53780259380288664</v>
       </c>
       <c r="AU9">
         <f t="shared" si="17"/>
-        <v>3.0730175833354694</v>
+        <v>2.8076525420205591</v>
       </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.25">
@@ -2084,7 +2084,7 @@
         <v>-0.38212076589957822</v>
       </c>
       <c r="AO10" s="1">
-        <v>289903.46571090003</v>
+        <v>317303.66712625924</v>
       </c>
       <c r="AP10">
         <f t="shared" si="12"/>
@@ -2096,19 +2096,19 @@
       </c>
       <c r="AR10" s="1">
         <f t="shared" si="14"/>
-        <v>-9.3007126811585017E-2</v>
+        <v>-8.4975659571443596E-2</v>
       </c>
       <c r="AS10">
         <f t="shared" si="15"/>
-        <v>-0.2736044192353333</v>
+        <v>-0.24997778969437234</v>
       </c>
       <c r="AT10" s="1">
         <f t="shared" si="16"/>
-        <v>0.59440360175313012</v>
+        <v>0.54307492169860672</v>
       </c>
       <c r="AU10">
         <f t="shared" si="17"/>
-        <v>3.6674211850885996</v>
+        <v>3.3507274637191657</v>
       </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.25">
@@ -2246,7 +2246,7 @@
         <v>-0.38956726906468903</v>
       </c>
       <c r="AO11" s="1">
-        <v>289903.46571090003</v>
+        <v>317303.66712625924</v>
       </c>
       <c r="AP11">
         <f t="shared" si="12"/>
@@ -2258,19 +2258,19 @@
       </c>
       <c r="AR11" s="1">
         <f t="shared" si="14"/>
-        <v>-0.101324320798295</v>
+        <v>-9.2574636865259866E-2</v>
       </c>
       <c r="AS11">
         <f t="shared" si="15"/>
-        <v>-0.3749287400336283</v>
+        <v>-0.34255242655963219</v>
       </c>
       <c r="AT11" s="1">
         <f t="shared" si="16"/>
-        <v>0.59253150433355295</v>
+        <v>0.54136448596680697</v>
       </c>
       <c r="AU11">
         <f t="shared" si="17"/>
-        <v>4.2599526894221524</v>
+        <v>3.8920919496859727</v>
       </c>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.25">
@@ -2408,7 +2408,7 @@
         <v>-0.39602314163069291</v>
       </c>
       <c r="AO12" s="1">
-        <v>289903.46571090003</v>
+        <v>317303.66712625924</v>
       </c>
       <c r="AP12">
         <f t="shared" si="12"/>
@@ -2420,19 +2420,19 @@
       </c>
       <c r="AR12" s="1">
         <f t="shared" si="14"/>
-        <v>-0.11023134058775416</v>
+        <v>-0.10071250658957132</v>
       </c>
       <c r="AS12">
         <f t="shared" si="15"/>
-        <v>-0.48516008062138249</v>
+        <v>-0.44326493314920351</v>
       </c>
       <c r="AT12" s="1">
         <f t="shared" si="16"/>
-        <v>0.60064357177332772</v>
+        <v>0.54877605005672192</v>
       </c>
       <c r="AU12">
         <f t="shared" si="17"/>
-        <v>4.8605962611954805</v>
+        <v>4.4408679997426947</v>
       </c>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.25">
@@ -2570,7 +2570,7 @@
         <v>-0.40170497101532632</v>
       </c>
       <c r="AO13" s="1">
-        <v>289903.46571090003</v>
+        <v>317303.66712625924</v>
       </c>
       <c r="AP13">
         <f t="shared" si="12"/>
@@ -2582,19 +2582,19 @@
       </c>
       <c r="AR13" s="1">
         <f t="shared" si="14"/>
-        <v>-0.11544718200409795</v>
+        <v>-0.10547794317242316</v>
       </c>
       <c r="AS13">
         <f t="shared" si="15"/>
-        <v>-0.60060726262548048</v>
+        <v>-0.54874287632162666</v>
       </c>
       <c r="AT13" s="1">
         <f t="shared" si="16"/>
-        <v>0.59360817846532044</v>
+        <v>0.54234818579312039</v>
       </c>
       <c r="AU13">
         <f t="shared" si="17"/>
-        <v>5.4542044396608009</v>
+        <v>4.9832161855358148</v>
       </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.25">
@@ -2732,7 +2732,7 @@
         <v>-0.40665059540968351</v>
       </c>
       <c r="AO14" s="1">
-        <v>289903.46571090003</v>
+        <v>317303.66712625924</v>
       </c>
       <c r="AP14">
         <f t="shared" si="12"/>
@@ -2744,19 +2744,19 @@
       </c>
       <c r="AR14" s="1">
         <f t="shared" si="14"/>
-        <v>-0.11620105508834198</v>
+        <v>-0.10616671686926651</v>
       </c>
       <c r="AS14">
         <f t="shared" si="15"/>
-        <v>-0.71680831771382247</v>
+        <v>-0.65490959319089315</v>
       </c>
       <c r="AT14" s="1">
         <f t="shared" si="16"/>
-        <v>0.56965712815742608</v>
+        <v>0.52046538640866891</v>
       </c>
       <c r="AU14">
         <f t="shared" si="17"/>
-        <v>6.0238615678182272</v>
+        <v>5.503681571944484</v>
       </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.25">
@@ -2894,7 +2894,7 @@
         <v>-0.41102133334588598</v>
       </c>
       <c r="AO15" s="1">
-        <v>289903.46571090003</v>
+        <v>317303.66712625924</v>
       </c>
       <c r="AP15">
         <f t="shared" si="12"/>
@@ -2906,19 +2906,19 @@
       </c>
       <c r="AR15" s="1">
         <f t="shared" si="14"/>
-        <v>-0.12005113793419774</v>
+        <v>-0.10968433256654599</v>
       </c>
       <c r="AS15">
         <f t="shared" si="15"/>
-        <v>-0.83685945564802022</v>
+        <v>-0.76459392575743912</v>
       </c>
       <c r="AT15" s="1">
         <f t="shared" si="16"/>
-        <v>0.56534562542668187</v>
+        <v>0.51652619593102644</v>
       </c>
       <c r="AU15">
         <f t="shared" si="17"/>
-        <v>6.589207193244909</v>
+        <v>6.0202077678755108</v>
       </c>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.25">
@@ -3056,7 +3056,7 @@
         <v>-0.41492835037964265</v>
       </c>
       <c r="AO16" s="1">
-        <v>289903.46571090003</v>
+        <v>317303.66712625924</v>
       </c>
       <c r="AP16">
         <f t="shared" si="12"/>
@@ -3068,19 +3068,19 @@
       </c>
       <c r="AR16" s="1">
         <f t="shared" si="14"/>
-        <v>-0.11912182196284361</v>
+        <v>-0.10883526604526671</v>
       </c>
       <c r="AS16">
         <f t="shared" si="15"/>
-        <v>-0.95598127761086382</v>
+        <v>-0.87342919180270584</v>
       </c>
       <c r="AT16" s="1">
         <f t="shared" si="16"/>
-        <v>0.54194262253631131</v>
+        <v>0.49514411829099425</v>
       </c>
       <c r="AU16">
         <f t="shared" si="17"/>
-        <v>7.1311498157812201</v>
+        <v>6.5153518861665054</v>
       </c>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.25">
@@ -3218,7 +3218,7 @@
         <v>-0.41838738033418454</v>
       </c>
       <c r="AO17" s="1">
-        <v>289903.46571090003</v>
+        <v>317303.66712625924</v>
       </c>
       <c r="AP17">
         <f t="shared" si="12"/>
@@ -3230,19 +3230,19 @@
       </c>
       <c r="AR17" s="1">
         <f t="shared" si="14"/>
-        <v>-0.1172395114376945</v>
+        <v>-0.10711549914270614</v>
       </c>
       <c r="AS17">
         <f t="shared" si="15"/>
-        <v>-1.0732207890485583</v>
+        <v>-0.98054469094541197</v>
       </c>
       <c r="AT17" s="1">
         <f t="shared" si="16"/>
-        <v>0.51786915498254649</v>
+        <v>0.47314947278713898</v>
       </c>
       <c r="AU17">
         <f t="shared" si="17"/>
-        <v>7.6490189707637661</v>
+        <v>6.988501358953644</v>
       </c>
     </row>
     <row r="18" spans="1:47" x14ac:dyDescent="0.25">
@@ -3380,7 +3380,7 @@
         <v>-0.41951556306746651</v>
       </c>
       <c r="AO18" s="1">
-        <v>289903.46571090003</v>
+        <v>317303.66712625924</v>
       </c>
       <c r="AP18">
         <f t="shared" si="12"/>
@@ -3392,19 +3392,19 @@
       </c>
       <c r="AR18" s="1">
         <f t="shared" si="14"/>
-        <v>3.5957369734673485E-2</v>
+        <v>3.2852334164112137E-2</v>
       </c>
       <c r="AS18">
         <f t="shared" si="15"/>
-        <v>-1.0372634193138848</v>
+        <v>-0.94769235678129982</v>
       </c>
       <c r="AT18" s="1">
         <f t="shared" si="16"/>
-        <v>-0.15734064874482123</v>
+        <v>-0.14375377310144608</v>
       </c>
       <c r="AU18">
         <f t="shared" si="17"/>
-        <v>7.4916783220189451</v>
+        <v>6.8447475858521978</v>
       </c>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.25">

--- a/SMP_3PP.xlsx
+++ b/SMP_3PP.xlsx
@@ -950,7 +950,7 @@
         <v>-0.2268471903439101</v>
       </c>
       <c r="AO3" s="1">
-        <v>317303.66712625924</v>
+        <v>321688.56653439248</v>
       </c>
       <c r="AP3" s="2">
         <f>(AK3*1.35*(AK3/3255000)^-0.0723-AK2*1.35*(AK2/3255000)^-0.0723)/(AK3-AK2)</f>
@@ -962,19 +962,19 @@
       </c>
       <c r="AR3" s="2">
         <f>(1+2*AM3)*(AK3-AK2)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
-        <v>3.0759430459542176E-2</v>
+        <v>3.0340152243130521E-2</v>
       </c>
       <c r="AS3" s="2">
         <f>(AS2+AR3)</f>
-        <v>3.0759430459542176E-2</v>
+        <v>3.0340152243130521E-2</v>
       </c>
       <c r="AT3" s="2">
         <f>2*(1-AM3)*(AK3-AK2)*(1-AP3/3)/(9*AN3*AO3*AM3)</f>
-        <v>0.17087296019058407</v>
+        <v>0.16854381075864253</v>
       </c>
       <c r="AU3" s="2">
         <f>AU2+AT3</f>
-        <v>0.17087296019058407</v>
+        <v>0.16854381075864253</v>
       </c>
     </row>
     <row r="4" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1112,7 +1112,7 @@
         <v>-0.28104526554973119</v>
       </c>
       <c r="AO4" s="1">
-        <v>317303.66712625924</v>
+        <v>321688.56653439248</v>
       </c>
       <c r="AP4" s="1">
         <f t="shared" ref="AP4:AP18" si="12">(AK4*1.35*(AK4/3255000)^-0.0723-AK3*1.35*(AK3/3255000)^-0.0723)/(AK4-AK3)</f>
@@ -1124,19 +1124,19 @@
       </c>
       <c r="AR4" s="1">
         <f t="shared" ref="AR4:AR18" si="14">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
-        <v>1.5491681306868697E-2</v>
+        <v>1.5280516002098019E-2</v>
       </c>
       <c r="AS4" s="1">
         <f t="shared" ref="AS4:AS18" si="15">AS3+AR4</f>
-        <v>4.6251111766410877E-2</v>
+        <v>4.5620668245228542E-2</v>
       </c>
       <c r="AT4" s="1">
         <f t="shared" ref="AT4:AT18" si="16">2*(1-AM4)*(AK4-AK3)*(1-AP4/3)/(9*AN4*AO4*AM4)</f>
-        <v>0.28889166872529376</v>
+        <v>0.28495382001386704</v>
       </c>
       <c r="AU4" s="1">
         <f>AU3+AT4</f>
-        <v>0.45976462891587783</v>
+        <v>0.4534976307725096</v>
       </c>
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.25">
@@ -1274,7 +1274,7 @@
         <v>-0.3120339821733974</v>
       </c>
       <c r="AO5" s="1">
-        <v>317303.66712625924</v>
+        <v>321688.56653439248</v>
       </c>
       <c r="AP5">
         <f t="shared" si="12"/>
@@ -1286,19 +1286,19 @@
       </c>
       <c r="AR5" s="1">
         <f t="shared" si="14"/>
-        <v>-5.1303267391426431E-3</v>
+        <v>-5.0603958524955061E-3</v>
       </c>
       <c r="AS5">
         <f t="shared" si="15"/>
-        <v>4.1120785027268236E-2</v>
+        <v>4.0560272392733035E-2</v>
       </c>
       <c r="AT5" s="1">
         <f t="shared" si="16"/>
-        <v>0.37208808581953451</v>
+        <v>0.36701619643017669</v>
       </c>
       <c r="AU5">
         <f>AU4+AT5</f>
-        <v>0.83185271473541234</v>
+        <v>0.82051382720268629</v>
       </c>
     </row>
     <row r="6" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1436,7 +1436,7 @@
         <v>-0.3335528427913701</v>
       </c>
       <c r="AO6" s="1">
-        <v>317303.66712625924</v>
+        <v>321688.56653439248</v>
       </c>
       <c r="AP6">
         <f t="shared" si="12"/>
@@ -1448,19 +1448,19 @@
       </c>
       <c r="AR6" s="1">
         <f t="shared" si="14"/>
-        <v>-2.5872188515791993E-2</v>
+        <v>-2.5519527725474844E-2</v>
       </c>
       <c r="AS6">
         <f t="shared" si="15"/>
-        <v>1.5248596511476243E-2</v>
+        <v>1.5040744667258191E-2</v>
       </c>
       <c r="AT6" s="1">
         <f t="shared" si="16"/>
-        <v>0.43934656201058131</v>
+        <v>0.43335788016067911</v>
       </c>
       <c r="AU6">
         <f t="shared" ref="AU6:AU18" si="17">AU5+AT6</f>
-        <v>1.2711992767459936</v>
+        <v>1.2538717073633654</v>
       </c>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.25">
@@ -1598,7 +1598,7 @@
         <v>-0.34989451377484876</v>
       </c>
       <c r="AO7" s="1">
-        <v>317303.66712625924</v>
+        <v>321688.56653439248</v>
       </c>
       <c r="AP7">
         <f t="shared" si="12"/>
@@ -1610,19 +1610,19 @@
       </c>
       <c r="AR7" s="1">
         <f t="shared" si="14"/>
-        <v>-4.4994503474975786E-2</v>
+        <v>-4.4381188635153598E-2</v>
       </c>
       <c r="AS7">
         <f t="shared" si="15"/>
-        <v>-2.9745906963499543E-2</v>
+        <v>-2.9340443967895407E-2</v>
       </c>
       <c r="AT7" s="1">
         <f t="shared" si="16"/>
-        <v>0.48737821657961455</v>
+        <v>0.48073482083683028</v>
       </c>
       <c r="AU7">
         <f t="shared" si="17"/>
-        <v>1.7585774933256082</v>
+        <v>1.7346065282001957</v>
       </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.25">
@@ -1760,7 +1760,7 @@
         <v>-0.36276982698752952</v>
       </c>
       <c r="AO8" s="1">
-        <v>317303.66712625924</v>
+        <v>321688.56653439248</v>
       </c>
       <c r="AP8">
         <f t="shared" si="12"/>
@@ -1772,19 +1772,19 @@
       </c>
       <c r="AR8" s="1">
         <f t="shared" si="14"/>
-        <v>-6.043942689497378E-2</v>
+        <v>-5.9615584101694555E-2</v>
       </c>
       <c r="AS8">
         <f t="shared" si="15"/>
-        <v>-9.0185333858473327E-2</v>
+        <v>-8.8956028069589965E-2</v>
       </c>
       <c r="AT8" s="1">
         <f t="shared" si="16"/>
-        <v>0.51127245489206441</v>
+        <v>0.50430335956796513</v>
       </c>
       <c r="AU8">
         <f t="shared" si="17"/>
-        <v>2.2698499482176726</v>
+        <v>2.2389098877681608</v>
       </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.25">
@@ -1922,7 +1922,7 @@
         <v>-0.37329527600630685</v>
       </c>
       <c r="AO9" s="1">
-        <v>317303.66712625924</v>
+        <v>321688.56653439248</v>
       </c>
       <c r="AP9">
         <f t="shared" si="12"/>
@@ -1934,19 +1934,19 @@
       </c>
       <c r="AR9" s="1">
         <f t="shared" si="14"/>
-        <v>-7.4816796264455421E-2</v>
+        <v>-7.3796977222725935E-2</v>
       </c>
       <c r="AS9">
         <f t="shared" si="15"/>
-        <v>-0.16500213012292875</v>
+        <v>-0.1627530052923159</v>
       </c>
       <c r="AT9" s="1">
         <f t="shared" si="16"/>
-        <v>0.53780259380288664</v>
+        <v>0.53047186924321643</v>
       </c>
       <c r="AU9">
         <f t="shared" si="17"/>
-        <v>2.8076525420205591</v>
+        <v>2.7693817570113772</v>
       </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.25">
@@ -2084,7 +2084,7 @@
         <v>-0.38212076589957822</v>
       </c>
       <c r="AO10" s="1">
-        <v>317303.66712625924</v>
+        <v>321688.56653439248</v>
       </c>
       <c r="AP10">
         <f t="shared" si="12"/>
@@ -2096,19 +2096,19 @@
       </c>
       <c r="AR10" s="1">
         <f t="shared" si="14"/>
-        <v>-8.4975659571443596E-2</v>
+        <v>-8.3817366246397143E-2</v>
       </c>
       <c r="AS10">
         <f t="shared" si="15"/>
-        <v>-0.24997778969437234</v>
+        <v>-0.24657037153871303</v>
       </c>
       <c r="AT10" s="1">
         <f t="shared" si="16"/>
-        <v>0.54307492169860672</v>
+        <v>0.53567233065105191</v>
       </c>
       <c r="AU10">
         <f t="shared" si="17"/>
-        <v>3.3507274637191657</v>
+        <v>3.305054087662429</v>
       </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.25">
@@ -2246,7 +2246,7 @@
         <v>-0.38956726906468903</v>
       </c>
       <c r="AO11" s="1">
-        <v>317303.66712625924</v>
+        <v>321688.56653439248</v>
       </c>
       <c r="AP11">
         <f t="shared" si="12"/>
@@ -2258,19 +2258,19 @@
       </c>
       <c r="AR11" s="1">
         <f t="shared" si="14"/>
-        <v>-9.2574636865259866E-2</v>
+        <v>-9.131276276518914E-2</v>
       </c>
       <c r="AS11">
         <f t="shared" si="15"/>
-        <v>-0.34255242655963219</v>
+        <v>-0.33788313430390216</v>
       </c>
       <c r="AT11" s="1">
         <f t="shared" si="16"/>
-        <v>0.54136448596680697</v>
+        <v>0.53398520966962959</v>
       </c>
       <c r="AU11">
         <f t="shared" si="17"/>
-        <v>3.8920919496859727</v>
+        <v>3.8390392973320586</v>
       </c>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.25">
@@ -2408,7 +2408,7 @@
         <v>-0.39602314163069291</v>
       </c>
       <c r="AO12" s="1">
-        <v>317303.66712625924</v>
+        <v>321688.56653439248</v>
       </c>
       <c r="AP12">
         <f t="shared" si="12"/>
@@ -2420,19 +2420,19 @@
       </c>
       <c r="AR12" s="1">
         <f t="shared" si="14"/>
-        <v>-0.10071250658957132</v>
+        <v>-9.933970613447958E-2</v>
       </c>
       <c r="AS12">
         <f t="shared" si="15"/>
-        <v>-0.44326493314920351</v>
+        <v>-0.43722284043838172</v>
       </c>
       <c r="AT12" s="1">
         <f t="shared" si="16"/>
-        <v>0.54877605005672192</v>
+        <v>0.54129574759208898</v>
       </c>
       <c r="AU12">
         <f t="shared" si="17"/>
-        <v>4.4408679997426947</v>
+        <v>4.3803350449241476</v>
       </c>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.25">
@@ -2570,7 +2570,7 @@
         <v>-0.40170497101532632</v>
       </c>
       <c r="AO13" s="1">
-        <v>317303.66712625924</v>
+        <v>321688.56653439248</v>
       </c>
       <c r="AP13">
         <f t="shared" si="12"/>
@@ -2582,19 +2582,19 @@
       </c>
       <c r="AR13" s="1">
         <f t="shared" si="14"/>
-        <v>-0.10547794317242316</v>
+        <v>-0.10404018560593402</v>
       </c>
       <c r="AS13">
         <f t="shared" si="15"/>
-        <v>-0.54874287632162666</v>
+        <v>-0.54126302604431575</v>
       </c>
       <c r="AT13" s="1">
         <f t="shared" si="16"/>
-        <v>0.54234818579312039</v>
+        <v>0.53495550079810628</v>
       </c>
       <c r="AU13">
         <f t="shared" si="17"/>
-        <v>4.9832161855358148</v>
+        <v>4.9152905457222538</v>
       </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.25">
@@ -2732,7 +2732,7 @@
         <v>-0.40665059540968351</v>
       </c>
       <c r="AO14" s="1">
-        <v>317303.66712625924</v>
+        <v>321688.56653439248</v>
       </c>
       <c r="AP14">
         <f t="shared" si="12"/>
@@ -2744,19 +2744,19 @@
       </c>
       <c r="AR14" s="1">
         <f t="shared" si="14"/>
-        <v>-0.10616671686926651</v>
+        <v>-0.10471957070868414</v>
       </c>
       <c r="AS14">
         <f t="shared" si="15"/>
-        <v>-0.65490959319089315</v>
+        <v>-0.64598259675299985</v>
       </c>
       <c r="AT14" s="1">
         <f t="shared" si="16"/>
-        <v>0.52046538640866891</v>
+        <v>0.51337098330505959</v>
       </c>
       <c r="AU14">
         <f t="shared" si="17"/>
-        <v>5.503681571944484</v>
+        <v>5.4286615290273135</v>
       </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.25">
@@ -2894,7 +2894,7 @@
         <v>-0.41102133334588598</v>
       </c>
       <c r="AO15" s="1">
-        <v>317303.66712625924</v>
+        <v>321688.56653439248</v>
       </c>
       <c r="AP15">
         <f t="shared" si="12"/>
@@ -2906,19 +2906,19 @@
       </c>
       <c r="AR15" s="1">
         <f t="shared" si="14"/>
-        <v>-0.10968433256654599</v>
+        <v>-0.10818923819581983</v>
       </c>
       <c r="AS15">
         <f t="shared" si="15"/>
-        <v>-0.76459392575743912</v>
+        <v>-0.75417183494881967</v>
       </c>
       <c r="AT15" s="1">
         <f t="shared" si="16"/>
-        <v>0.51652619593102644</v>
+        <v>0.50948548747432376</v>
       </c>
       <c r="AU15">
         <f t="shared" si="17"/>
-        <v>6.0202077678755108</v>
+        <v>5.9381470165016372</v>
       </c>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.25">
@@ -3056,7 +3056,7 @@
         <v>-0.41492835037964265</v>
       </c>
       <c r="AO16" s="1">
-        <v>317303.66712625924</v>
+        <v>321688.56653439248</v>
       </c>
       <c r="AP16">
         <f t="shared" si="12"/>
@@ -3068,19 +3068,19 @@
       </c>
       <c r="AR16" s="1">
         <f t="shared" si="14"/>
-        <v>-0.10883526604526671</v>
+        <v>-0.1073517452014667</v>
       </c>
       <c r="AS16">
         <f t="shared" si="15"/>
-        <v>-0.87342919180270584</v>
+        <v>-0.86152358015028641</v>
       </c>
       <c r="AT16" s="1">
         <f t="shared" si="16"/>
-        <v>0.49514411829099425</v>
+        <v>0.48839486644587876</v>
       </c>
       <c r="AU16">
         <f t="shared" si="17"/>
-        <v>6.5153518861665054</v>
+        <v>6.4265418829475163</v>
       </c>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.25">
@@ -3218,7 +3218,7 @@
         <v>-0.41838738033418454</v>
       </c>
       <c r="AO17" s="1">
-        <v>317303.66712625924</v>
+        <v>321688.56653439248</v>
       </c>
       <c r="AP17">
         <f t="shared" si="12"/>
@@ -3230,19 +3230,19 @@
       </c>
       <c r="AR17" s="1">
         <f t="shared" si="14"/>
-        <v>-0.10711549914270614</v>
+        <v>-0.10565542024138612</v>
       </c>
       <c r="AS17">
         <f t="shared" si="15"/>
-        <v>-0.98054469094541197</v>
+        <v>-0.96717900039167248</v>
       </c>
       <c r="AT17" s="1">
         <f t="shared" si="16"/>
-        <v>0.47314947278713898</v>
+        <v>0.46670002739486366</v>
       </c>
       <c r="AU17">
         <f t="shared" si="17"/>
-        <v>6.988501358953644</v>
+        <v>6.8932419103423799</v>
       </c>
     </row>
     <row r="18" spans="1:47" x14ac:dyDescent="0.25">
@@ -3380,7 +3380,7 @@
         <v>-0.41951556306746651</v>
       </c>
       <c r="AO18" s="1">
-        <v>317303.66712625924</v>
+        <v>321688.56653439248</v>
       </c>
       <c r="AP18">
         <f t="shared" si="12"/>
@@ -3392,19 +3392,19 @@
       </c>
       <c r="AR18" s="1">
         <f t="shared" si="14"/>
-        <v>3.2852334164112137E-2</v>
+        <v>3.2404527820902827E-2</v>
       </c>
       <c r="AS18">
         <f t="shared" si="15"/>
-        <v>-0.94769235678129982</v>
+        <v>-0.93477447257076962</v>
       </c>
       <c r="AT18" s="1">
         <f t="shared" si="16"/>
-        <v>-0.14375377310144608</v>
+        <v>-0.14179428215223308</v>
       </c>
       <c r="AU18">
         <f t="shared" si="17"/>
-        <v>6.8447475858521978</v>
+        <v>6.7514476281901468</v>
       </c>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.25">

--- a/SMP_3PP.xlsx
+++ b/SMP_3PP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t># avgT</t>
   </si>
@@ -178,6 +178,10 @@
   </si>
   <si>
     <t>eq_pla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s_n_real_pred</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -508,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU22"/>
+  <dimension ref="A1:AV22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AO3" sqref="AO3:AO18"/>
+      <selection activeCell="AV3" sqref="AV3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -536,10 +540,11 @@
     <col min="42" max="42" width="12.77734375" customWidth="1"/>
     <col min="44" max="44" width="12.44140625" customWidth="1"/>
     <col min="45" max="45" width="11.21875" customWidth="1"/>
-    <col min="48" max="1027" width="11.5546875"/>
+    <col min="48" max="48" width="13.33203125" customWidth="1"/>
+    <col min="49" max="1027" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -681,8 +686,11 @@
       <c r="AU1" t="s">
         <v>44</v>
       </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.20571021300299999</v>
       </c>
@@ -814,8 +822,12 @@
       <c r="AU2">
         <v>0</v>
       </c>
+      <c r="AV2">
+        <f t="shared" ref="AV2:AV3" si="6">(AQ2*X2-2*X2*(1-0.01*P2-2*0.01*AF2)/(-0.08/0.4*0.01*P2-(2*0.08/0.4+3)*0.01*AF2+1+0.08/0.4)+4*3*232000*(-0.4*0.01*AF2-0.08*0.01*P2)/((1-2*0.01*AF2)*0.4*0.08))/1000</f>
+        <v>-2.8123736417209924</v>
+      </c>
     </row>
-    <row r="3" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>3.3246957367399999</v>
       </c>
@@ -902,15 +914,15 @@
         <v>0.64105581271286516</v>
       </c>
       <c r="AC3" s="2">
-        <f t="shared" ref="AC3:AC18" si="6">0.0762*AK3^0.2606-0.5912</f>
+        <f t="shared" ref="AC3:AC18" si="7">0.0762*AK3^0.2606-0.5912</f>
         <v>0.64383013134365763</v>
       </c>
       <c r="AD3" s="2">
-        <f t="shared" ref="AD3:AD18" si="7">AB3-AC3</f>
+        <f t="shared" ref="AD3:AD18" si="8">AB3-AC3</f>
         <v>-2.7743186307924717E-3</v>
       </c>
       <c r="AE3" s="1">
-        <f t="shared" ref="AE3:AE18" si="8">P3-AB3/3-2*(1.35*(AK3/3255000)^-0.0723)*(1+0.33)/(9*(1-2*0.33))</f>
+        <f t="shared" ref="AE3:AE18" si="9">P3-AB3/3-2*(1.35*(AK3/3255000)^-0.0723)*(1+0.33)/(9*(1-2*0.33))</f>
         <v>-0.80997465138793878</v>
       </c>
       <c r="AF3" s="2">
@@ -918,11 +930,11 @@
         <v>0.13807603278286518</v>
       </c>
       <c r="AG3" s="2">
-        <f t="shared" ref="AG3:AH18" si="9">AD3-AD2</f>
+        <f t="shared" ref="AG3:AH18" si="10">AD3-AD2</f>
         <v>4.5903528222256407E-3</v>
       </c>
       <c r="AH3" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1488777414057827</v>
       </c>
       <c r="AI3" s="2">
@@ -930,7 +942,7 @@
         <v>-3.9955102764971506E-3</v>
       </c>
       <c r="AJ3">
-        <f t="shared" ref="AJ3:AJ18" si="10">(( 1.588*EXP(-0.0005387*3*232))^2-AP3^2)/(2*AP3)+0.4</f>
+        <f t="shared" ref="AJ3:AJ18" si="11">(( 1.588*EXP(-0.0005387*3*232))^2-AP3^2)/(2*AP3)+0.4</f>
         <v>-0.18001344639452888</v>
       </c>
       <c r="AK3" s="2">
@@ -976,8 +988,12 @@
         <f>AU2+AT3</f>
         <v>0.16854381075864253</v>
       </c>
+      <c r="AV3">
+        <f t="shared" si="6"/>
+        <v>-12.761873399492774</v>
+      </c>
     </row>
-    <row r="4" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>9.6041318680199996</v>
       </c>
@@ -1064,15 +1080,15 @@
         <v>1.0701225422241167</v>
       </c>
       <c r="AC4" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0340659049961174</v>
       </c>
       <c r="AD4" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.6056637227999344E-2</v>
       </c>
       <c r="AE4" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.1620225647976663</v>
       </c>
       <c r="AF4" s="1">
@@ -1080,19 +1096,19 @@
         <v>6.8394122354116682E-2</v>
       </c>
       <c r="AG4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.8830955858791816E-2</v>
       </c>
       <c r="AH4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.97199721618560508</v>
       </c>
       <c r="AI4" s="1">
-        <f t="shared" ref="AI4:AI18" si="11">-AG4/AH4</f>
+        <f t="shared" ref="AI4:AI18" si="12">-AG4/AH4</f>
         <v>-3.9949657480682493E-2</v>
       </c>
       <c r="AJ4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5.3624534674967361E-2</v>
       </c>
       <c r="AK4" s="1">
@@ -1115,31 +1131,35 @@
         <v>321688.56653439248</v>
       </c>
       <c r="AP4" s="1">
-        <f t="shared" ref="AP4:AP18" si="12">(AK4*1.35*(AK4/3255000)^-0.0723-AK3*1.35*(AK3/3255000)^-0.0723)/(AK4-AK3)</f>
+        <f t="shared" ref="AP4:AP18" si="13">(AK4*1.35*(AK4/3255000)^-0.0723-AK3*1.35*(AK3/3255000)^-0.0723)/(AK4-AK3)</f>
         <v>1.6356216271168877</v>
       </c>
       <c r="AQ4" s="1">
-        <f t="shared" ref="AQ4:AQ18" si="13">(2*AP4+3)/(3-AP4)</f>
+        <f t="shared" ref="AQ4:AQ18" si="14">(2*AP4+3)/(3-AP4)</f>
         <v>4.5964106283668276</v>
       </c>
       <c r="AR4" s="1">
-        <f t="shared" ref="AR4:AR18" si="14">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
+        <f t="shared" ref="AR4:AR18" si="15">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
         <v>1.5280516002098019E-2</v>
       </c>
       <c r="AS4" s="1">
-        <f t="shared" ref="AS4:AS18" si="15">AS3+AR4</f>
+        <f t="shared" ref="AS4:AS18" si="16">AS3+AR4</f>
         <v>4.5620668245228542E-2</v>
       </c>
       <c r="AT4" s="1">
-        <f t="shared" ref="AT4:AT18" si="16">2*(1-AM4)*(AK4-AK3)*(1-AP4/3)/(9*AN4*AO4*AM4)</f>
+        <f t="shared" ref="AT4:AT18" si="17">2*(1-AM4)*(AK4-AK3)*(1-AP4/3)/(9*AN4*AO4*AM4)</f>
         <v>0.28495382001386704</v>
       </c>
       <c r="AU4" s="1">
         <f>AU3+AT4</f>
         <v>0.4534976307725096</v>
       </c>
+      <c r="AV4">
+        <f>(AQ4*X4-2*X4*(1-0.01*P4-2*0.01*AF4)/(-0.08/0.4*0.01*P4-(2*0.08/0.4+3)*0.01*AF4+1+0.08/0.4)+4*3*232000*(-0.4*0.01*AF4-0.08*0.01*P4)/((1-2*0.01*AF4)*0.4*0.08))/1000</f>
+        <v>58.418094194311649</v>
+      </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>18.633378606600001</v>
       </c>
@@ -1226,15 +1246,15 @@
         <v>1.2796901620335754</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.3335206837629676</v>
       </c>
       <c r="AD5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5.3830521729392178E-2</v>
       </c>
       <c r="AE5" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1619247240588908</v>
       </c>
       <c r="AF5">
@@ -1242,19 +1262,19 @@
         <v>-0.22289211761642447</v>
       </c>
       <c r="AG5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-8.9887158957391522E-2</v>
       </c>
       <c r="AH5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.9999021592612245</v>
       </c>
       <c r="AI5">
+        <f t="shared" si="12"/>
+        <v>8.989595444398725E-2</v>
+      </c>
+      <c r="AJ5">
         <f t="shared" si="11"/>
-        <v>8.989595444398725E-2</v>
-      </c>
-      <c r="AJ5">
-        <f t="shared" si="10"/>
         <v>1.3787936068533124E-2</v>
       </c>
       <c r="AK5">
@@ -1277,31 +1297,35 @@
         <v>321688.56653439248</v>
       </c>
       <c r="AP5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.5440124208187311</v>
       </c>
       <c r="AQ5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.1813714132512594</v>
       </c>
       <c r="AR5" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-5.0603958524955061E-3</v>
       </c>
       <c r="AS5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.0560272392733035E-2</v>
       </c>
       <c r="AT5" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.36701619643017669</v>
       </c>
       <c r="AU5">
         <f>AU4+AT5</f>
         <v>0.82051382720268629</v>
       </c>
+      <c r="AV5">
+        <f t="shared" ref="AV5:AV18" si="18">(AQ5*X5-2*X5*(1-0.01*P5-2*0.01*AF5)/(-0.08/0.4*0.01*P5-(2*0.08/0.4+3)*0.01*AF5+1+0.08/0.4)+4*3*232000*(-0.4*0.01*AF5-0.08*0.01*P5)/((1-2*0.01*AF5)*0.4*0.08))/1000</f>
+        <v>232.17794315847456</v>
+      </c>
     </row>
-    <row r="6" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>29.2880362171</v>
       </c>
@@ -1388,15 +1412,15 @@
         <v>1.5621054671954515</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.5829659592714729</v>
       </c>
       <c r="AD6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-2.0860492076021364E-2</v>
       </c>
       <c r="AE6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.1101916842492336</v>
       </c>
       <c r="AF6">
@@ -1404,19 +1428,19 @@
         <v>-0.43813118832954867</v>
       </c>
       <c r="AG6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.2970029653370814E-2</v>
       </c>
       <c r="AH6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.94826696019034284</v>
       </c>
       <c r="AI6">
+        <f t="shared" si="12"/>
+        <v>-3.476872129632444E-2</v>
+      </c>
+      <c r="AJ6">
         <f t="shared" si="11"/>
-        <v>-3.476872129632444E-2</v>
-      </c>
-      <c r="AJ6">
-        <f t="shared" si="10"/>
         <v>5.8887882034157957E-2</v>
       </c>
       <c r="AK6">
@@ -1439,31 +1463,35 @@
         <v>321688.56653439248</v>
       </c>
       <c r="AP6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.4846589622644111</v>
       </c>
       <c r="AQ6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.9392570885884006</v>
       </c>
       <c r="AR6" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-2.5519527725474844E-2</v>
       </c>
       <c r="AS6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.5040744667258191E-2</v>
       </c>
       <c r="AT6" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.43335788016067911</v>
       </c>
       <c r="AU6">
-        <f t="shared" ref="AU6:AU18" si="17">AU5+AT6</f>
+        <f t="shared" ref="AU6:AU18" si="19">AU5+AT6</f>
         <v>1.2538717073633654</v>
       </c>
+      <c r="AV6">
+        <f t="shared" si="18"/>
+        <v>395.71055798828775</v>
+      </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>41.434693351200004</v>
       </c>
@@ -1550,15 +1578,15 @@
         <v>1.6235844291454193</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.7961180502694474</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.17253362112402804</v>
       </c>
       <c r="AE7" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.1258295449454465</v>
       </c>
       <c r="AF7">
@@ -1566,19 +1594,19 @@
         <v>-0.87717768016458075</v>
       </c>
       <c r="AG7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.15167312904800667</v>
       </c>
       <c r="AH7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0156378606962129</v>
       </c>
       <c r="AI7">
+        <f t="shared" si="12"/>
+        <v>0.14933780525278545</v>
+      </c>
+      <c r="AJ7">
         <f t="shared" si="11"/>
-        <v>0.14933780525278545</v>
-      </c>
-      <c r="AJ7">
-        <f t="shared" si="10"/>
         <v>9.2319479911810443E-2</v>
       </c>
       <c r="AK7">
@@ -1601,31 +1629,35 @@
         <v>321688.56653439248</v>
       </c>
       <c r="AP7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.4417039812757488</v>
       </c>
       <c r="AQ7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.7755393659852499</v>
       </c>
       <c r="AR7" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-4.4381188635153598E-2</v>
       </c>
       <c r="AS7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.9340443967895407E-2</v>
       </c>
       <c r="AT7" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.48073482083683028</v>
       </c>
       <c r="AU7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.7346065282001957</v>
       </c>
+      <c r="AV7">
+        <f t="shared" si="18"/>
+        <v>649.75783293082293</v>
+      </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>54.623573886000003</v>
       </c>
@@ -1712,15 +1744,15 @@
         <v>1.858851189179811</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9785133855533561</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.11966219637354514</v>
       </c>
       <c r="AE8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.0731948770463839</v>
       </c>
       <c r="AF8">
@@ -1728,19 +1760,19 @@
         <v>-1.1413137577101891</v>
       </c>
       <c r="AG8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.2871424750482898E-2</v>
       </c>
       <c r="AH8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.94736533210093743</v>
       </c>
       <c r="AI8">
+        <f t="shared" si="12"/>
+        <v>-5.5808908093809888E-2</v>
+      </c>
+      <c r="AJ8">
         <f t="shared" si="11"/>
-        <v>-5.5808908093809888E-2</v>
-      </c>
-      <c r="AJ8">
-        <f t="shared" si="10"/>
         <v>0.11821373578150851</v>
       </c>
       <c r="AK8">
@@ -1763,31 +1795,35 @@
         <v>321688.56653439248</v>
       </c>
       <c r="AP8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.4090597034444348</v>
       </c>
       <c r="AQ8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.6570318945879223</v>
       </c>
       <c r="AR8" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-5.9615584101694555E-2</v>
       </c>
       <c r="AS8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-8.8956028069589965E-2</v>
       </c>
       <c r="AT8" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.50430335956796513</v>
       </c>
       <c r="AU8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.2389098877681608</v>
       </c>
+      <c r="AV8">
+        <f t="shared" si="18"/>
+        <v>850.46509075200345</v>
+      </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>68.694755584199996</v>
       </c>
@@ -1874,15 +1910,15 @@
         <v>1.8344607170093674</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.1411418866410052</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.30668116963163783</v>
       </c>
       <c r="AE9" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.1078924902211797</v>
       </c>
       <c r="AF9">
@@ -1890,19 +1926,19 @@
         <v>-1.6679520373556325</v>
       </c>
       <c r="AG9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.18701897325809269</v>
       </c>
       <c r="AH9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0346976131747958</v>
       </c>
       <c r="AI9">
+        <f t="shared" si="12"/>
+        <v>0.18074746754682885</v>
+      </c>
+      <c r="AJ9">
         <f t="shared" si="11"/>
-        <v>0.18074746754682885</v>
-      </c>
-      <c r="AJ9">
-        <f t="shared" si="10"/>
         <v>0.13911572224933721</v>
       </c>
       <c r="AK9">
@@ -1925,31 +1961,35 @@
         <v>321688.56653439248</v>
       </c>
       <c r="AP9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.3831153210120573</v>
       </c>
       <c r="AQ9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.5662596825602759</v>
       </c>
       <c r="AR9" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-7.3796977222725935E-2</v>
       </c>
       <c r="AS9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.1627530052923159</v>
       </c>
       <c r="AT9" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.53047186924321643</v>
       </c>
       <c r="AU9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.7693817570113772</v>
       </c>
+      <c r="AV9">
+        <f t="shared" si="18"/>
+        <v>1147.5971744057006</v>
+      </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>83.406379524100004</v>
       </c>
@@ -2036,15 +2076,15 @@
         <v>1.8852923228709129</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.284202557180202</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.39891023430928918</v>
       </c>
       <c r="AE10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.1099681752193273</v>
       </c>
       <c r="AF10">
@@ -2052,19 +2092,19 @@
         <v>-2.1175942717140872</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-9.2229064677651351E-2</v>
       </c>
       <c r="AH10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0020756849981476</v>
       </c>
       <c r="AI10">
+        <f t="shared" si="12"/>
+        <v>9.2038022734601974E-2</v>
+      </c>
+      <c r="AJ10">
         <f t="shared" si="11"/>
-        <v>9.2038022734601974E-2</v>
-      </c>
-      <c r="AJ10">
-        <f t="shared" si="10"/>
         <v>0.15647133788770864</v>
       </c>
       <c r="AK10">
@@ -2087,31 +2127,35 @@
         <v>321688.56653439248</v>
       </c>
       <c r="AP10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.3618524601923803</v>
       </c>
       <c r="AQ10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.4940106317022819</v>
       </c>
       <c r="AR10" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-8.3817366246397143E-2</v>
       </c>
       <c r="AS10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.24657037153871303</v>
       </c>
       <c r="AT10" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.53567233065105191</v>
       </c>
       <c r="AU10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3.305054087662429</v>
       </c>
+      <c r="AV10">
+        <f t="shared" si="18"/>
+        <v>1422.1596803380614</v>
+      </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>98.506007605299999</v>
       </c>
@@ -2198,15 +2242,15 @@
         <v>1.8993222021266298</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.4112000863125864</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.51187788418595659</v>
       </c>
       <c r="AE11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.1171260693594105</v>
       </c>
       <c r="AF11">
@@ -2214,19 +2258,19 @@
         <v>-2.60192872206337</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.11296764987666741</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0071578941400832</v>
       </c>
       <c r="AI11">
+        <f t="shared" si="12"/>
+        <v>0.11216478621072597</v>
+      </c>
+      <c r="AJ11">
         <f t="shared" si="11"/>
-        <v>0.11216478621072597</v>
-      </c>
-      <c r="AJ11">
-        <f t="shared" si="10"/>
         <v>0.17100241937727681</v>
       </c>
       <c r="AK11">
@@ -2249,31 +2293,35 @@
         <v>321688.56653439248</v>
       </c>
       <c r="AP11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.3442472387769562</v>
       </c>
       <c r="AQ11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.4355941362598301</v>
       </c>
       <c r="AR11" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.131276276518914E-2</v>
       </c>
       <c r="AS11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.33788313430390216</v>
       </c>
       <c r="AT11" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.53398520966962959</v>
       </c>
       <c r="AU11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3.8390392973320586</v>
       </c>
+      <c r="AV11">
+        <f t="shared" si="18"/>
+        <v>1710.304636995822</v>
+      </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>114.008215518</v>
       </c>
@@ -2360,15 +2408,15 @@
         <v>1.8032093482882816</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.5276628453827987</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.72445349709451712</v>
       </c>
       <c r="AE12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.1606439602980174</v>
       </c>
       <c r="AF12">
@@ -2376,19 +2424,19 @@
         <v>-3.1972056023617181</v>
       </c>
       <c r="AG12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.21257561290856053</v>
       </c>
       <c r="AH12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0435178909386069</v>
       </c>
       <c r="AI12">
+        <f t="shared" si="12"/>
+        <v>0.20371055901816537</v>
+      </c>
+      <c r="AJ12">
         <f t="shared" si="11"/>
-        <v>0.20371055901816537</v>
-      </c>
-      <c r="AJ12">
-        <f t="shared" si="10"/>
         <v>0.18352205162590746</v>
       </c>
       <c r="AK12">
@@ -2411,31 +2459,35 @@
         <v>321688.56653439248</v>
       </c>
       <c r="AP12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.329224375110359</v>
       </c>
       <c r="AQ12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.3867197162362674</v>
       </c>
       <c r="AR12" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.933970613447958E-2</v>
       </c>
       <c r="AS12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.43722284043838172</v>
       </c>
       <c r="AT12" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.54129574759208898</v>
       </c>
       <c r="AU12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.3803350449241476</v>
       </c>
+      <c r="AV12">
+        <f t="shared" si="18"/>
+        <v>2039.315557010543</v>
+      </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>129.77406091500001</v>
       </c>
@@ -2522,15 +2574,15 @@
         <v>1.7507299758379502</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.6330672609489758</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.8823372851110256</v>
       </c>
       <c r="AE13" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.1935313194708428</v>
       </c>
       <c r="AF13">
@@ -2538,19 +2590,19 @@
         <v>-3.7516952623620496</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.15788378801650849</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0328873591728254</v>
       </c>
       <c r="AI13">
+        <f t="shared" si="12"/>
+        <v>0.15285673371290717</v>
+      </c>
+      <c r="AJ13">
         <f t="shared" si="11"/>
-        <v>0.15285673371290717</v>
-      </c>
-      <c r="AJ13">
-        <f t="shared" si="10"/>
         <v>0.19448381304746887</v>
       </c>
       <c r="AK13">
@@ -2573,31 +2625,35 @@
         <v>321688.56653439248</v>
       </c>
       <c r="AP13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.3161821183565607</v>
       </c>
       <c r="AQ13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.3449960937674703</v>
       </c>
       <c r="AR13" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.10404018560593402</v>
       </c>
       <c r="AS13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.54126302604431575</v>
       </c>
       <c r="AT13" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.53495550079810628</v>
       </c>
       <c r="AU13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.9152905457222538</v>
       </c>
+      <c r="AV13">
+        <f t="shared" si="18"/>
+        <v>2355.2907860582136</v>
+      </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>145.475280191</v>
       </c>
@@ -2684,15 +2740,15 @@
         <v>1.6983816350330971</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.7267743813436764</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-1.0283927463105793</v>
       </c>
       <c r="AE14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10.218653095568079</v>
       </c>
       <c r="AF14">
@@ -2700,19 +2756,19 @@
         <v>-4.3030199263169031</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.1460554611995537</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0251217760972366</v>
       </c>
       <c r="AI14">
+        <f t="shared" si="12"/>
+        <v>0.14247620585683451</v>
+      </c>
+      <c r="AJ14">
         <f t="shared" si="11"/>
-        <v>0.14247620585683451</v>
-      </c>
-      <c r="AJ14">
-        <f t="shared" si="10"/>
         <v>0.20398420268029996</v>
       </c>
       <c r="AK14">
@@ -2735,31 +2791,35 @@
         <v>321688.56653439248</v>
       </c>
       <c r="AP14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.3049630913246724</v>
       </c>
       <c r="AQ14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.3096188961652198</v>
       </c>
       <c r="AR14" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.10471957070868414</v>
       </c>
       <c r="AS14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.64598259675299985</v>
       </c>
       <c r="AT14" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.51337098330505959</v>
       </c>
       <c r="AU14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.4286615290273135</v>
       </c>
+      <c r="AV14">
+        <f t="shared" si="18"/>
+        <v>2669.0289576647324</v>
+      </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>160.97110197399999</v>
       </c>
@@ -2846,15 +2906,15 @@
         <v>1.6503316009821023</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.8137080271925665</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-1.1633764262104642</v>
       </c>
       <c r="AE15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11.244574235126924</v>
       </c>
       <c r="AF15">
@@ -2862,19 +2922,19 @@
         <v>-4.8516678876678974</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.13498367989988491</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0259211395588448</v>
       </c>
       <c r="AI15">
+        <f t="shared" si="12"/>
+        <v>0.13157315381758203</v>
+      </c>
+      <c r="AJ15">
         <f t="shared" si="11"/>
-        <v>0.13157315381758203</v>
-      </c>
-      <c r="AJ15">
-        <f t="shared" si="10"/>
         <v>0.2123499900500545</v>
       </c>
       <c r="AK15">
@@ -2897,31 +2957,35 @@
         <v>321688.56653439248</v>
       </c>
       <c r="AP15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.2951491902278758</v>
       </c>
       <c r="AQ15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.2790543010640141</v>
       </c>
       <c r="AR15" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.10818923819581983</v>
       </c>
       <c r="AS15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.75417183494881967</v>
       </c>
       <c r="AT15" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.50948548747432376</v>
       </c>
       <c r="AU15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.9381470165016372</v>
       </c>
+      <c r="AV15">
+        <f t="shared" si="18"/>
+        <v>2979.3266459713805</v>
+      </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>176.24245648600001</v>
       </c>
@@ -3008,15 +3072,15 @@
         <v>1.5229187844645886</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.8921735590680138</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-1.3692547746034252</v>
       </c>
       <c r="AE16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12.292402613431094</v>
       </c>
       <c r="AF16">
@@ -3024,19 +3088,19 @@
         <v>-5.4779494850354116</v>
       </c>
       <c r="AG16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.20587834839296093</v>
       </c>
       <c r="AH16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0478283783041693</v>
       </c>
       <c r="AI16">
+        <f t="shared" si="12"/>
+        <v>0.19648098167197897</v>
+      </c>
+      <c r="AJ16">
         <f t="shared" si="11"/>
-        <v>0.19648098167197897</v>
-      </c>
-      <c r="AJ16">
-        <f t="shared" si="10"/>
         <v>0.21980522846745118</v>
       </c>
       <c r="AK16">
@@ -3059,31 +3123,35 @@
         <v>321688.56653439248</v>
       </c>
       <c r="AP16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.2864551675378204</v>
       </c>
       <c r="AQ16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.2522699316060306</v>
       </c>
       <c r="AR16" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.1073517452014667</v>
       </c>
       <c r="AS16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.86152358015028641</v>
       </c>
       <c r="AT16" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.48839486644587876</v>
       </c>
       <c r="AU16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>6.4265418829475163</v>
       </c>
+      <c r="AV16">
+        <f t="shared" si="18"/>
+        <v>3306.8431276104029</v>
+      </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>191.27767915699999</v>
       </c>
@@ -3170,15 +3238,15 @@
         <v>1.3844579482043651</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9632657811944698</v>
       </c>
       <c r="AD17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-1.5788078329901047</v>
       </c>
       <c r="AE17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13.34803372386159</v>
       </c>
       <c r="AF17">
@@ -3186,19 +3254,19 @@
         <v>-6.1177906209456347</v>
       </c>
       <c r="AG17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.20955305838667959</v>
       </c>
       <c r="AH17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0556311104304967</v>
       </c>
       <c r="AI17">
+        <f t="shared" si="12"/>
+        <v>0.1985097410602287</v>
+      </c>
+      <c r="AJ17">
         <f t="shared" si="11"/>
-        <v>0.1985097410602287</v>
-      </c>
-      <c r="AJ17">
-        <f t="shared" si="10"/>
         <v>0.22638828806408789</v>
       </c>
       <c r="AK17">
@@ -3221,31 +3289,35 @@
         <v>321688.56653439248</v>
       </c>
       <c r="AP17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.2788189027392434</v>
       </c>
       <c r="AQ17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.228967488850194</v>
       </c>
       <c r="AR17" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.10565542024138612</v>
       </c>
       <c r="AS17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.96717900039167248</v>
       </c>
       <c r="AT17" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.46670002739486366</v>
       </c>
       <c r="AU17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>6.8932419103423799</v>
       </c>
+      <c r="AV17">
+        <f t="shared" si="18"/>
+        <v>3634.4709085546438</v>
+      </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>198.126511647</v>
       </c>
@@ -3332,15 +3404,15 @@
         <v>-0.38131419300644342</v>
       </c>
       <c r="AC18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9420401064210475</v>
       </c>
       <c r="AD18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-3.3233542994274909</v>
       </c>
       <c r="AE18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>14.930717526601342</v>
       </c>
       <c r="AF18">
@@ -3348,19 +3420,19 @@
         <v>-8.3816029753064427</v>
       </c>
       <c r="AG18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1.7445464664373862</v>
       </c>
       <c r="AH18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.5826838027397514</v>
       </c>
       <c r="AI18">
+        <f t="shared" si="12"/>
+        <v>1.1022710053754501</v>
+      </c>
+      <c r="AJ18">
         <f t="shared" si="11"/>
-        <v>1.1022710053754501</v>
-      </c>
-      <c r="AJ18">
-        <f t="shared" si="10"/>
         <v>0.2285319783636458</v>
       </c>
       <c r="AK18">
@@ -3383,31 +3455,35 @@
         <v>321688.56653439248</v>
       </c>
       <c r="AP18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.2763404986788218</v>
       </c>
       <c r="AQ18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.2214488958530012</v>
       </c>
       <c r="AR18" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.2404527820902827E-2</v>
       </c>
       <c r="AS18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.93477447257076962</v>
       </c>
       <c r="AT18" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.14179428215223308</v>
       </c>
       <c r="AU18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>6.7514476281901468</v>
       </c>
+      <c r="AV18">
+        <f t="shared" si="18"/>
+        <v>4247.182791463968</v>
+      </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>197.87447431800001</v>
       </c>
@@ -3494,7 +3570,7 @@
         <v>-1.9658156996697373</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>186.57943324600001</v>
       </c>
@@ -3581,7 +3657,7 @@
         <v>-3.381817502498885</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>183.777742348</v>
       </c>
@@ -3668,7 +3744,7 @@
         <v>-4.4086754197059319</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>184.13538001000001</v>
       </c>

--- a/SMP_3PP.xlsx
+++ b/SMP_3PP.xlsx
@@ -515,7 +515,7 @@
   <dimension ref="A1:AV22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AV3" sqref="AV3"/>
+      <selection activeCell="AV1" sqref="AV1:AV1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -823,8 +823,8 @@
         <v>0</v>
       </c>
       <c r="AV2">
-        <f t="shared" ref="AV2:AV3" si="6">(AQ2*X2-2*X2*(1-0.01*P2-2*0.01*AF2)/(-0.08/0.4*0.01*P2-(2*0.08/0.4+3)*0.01*AF2+1+0.08/0.4)+4*3*232000*(-0.4*0.01*AF2-0.08*0.01*P2)/((1-2*0.01*AF2)*0.4*0.08))/1000</f>
-        <v>-2.8123736417209924</v>
+        <f>(AQ2*X2-4*X2*(1-0.01*P2-2*0.01*AF2)*(0.08/0.4)/(-0.08/0.4*0.01*P2-(2*0.08/0.4+3)*0.01*AF2+0.08/0.4+1))/1000</f>
+        <v>-1.1250553205695557</v>
       </c>
     </row>
     <row r="3" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -914,15 +914,15 @@
         <v>0.64105581271286516</v>
       </c>
       <c r="AC3" s="2">
-        <f t="shared" ref="AC3:AC18" si="7">0.0762*AK3^0.2606-0.5912</f>
+        <f t="shared" ref="AC3:AC18" si="6">0.0762*AK3^0.2606-0.5912</f>
         <v>0.64383013134365763</v>
       </c>
       <c r="AD3" s="2">
-        <f t="shared" ref="AD3:AD18" si="8">AB3-AC3</f>
+        <f t="shared" ref="AD3:AD18" si="7">AB3-AC3</f>
         <v>-2.7743186307924717E-3</v>
       </c>
       <c r="AE3" s="1">
-        <f t="shared" ref="AE3:AE18" si="9">P3-AB3/3-2*(1.35*(AK3/3255000)^-0.0723)*(1+0.33)/(9*(1-2*0.33))</f>
+        <f t="shared" ref="AE3:AE18" si="8">P3-AB3/3-2*(1.35*(AK3/3255000)^-0.0723)*(1+0.33)/(9*(1-2*0.33))</f>
         <v>-0.80997465138793878</v>
       </c>
       <c r="AF3" s="2">
@@ -930,11 +930,11 @@
         <v>0.13807603278286518</v>
       </c>
       <c r="AG3" s="2">
-        <f t="shared" ref="AG3:AH18" si="10">AD3-AD2</f>
+        <f t="shared" ref="AG3:AH18" si="9">AD3-AD2</f>
         <v>4.5903528222256407E-3</v>
       </c>
       <c r="AH3" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.1488777414057827</v>
       </c>
       <c r="AI3" s="2">
@@ -942,7 +942,7 @@
         <v>-3.9955102764971506E-3</v>
       </c>
       <c r="AJ3">
-        <f t="shared" ref="AJ3:AJ18" si="11">(( 1.588*EXP(-0.0005387*3*232))^2-AP3^2)/(2*AP3)+0.4</f>
+        <f t="shared" ref="AJ3:AJ18" si="10">(( 1.588*EXP(-0.0005387*3*232))^2-AP3^2)/(2*AP3)+0.4</f>
         <v>-0.18001344639452888</v>
       </c>
       <c r="AK3" s="2">
@@ -989,8 +989,8 @@
         <v>0.16854381075864253</v>
       </c>
       <c r="AV3">
-        <f t="shared" si="6"/>
-        <v>-12.761873399492774</v>
+        <f t="shared" ref="AV3:AV18" si="11">(AQ3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
+        <v>132.1974966142285</v>
       </c>
     </row>
     <row r="4" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1080,15 +1080,15 @@
         <v>1.0701225422241167</v>
       </c>
       <c r="AC4" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0340659049961174</v>
+      </c>
+      <c r="AD4" s="1">
         <f t="shared" si="7"/>
-        <v>1.0340659049961174</v>
-      </c>
-      <c r="AD4" s="1">
+        <v>3.6056637227999344E-2</v>
+      </c>
+      <c r="AE4" s="1">
         <f t="shared" si="8"/>
-        <v>3.6056637227999344E-2</v>
-      </c>
-      <c r="AE4" s="1">
-        <f t="shared" si="9"/>
         <v>0.1620225647976663</v>
       </c>
       <c r="AF4" s="1">
@@ -1096,11 +1096,11 @@
         <v>6.8394122354116682E-2</v>
       </c>
       <c r="AG4" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.8830955858791816E-2</v>
       </c>
       <c r="AH4" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.97199721618560508</v>
       </c>
       <c r="AI4" s="1">
@@ -1108,7 +1108,7 @@
         <v>-3.9949657480682493E-2</v>
       </c>
       <c r="AJ4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-5.3624534674967361E-2</v>
       </c>
       <c r="AK4" s="1">
@@ -1155,8 +1155,8 @@
         <v>0.4534976307725096</v>
       </c>
       <c r="AV4">
-        <f>(AQ4*X4-2*X4*(1-0.01*P4-2*0.01*AF4)/(-0.08/0.4*0.01*P4-(2*0.08/0.4+3)*0.01*AF4+1+0.08/0.4)+4*3*232000*(-0.4*0.01*AF4-0.08*0.01*P4)/((1-2*0.01*AF4)*0.4*0.08))/1000</f>
-        <v>58.418094194311649</v>
+        <f t="shared" si="11"/>
+        <v>295.70962790996128</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.25">
@@ -1246,15 +1246,15 @@
         <v>1.2796901620335754</v>
       </c>
       <c r="AC5">
+        <f t="shared" si="6"/>
+        <v>1.3335206837629676</v>
+      </c>
+      <c r="AD5">
         <f t="shared" si="7"/>
-        <v>1.3335206837629676</v>
-      </c>
-      <c r="AD5">
+        <v>-5.3830521729392178E-2</v>
+      </c>
+      <c r="AE5" s="1">
         <f t="shared" si="8"/>
-        <v>-5.3830521729392178E-2</v>
-      </c>
-      <c r="AE5" s="1">
-        <f t="shared" si="9"/>
         <v>1.1619247240588908</v>
       </c>
       <c r="AF5">
@@ -1262,11 +1262,11 @@
         <v>-0.22289211761642447</v>
       </c>
       <c r="AG5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-8.9887158957391522E-2</v>
       </c>
       <c r="AH5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.9999021592612245</v>
       </c>
       <c r="AI5">
@@ -1274,7 +1274,7 @@
         <v>8.989595444398725E-2</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.3787936068533124E-2</v>
       </c>
       <c r="AK5">
@@ -1321,8 +1321,8 @@
         <v>0.82051382720268629</v>
       </c>
       <c r="AV5">
-        <f t="shared" ref="AV5:AV18" si="18">(AQ5*X5-2*X5*(1-0.01*P5-2*0.01*AF5)/(-0.08/0.4*0.01*P5-(2*0.08/0.4+3)*0.01*AF5+1+0.08/0.4)+4*3*232000*(-0.4*0.01*AF5-0.08*0.01*P5)/((1-2*0.01*AF5)*0.4*0.08))/1000</f>
-        <v>232.17794315847456</v>
+        <f t="shared" si="11"/>
+        <v>501.27345618961613</v>
       </c>
     </row>
     <row r="6" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1412,15 +1412,15 @@
         <v>1.5621054671954515</v>
       </c>
       <c r="AC6">
+        <f t="shared" si="6"/>
+        <v>1.5829659592714729</v>
+      </c>
+      <c r="AD6">
         <f t="shared" si="7"/>
-        <v>1.5829659592714729</v>
-      </c>
-      <c r="AD6">
+        <v>-2.0860492076021364E-2</v>
+      </c>
+      <c r="AE6" s="1">
         <f t="shared" si="8"/>
-        <v>-2.0860492076021364E-2</v>
-      </c>
-      <c r="AE6" s="1">
-        <f t="shared" si="9"/>
         <v>2.1101916842492336</v>
       </c>
       <c r="AF6">
@@ -1428,11 +1428,11 @@
         <v>-0.43813118832954867</v>
       </c>
       <c r="AG6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.2970029653370814E-2</v>
       </c>
       <c r="AH6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.94826696019034284</v>
       </c>
       <c r="AI6">
@@ -1440,7 +1440,7 @@
         <v>-3.476872129632444E-2</v>
       </c>
       <c r="AJ6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>5.8887882034157957E-2</v>
       </c>
       <c r="AK6">
@@ -1483,12 +1483,12 @@
         <v>0.43335788016067911</v>
       </c>
       <c r="AU6">
-        <f t="shared" ref="AU6:AU18" si="19">AU5+AT6</f>
+        <f t="shared" ref="AU6:AU18" si="18">AU5+AT6</f>
         <v>1.2538717073633654</v>
       </c>
       <c r="AV6">
-        <f t="shared" si="18"/>
-        <v>395.71055798828775</v>
+        <f t="shared" si="11"/>
+        <v>735.42923277600835</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
@@ -1578,15 +1578,15 @@
         <v>1.6235844291454193</v>
       </c>
       <c r="AC7">
+        <f t="shared" si="6"/>
+        <v>1.7961180502694474</v>
+      </c>
+      <c r="AD7">
         <f t="shared" si="7"/>
-        <v>1.7961180502694474</v>
-      </c>
-      <c r="AD7">
+        <v>-0.17253362112402804</v>
+      </c>
+      <c r="AE7" s="1">
         <f t="shared" si="8"/>
-        <v>-0.17253362112402804</v>
-      </c>
-      <c r="AE7" s="1">
-        <f t="shared" si="9"/>
         <v>3.1258295449454465</v>
       </c>
       <c r="AF7">
@@ -1594,11 +1594,11 @@
         <v>-0.87717768016458075</v>
       </c>
       <c r="AG7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-0.15167312904800667</v>
       </c>
       <c r="AH7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.0156378606962129</v>
       </c>
       <c r="AI7">
@@ -1606,7 +1606,7 @@
         <v>0.14933780525278545</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>9.2319479911810443E-2</v>
       </c>
       <c r="AK7">
@@ -1649,12 +1649,12 @@
         <v>0.48073482083683028</v>
       </c>
       <c r="AU7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>1.7346065282001957</v>
       </c>
       <c r="AV7">
-        <f t="shared" si="18"/>
-        <v>649.75783293082293</v>
+        <f t="shared" si="11"/>
+        <v>992.67387945275937</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
@@ -1744,15 +1744,15 @@
         <v>1.858851189179811</v>
       </c>
       <c r="AC8">
+        <f t="shared" si="6"/>
+        <v>1.9785133855533561</v>
+      </c>
+      <c r="AD8">
         <f t="shared" si="7"/>
-        <v>1.9785133855533561</v>
-      </c>
-      <c r="AD8">
+        <v>-0.11966219637354514</v>
+      </c>
+      <c r="AE8" s="1">
         <f t="shared" si="8"/>
-        <v>-0.11966219637354514</v>
-      </c>
-      <c r="AE8" s="1">
-        <f t="shared" si="9"/>
         <v>4.0731948770463839</v>
       </c>
       <c r="AF8">
@@ -1760,11 +1760,11 @@
         <v>-1.1413137577101891</v>
       </c>
       <c r="AG8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5.2871424750482898E-2</v>
       </c>
       <c r="AH8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.94736533210093743</v>
       </c>
       <c r="AI8">
@@ -1772,7 +1772,7 @@
         <v>-5.5808908093809888E-2</v>
       </c>
       <c r="AJ8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.11821373578150851</v>
       </c>
       <c r="AK8">
@@ -1815,12 +1815,12 @@
         <v>0.50430335956796513</v>
       </c>
       <c r="AU8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>2.2389098877681608</v>
       </c>
       <c r="AV8">
-        <f t="shared" si="18"/>
-        <v>850.46509075200345</v>
+        <f t="shared" si="11"/>
+        <v>1263.1858886735004</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
@@ -1910,15 +1910,15 @@
         <v>1.8344607170093674</v>
       </c>
       <c r="AC9">
+        <f t="shared" si="6"/>
+        <v>2.1411418866410052</v>
+      </c>
+      <c r="AD9">
         <f t="shared" si="7"/>
-        <v>2.1411418866410052</v>
-      </c>
-      <c r="AD9">
+        <v>-0.30668116963163783</v>
+      </c>
+      <c r="AE9" s="1">
         <f t="shared" si="8"/>
-        <v>-0.30668116963163783</v>
-      </c>
-      <c r="AE9" s="1">
-        <f t="shared" si="9"/>
         <v>5.1078924902211797</v>
       </c>
       <c r="AF9">
@@ -1926,11 +1926,11 @@
         <v>-1.6679520373556325</v>
       </c>
       <c r="AG9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-0.18701897325809269</v>
       </c>
       <c r="AH9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.0346976131747958</v>
       </c>
       <c r="AI9">
@@ -1938,7 +1938,7 @@
         <v>0.18074746754682885</v>
       </c>
       <c r="AJ9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.13911572224933721</v>
       </c>
       <c r="AK9">
@@ -1981,12 +1981,12 @@
         <v>0.53047186924321643</v>
       </c>
       <c r="AU9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>2.7693817570113772</v>
       </c>
       <c r="AV9">
-        <f t="shared" si="18"/>
-        <v>1147.5971744057006</v>
+        <f t="shared" si="11"/>
+        <v>1545.7375819769065</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
@@ -2076,15 +2076,15 @@
         <v>1.8852923228709129</v>
       </c>
       <c r="AC10">
+        <f t="shared" si="6"/>
+        <v>2.284202557180202</v>
+      </c>
+      <c r="AD10">
         <f t="shared" si="7"/>
-        <v>2.284202557180202</v>
-      </c>
-      <c r="AD10">
+        <v>-0.39891023430928918</v>
+      </c>
+      <c r="AE10" s="1">
         <f t="shared" si="8"/>
-        <v>-0.39891023430928918</v>
-      </c>
-      <c r="AE10" s="1">
-        <f t="shared" si="9"/>
         <v>6.1099681752193273</v>
       </c>
       <c r="AF10">
@@ -2092,11 +2092,11 @@
         <v>-2.1175942717140872</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-9.2229064677651351E-2</v>
       </c>
       <c r="AH10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.0020756849981476</v>
       </c>
       <c r="AI10">
@@ -2104,7 +2104,7 @@
         <v>9.2038022734601974E-2</v>
       </c>
       <c r="AJ10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.15647133788770864</v>
       </c>
       <c r="AK10">
@@ -2147,12 +2147,12 @@
         <v>0.53567233065105191</v>
       </c>
       <c r="AU10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>3.305054087662429</v>
       </c>
       <c r="AV10">
-        <f t="shared" si="18"/>
-        <v>1422.1596803380614</v>
+        <f t="shared" si="11"/>
+        <v>1835.4691844817048</v>
       </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.25">
@@ -2242,15 +2242,15 @@
         <v>1.8993222021266298</v>
       </c>
       <c r="AC11">
+        <f t="shared" si="6"/>
+        <v>2.4112000863125864</v>
+      </c>
+      <c r="AD11">
         <f t="shared" si="7"/>
-        <v>2.4112000863125864</v>
-      </c>
-      <c r="AD11">
+        <v>-0.51187788418595659</v>
+      </c>
+      <c r="AE11" s="1">
         <f t="shared" si="8"/>
-        <v>-0.51187788418595659</v>
-      </c>
-      <c r="AE11" s="1">
-        <f t="shared" si="9"/>
         <v>7.1171260693594105</v>
       </c>
       <c r="AF11">
@@ -2258,11 +2258,11 @@
         <v>-2.60192872206337</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-0.11296764987666741</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.0071578941400832</v>
       </c>
       <c r="AI11">
@@ -2270,7 +2270,7 @@
         <v>0.11216478621072597</v>
       </c>
       <c r="AJ11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.17100241937727681</v>
       </c>
       <c r="AK11">
@@ -2313,12 +2313,12 @@
         <v>0.53398520966962959</v>
       </c>
       <c r="AU11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>3.8390392973320586</v>
       </c>
       <c r="AV11">
-        <f t="shared" si="18"/>
-        <v>1710.304636995822</v>
+        <f t="shared" si="11"/>
+        <v>2128.7467651233101</v>
       </c>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.25">
@@ -2408,15 +2408,15 @@
         <v>1.8032093482882816</v>
       </c>
       <c r="AC12">
+        <f t="shared" si="6"/>
+        <v>2.5276628453827987</v>
+      </c>
+      <c r="AD12">
         <f t="shared" si="7"/>
-        <v>2.5276628453827987</v>
-      </c>
-      <c r="AD12">
+        <v>-0.72445349709451712</v>
+      </c>
+      <c r="AE12" s="1">
         <f t="shared" si="8"/>
-        <v>-0.72445349709451712</v>
-      </c>
-      <c r="AE12" s="1">
-        <f t="shared" si="9"/>
         <v>8.1606439602980174</v>
       </c>
       <c r="AF12">
@@ -2424,11 +2424,11 @@
         <v>-3.1972056023617181</v>
       </c>
       <c r="AG12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-0.21257561290856053</v>
       </c>
       <c r="AH12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.0435178909386069</v>
       </c>
       <c r="AI12">
@@ -2436,7 +2436,7 @@
         <v>0.20371055901816537</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.18352205162590746</v>
       </c>
       <c r="AK12">
@@ -2479,12 +2479,12 @@
         <v>0.54129574759208898</v>
       </c>
       <c r="AU12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>4.3803350449241476</v>
       </c>
       <c r="AV12">
-        <f t="shared" si="18"/>
-        <v>2039.315557010543</v>
+        <f t="shared" si="11"/>
+        <v>2430.0290765741129</v>
       </c>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.25">
@@ -2574,15 +2574,15 @@
         <v>1.7507299758379502</v>
       </c>
       <c r="AC13">
+        <f t="shared" si="6"/>
+        <v>2.6330672609489758</v>
+      </c>
+      <c r="AD13">
         <f t="shared" si="7"/>
-        <v>2.6330672609489758</v>
-      </c>
-      <c r="AD13">
+        <v>-0.8823372851110256</v>
+      </c>
+      <c r="AE13" s="1">
         <f t="shared" si="8"/>
-        <v>-0.8823372851110256</v>
-      </c>
-      <c r="AE13" s="1">
-        <f t="shared" si="9"/>
         <v>9.1935313194708428</v>
       </c>
       <c r="AF13">
@@ -2590,11 +2590,11 @@
         <v>-3.7516952623620496</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-0.15788378801650849</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.0328873591728254</v>
       </c>
       <c r="AI13">
@@ -2602,7 +2602,7 @@
         <v>0.15285673371290717</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.19448381304746887</v>
       </c>
       <c r="AK13">
@@ -2645,12 +2645,12 @@
         <v>0.53495550079810628</v>
       </c>
       <c r="AU13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>4.9152905457222538</v>
       </c>
       <c r="AV13">
-        <f t="shared" si="18"/>
-        <v>2355.2907860582136</v>
+        <f t="shared" si="11"/>
+        <v>2733.9042971800968</v>
       </c>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
@@ -2740,15 +2740,15 @@
         <v>1.6983816350330971</v>
       </c>
       <c r="AC14">
+        <f t="shared" si="6"/>
+        <v>2.7267743813436764</v>
+      </c>
+      <c r="AD14">
         <f t="shared" si="7"/>
-        <v>2.7267743813436764</v>
-      </c>
-      <c r="AD14">
+        <v>-1.0283927463105793</v>
+      </c>
+      <c r="AE14" s="1">
         <f t="shared" si="8"/>
-        <v>-1.0283927463105793</v>
-      </c>
-      <c r="AE14" s="1">
-        <f t="shared" si="9"/>
         <v>10.218653095568079</v>
       </c>
       <c r="AF14">
@@ -2756,11 +2756,11 @@
         <v>-4.3030199263169031</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-0.1460554611995537</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.0251217760972366</v>
       </c>
       <c r="AI14">
@@ -2768,7 +2768,7 @@
         <v>0.14247620585683451</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.20398420268029996</v>
       </c>
       <c r="AK14">
@@ -2811,12 +2811,12 @@
         <v>0.51337098330505959</v>
       </c>
       <c r="AU14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>5.4286615290273135</v>
       </c>
       <c r="AV14">
-        <f t="shared" si="18"/>
-        <v>2669.0289576647324</v>
+        <f t="shared" si="11"/>
+        <v>3036.1731040840914</v>
       </c>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
@@ -2906,15 +2906,15 @@
         <v>1.6503316009821023</v>
       </c>
       <c r="AC15">
+        <f t="shared" si="6"/>
+        <v>2.8137080271925665</v>
+      </c>
+      <c r="AD15">
         <f t="shared" si="7"/>
-        <v>2.8137080271925665</v>
-      </c>
-      <c r="AD15">
+        <v>-1.1633764262104642</v>
+      </c>
+      <c r="AE15" s="1">
         <f t="shared" si="8"/>
-        <v>-1.1633764262104642</v>
-      </c>
-      <c r="AE15" s="1">
-        <f t="shared" si="9"/>
         <v>11.244574235126924</v>
       </c>
       <c r="AF15">
@@ -2922,11 +2922,11 @@
         <v>-4.8516678876678974</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-0.13498367989988491</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.0259211395588448</v>
       </c>
       <c r="AI15">
@@ -2934,7 +2934,7 @@
         <v>0.13157315381758203</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.2123499900500545</v>
       </c>
       <c r="AK15">
@@ -2977,12 +2977,12 @@
         <v>0.50948548747432376</v>
       </c>
       <c r="AU15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>5.9381470165016372</v>
       </c>
       <c r="AV15">
-        <f t="shared" si="18"/>
-        <v>2979.3266459713805</v>
+        <f t="shared" si="11"/>
+        <v>3335.3862620252858</v>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
@@ -3072,15 +3072,15 @@
         <v>1.5229187844645886</v>
       </c>
       <c r="AC16">
+        <f t="shared" si="6"/>
+        <v>2.8921735590680138</v>
+      </c>
+      <c r="AD16">
         <f t="shared" si="7"/>
-        <v>2.8921735590680138</v>
-      </c>
-      <c r="AD16">
+        <v>-1.3692547746034252</v>
+      </c>
+      <c r="AE16" s="1">
         <f t="shared" si="8"/>
-        <v>-1.3692547746034252</v>
-      </c>
-      <c r="AE16" s="1">
-        <f t="shared" si="9"/>
         <v>12.292402613431094</v>
       </c>
       <c r="AF16">
@@ -3088,11 +3088,11 @@
         <v>-5.4779494850354116</v>
       </c>
       <c r="AG16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-0.20587834839296093</v>
       </c>
       <c r="AH16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.0478283783041693</v>
       </c>
       <c r="AI16">
@@ -3100,7 +3100,7 @@
         <v>0.19648098167197897</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.21980522846745118</v>
       </c>
       <c r="AK16">
@@ -3143,12 +3143,12 @@
         <v>0.48839486644587876</v>
       </c>
       <c r="AU16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>6.4265418829475163</v>
       </c>
       <c r="AV16">
-        <f t="shared" si="18"/>
-        <v>3306.8431276104029</v>
+        <f t="shared" si="11"/>
+        <v>3625.2103016106817</v>
       </c>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.25">
@@ -3238,15 +3238,15 @@
         <v>1.3844579482043651</v>
       </c>
       <c r="AC17">
+        <f t="shared" si="6"/>
+        <v>2.9632657811944698</v>
+      </c>
+      <c r="AD17">
         <f t="shared" si="7"/>
-        <v>2.9632657811944698</v>
-      </c>
-      <c r="AD17">
+        <v>-1.5788078329901047</v>
+      </c>
+      <c r="AE17" s="1">
         <f t="shared" si="8"/>
-        <v>-1.5788078329901047</v>
-      </c>
-      <c r="AE17" s="1">
-        <f t="shared" si="9"/>
         <v>13.34803372386159</v>
       </c>
       <c r="AF17">
@@ -3254,11 +3254,11 @@
         <v>-6.1177906209456347</v>
       </c>
       <c r="AG17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-0.20955305838667959</v>
       </c>
       <c r="AH17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.0556311104304967</v>
       </c>
       <c r="AI17">
@@ -3266,7 +3266,7 @@
         <v>0.1985097410602287</v>
       </c>
       <c r="AJ17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.22638828806408789</v>
       </c>
       <c r="AK17">
@@ -3309,12 +3309,12 @@
         <v>0.46670002739486366</v>
       </c>
       <c r="AU17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>6.8932419103423799</v>
       </c>
       <c r="AV17">
-        <f t="shared" si="18"/>
-        <v>3634.4709085546438</v>
+        <f t="shared" si="11"/>
+        <v>3910.8134047647495</v>
       </c>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.25">
@@ -3404,15 +3404,15 @@
         <v>-0.38131419300644342</v>
       </c>
       <c r="AC18">
+        <f t="shared" si="6"/>
+        <v>2.9420401064210475</v>
+      </c>
+      <c r="AD18">
         <f t="shared" si="7"/>
-        <v>2.9420401064210475</v>
-      </c>
-      <c r="AD18">
+        <v>-3.3233542994274909</v>
+      </c>
+      <c r="AE18" s="1">
         <f t="shared" si="8"/>
-        <v>-3.3233542994274909</v>
-      </c>
-      <c r="AE18" s="1">
-        <f t="shared" si="9"/>
         <v>14.930717526601342</v>
       </c>
       <c r="AF18">
@@ -3420,11 +3420,11 @@
         <v>-8.3816029753064427</v>
       </c>
       <c r="AG18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-1.7445464664373862</v>
       </c>
       <c r="AH18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.5826838027397514</v>
       </c>
       <c r="AI18">
@@ -3432,7 +3432,7 @@
         <v>1.1022710053754501</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.2285319783636458</v>
       </c>
       <c r="AK18">
@@ -3475,12 +3475,12 @@
         <v>-0.14179428215223308</v>
       </c>
       <c r="AU18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>6.7514476281901468</v>
       </c>
       <c r="AV18">
-        <f t="shared" si="18"/>
-        <v>4247.182791463968</v>
+        <f t="shared" si="11"/>
+        <v>3929.0465719212712</v>
       </c>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.25">
@@ -3834,7 +3834,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/SMP_3PP.xlsx
+++ b/SMP_3PP.xlsx
@@ -121,6 +121,42 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>D/E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dratio</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K_p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dev_pla_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ev_pla_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deq_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eq_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dev/deq_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s_n_real_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ev_ela</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -129,6 +165,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>eq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>er_from_ev</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -142,46 +182,6 @@
   </si>
   <si>
     <t>dev/deq</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D/E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dratio</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>K_p</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dev_pla_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ev_pla_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>deq_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>eq_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dev/deq_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>eq_pla</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>s_n_real_pred</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -515,7 +515,7 @@
   <dimension ref="A1:AV22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AV1" sqref="AV1:AV1048576"/>
+      <selection activeCell="AH3" sqref="AH3:AH17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -630,28 +630,28 @@
         <v>27</v>
       </c>
       <c r="AC1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AD1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="AE1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH1" t="s">
         <v>46</v>
       </c>
-      <c r="AF1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>36</v>
-      </c>
       <c r="AI1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AJ1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AK1" t="s">
         <v>29</v>
@@ -663,31 +663,31 @@
         <v>28</v>
       </c>
       <c r="AN1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AO1" t="s">
         <v>31</v>
       </c>
       <c r="AP1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AQ1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV1" t="s">
         <v>40</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
@@ -777,16 +777,16 @@
         <v>-1.2581269359657199E-9</v>
       </c>
       <c r="AC2">
-        <f>0.0762*AK2^0.2606-0.5912</f>
-        <v>7.3646701948911764E-3</v>
+        <f>1.34 *((AK2/100000)^0.3-(2594/100000)^0.3)</f>
+        <v>6.5499842317292192E-3</v>
       </c>
       <c r="AD2">
         <f>AB2-AC2</f>
-        <v>-7.3646714530181123E-3</v>
-      </c>
-      <c r="AE2" s="1">
-        <f>P2-AB2/3-2*(1.35*(AK2/3255000)^-0.0723)*(1+0.33)/(9*(1-2*0.33))</f>
-        <v>-1.9588523927937214</v>
+        <v>-6.5499854898561551E-3</v>
+      </c>
+      <c r="AE2" s="2">
+        <f>P2-AB2/3</f>
+        <v>2.531280308865322E-6</v>
       </c>
       <c r="AF2">
         <f t="shared" ref="AF2:AF18" si="1">AB2-P2/2</f>
@@ -913,36 +913,36 @@
         <f t="shared" si="0"/>
         <v>0.64105581271286516</v>
       </c>
-      <c r="AC3" s="2">
-        <f t="shared" ref="AC3:AC18" si="6">0.0762*AK3^0.2606-0.5912</f>
-        <v>0.64383013134365763</v>
-      </c>
-      <c r="AD3" s="2">
+      <c r="AC3">
+        <f t="shared" ref="AC3:AC18" si="6">1.34 *((AK3/100000)^0.3-(2594/100000)^0.3)</f>
+        <v>0.59844690560600888</v>
+      </c>
+      <c r="AD3">
         <f t="shared" ref="AD3:AD18" si="7">AB3-AC3</f>
-        <v>-2.7743186307924717E-3</v>
-      </c>
-      <c r="AE3" s="1">
-        <f t="shared" ref="AE3:AE18" si="8">P3-AB3/3-2*(1.35*(AK3/3255000)^-0.0723)*(1+0.33)/(9*(1-2*0.33))</f>
-        <v>-0.80997465138793878</v>
-      </c>
-      <c r="AF3" s="2">
+        <v>4.2608907106856275E-2</v>
+      </c>
+      <c r="AE3" s="2">
+        <f t="shared" ref="AE3:AE18" si="8">P3-AB3/3</f>
+        <v>0.79227428895571161</v>
+      </c>
+      <c r="AF3">
         <f t="shared" si="1"/>
         <v>0.13807603278286518</v>
       </c>
-      <c r="AG3" s="2">
+      <c r="AG3" s="1">
         <f t="shared" ref="AG3:AH18" si="9">AD3-AD2</f>
-        <v>4.5903528222256407E-3</v>
-      </c>
-      <c r="AH3" s="2">
+        <v>4.9158892596712432E-2</v>
+      </c>
+      <c r="AH3" s="1">
         <f t="shared" si="9"/>
-        <v>1.1488777414057827</v>
-      </c>
-      <c r="AI3" s="2">
-        <f>-AG3/AH3</f>
-        <v>-3.9955102764971506E-3</v>
+        <v>0.7922717576754027</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" ref="AI3:AI18" si="10">-AG3/AH3</f>
+        <v>-6.2048018398319645E-2</v>
       </c>
       <c r="AJ3">
-        <f t="shared" ref="AJ3:AJ18" si="10">(( 1.588*EXP(-0.0005387*3*232))^2-AP3^2)/(2*AP3)+0.4</f>
+        <f t="shared" ref="AJ3:AJ18" si="11">(( 1.588*EXP(-0.0005387*3*232))^2-AP3^2)/(2*AP3)+0.4</f>
         <v>-0.18001344639452888</v>
       </c>
       <c r="AK3" s="2">
@@ -989,7 +989,7 @@
         <v>0.16854381075864253</v>
       </c>
       <c r="AV3">
-        <f t="shared" ref="AV3:AV18" si="11">(AQ3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
+        <f t="shared" ref="AV3:AV18" si="12">(AQ3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
         <v>132.1974966142285</v>
       </c>
     </row>
@@ -1079,36 +1079,36 @@
         <f t="shared" si="0"/>
         <v>1.0701225422241167</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AC4">
         <f t="shared" si="6"/>
-        <v>1.0340659049961174</v>
-      </c>
-      <c r="AD4" s="1">
+        <v>0.9874729540660705</v>
+      </c>
+      <c r="AD4">
         <f t="shared" si="7"/>
-        <v>3.6056637227999344E-2</v>
-      </c>
-      <c r="AE4" s="1">
+        <v>8.2649588158046239E-2</v>
+      </c>
+      <c r="AE4" s="2">
         <f t="shared" si="8"/>
-        <v>0.1620225647976663</v>
-      </c>
-      <c r="AF4" s="1">
+        <v>1.6467493256652945</v>
+      </c>
+      <c r="AF4">
         <f t="shared" si="1"/>
         <v>6.8394122354116682E-2</v>
       </c>
       <c r="AG4" s="1">
         <f t="shared" si="9"/>
-        <v>3.8830955858791816E-2</v>
+        <v>4.0040681051189964E-2</v>
       </c>
       <c r="AH4" s="1">
         <f t="shared" si="9"/>
-        <v>0.97199721618560508</v>
-      </c>
-      <c r="AI4" s="1">
-        <f t="shared" ref="AI4:AI18" si="12">-AG4/AH4</f>
-        <v>-3.9949657480682493E-2</v>
+        <v>0.85447503670958291</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" si="10"/>
+        <v>-4.6859977566318184E-2</v>
       </c>
       <c r="AJ4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5.3624534674967361E-2</v>
       </c>
       <c r="AK4" s="1">
@@ -1155,7 +1155,7 @@
         <v>0.4534976307725096</v>
       </c>
       <c r="AV4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>295.70962790996128</v>
       </c>
     </row>
@@ -1247,34 +1247,34 @@
       </c>
       <c r="AC5">
         <f t="shared" si="6"/>
-        <v>1.3335206837629676</v>
+        <v>1.2959865974484497</v>
       </c>
       <c r="AD5">
         <f t="shared" si="7"/>
-        <v>-5.3830521729392178E-2</v>
-      </c>
-      <c r="AE5" s="1">
+        <v>-1.6296435414874244E-2</v>
+      </c>
+      <c r="AE5" s="2">
         <f t="shared" si="8"/>
-        <v>1.1619247240588908</v>
+        <v>2.5786011719554747</v>
       </c>
       <c r="AF5">
         <f t="shared" si="1"/>
         <v>-0.22289211761642447</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="1">
         <f t="shared" si="9"/>
-        <v>-8.9887158957391522E-2</v>
-      </c>
-      <c r="AH5">
+        <v>-9.8946023572920483E-2</v>
+      </c>
+      <c r="AH5" s="1">
         <f t="shared" si="9"/>
-        <v>0.9999021592612245</v>
+        <v>0.93185184629018014</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="12"/>
-        <v>8.989595444398725E-2</v>
+        <f t="shared" si="10"/>
+        <v>0.10618214039800114</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3787936068533124E-2</v>
       </c>
       <c r="AK5">
@@ -1321,7 +1321,7 @@
         <v>0.82051382720268629</v>
       </c>
       <c r="AV5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>501.27345618961613</v>
       </c>
     </row>
@@ -1413,34 +1413,34 @@
       </c>
       <c r="AC6">
         <f t="shared" si="6"/>
-        <v>1.5829659592714729</v>
+        <v>1.5586444276045079</v>
       </c>
       <c r="AD6">
         <f t="shared" si="7"/>
-        <v>-2.0860492076021364E-2</v>
-      </c>
-      <c r="AE6" s="1">
+        <v>3.4610395909435709E-3</v>
+      </c>
+      <c r="AE6" s="2">
         <f t="shared" si="8"/>
-        <v>2.1101916842492336</v>
+        <v>3.4797714886515165</v>
       </c>
       <c r="AF6">
         <f t="shared" si="1"/>
         <v>-0.43813118832954867</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="1">
         <f t="shared" si="9"/>
-        <v>3.2970029653370814E-2</v>
-      </c>
-      <c r="AH6">
+        <v>1.9757475005817815E-2</v>
+      </c>
+      <c r="AH6" s="1">
         <f t="shared" si="9"/>
-        <v>0.94826696019034284</v>
+        <v>0.90117031669604186</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="12"/>
-        <v>-3.476872129632444E-2</v>
+        <f t="shared" si="10"/>
+        <v>-2.1924240778651686E-2</v>
       </c>
       <c r="AJ6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.8887882034157957E-2</v>
       </c>
       <c r="AK6">
@@ -1487,7 +1487,7 @@
         <v>1.2538717073633654</v>
       </c>
       <c r="AV6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>735.42923277600835</v>
       </c>
     </row>
@@ -1579,34 +1579,34 @@
       </c>
       <c r="AC7">
         <f t="shared" si="6"/>
-        <v>1.7961180502694474</v>
+        <v>1.7867522032264378</v>
       </c>
       <c r="AD7">
         <f t="shared" si="7"/>
-        <v>-0.17253362112402804</v>
-      </c>
-      <c r="AE7" s="1">
+        <v>-0.16316777408101846</v>
+      </c>
+      <c r="AE7" s="2">
         <f t="shared" si="8"/>
-        <v>3.1258295449454465</v>
+        <v>4.46032940890486</v>
       </c>
       <c r="AF7">
         <f t="shared" si="1"/>
         <v>-0.87717768016458075</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" s="1">
         <f t="shared" si="9"/>
-        <v>-0.15167312904800667</v>
-      </c>
-      <c r="AH7">
+        <v>-0.16662881367196203</v>
+      </c>
+      <c r="AH7" s="1">
         <f t="shared" si="9"/>
-        <v>1.0156378606962129</v>
+        <v>0.98055792025334343</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="12"/>
-        <v>0.14933780525278545</v>
+        <f t="shared" si="10"/>
+        <v>0.16993265795957338</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.2319479911810443E-2</v>
       </c>
       <c r="AK7">
@@ -1653,7 +1653,7 @@
         <v>1.7346065282001957</v>
       </c>
       <c r="AV7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>992.67387945275937</v>
       </c>
     </row>
@@ -1745,34 +1745,34 @@
       </c>
       <c r="AC8">
         <f t="shared" si="6"/>
-        <v>1.9785133855533561</v>
+        <v>1.9844183164678932</v>
       </c>
       <c r="AD8">
         <f t="shared" si="7"/>
-        <v>-0.11966219637354514</v>
-      </c>
-      <c r="AE8" s="1">
+        <v>-0.12556712728808228</v>
+      </c>
+      <c r="AE8" s="2">
         <f t="shared" si="8"/>
-        <v>4.0731948770463839</v>
+        <v>5.3807128307200633</v>
       </c>
       <c r="AF8">
         <f t="shared" si="1"/>
         <v>-1.1413137577101891</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" s="1">
         <f t="shared" si="9"/>
-        <v>5.2871424750482898E-2</v>
-      </c>
-      <c r="AH8">
+        <v>3.7600646792936177E-2</v>
+      </c>
+      <c r="AH8" s="1">
         <f t="shared" si="9"/>
-        <v>0.94736533210093743</v>
+        <v>0.92038342181520338</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="12"/>
-        <v>-5.5808908093809888E-2</v>
+        <f t="shared" si="10"/>
+        <v>-4.0853242139867352E-2</v>
       </c>
       <c r="AJ8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.11821373578150851</v>
       </c>
       <c r="AK8">
@@ -1819,7 +1819,7 @@
         <v>2.2389098877681608</v>
       </c>
       <c r="AV8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1263.1858886735004</v>
       </c>
     </row>
@@ -1911,34 +1911,34 @@
       </c>
       <c r="AC9">
         <f t="shared" si="6"/>
-        <v>2.1411418866410052</v>
+        <v>2.1624663342283323</v>
       </c>
       <c r="AD9">
         <f t="shared" si="7"/>
-        <v>-0.30668116963163783</v>
-      </c>
-      <c r="AE9" s="1">
+        <v>-0.32800561721896493</v>
+      </c>
+      <c r="AE9" s="2">
         <f t="shared" si="8"/>
-        <v>5.1078924902211797</v>
+        <v>6.3933386030602106</v>
       </c>
       <c r="AF9">
         <f t="shared" si="1"/>
         <v>-1.6679520373556325</v>
       </c>
-      <c r="AG9">
+      <c r="AG9" s="1">
         <f t="shared" si="9"/>
-        <v>-0.18701897325809269</v>
-      </c>
-      <c r="AH9">
+        <v>-0.20243848993088265</v>
+      </c>
+      <c r="AH9" s="1">
         <f t="shared" si="9"/>
-        <v>1.0346976131747958</v>
+        <v>1.0126257723401473</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="12"/>
-        <v>0.18074746754682885</v>
+        <f t="shared" si="10"/>
+        <v>0.19991441602661708</v>
       </c>
       <c r="AJ9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.13911572224933721</v>
       </c>
       <c r="AK9">
@@ -1985,7 +1985,7 @@
         <v>2.7693817570113772</v>
       </c>
       <c r="AV9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1545.7375819769065</v>
       </c>
     </row>
@@ -2077,34 +2077,34 @@
       </c>
       <c r="AC10">
         <f t="shared" si="6"/>
-        <v>2.284202557180202</v>
+        <v>2.3204251932412645</v>
       </c>
       <c r="AD10">
         <f t="shared" si="7"/>
-        <v>-0.39891023430928918</v>
-      </c>
-      <c r="AE10" s="1">
+        <v>-0.43513287037035164</v>
+      </c>
+      <c r="AE10" s="2">
         <f t="shared" si="8"/>
-        <v>6.1099681752193273</v>
+        <v>7.3773424148796956</v>
       </c>
       <c r="AF10">
         <f t="shared" si="1"/>
         <v>-2.1175942717140872</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" s="1">
         <f t="shared" si="9"/>
-        <v>-9.2229064677651351E-2</v>
-      </c>
-      <c r="AH10">
+        <v>-0.10712725315138671</v>
+      </c>
+      <c r="AH10" s="1">
         <f t="shared" si="9"/>
-        <v>1.0020756849981476</v>
+        <v>0.98400381181948493</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="12"/>
-        <v>9.2038022734601974E-2</v>
+        <f t="shared" si="10"/>
+        <v>0.10886873797094514</v>
       </c>
       <c r="AJ10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.15647133788770864</v>
       </c>
       <c r="AK10">
@@ -2151,7 +2151,7 @@
         <v>3.305054087662429</v>
       </c>
       <c r="AV10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1835.4691844817048</v>
       </c>
     </row>
@@ -2243,34 +2243,34 @@
       </c>
       <c r="AC11">
         <f t="shared" si="6"/>
-        <v>2.4112000863125864</v>
+        <v>2.461649362791448</v>
       </c>
       <c r="AD11">
         <f t="shared" si="7"/>
-        <v>-0.51187788418595659</v>
-      </c>
-      <c r="AE11" s="1">
+        <v>-0.56232716066481814</v>
+      </c>
+      <c r="AE11" s="2">
         <f t="shared" si="8"/>
-        <v>7.1171260693594105</v>
+        <v>8.3693944476711231</v>
       </c>
       <c r="AF11">
         <f t="shared" si="1"/>
         <v>-2.60192872206337</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" s="1">
         <f t="shared" si="9"/>
-        <v>-0.11296764987666741</v>
-      </c>
-      <c r="AH11">
+        <v>-0.12719429029446649</v>
+      </c>
+      <c r="AH11" s="1">
         <f t="shared" si="9"/>
-        <v>1.0071578941400832</v>
+        <v>0.99205203279142751</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="12"/>
-        <v>0.11216478621072597</v>
+        <f t="shared" si="10"/>
+        <v>0.12821332560205365</v>
       </c>
       <c r="AJ11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.17100241937727681</v>
       </c>
       <c r="AK11">
@@ -2317,7 +2317,7 @@
         <v>3.8390392973320586</v>
       </c>
       <c r="AV11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2128.7467651233101</v>
       </c>
     </row>
@@ -2409,34 +2409,34 @@
       </c>
       <c r="AC12">
         <f t="shared" si="6"/>
-        <v>2.5276628453827987</v>
+        <v>2.5919560426629995</v>
       </c>
       <c r="AD12">
         <f t="shared" si="7"/>
-        <v>-0.72445349709451712</v>
-      </c>
-      <c r="AE12" s="1">
+        <v>-0.78874669437471789</v>
+      </c>
+      <c r="AE12" s="2">
         <f t="shared" si="8"/>
-        <v>8.1606439602980174</v>
+        <v>9.3997601185372393</v>
       </c>
       <c r="AF12">
         <f t="shared" si="1"/>
         <v>-3.1972056023617181</v>
       </c>
-      <c r="AG12">
+      <c r="AG12" s="1">
         <f t="shared" si="9"/>
-        <v>-0.21257561290856053</v>
-      </c>
-      <c r="AH12">
+        <v>-0.22641953370989976</v>
+      </c>
+      <c r="AH12" s="1">
         <f t="shared" si="9"/>
-        <v>1.0435178909386069</v>
+        <v>1.0303656708661162</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="12"/>
-        <v>0.20371055901816537</v>
+        <f t="shared" si="10"/>
+        <v>0.21974677545261531</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.18352205162590746</v>
       </c>
       <c r="AK12">
@@ -2483,7 +2483,7 @@
         <v>4.3803350449241476</v>
       </c>
       <c r="AV12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2430.0290765741129</v>
       </c>
     </row>
@@ -2575,34 +2575,34 @@
       </c>
       <c r="AC13">
         <f t="shared" si="6"/>
-        <v>2.6330672609489758</v>
+        <v>2.7105266347417203</v>
       </c>
       <c r="AD13">
         <f t="shared" si="7"/>
-        <v>-0.8823372851110256</v>
-      </c>
-      <c r="AE13" s="1">
+        <v>-0.95979665890377008</v>
+      </c>
+      <c r="AE13" s="2">
         <f t="shared" si="8"/>
-        <v>9.1935313194708428</v>
+        <v>10.42127381778735</v>
       </c>
       <c r="AF13">
         <f t="shared" si="1"/>
         <v>-3.7516952623620496</v>
       </c>
-      <c r="AG13">
+      <c r="AG13" s="1">
         <f t="shared" si="9"/>
-        <v>-0.15788378801650849</v>
-      </c>
-      <c r="AH13">
+        <v>-0.17104996452905219</v>
+      </c>
+      <c r="AH13" s="1">
         <f t="shared" si="9"/>
-        <v>1.0328873591728254</v>
+        <v>1.0215136992501108</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="12"/>
-        <v>0.15285673371290717</v>
+        <f t="shared" si="10"/>
+        <v>0.16744754833402556</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.19448381304746887</v>
       </c>
       <c r="AK13">
@@ -2649,7 +2649,7 @@
         <v>4.9152905457222538</v>
       </c>
       <c r="AV13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2733.9042971800968</v>
       </c>
     </row>
@@ -2741,34 +2741,34 @@
       </c>
       <c r="AC14">
         <f t="shared" si="6"/>
-        <v>2.7267743813436764</v>
+        <v>2.8164327034808418</v>
       </c>
       <c r="AD14">
         <f t="shared" si="7"/>
-        <v>-1.0283927463105793</v>
-      </c>
-      <c r="AE14" s="1">
+        <v>-1.1180510684477447</v>
+      </c>
+      <c r="AE14" s="2">
         <f t="shared" si="8"/>
-        <v>10.218653095568079</v>
+        <v>11.4366759110223</v>
       </c>
       <c r="AF14">
         <f t="shared" si="1"/>
         <v>-4.3030199263169031</v>
       </c>
-      <c r="AG14">
+      <c r="AG14" s="1">
         <f t="shared" si="9"/>
-        <v>-0.1460554611995537</v>
-      </c>
-      <c r="AH14">
+        <v>-0.15825440954397463</v>
+      </c>
+      <c r="AH14" s="1">
         <f t="shared" si="9"/>
-        <v>1.0251217760972366</v>
+        <v>1.0154020932349503</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="12"/>
-        <v>0.14247620585683451</v>
+        <f t="shared" si="10"/>
+        <v>0.15585393274086612</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.20398420268029996</v>
       </c>
       <c r="AK14">
@@ -2815,7 +2815,7 @@
         <v>5.4286615290273135</v>
       </c>
       <c r="AV14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3036.1731040840914</v>
       </c>
     </row>
@@ -2907,34 +2907,34 @@
       </c>
       <c r="AC15">
         <f t="shared" si="6"/>
-        <v>2.8137080271925665</v>
+        <v>2.9150890236335414</v>
       </c>
       <c r="AD15">
         <f t="shared" si="7"/>
-        <v>-1.1633764262104642</v>
-      </c>
-      <c r="AE15" s="1">
+        <v>-1.2647574226514391</v>
+      </c>
+      <c r="AE15" s="2">
         <f t="shared" si="8"/>
-        <v>11.244574235126924</v>
+        <v>12.453888443639299</v>
       </c>
       <c r="AF15">
         <f t="shared" si="1"/>
         <v>-4.8516678876678974</v>
       </c>
-      <c r="AG15">
+      <c r="AG15" s="1">
         <f t="shared" si="9"/>
-        <v>-0.13498367989988491</v>
-      </c>
-      <c r="AH15">
+        <v>-0.14670635420369438</v>
+      </c>
+      <c r="AH15" s="1">
         <f t="shared" si="9"/>
-        <v>1.0259211395588448</v>
+        <v>1.0172125326169983</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="12"/>
-        <v>0.13157315381758203</v>
+        <f t="shared" si="10"/>
+        <v>0.14422389569489544</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.2123499900500545</v>
       </c>
       <c r="AK15">
@@ -2981,7 +2981,7 @@
         <v>5.9381470165016372</v>
       </c>
       <c r="AV15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3335.3862620252858</v>
       </c>
     </row>
@@ -3073,34 +3073,34 @@
       </c>
       <c r="AC16">
         <f t="shared" si="6"/>
-        <v>2.8921735590680138</v>
+        <v>3.0044632205799586</v>
       </c>
       <c r="AD16">
         <f t="shared" si="7"/>
-        <v>-1.3692547746034252</v>
-      </c>
-      <c r="AE16" s="1">
+        <v>-1.48154443611537</v>
+      </c>
+      <c r="AE16" s="2">
         <f t="shared" si="8"/>
-        <v>12.292402613431094</v>
+        <v>13.494096944178469</v>
       </c>
       <c r="AF16">
         <f t="shared" si="1"/>
         <v>-5.4779494850354116</v>
       </c>
-      <c r="AG16">
+      <c r="AG16" s="1">
         <f t="shared" si="9"/>
-        <v>-0.20587834839296093</v>
-      </c>
-      <c r="AH16">
+        <v>-0.21678701346393092</v>
+      </c>
+      <c r="AH16" s="1">
         <f t="shared" si="9"/>
-        <v>1.0478283783041693</v>
+        <v>1.0402085005391708</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="12"/>
-        <v>0.19648098167197897</v>
+        <f t="shared" si="10"/>
+        <v>0.2084072696498479</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.21980522846745118</v>
       </c>
       <c r="AK16">
@@ -3147,7 +3147,7 @@
         <v>6.4265418829475163</v>
       </c>
       <c r="AV16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3625.2103016106817</v>
       </c>
     </row>
@@ -3239,34 +3239,34 @@
       </c>
       <c r="AC17">
         <f t="shared" si="6"/>
-        <v>2.9632657811944698</v>
+        <v>3.0857024773424628</v>
       </c>
       <c r="AD17">
         <f t="shared" si="7"/>
-        <v>-1.5788078329901047</v>
-      </c>
-      <c r="AE17" s="1">
+        <v>-1.7012445291380978</v>
+      </c>
+      <c r="AE17" s="2">
         <f t="shared" si="8"/>
-        <v>13.34803372386159</v>
+        <v>14.54301115556521</v>
       </c>
       <c r="AF17">
         <f t="shared" si="1"/>
         <v>-6.1177906209456347</v>
       </c>
-      <c r="AG17">
+      <c r="AG17" s="1">
         <f t="shared" si="9"/>
-        <v>-0.20955305838667959</v>
-      </c>
-      <c r="AH17">
+        <v>-0.21970009302272775</v>
+      </c>
+      <c r="AH17" s="1">
         <f t="shared" si="9"/>
-        <v>1.0556311104304967</v>
+        <v>1.0489142113867409</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="12"/>
-        <v>0.1985097410602287</v>
+        <f t="shared" si="10"/>
+        <v>0.20945477774799928</v>
       </c>
       <c r="AJ17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.22638828806408789</v>
       </c>
       <c r="AK17">
@@ -3313,7 +3313,7 @@
         <v>6.8932419103423799</v>
       </c>
       <c r="AV17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3910.8134047647495</v>
       </c>
     </row>
@@ -3405,34 +3405,34 @@
       </c>
       <c r="AC18">
         <f t="shared" si="6"/>
-        <v>2.9420401064210475</v>
+        <v>3.0614212955280857</v>
       </c>
       <c r="AD18">
         <f t="shared" si="7"/>
-        <v>-3.3233542994274909</v>
-      </c>
-      <c r="AE18" s="1">
+        <v>-3.4427354885345292</v>
+      </c>
+      <c r="AE18" s="2">
         <f t="shared" si="8"/>
-        <v>14.930717526601342</v>
+        <v>16.127682295602149</v>
       </c>
       <c r="AF18">
         <f t="shared" si="1"/>
         <v>-8.3816029753064427</v>
       </c>
-      <c r="AG18">
+      <c r="AG18" s="1">
         <f t="shared" si="9"/>
-        <v>-1.7445464664373862</v>
-      </c>
-      <c r="AH18">
+        <v>-1.7414909593964314</v>
+      </c>
+      <c r="AH18" s="1">
         <f t="shared" si="9"/>
-        <v>1.5826838027397514</v>
+        <v>1.5846711400369387</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="12"/>
-        <v>1.1022710053754501</v>
+        <f t="shared" si="10"/>
+        <v>1.0989604817033756</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.2285319783636458</v>
       </c>
       <c r="AK18">
@@ -3479,7 +3479,7 @@
         <v>6.7514476281901468</v>
       </c>
       <c r="AV18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3929.0465719212712</v>
       </c>
     </row>

--- a/SMP_3PP.xlsx
+++ b/SMP_3PP.xlsx
@@ -105,10 +105,6 @@
     <t>ev</t>
   </si>
   <si>
-    <t>K_phi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>p</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -182,6 +178,10 @@
   </si>
   <si>
     <t>dev/deq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K_phi</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -515,7 +515,7 @@
   <dimension ref="A1:AV22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AH3" sqref="AH3:AH17"/>
+      <selection activeCell="AM1" sqref="AM1:AM1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -630,64 +630,64 @@
         <v>27</v>
       </c>
       <c r="AC1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD1" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" t="s">
         <v>43</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>44</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>45</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>46</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM1" t="s">
         <v>47</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AN1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AV1" t="s">
         <v>39</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
@@ -792,9 +792,9 @@
         <f t="shared" ref="AF2:AF18" si="1">AB2-P2/2</f>
         <v>-1.2666885935459658E-6</v>
       </c>
-      <c r="AJ2" t="e">
+      <c r="AJ2">
         <f>(( 1.588*EXP(-0.0005387*3*232))^2-AP2^2)/(2*AP2)+0.4</f>
-        <v>#DIV/0!</v>
+        <v>0.3253704366456277</v>
       </c>
       <c r="AK2">
         <f t="shared" ref="AK2:AK18" si="2">(X2+Y2+Z2)/3</f>
@@ -804,17 +804,21 @@
         <f t="shared" ref="AL2:AL18" si="3">Z2-(Y2+X2)/2</f>
         <v>3181.7856324049999</v>
       </c>
-      <c r="AM2" s="1" t="e">
-        <f t="shared" ref="AM2:AM18" si="4">(-2*AJ2-3)/(-2*AJ2+6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN2" t="e">
-        <f t="shared" ref="AN2:AN18" si="5">1/(2+AM2*AQ2-2*0.33*(1+AM2+AQ2))</f>
-        <v>#DIV/0!</v>
+      <c r="AM2" s="1">
+        <f>(-2*AI2-3)/(-2*AI2+6)</f>
+        <v>-0.5</v>
+      </c>
+      <c r="AN2">
+        <f t="shared" ref="AN2:AN18" si="4">1/(2+AM2*AQ2-2*0.33*(1+AM2+AQ2))</f>
+        <v>0.5988023952095809</v>
       </c>
       <c r="AO2" s="1" t="e">
         <f>3*(1-2*0.33)*(AK2-AK1)/(AC2-AC1)</f>
         <v>#VALUE!</v>
+      </c>
+      <c r="AP2">
+        <f>AL2/AK2</f>
+        <v>1.1686640599807525</v>
       </c>
       <c r="AS2">
         <v>0</v>
@@ -914,15 +918,15 @@
         <v>0.64105581271286516</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC18" si="6">1.34 *((AK3/100000)^0.3-(2594/100000)^0.3)</f>
+        <f t="shared" ref="AC3:AC18" si="5">1.34 *((AK3/100000)^0.3-(2594/100000)^0.3)</f>
         <v>0.59844690560600888</v>
       </c>
       <c r="AD3">
-        <f t="shared" ref="AD3:AD18" si="7">AB3-AC3</f>
+        <f t="shared" ref="AD3:AD18" si="6">AB3-AC3</f>
         <v>4.2608907106856275E-2</v>
       </c>
       <c r="AE3" s="2">
-        <f t="shared" ref="AE3:AE18" si="8">P3-AB3/3</f>
+        <f t="shared" ref="AE3:AE18" si="7">P3-AB3/3</f>
         <v>0.79227428895571161</v>
       </c>
       <c r="AF3">
@@ -930,20 +934,20 @@
         <v>0.13807603278286518</v>
       </c>
       <c r="AG3" s="1">
-        <f t="shared" ref="AG3:AH18" si="9">AD3-AD2</f>
+        <f t="shared" ref="AG3:AH18" si="8">AD3-AD2</f>
         <v>4.9158892596712432E-2</v>
       </c>
       <c r="AH3" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.7922717576754027</v>
       </c>
       <c r="AI3">
-        <f t="shared" ref="AI3:AI18" si="10">-AG3/AH3</f>
+        <f t="shared" ref="AI3:AI18" si="9">-AG3/AH3</f>
         <v>-6.2048018398319645E-2</v>
       </c>
       <c r="AJ3">
-        <f t="shared" ref="AJ3:AJ18" si="11">(( 1.588*EXP(-0.0005387*3*232))^2-AP3^2)/(2*AP3)+0.4</f>
-        <v>-0.18001344639452888</v>
+        <f t="shared" ref="AJ3:AJ18" si="10">(( 1.588*EXP(-0.0005387*3*232))^2-AP3^2)/(2*AP3)+0.4</f>
+        <v>0.30435073086949244</v>
       </c>
       <c r="AK3" s="2">
         <f t="shared" si="2"/>
@@ -954,43 +958,43 @@
         <v>52250.990047350002</v>
       </c>
       <c r="AM3" s="1">
+        <f>(-2*AI3-3)/(-2*AI3+6)</f>
+        <v>-0.46960464792248324</v>
+      </c>
+      <c r="AN3" s="2">
         <f t="shared" si="4"/>
-        <v>-0.41508835602631183</v>
-      </c>
-      <c r="AN3" s="2">
-        <f t="shared" si="5"/>
-        <v>-0.2268471903439101</v>
+        <v>-0.58419255427792149</v>
       </c>
       <c r="AO3" s="1">
         <v>321688.56653439248</v>
       </c>
-      <c r="AP3" s="2">
-        <f>(AK3*1.35*(AK3/3255000)^-0.0723-AK2*1.35*(AK2/3255000)^-0.0723)/(AK3-AK2)</f>
-        <v>1.8160383272446403</v>
+      <c r="AP3">
+        <f>AL3/AK3</f>
+        <v>1.1913183299181493</v>
       </c>
       <c r="AQ3" s="2">
         <f>(2*AP3+3)/(3-AP3)</f>
-        <v>5.6015974225372211</v>
+        <v>2.976000005347935</v>
       </c>
       <c r="AR3" s="2">
         <f>(1+2*AM3)*(AK3-AK2)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
-        <v>3.0340152243130521E-2</v>
+        <v>5.694659081840186E-3</v>
       </c>
       <c r="AS3" s="2">
         <f>(AS2+AR3)</f>
-        <v>3.0340152243130521E-2</v>
+        <v>5.694659081840186E-3</v>
       </c>
       <c r="AT3" s="2">
         <f>2*(1-AM3)*(AK3-AK2)*(1-AP3/3)/(9*AN3*AO3*AM3)</f>
-        <v>0.16854381075864253</v>
+        <v>9.1778258659013137E-2</v>
       </c>
       <c r="AU3" s="2">
         <f>AU2+AT3</f>
-        <v>0.16854381075864253</v>
+        <v>9.1778258659013137E-2</v>
       </c>
       <c r="AV3">
-        <f t="shared" ref="AV3:AV18" si="12">(AQ3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
-        <v>132.1974966142285</v>
+        <f t="shared" ref="AV3:AV18" si="11">(AQ3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
+        <v>61.931726521892458</v>
       </c>
     </row>
     <row r="4" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1080,15 +1084,15 @@
         <v>1.0701225422241167</v>
       </c>
       <c r="AC4">
+        <f t="shared" si="5"/>
+        <v>0.9874729540660705</v>
+      </c>
+      <c r="AD4">
         <f t="shared" si="6"/>
-        <v>0.9874729540660705</v>
-      </c>
-      <c r="AD4">
+        <v>8.2649588158046239E-2</v>
+      </c>
+      <c r="AE4" s="2">
         <f t="shared" si="7"/>
-        <v>8.2649588158046239E-2</v>
-      </c>
-      <c r="AE4" s="2">
-        <f t="shared" si="8"/>
         <v>1.6467493256652945</v>
       </c>
       <c r="AF4">
@@ -1096,20 +1100,20 @@
         <v>6.8394122354116682E-2</v>
       </c>
       <c r="AG4" s="1">
+        <f t="shared" si="8"/>
+        <v>4.0040681051189964E-2</v>
+      </c>
+      <c r="AH4" s="1">
+        <f t="shared" si="8"/>
+        <v>0.85447503670958291</v>
+      </c>
+      <c r="AI4">
         <f t="shared" si="9"/>
-        <v>4.0040681051189964E-2</v>
-      </c>
-      <c r="AH4" s="1">
-        <f t="shared" si="9"/>
-        <v>0.85447503670958291</v>
-      </c>
-      <c r="AI4">
+        <v>-4.6859977566318184E-2</v>
+      </c>
+      <c r="AJ4">
         <f t="shared" si="10"/>
-        <v>-4.6859977566318184E-2</v>
-      </c>
-      <c r="AJ4">
-        <f t="shared" si="11"/>
-        <v>-5.3624534674967361E-2</v>
+        <v>0.25888192004942501</v>
       </c>
       <c r="AK4" s="1">
         <f t="shared" si="2"/>
@@ -1120,43 +1124,43 @@
         <v>156194.36397390001</v>
       </c>
       <c r="AM4" s="1">
+        <f t="shared" ref="AM4:AM18" si="12">(-2*AI4-3)/(-2*AI4+6)</f>
+        <v>-0.47693035883925938</v>
+      </c>
+      <c r="AN4" s="1">
         <f t="shared" si="4"/>
-        <v>-0.47365858143361661</v>
-      </c>
-      <c r="AN4" s="1">
-        <f t="shared" si="5"/>
-        <v>-0.28104526554973119</v>
+        <v>-0.5288771838329086</v>
       </c>
       <c r="AO4" s="1">
         <v>321688.56653439248</v>
       </c>
-      <c r="AP4" s="1">
-        <f t="shared" ref="AP4:AP18" si="13">(AK4*1.35*(AK4/3255000)^-0.0723-AK3*1.35*(AK3/3255000)^-0.0723)/(AK4-AK3)</f>
-        <v>1.6356216271168877</v>
+      <c r="AP4">
+        <f t="shared" ref="AP4:AP18" si="13">AL4/AK4</f>
+        <v>1.2416889411726091</v>
       </c>
       <c r="AQ4" s="1">
         <f t="shared" ref="AQ4:AQ18" si="14">(2*AP4+3)/(3-AP4)</f>
-        <v>4.5964106283668276</v>
+        <v>3.1185482539147857</v>
       </c>
       <c r="AR4" s="1">
         <f t="shared" ref="AR4:AR18" si="15">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
-        <v>1.5280516002098019E-2</v>
+        <v>9.1019084866706887E-3</v>
       </c>
       <c r="AS4" s="1">
         <f t="shared" ref="AS4:AS18" si="16">AS3+AR4</f>
-        <v>4.5620668245228542E-2</v>
+        <v>1.4796567568510874E-2</v>
       </c>
       <c r="AT4" s="1">
         <f t="shared" ref="AT4:AT18" si="17">2*(1-AM4)*(AK4-AK3)*(1-AP4/3)/(9*AN4*AO4*AM4)</f>
-        <v>0.28495382001386704</v>
+        <v>0.19423629628907327</v>
       </c>
       <c r="AU4" s="1">
         <f>AU3+AT4</f>
-        <v>0.4534976307725096</v>
+        <v>0.28601455494808642</v>
       </c>
       <c r="AV4">
-        <f t="shared" si="12"/>
-        <v>295.70962790996128</v>
+        <f t="shared" si="11"/>
+        <v>184.80683914850931</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.25">
@@ -1246,15 +1250,15 @@
         <v>1.2796901620335754</v>
       </c>
       <c r="AC5">
+        <f t="shared" si="5"/>
+        <v>1.2959865974484497</v>
+      </c>
+      <c r="AD5">
         <f t="shared" si="6"/>
-        <v>1.2959865974484497</v>
-      </c>
-      <c r="AD5">
+        <v>-1.6296435414874244E-2</v>
+      </c>
+      <c r="AE5" s="2">
         <f t="shared" si="7"/>
-        <v>-1.6296435414874244E-2</v>
-      </c>
-      <c r="AE5" s="2">
-        <f t="shared" si="8"/>
         <v>2.5786011719554747</v>
       </c>
       <c r="AF5">
@@ -1262,20 +1266,20 @@
         <v>-0.22289211761642447</v>
       </c>
       <c r="AG5" s="1">
+        <f t="shared" si="8"/>
+        <v>-9.8946023572920483E-2</v>
+      </c>
+      <c r="AH5" s="1">
+        <f t="shared" si="8"/>
+        <v>0.93185184629018014</v>
+      </c>
+      <c r="AI5">
         <f t="shared" si="9"/>
-        <v>-9.8946023572920483E-2</v>
-      </c>
-      <c r="AH5" s="1">
-        <f t="shared" si="9"/>
-        <v>0.93185184629018014</v>
-      </c>
-      <c r="AI5">
+        <v>0.10618214039800114</v>
+      </c>
+      <c r="AJ5">
         <f t="shared" si="10"/>
-        <v>0.10618214039800114</v>
-      </c>
-      <c r="AJ5">
-        <f t="shared" si="11"/>
-        <v>1.3787936068533124E-2</v>
+        <v>0.23249122202025849</v>
       </c>
       <c r="AK5">
         <f t="shared" si="2"/>
@@ -1286,43 +1290,43 @@
         <v>306116.13573950005</v>
       </c>
       <c r="AM5" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.55503912765916352</v>
+      </c>
+      <c r="AN5">
         <f t="shared" si="4"/>
-        <v>-0.50692579885822686</v>
-      </c>
-      <c r="AN5">
-        <f t="shared" si="5"/>
-        <v>-0.3120339821733974</v>
+        <v>-0.45639256014372104</v>
       </c>
       <c r="AO5" s="1">
         <v>321688.56653439248</v>
       </c>
       <c r="AP5">
         <f t="shared" si="13"/>
-        <v>1.5440124208187311</v>
+        <v>1.2717737365754307</v>
       </c>
       <c r="AQ5">
         <f t="shared" si="14"/>
-        <v>4.1813714132512594</v>
+        <v>3.2076514461515222</v>
       </c>
       <c r="AR5" s="1">
         <f t="shared" si="15"/>
-        <v>-5.0603958524955061E-3</v>
+        <v>-2.9806653636601756E-2</v>
       </c>
       <c r="AS5">
         <f t="shared" si="16"/>
-        <v>4.0560272392733035E-2</v>
+        <v>-1.5010086068090882E-2</v>
       </c>
       <c r="AT5" s="1">
         <f t="shared" si="17"/>
-        <v>0.36701619643017669</v>
+        <v>0.28071249576320323</v>
       </c>
       <c r="AU5">
         <f>AU4+AT5</f>
-        <v>0.82051382720268629</v>
+        <v>0.56672705071128959</v>
       </c>
       <c r="AV5">
-        <f t="shared" si="12"/>
-        <v>501.27345618961613</v>
+        <f t="shared" si="11"/>
+        <v>363.10386387041603</v>
       </c>
     </row>
     <row r="6" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1412,15 +1416,15 @@
         <v>1.5621054671954515</v>
       </c>
       <c r="AC6">
+        <f t="shared" si="5"/>
+        <v>1.5586444276045079</v>
+      </c>
+      <c r="AD6">
         <f t="shared" si="6"/>
-        <v>1.5586444276045079</v>
-      </c>
-      <c r="AD6">
+        <v>3.4610395909435709E-3</v>
+      </c>
+      <c r="AE6" s="2">
         <f t="shared" si="7"/>
-        <v>3.4610395909435709E-3</v>
-      </c>
-      <c r="AE6" s="2">
-        <f t="shared" si="8"/>
         <v>3.4797714886515165</v>
       </c>
       <c r="AF6">
@@ -1428,20 +1432,20 @@
         <v>-0.43813118832954867</v>
       </c>
       <c r="AG6" s="1">
+        <f t="shared" si="8"/>
+        <v>1.9757475005817815E-2</v>
+      </c>
+      <c r="AH6" s="1">
+        <f t="shared" si="8"/>
+        <v>0.90117031669604186</v>
+      </c>
+      <c r="AI6">
         <f t="shared" si="9"/>
-        <v>1.9757475005817815E-2</v>
-      </c>
-      <c r="AH6" s="1">
-        <f t="shared" si="9"/>
-        <v>0.90117031669604186</v>
-      </c>
-      <c r="AI6">
+        <v>-2.1924240778651686E-2</v>
+      </c>
+      <c r="AJ6">
         <f t="shared" si="10"/>
-        <v>-2.1924240778651686E-2</v>
-      </c>
-      <c r="AJ6">
-        <f t="shared" si="11"/>
-        <v>5.8887882034157957E-2</v>
+        <v>0.20430508583882104</v>
       </c>
       <c r="AK6">
         <f t="shared" si="2"/>
@@ -1452,43 +1456,43 @@
         <v>501230.93967000005</v>
       </c>
       <c r="AM6" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.48911741044854795</v>
+      </c>
+      <c r="AN6">
         <f t="shared" si="4"/>
-        <v>-0.53003347696664138</v>
-      </c>
-      <c r="AN6">
-        <f t="shared" si="5"/>
-        <v>-0.3335528427913701</v>
+        <v>-0.46751594691848863</v>
       </c>
       <c r="AO6" s="1">
         <v>321688.56653439248</v>
       </c>
       <c r="AP6">
         <f t="shared" si="13"/>
-        <v>1.4846589622644111</v>
+        <v>1.3045855343355153</v>
       </c>
       <c r="AQ6">
         <f t="shared" si="14"/>
-        <v>3.9392570885884006</v>
+        <v>3.3084364810303923</v>
       </c>
       <c r="AR6" s="1">
         <f t="shared" si="15"/>
-        <v>-2.5519527725474844E-2</v>
+        <v>7.9987691787397966E-3</v>
       </c>
       <c r="AS6">
         <f t="shared" si="16"/>
-        <v>1.5040744667258191E-2</v>
+        <v>-7.0113168893510859E-3</v>
       </c>
       <c r="AT6" s="1">
         <f t="shared" si="17"/>
-        <v>0.43335788016067911</v>
+        <v>0.36483676946881882</v>
       </c>
       <c r="AU6">
         <f t="shared" ref="AU6:AU18" si="18">AU5+AT6</f>
-        <v>1.2538717073633654</v>
+        <v>0.93156382018010842</v>
       </c>
       <c r="AV6">
-        <f t="shared" si="12"/>
-        <v>735.42923277600835</v>
+        <f t="shared" si="11"/>
+        <v>594.72293735444919</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
@@ -1578,15 +1582,15 @@
         <v>1.6235844291454193</v>
       </c>
       <c r="AC7">
+        <f t="shared" si="5"/>
+        <v>1.7867522032264378</v>
+      </c>
+      <c r="AD7">
         <f t="shared" si="6"/>
-        <v>1.7867522032264378</v>
-      </c>
-      <c r="AD7">
+        <v>-0.16316777408101846</v>
+      </c>
+      <c r="AE7" s="2">
         <f t="shared" si="7"/>
-        <v>-0.16316777408101846</v>
-      </c>
-      <c r="AE7" s="2">
-        <f t="shared" si="8"/>
         <v>4.46032940890486</v>
       </c>
       <c r="AF7">
@@ -1594,20 +1598,20 @@
         <v>-0.87717768016458075</v>
       </c>
       <c r="AG7" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.16662881367196203</v>
+      </c>
+      <c r="AH7" s="1">
+        <f t="shared" si="8"/>
+        <v>0.98055792025334343</v>
+      </c>
+      <c r="AI7">
         <f t="shared" si="9"/>
-        <v>-0.16662881367196203</v>
-      </c>
-      <c r="AH7" s="1">
-        <f t="shared" si="9"/>
-        <v>0.98055792025334343</v>
-      </c>
-      <c r="AI7">
+        <v>0.16993265795957338</v>
+      </c>
+      <c r="AJ7">
         <f t="shared" si="10"/>
-        <v>0.16993265795957338</v>
-      </c>
-      <c r="AJ7">
-        <f t="shared" si="11"/>
-        <v>9.2319479911810443E-2</v>
+        <v>0.18597079513518491</v>
       </c>
       <c r="AK7">
         <f t="shared" si="2"/>
@@ -1618,43 +1622,43 @@
         <v>729574.25835999998</v>
       </c>
       <c r="AM7" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.59006817016431223</v>
+      </c>
+      <c r="AN7">
         <f t="shared" si="4"/>
-        <v>-0.54762532159603139</v>
-      </c>
-      <c r="AN7">
-        <f t="shared" si="5"/>
-        <v>-0.34989451377484876</v>
+        <v>-0.40121531014248879</v>
       </c>
       <c r="AO7" s="1">
         <v>321688.56653439248</v>
       </c>
       <c r="AP7">
         <f t="shared" si="13"/>
-        <v>1.4417039812757488</v>
+        <v>1.326301837188895</v>
       </c>
       <c r="AQ7">
         <f t="shared" si="14"/>
-        <v>3.7755393659852499</v>
+        <v>3.3773136638232351</v>
       </c>
       <c r="AR7" s="1">
         <f t="shared" si="15"/>
-        <v>-4.4381188635153598E-2</v>
+        <v>-7.2962632494466009E-2</v>
       </c>
       <c r="AS7">
         <f t="shared" si="16"/>
-        <v>-2.9340443967895407E-2</v>
+        <v>-7.9973949383817092E-2</v>
       </c>
       <c r="AT7" s="1">
         <f t="shared" si="17"/>
-        <v>0.48073482083683028</v>
+        <v>0.42936203888380126</v>
       </c>
       <c r="AU7">
         <f t="shared" si="18"/>
-        <v>1.7346065282001957</v>
+        <v>1.3609258590639097</v>
       </c>
       <c r="AV7">
-        <f t="shared" si="12"/>
-        <v>992.67387945275937</v>
+        <f t="shared" si="11"/>
+        <v>866.81967125087601</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
@@ -1744,15 +1748,15 @@
         <v>1.858851189179811</v>
       </c>
       <c r="AC8">
+        <f t="shared" si="5"/>
+        <v>1.9844183164678932</v>
+      </c>
+      <c r="AD8">
         <f t="shared" si="6"/>
-        <v>1.9844183164678932</v>
-      </c>
-      <c r="AD8">
+        <v>-0.12556712728808228</v>
+      </c>
+      <c r="AE8" s="2">
         <f t="shared" si="7"/>
-        <v>-0.12556712728808228</v>
-      </c>
-      <c r="AE8" s="2">
-        <f t="shared" si="8"/>
         <v>5.3807128307200633</v>
       </c>
       <c r="AF8">
@@ -1760,20 +1764,20 @@
         <v>-1.1413137577101891</v>
       </c>
       <c r="AG8" s="1">
+        <f t="shared" si="8"/>
+        <v>3.7600646792936177E-2</v>
+      </c>
+      <c r="AH8" s="1">
+        <f t="shared" si="8"/>
+        <v>0.92038342181520338</v>
+      </c>
+      <c r="AI8">
         <f t="shared" si="9"/>
-        <v>3.7600646792936177E-2</v>
-      </c>
-      <c r="AH8" s="1">
-        <f t="shared" si="9"/>
-        <v>0.92038342181520338</v>
-      </c>
-      <c r="AI8">
+        <v>-4.0853242139867352E-2</v>
+      </c>
+      <c r="AJ8">
         <f t="shared" si="10"/>
-        <v>-4.0853242139867352E-2</v>
-      </c>
-      <c r="AJ8">
-        <f t="shared" si="11"/>
-        <v>0.11821373578150851</v>
+        <v>0.17763610131296817</v>
       </c>
       <c r="AK8">
         <f t="shared" si="2"/>
@@ -1784,43 +1788,43 @@
         <v>975027.36638299993</v>
       </c>
       <c r="AM8" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.47984780641150637</v>
+      </c>
+      <c r="AN8">
         <f t="shared" si="4"/>
-        <v>-0.56153149033776462</v>
-      </c>
-      <c r="AN8">
-        <f t="shared" si="5"/>
-        <v>-0.36276982698752952</v>
+        <v>-0.44850110652476477</v>
       </c>
       <c r="AO8" s="1">
         <v>321688.56653439248</v>
       </c>
       <c r="AP8">
         <f t="shared" si="13"/>
-        <v>1.4090597034444348</v>
+        <v>1.3362703631270985</v>
       </c>
       <c r="AQ8">
         <f t="shared" si="14"/>
-        <v>3.6570318945879223</v>
+        <v>3.4095327753589468</v>
       </c>
       <c r="AR8" s="1">
         <f t="shared" si="15"/>
-        <v>-5.9615584101694555E-2</v>
+        <v>1.9326437567746158E-2</v>
       </c>
       <c r="AS8">
         <f t="shared" si="16"/>
-        <v>-8.8956028069589965E-2</v>
+        <v>-6.0647511816070934E-2</v>
       </c>
       <c r="AT8" s="1">
         <f t="shared" si="17"/>
-        <v>0.50430335956796513</v>
+        <v>0.47306986068765605</v>
       </c>
       <c r="AU8">
         <f t="shared" si="18"/>
-        <v>2.2389098877681608</v>
+        <v>1.8339957197515657</v>
       </c>
       <c r="AV8">
-        <f t="shared" si="12"/>
-        <v>1263.1858886735004</v>
+        <f t="shared" si="11"/>
+        <v>1159.9771004039569</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
@@ -1910,15 +1914,15 @@
         <v>1.8344607170093674</v>
       </c>
       <c r="AC9">
+        <f t="shared" si="5"/>
+        <v>2.1624663342283323</v>
+      </c>
+      <c r="AD9">
         <f t="shared" si="6"/>
-        <v>2.1624663342283323</v>
-      </c>
-      <c r="AD9">
+        <v>-0.32800561721896493</v>
+      </c>
+      <c r="AE9" s="2">
         <f t="shared" si="7"/>
-        <v>-0.32800561721896493</v>
-      </c>
-      <c r="AE9" s="2">
-        <f t="shared" si="8"/>
         <v>6.3933386030602106</v>
       </c>
       <c r="AF9">
@@ -1926,20 +1930,20 @@
         <v>-1.6679520373556325</v>
       </c>
       <c r="AG9" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.20243848993088265</v>
+      </c>
+      <c r="AH9" s="1">
+        <f t="shared" si="8"/>
+        <v>1.0126257723401473</v>
+      </c>
+      <c r="AI9">
         <f t="shared" si="9"/>
-        <v>-0.20243848993088265</v>
-      </c>
-      <c r="AH9" s="1">
-        <f t="shared" si="9"/>
-        <v>1.0126257723401473</v>
-      </c>
-      <c r="AI9">
+        <v>0.19991441602661708</v>
+      </c>
+      <c r="AJ9">
         <f t="shared" si="10"/>
-        <v>0.19991441602661708</v>
-      </c>
-      <c r="AJ9">
-        <f t="shared" si="11"/>
-        <v>0.13911572224933721</v>
+        <v>0.17113074432652947</v>
       </c>
       <c r="AK9">
         <f t="shared" si="2"/>
@@ -1950,43 +1954,43 @@
         <v>1241129.2505049999</v>
       </c>
       <c r="AM9" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.60709373519019416</v>
+      </c>
+      <c r="AN9">
         <f t="shared" si="4"/>
-        <v>-0.57294023914105074</v>
-      </c>
-      <c r="AN9">
-        <f t="shared" si="5"/>
-        <v>-0.37329527600630685</v>
+        <v>-0.38286383632984489</v>
       </c>
       <c r="AO9" s="1">
         <v>321688.56653439248</v>
       </c>
       <c r="AP9">
         <f t="shared" si="13"/>
-        <v>1.3831153210120573</v>
+        <v>1.3440925715499821</v>
       </c>
       <c r="AQ9">
         <f t="shared" si="14"/>
-        <v>3.5662596825602759</v>
+        <v>3.4350864338016085</v>
       </c>
       <c r="AR9" s="1">
         <f t="shared" si="15"/>
-        <v>-7.3796977222725935E-2</v>
+        <v>-0.10210668721237282</v>
       </c>
       <c r="AS9">
         <f t="shared" si="16"/>
-        <v>-0.1627530052923159</v>
+        <v>-0.16275419902844374</v>
       </c>
       <c r="AT9" s="1">
         <f t="shared" si="17"/>
-        <v>0.53047186924321643</v>
+        <v>0.51075199698844176</v>
       </c>
       <c r="AU9">
         <f t="shared" si="18"/>
-        <v>2.7693817570113772</v>
+        <v>2.3447477167400077</v>
       </c>
       <c r="AV9">
-        <f t="shared" si="12"/>
-        <v>1545.7375819769065</v>
+        <f t="shared" si="11"/>
+        <v>1476.9150446862989</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
@@ -2076,15 +2080,15 @@
         <v>1.8852923228709129</v>
       </c>
       <c r="AC10">
+        <f t="shared" si="5"/>
+        <v>2.3204251932412645</v>
+      </c>
+      <c r="AD10">
         <f t="shared" si="6"/>
-        <v>2.3204251932412645</v>
-      </c>
-      <c r="AD10">
+        <v>-0.43513287037035164</v>
+      </c>
+      <c r="AE10" s="2">
         <f t="shared" si="7"/>
-        <v>-0.43513287037035164</v>
-      </c>
-      <c r="AE10" s="2">
-        <f t="shared" si="8"/>
         <v>7.3773424148796956</v>
       </c>
       <c r="AF10">
@@ -2092,20 +2096,20 @@
         <v>-2.1175942717140872</v>
       </c>
       <c r="AG10" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.10712725315138671</v>
+      </c>
+      <c r="AH10" s="1">
+        <f t="shared" si="8"/>
+        <v>0.98400381181948493</v>
+      </c>
+      <c r="AI10">
         <f t="shared" si="9"/>
-        <v>-0.10712725315138671</v>
-      </c>
-      <c r="AH10" s="1">
-        <f t="shared" si="9"/>
-        <v>0.98400381181948493</v>
-      </c>
-      <c r="AI10">
+        <v>0.10886873797094514</v>
+      </c>
+      <c r="AJ10">
         <f t="shared" si="10"/>
-        <v>0.10886873797094514</v>
-      </c>
-      <c r="AJ10">
-        <f t="shared" si="11"/>
-        <v>0.15647133788770864</v>
+        <v>0.17079410969932632</v>
       </c>
       <c r="AK10">
         <f t="shared" si="2"/>
@@ -2116,43 +2120,43 @@
         <v>1510068.0090015002</v>
       </c>
       <c r="AM10" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.55648415521673966</v>
+      </c>
+      <c r="AN10">
         <f t="shared" si="4"/>
-        <v>-0.58254075647586856</v>
-      </c>
-      <c r="AN10">
-        <f t="shared" si="5"/>
-        <v>-0.38212076589957822</v>
+        <v>-0.40435584691954174</v>
       </c>
       <c r="AO10" s="1">
         <v>321688.56653439248</v>
       </c>
       <c r="AP10">
         <f t="shared" si="13"/>
-        <v>1.3618524601923803</v>
+        <v>1.344498339943635</v>
       </c>
       <c r="AQ10">
         <f t="shared" si="14"/>
-        <v>3.4940106317022819</v>
+        <v>3.4364185896941812</v>
       </c>
       <c r="AR10" s="1">
         <f t="shared" si="15"/>
-        <v>-8.3817366246397143E-2</v>
+        <v>-5.7342844738419059E-2</v>
       </c>
       <c r="AS10">
         <f t="shared" si="16"/>
-        <v>-0.24657037153871303</v>
+        <v>-0.22009704376686279</v>
       </c>
       <c r="AT10" s="1">
         <f t="shared" si="17"/>
-        <v>0.53567233065105191</v>
+        <v>0.52671543555251588</v>
       </c>
       <c r="AU10">
         <f t="shared" si="18"/>
-        <v>3.305054087662429</v>
+        <v>2.8714631522925238</v>
       </c>
       <c r="AV10">
-        <f t="shared" si="12"/>
-        <v>1835.4691844817048</v>
+        <f t="shared" si="11"/>
+        <v>1798.7786048701641</v>
       </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.25">
@@ -2242,15 +2246,15 @@
         <v>1.8993222021266298</v>
       </c>
       <c r="AC11">
+        <f t="shared" si="5"/>
+        <v>2.461649362791448</v>
+      </c>
+      <c r="AD11">
         <f t="shared" si="6"/>
-        <v>2.461649362791448</v>
-      </c>
-      <c r="AD11">
+        <v>-0.56232716066481814</v>
+      </c>
+      <c r="AE11" s="2">
         <f t="shared" si="7"/>
-        <v>-0.56232716066481814</v>
-      </c>
-      <c r="AE11" s="2">
-        <f t="shared" si="8"/>
         <v>8.3693944476711231</v>
       </c>
       <c r="AF11">
@@ -2258,20 +2262,20 @@
         <v>-2.60192872206337</v>
       </c>
       <c r="AG11" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.12719429029446649</v>
+      </c>
+      <c r="AH11" s="1">
+        <f t="shared" si="8"/>
+        <v>0.99205203279142751</v>
+      </c>
+      <c r="AI11">
         <f t="shared" si="9"/>
-        <v>-0.12719429029446649</v>
-      </c>
-      <c r="AH11" s="1">
-        <f t="shared" si="9"/>
-        <v>0.99205203279142751</v>
-      </c>
-      <c r="AI11">
+        <v>0.12821332560205365</v>
+      </c>
+      <c r="AJ11">
         <f t="shared" si="10"/>
-        <v>0.12821332560205365</v>
-      </c>
-      <c r="AJ11">
-        <f t="shared" si="11"/>
-        <v>0.17100241937727681</v>
+        <v>0.17413221977698445</v>
       </c>
       <c r="AK11">
         <f t="shared" si="2"/>
@@ -2282,43 +2286,43 @@
         <v>1777141.4462240003</v>
       </c>
       <c r="AM11" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.56696875854937911</v>
+      </c>
+      <c r="AN11">
         <f t="shared" si="4"/>
-        <v>-0.59066944094361984</v>
-      </c>
-      <c r="AN11">
-        <f t="shared" si="5"/>
-        <v>-0.38956726906468903</v>
+        <v>-0.40224882365837661</v>
       </c>
       <c r="AO11" s="1">
         <v>321688.56653439248</v>
       </c>
       <c r="AP11">
         <f t="shared" si="13"/>
-        <v>1.3442472387769562</v>
+        <v>1.3404789959502508</v>
       </c>
       <c r="AQ11">
         <f t="shared" si="14"/>
-        <v>3.4355941362598301</v>
+        <v>3.4232516358860123</v>
       </c>
       <c r="AR11" s="1">
         <f t="shared" si="15"/>
-        <v>-9.131276276518914E-2</v>
+        <v>-6.8202942319204388E-2</v>
       </c>
       <c r="AS11">
         <f t="shared" si="16"/>
-        <v>-0.33788313430390216</v>
+        <v>-0.28829998608606716</v>
       </c>
       <c r="AT11" s="1">
         <f t="shared" si="17"/>
-        <v>0.53398520966962959</v>
+        <v>0.53194893743643701</v>
       </c>
       <c r="AU11">
         <f t="shared" si="18"/>
-        <v>3.8390392973320586</v>
+        <v>3.4034120897289606</v>
       </c>
       <c r="AV11">
-        <f t="shared" si="12"/>
-        <v>2128.7467651233101</v>
+        <f t="shared" si="11"/>
+        <v>2119.4620586188844</v>
       </c>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.25">
@@ -2408,15 +2412,15 @@
         <v>1.8032093482882816</v>
       </c>
       <c r="AC12">
+        <f t="shared" si="5"/>
+        <v>2.5919560426629995</v>
+      </c>
+      <c r="AD12">
         <f t="shared" si="6"/>
-        <v>2.5919560426629995</v>
-      </c>
-      <c r="AD12">
+        <v>-0.78874669437471789</v>
+      </c>
+      <c r="AE12" s="2">
         <f t="shared" si="7"/>
-        <v>-0.78874669437471789</v>
-      </c>
-      <c r="AE12" s="2">
-        <f t="shared" si="8"/>
         <v>9.3997601185372393</v>
       </c>
       <c r="AF12">
@@ -2424,20 +2428,20 @@
         <v>-3.1972056023617181</v>
       </c>
       <c r="AG12" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.22641953370989976</v>
+      </c>
+      <c r="AH12" s="1">
+        <f t="shared" si="8"/>
+        <v>1.0303656708661162</v>
+      </c>
+      <c r="AI12">
         <f t="shared" si="9"/>
-        <v>-0.22641953370989976</v>
-      </c>
-      <c r="AH12" s="1">
-        <f t="shared" si="9"/>
-        <v>1.0303656708661162</v>
-      </c>
-      <c r="AI12">
+        <v>0.21974677545261531</v>
+      </c>
+      <c r="AJ12">
         <f t="shared" si="10"/>
-        <v>0.21974677545261531</v>
-      </c>
-      <c r="AJ12">
-        <f t="shared" si="11"/>
-        <v>0.18352205162590746</v>
+        <v>0.17758935951636393</v>
       </c>
       <c r="AK12">
         <f t="shared" si="2"/>
@@ -2448,43 +2452,43 @@
         <v>2050200.3846515003</v>
       </c>
       <c r="AM12" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.61855760485003441</v>
+      </c>
+      <c r="AN12">
         <f t="shared" si="4"/>
-        <v>-0.59774018560939834</v>
-      </c>
-      <c r="AN12">
-        <f t="shared" si="5"/>
-        <v>-0.39602314163069291</v>
+        <v>-0.38295554412189792</v>
       </c>
       <c r="AO12" s="1">
         <v>321688.56653439248</v>
       </c>
       <c r="AP12">
         <f t="shared" si="13"/>
-        <v>1.329224375110359</v>
+        <v>1.3363264367099101</v>
       </c>
       <c r="AQ12">
         <f t="shared" si="14"/>
-        <v>3.3867197162362674</v>
+        <v>3.4097151019227301</v>
       </c>
       <c r="AR12" s="1">
         <f t="shared" si="15"/>
-        <v>-9.933970613447958E-2</v>
+        <v>-0.11990398582274546</v>
       </c>
       <c r="AS12">
         <f t="shared" si="16"/>
-        <v>-0.43722284043838172</v>
+        <v>-0.40820397190881264</v>
       </c>
       <c r="AT12" s="1">
         <f t="shared" si="17"/>
-        <v>0.54129574759208898</v>
+        <v>0.54564616739325389</v>
       </c>
       <c r="AU12">
         <f t="shared" si="18"/>
-        <v>4.3803350449241476</v>
+        <v>3.9490582571222146</v>
       </c>
       <c r="AV12">
-        <f t="shared" si="12"/>
-        <v>2430.0290765741129</v>
+        <f t="shared" si="11"/>
+        <v>2450.0695611309498</v>
       </c>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.25">
@@ -2574,15 +2578,15 @@
         <v>1.7507299758379502</v>
       </c>
       <c r="AC13">
+        <f t="shared" si="5"/>
+        <v>2.7105266347417203</v>
+      </c>
+      <c r="AD13">
         <f t="shared" si="6"/>
-        <v>2.7105266347417203</v>
-      </c>
-      <c r="AD13">
+        <v>-0.95979665890377008</v>
+      </c>
+      <c r="AE13" s="2">
         <f t="shared" si="7"/>
-        <v>-0.95979665890377008</v>
-      </c>
-      <c r="AE13" s="2">
-        <f t="shared" si="8"/>
         <v>10.42127381778735</v>
       </c>
       <c r="AF13">
@@ -2590,20 +2594,20 @@
         <v>-3.7516952623620496</v>
       </c>
       <c r="AG13" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.17104996452905219</v>
+      </c>
+      <c r="AH13" s="1">
+        <f t="shared" si="8"/>
+        <v>1.0215136992501108</v>
+      </c>
+      <c r="AI13">
         <f t="shared" si="9"/>
-        <v>-0.17104996452905219</v>
-      </c>
-      <c r="AH13" s="1">
-        <f t="shared" si="9"/>
-        <v>1.0215136992501108</v>
-      </c>
-      <c r="AI13">
+        <v>0.16744754833402556</v>
+      </c>
+      <c r="AJ13">
         <f t="shared" si="10"/>
-        <v>0.16744754833402556</v>
-      </c>
-      <c r="AJ13">
-        <f t="shared" si="11"/>
-        <v>0.19448381304746887</v>
+        <v>0.18407132000144219</v>
       </c>
       <c r="AK13">
         <f t="shared" si="2"/>
@@ -2614,43 +2618,43 @@
         <v>2315571.1698899996</v>
       </c>
       <c r="AM13" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.58867314084627498</v>
+      </c>
+      <c r="AN13">
         <f t="shared" si="4"/>
-        <v>-0.60398290372656449</v>
-      </c>
-      <c r="AN13">
-        <f t="shared" si="5"/>
-        <v>-0.40170497101532632</v>
+        <v>-0.40036164056212198</v>
       </c>
       <c r="AO13" s="1">
         <v>321688.56653439248</v>
       </c>
       <c r="AP13">
         <f t="shared" si="13"/>
-        <v>1.3161821183565607</v>
+        <v>1.3285683804083501</v>
       </c>
       <c r="AQ13">
         <f t="shared" si="14"/>
-        <v>3.3449960937674703</v>
+        <v>3.3846055647785365</v>
       </c>
       <c r="AR13" s="1">
         <f t="shared" si="15"/>
-        <v>-0.10404018560593402</v>
+        <v>-9.0662968808093047E-2</v>
       </c>
       <c r="AS13">
         <f t="shared" si="16"/>
-        <v>-0.54126302604431575</v>
+        <v>-0.49886694071690568</v>
       </c>
       <c r="AT13" s="1">
         <f t="shared" si="17"/>
-        <v>0.53495550079810628</v>
+        <v>0.54144100472129864</v>
       </c>
       <c r="AU13">
         <f t="shared" si="18"/>
-        <v>4.9152905457222538</v>
+        <v>4.4904992618435129</v>
       </c>
       <c r="AV13">
-        <f t="shared" si="12"/>
-        <v>2733.9042971800968</v>
+        <f t="shared" si="11"/>
+        <v>2773.2292757628188</v>
       </c>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
@@ -2740,15 +2744,15 @@
         <v>1.6983816350330971</v>
       </c>
       <c r="AC14">
+        <f t="shared" si="5"/>
+        <v>2.8164327034808418</v>
+      </c>
+      <c r="AD14">
         <f t="shared" si="6"/>
-        <v>2.8164327034808418</v>
-      </c>
-      <c r="AD14">
+        <v>-1.1180510684477447</v>
+      </c>
+      <c r="AE14" s="2">
         <f t="shared" si="7"/>
-        <v>-1.1180510684477447</v>
-      </c>
-      <c r="AE14" s="2">
-        <f t="shared" si="8"/>
         <v>11.4366759110223</v>
       </c>
       <c r="AF14">
@@ -2756,20 +2760,20 @@
         <v>-4.3030199263169031</v>
       </c>
       <c r="AG14" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.15825440954397463</v>
+      </c>
+      <c r="AH14" s="1">
+        <f t="shared" si="8"/>
+        <v>1.0154020932349503</v>
+      </c>
+      <c r="AI14">
         <f t="shared" si="9"/>
-        <v>-0.15825440954397463</v>
-      </c>
-      <c r="AH14" s="1">
-        <f t="shared" si="9"/>
-        <v>1.0154020932349503</v>
-      </c>
-      <c r="AI14">
+        <v>0.15585393274086612</v>
+      </c>
+      <c r="AJ14">
         <f t="shared" si="10"/>
-        <v>0.15585393274086612</v>
-      </c>
-      <c r="AJ14">
-        <f t="shared" si="11"/>
-        <v>0.20398420268029996</v>
+        <v>0.19373718441357646</v>
       </c>
       <c r="AK14">
         <f t="shared" si="2"/>
@@ -2780,43 +2784,43 @@
         <v>2562275.2800349998</v>
       </c>
       <c r="AM14" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.58219721968660731</v>
+      </c>
+      <c r="AN14">
         <f t="shared" si="4"/>
-        <v>-0.60943296683579651</v>
-      </c>
-      <c r="AN14">
-        <f t="shared" si="5"/>
-        <v>-0.40665059540968351</v>
+        <v>-0.41078114758824014</v>
       </c>
       <c r="AO14" s="1">
         <v>321688.56653439248</v>
       </c>
       <c r="AP14">
         <f t="shared" si="13"/>
-        <v>1.3049630913246724</v>
+        <v>1.3170671445191622</v>
       </c>
       <c r="AQ14">
         <f t="shared" si="14"/>
-        <v>3.3096188961652198</v>
+        <v>3.3478069375670798</v>
       </c>
       <c r="AR14" s="1">
         <f t="shared" si="15"/>
-        <v>-0.10471957070868414</v>
+        <v>-8.0926575351279909E-2</v>
       </c>
       <c r="AS14">
         <f t="shared" si="16"/>
-        <v>-0.64598259675299985</v>
+        <v>-0.57979351606818563</v>
       </c>
       <c r="AT14" s="1">
         <f t="shared" si="17"/>
-        <v>0.51337098330505959</v>
+        <v>0.51924628354315705</v>
       </c>
       <c r="AU14">
         <f t="shared" si="18"/>
-        <v>5.4286615290273135</v>
+        <v>5.0097455453866697</v>
       </c>
       <c r="AV14">
-        <f t="shared" si="12"/>
-        <v>3036.1731040840914</v>
+        <f t="shared" si="11"/>
+        <v>3078.7193865813874</v>
       </c>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
@@ -2906,15 +2910,15 @@
         <v>1.6503316009821023</v>
       </c>
       <c r="AC15">
+        <f t="shared" si="5"/>
+        <v>2.9150890236335414</v>
+      </c>
+      <c r="AD15">
         <f t="shared" si="6"/>
-        <v>2.9150890236335414</v>
-      </c>
-      <c r="AD15">
+        <v>-1.2647574226514391</v>
+      </c>
+      <c r="AE15" s="2">
         <f t="shared" si="7"/>
-        <v>-1.2647574226514391</v>
-      </c>
-      <c r="AE15" s="2">
-        <f t="shared" si="8"/>
         <v>12.453888443639299</v>
       </c>
       <c r="AF15">
@@ -2922,20 +2926,20 @@
         <v>-4.8516678876678974</v>
       </c>
       <c r="AG15" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.14670635420369438</v>
+      </c>
+      <c r="AH15" s="1">
+        <f t="shared" si="8"/>
+        <v>1.0172125326169983</v>
+      </c>
+      <c r="AI15">
         <f t="shared" si="9"/>
-        <v>-0.14670635420369438</v>
-      </c>
-      <c r="AH15" s="1">
-        <f t="shared" si="9"/>
-        <v>1.0172125326169983</v>
-      </c>
-      <c r="AI15">
+        <v>0.14422389569489544</v>
+      </c>
+      <c r="AJ15">
         <f t="shared" si="10"/>
-        <v>0.14422389569489544</v>
-      </c>
-      <c r="AJ15">
-        <f t="shared" si="11"/>
-        <v>0.2123499900500545</v>
+        <v>0.20131398677779722</v>
       </c>
       <c r="AK15">
         <f t="shared" si="2"/>
@@ -2946,43 +2950,43 @@
         <v>2810370.078675</v>
       </c>
       <c r="AM15" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.57575378308412029</v>
+      </c>
+      <c r="AN15">
         <f t="shared" si="4"/>
-        <v>-0.61426290385743265</v>
-      </c>
-      <c r="AN15">
-        <f t="shared" si="5"/>
-        <v>-0.41102133334588598</v>
+        <v>-0.41980214875257982</v>
       </c>
       <c r="AO15" s="1">
         <v>321688.56653439248</v>
       </c>
       <c r="AP15">
         <f t="shared" si="13"/>
-        <v>1.2951491902278758</v>
+        <v>1.3081084034470469</v>
       </c>
       <c r="AQ15">
         <f t="shared" si="14"/>
-        <v>3.2790543010640141</v>
+        <v>3.3194897464687045</v>
       </c>
       <c r="AR15" s="1">
         <f t="shared" si="15"/>
-        <v>-0.10818923819581983</v>
+        <v>-7.4354366846326292E-2</v>
       </c>
       <c r="AS15">
         <f t="shared" si="16"/>
-        <v>-0.75417183494881967</v>
+        <v>-0.65414788291451198</v>
       </c>
       <c r="AT15" s="1">
         <f t="shared" si="17"/>
-        <v>0.50948548747432376</v>
+        <v>0.51554817936427433</v>
       </c>
       <c r="AU15">
         <f t="shared" si="18"/>
-        <v>5.9381470165016372</v>
+        <v>5.5252937247509442</v>
       </c>
       <c r="AV15">
-        <f t="shared" si="12"/>
-        <v>3335.3862620252858</v>
+        <f t="shared" si="11"/>
+        <v>3385.3134271444919</v>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
@@ -3072,15 +3076,15 @@
         <v>1.5229187844645886</v>
       </c>
       <c r="AC16">
+        <f t="shared" si="5"/>
+        <v>3.0044632205799586</v>
+      </c>
+      <c r="AD16">
         <f t="shared" si="6"/>
-        <v>3.0044632205799586</v>
-      </c>
-      <c r="AD16">
+        <v>-1.48154443611537</v>
+      </c>
+      <c r="AE16" s="2">
         <f t="shared" si="7"/>
-        <v>-1.48154443611537</v>
-      </c>
-      <c r="AE16" s="2">
-        <f t="shared" si="8"/>
         <v>13.494096944178469</v>
       </c>
       <c r="AF16">
@@ -3088,20 +3092,20 @@
         <v>-5.4779494850354116</v>
       </c>
       <c r="AG16" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.21678701346393092</v>
+      </c>
+      <c r="AH16" s="1">
+        <f t="shared" si="8"/>
+        <v>1.0402085005391708</v>
+      </c>
+      <c r="AI16">
         <f t="shared" si="9"/>
-        <v>-0.21678701346393092</v>
-      </c>
-      <c r="AH16" s="1">
-        <f t="shared" si="9"/>
-        <v>1.0402085005391708</v>
-      </c>
-      <c r="AI16">
+        <v>0.2084072696498479</v>
+      </c>
+      <c r="AJ16">
         <f t="shared" si="10"/>
-        <v>0.2084072696498479</v>
-      </c>
-      <c r="AJ16">
-        <f t="shared" si="11"/>
-        <v>0.21980522846745118</v>
+        <v>0.20892193612830198</v>
       </c>
       <c r="AK16">
         <f t="shared" si="2"/>
@@ -3112,43 +3116,43 @@
         <v>3046157.0020749997</v>
       </c>
       <c r="AM16" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.61198299131390876</v>
+      </c>
+      <c r="AN16">
         <f t="shared" si="4"/>
-        <v>-0.6185916346858783</v>
-      </c>
-      <c r="AN16">
-        <f t="shared" si="5"/>
-        <v>-0.41492835037964265</v>
+        <v>-0.40935962026646022</v>
       </c>
       <c r="AO16" s="1">
         <v>321688.56653439248</v>
       </c>
       <c r="AP16">
         <f t="shared" si="13"/>
-        <v>1.2864551675378204</v>
+        <v>1.2991632296306435</v>
       </c>
       <c r="AQ16">
         <f t="shared" si="14"/>
-        <v>3.2522699316060306</v>
+        <v>3.2915130697965478</v>
       </c>
       <c r="AR16" s="1">
         <f t="shared" si="15"/>
-        <v>-0.1073517452014667</v>
+        <v>-0.1030877549133882</v>
       </c>
       <c r="AS16">
         <f t="shared" si="16"/>
-        <v>-0.86152358015028641</v>
+        <v>-0.75723563782790015</v>
       </c>
       <c r="AT16" s="1">
         <f t="shared" si="17"/>
-        <v>0.48839486644587876</v>
+        <v>0.49464567664357112</v>
       </c>
       <c r="AU16">
         <f t="shared" si="18"/>
-        <v>6.4265418829475163</v>
+        <v>6.0199394013945149</v>
       </c>
       <c r="AV16">
-        <f t="shared" si="12"/>
-        <v>3625.2103016106817</v>
+        <f t="shared" si="11"/>
+        <v>3678.2700597738526</v>
       </c>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.25">
@@ -3238,15 +3242,15 @@
         <v>1.3844579482043651</v>
       </c>
       <c r="AC17">
+        <f t="shared" si="5"/>
+        <v>3.0857024773424628</v>
+      </c>
+      <c r="AD17">
         <f t="shared" si="6"/>
-        <v>3.0857024773424628</v>
-      </c>
-      <c r="AD17">
+        <v>-1.7012445291380978</v>
+      </c>
+      <c r="AE17" s="2">
         <f t="shared" si="7"/>
-        <v>-1.7012445291380978</v>
-      </c>
-      <c r="AE17" s="2">
-        <f t="shared" si="8"/>
         <v>14.54301115556521</v>
       </c>
       <c r="AF17">
@@ -3254,20 +3258,20 @@
         <v>-6.1177906209456347</v>
       </c>
       <c r="AG17" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.21970009302272775</v>
+      </c>
+      <c r="AH17" s="1">
+        <f t="shared" si="8"/>
+        <v>1.0489142113867409</v>
+      </c>
+      <c r="AI17">
         <f t="shared" si="9"/>
-        <v>-0.21970009302272775</v>
-      </c>
-      <c r="AH17" s="1">
-        <f t="shared" si="9"/>
-        <v>1.0489142113867409</v>
-      </c>
-      <c r="AI17">
+        <v>0.20945477774799928</v>
+      </c>
+      <c r="AJ17">
         <f t="shared" si="10"/>
-        <v>0.20945477774799928</v>
-      </c>
-      <c r="AJ17">
-        <f t="shared" si="11"/>
-        <v>0.22638828806408789</v>
+        <v>0.21859571297315208</v>
       </c>
       <c r="AK17">
         <f t="shared" si="2"/>
@@ -3278,43 +3282,43 @@
         <v>3263078.8216599999</v>
       </c>
       <c r="AM17" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.61258809357995303</v>
+      </c>
+      <c r="AN17">
         <f t="shared" si="4"/>
-        <v>-0.62243329902119271</v>
-      </c>
-      <c r="AN17">
-        <f t="shared" si="5"/>
-        <v>-0.41838738033418454</v>
+        <v>-0.41666922216673835</v>
       </c>
       <c r="AO17" s="1">
         <v>321688.56653439248</v>
       </c>
       <c r="AP17">
         <f t="shared" si="13"/>
-        <v>1.2788189027392434</v>
+        <v>1.2878623402009355</v>
       </c>
       <c r="AQ17">
         <f t="shared" si="14"/>
-        <v>3.228967488850194</v>
+        <v>3.2565866701724411</v>
       </c>
       <c r="AR17" s="1">
         <f t="shared" si="15"/>
-        <v>-0.10565542024138612</v>
+        <v>-9.8607109684698033E-2</v>
       </c>
       <c r="AS17">
         <f t="shared" si="16"/>
-        <v>-0.96717900039167248</v>
+        <v>-0.85584274751259815</v>
       </c>
       <c r="AT17" s="1">
         <f t="shared" si="17"/>
-        <v>0.46670002739486366</v>
+        <v>0.47077994947116886</v>
       </c>
       <c r="AU17">
         <f t="shared" si="18"/>
-        <v>6.8932419103423799</v>
+        <v>6.4907193508656835</v>
       </c>
       <c r="AV17">
-        <f t="shared" si="12"/>
-        <v>3910.8134047647495</v>
+        <f t="shared" si="11"/>
+        <v>3951.3515544303914</v>
       </c>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.25">
@@ -3404,15 +3408,15 @@
         <v>-0.38131419300644342</v>
       </c>
       <c r="AC18">
+        <f t="shared" si="5"/>
+        <v>3.0614212955280857</v>
+      </c>
+      <c r="AD18">
         <f t="shared" si="6"/>
-        <v>3.0614212955280857</v>
-      </c>
-      <c r="AD18">
+        <v>-3.4427354885345292</v>
+      </c>
+      <c r="AE18" s="2">
         <f t="shared" si="7"/>
-        <v>-3.4427354885345292</v>
-      </c>
-      <c r="AE18" s="2">
-        <f t="shared" si="8"/>
         <v>16.127682295602149</v>
       </c>
       <c r="AF18">
@@ -3420,20 +3424,20 @@
         <v>-8.3816029753064427</v>
       </c>
       <c r="AG18" s="1">
+        <f t="shared" si="8"/>
+        <v>-1.7414909593964314</v>
+      </c>
+      <c r="AH18" s="1">
+        <f t="shared" si="8"/>
+        <v>1.5846711400369387</v>
+      </c>
+      <c r="AI18">
         <f t="shared" si="9"/>
-        <v>-1.7414909593964314</v>
-      </c>
-      <c r="AH18" s="1">
-        <f t="shared" si="9"/>
-        <v>1.5846711400369387</v>
-      </c>
-      <c r="AI18">
+        <v>1.0989604817033756</v>
+      </c>
+      <c r="AJ18">
         <f t="shared" si="10"/>
-        <v>1.0989604817033756</v>
-      </c>
-      <c r="AJ18">
-        <f t="shared" si="11"/>
-        <v>0.2285319783636458</v>
+        <v>0.29167715075058209</v>
       </c>
       <c r="AK18">
         <f t="shared" si="2"/>
@@ -3444,43 +3448,43 @@
         <v>2984181.5885450002</v>
       </c>
       <c r="AM18" s="1">
+        <f t="shared" si="12"/>
+        <v>-1.3671259627638381</v>
+      </c>
+      <c r="AN18">
         <f t="shared" si="4"/>
-        <v>-0.62368822763578957</v>
-      </c>
-      <c r="AN18">
-        <f t="shared" si="5"/>
-        <v>-0.41951556306746651</v>
+        <v>-0.25851311149411677</v>
       </c>
       <c r="AO18" s="1">
         <v>321688.56653439248</v>
       </c>
       <c r="AP18">
         <f t="shared" si="13"/>
-        <v>1.2763404986788218</v>
+        <v>1.2051709461851718</v>
       </c>
       <c r="AQ18">
         <f t="shared" si="14"/>
-        <v>3.2214488958530012</v>
+        <v>3.0144051216860492</v>
       </c>
       <c r="AR18" s="1">
         <f t="shared" si="15"/>
-        <v>3.2404527820902827E-2</v>
+        <v>0.17512802573479996</v>
       </c>
       <c r="AS18">
         <f t="shared" si="16"/>
-        <v>-0.93477447257076962</v>
+        <v>-0.68071472177779824</v>
       </c>
       <c r="AT18" s="1">
         <f t="shared" si="17"/>
-        <v>-0.14179428215223308</v>
+        <v>-0.15935789198111436</v>
       </c>
       <c r="AU18">
         <f t="shared" si="18"/>
-        <v>6.7514476281901468</v>
+        <v>6.3313614588845688</v>
       </c>
       <c r="AV18">
-        <f t="shared" si="12"/>
-        <v>3929.0465719212712</v>
+        <f t="shared" si="11"/>
+        <v>3623.9884782688664</v>
       </c>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.25">

--- a/SMP_3PP.xlsx
+++ b/SMP_3PP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t># avgT</t>
   </si>
@@ -125,10 +125,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>K_p</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>dev_pla_pred</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -181,7 +177,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>dratio-M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dratio_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>K_phi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K_p</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -512,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV22"/>
+  <dimension ref="A1:AX22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AM1" sqref="AM1:AM1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AX2" sqref="AX2:AX18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -538,13 +546,14 @@
     <col min="36" max="36" width="12.88671875" customWidth="1"/>
     <col min="41" max="41" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="12.77734375" customWidth="1"/>
-    <col min="44" max="44" width="12.44140625" customWidth="1"/>
-    <col min="45" max="45" width="11.21875" customWidth="1"/>
-    <col min="48" max="48" width="13.33203125" customWidth="1"/>
-    <col min="49" max="1027" width="11.5546875"/>
+    <col min="43" max="44" width="10.44140625" customWidth="1"/>
+    <col min="46" max="46" width="12.44140625" customWidth="1"/>
+    <col min="47" max="47" width="11.21875" customWidth="1"/>
+    <col min="50" max="50" width="13.33203125" customWidth="1"/>
+    <col min="51" max="1029" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -630,28 +639,28 @@
         <v>27</v>
       </c>
       <c r="AC1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD1" t="s">
         <v>40</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" t="s">
         <v>42</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>43</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>44</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>45</v>
       </c>
-      <c r="AI1" t="s">
-        <v>46</v>
-      </c>
       <c r="AJ1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AK1" t="s">
         <v>28</v>
@@ -660,7 +669,7 @@
         <v>29</v>
       </c>
       <c r="AM1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AN1" t="s">
         <v>31</v>
@@ -672,25 +681,31 @@
         <v>32</v>
       </c>
       <c r="AQ1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT1" t="s">
         <v>33</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AU1" t="s">
         <v>34</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AV1" t="s">
         <v>35</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AW1" t="s">
         <v>36</v>
       </c>
-      <c r="AU1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>39</v>
+      <c r="AX1" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.20571021300299999</v>
       </c>
@@ -808,9 +823,9 @@
         <f>(-2*AI2-3)/(-2*AI2+6)</f>
         <v>-0.5</v>
       </c>
-      <c r="AN2">
-        <f t="shared" ref="AN2:AN18" si="4">1/(2+AM2*AQ2-2*0.33*(1+AM2+AQ2))</f>
-        <v>0.5988023952095809</v>
+      <c r="AN2" s="2">
+        <f>1/(2+AM2*AS2-2*0.33*(1+AM2+AS2))</f>
+        <v>-0.22624434389140272</v>
       </c>
       <c r="AO2" s="1" t="e">
         <f>3*(1-2*0.33)*(AK2-AK1)/(AC2-AC1)</f>
@@ -820,18 +835,29 @@
         <f>AL2/AK2</f>
         <v>1.1686640599807525</v>
       </c>
+      <c r="AQ2">
+        <f>AL2/AK2-(1.35*(AK2/3255000)^-0.0723)</f>
+        <v>-1.0847555143299736</v>
+      </c>
+      <c r="AR2">
+        <f>1.35*(AK2/3255000)^-0.0723-1.386/(AE2+1.27)+0.03463</f>
+        <v>1.1967131668133708</v>
+      </c>
       <c r="AS2">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AU2">
         <v>0</v>
       </c>
-      <c r="AV2">
-        <f>(AQ2*X2-4*X2*(1-0.01*P2-2*0.01*AF2)*(0.08/0.4)/(-0.08/0.4*0.01*P2-(2*0.08/0.4+3)*0.01*AF2+0.08/0.4+1))/1000</f>
-        <v>-1.1250553205695557</v>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <f>(AS2*X2-4*X2*(1-0.01*P2-2*0.01*AF2)*(0.08/0.4)/(-0.08/0.4*0.01*P2-(2*0.08/0.4+3)*0.01*AF2+0.08/0.4+1))/1000</f>
+        <v>7.7347556092954441</v>
       </c>
     </row>
-    <row r="3" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>3.3246957367399999</v>
       </c>
@@ -918,15 +944,15 @@
         <v>0.64105581271286516</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC18" si="5">1.34 *((AK3/100000)^0.3-(2594/100000)^0.3)</f>
+        <f t="shared" ref="AC3:AC18" si="4">1.34 *((AK3/100000)^0.3-(2594/100000)^0.3)</f>
         <v>0.59844690560600888</v>
       </c>
       <c r="AD3">
-        <f t="shared" ref="AD3:AD18" si="6">AB3-AC3</f>
+        <f t="shared" ref="AD3:AD18" si="5">AB3-AC3</f>
         <v>4.2608907106856275E-2</v>
       </c>
       <c r="AE3" s="2">
-        <f t="shared" ref="AE3:AE18" si="7">P3-AB3/3</f>
+        <f t="shared" ref="AE3:AE18" si="6">P3-AB3/3</f>
         <v>0.79227428895571161</v>
       </c>
       <c r="AF3">
@@ -934,19 +960,19 @@
         <v>0.13807603278286518</v>
       </c>
       <c r="AG3" s="1">
-        <f t="shared" ref="AG3:AH18" si="8">AD3-AD2</f>
+        <f t="shared" ref="AG3:AH18" si="7">AD3-AD2</f>
         <v>4.9158892596712432E-2</v>
       </c>
       <c r="AH3" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.7922717576754027</v>
       </c>
       <c r="AI3">
-        <f t="shared" ref="AI3:AI18" si="9">-AG3/AH3</f>
+        <f t="shared" ref="AI3:AI18" si="8">-AG3/AH3</f>
         <v>-6.2048018398319645E-2</v>
       </c>
       <c r="AJ3">
-        <f t="shared" ref="AJ3:AJ18" si="10">(( 1.588*EXP(-0.0005387*3*232))^2-AP3^2)/(2*AP3)+0.4</f>
+        <f t="shared" ref="AJ3:AJ18" si="9">(( 1.588*EXP(-0.0005387*3*232))^2-AP3^2)/(2*AP3)+0.4</f>
         <v>0.30435073086949244</v>
       </c>
       <c r="AK3" s="2">
@@ -962,7 +988,7 @@
         <v>-0.46960464792248324</v>
       </c>
       <c r="AN3" s="2">
-        <f t="shared" si="4"/>
+        <f>1/(2+AM3*AS3-2*0.33*(1+AM3+AS3))</f>
         <v>-0.58419255427792149</v>
       </c>
       <c r="AO3" s="1">
@@ -972,32 +998,40 @@
         <f>AL3/AK3</f>
         <v>1.1913183299181493</v>
       </c>
-      <c r="AQ3" s="2">
+      <c r="AQ3">
+        <f t="shared" ref="AQ3:AQ18" si="10">AL3/AK3-(1.35*(AK3/3255000)^-0.0723)</f>
+        <v>-0.65187030070274132</v>
+      </c>
+      <c r="AR3">
+        <f t="shared" ref="AR3:AR18" si="11">1.35*(AK3/3255000)^-0.0723-1.386/(AE3+1.27)+0.03463</f>
+        <v>1.2057450818099618</v>
+      </c>
+      <c r="AS3" s="2">
         <f>(2*AP3+3)/(3-AP3)</f>
         <v>2.976000005347935</v>
       </c>
-      <c r="AR3" s="2">
+      <c r="AT3" s="2">
         <f>(1+2*AM3)*(AK3-AK2)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
         <v>5.694659081840186E-3</v>
       </c>
-      <c r="AS3" s="2">
-        <f>(AS2+AR3)</f>
+      <c r="AU3" s="2">
+        <f>(AU2+AT3)</f>
         <v>5.694659081840186E-3</v>
       </c>
-      <c r="AT3" s="2">
+      <c r="AV3" s="2">
         <f>2*(1-AM3)*(AK3-AK2)*(1-AP3/3)/(9*AN3*AO3*AM3)</f>
         <v>9.1778258659013137E-2</v>
       </c>
-      <c r="AU3" s="2">
-        <f>AU2+AT3</f>
+      <c r="AW3" s="2">
+        <f>AW2+AV3</f>
         <v>9.1778258659013137E-2</v>
       </c>
-      <c r="AV3">
-        <f t="shared" ref="AV3:AV18" si="11">(AQ3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
+      <c r="AX3">
+        <f t="shared" ref="AX3:AX18" si="12">(AS3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
         <v>61.931726521892458</v>
       </c>
     </row>
-    <row r="4" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>9.6041318680199996</v>
       </c>
@@ -1084,15 +1118,15 @@
         <v>1.0701225422241167</v>
       </c>
       <c r="AC4">
+        <f t="shared" si="4"/>
+        <v>0.9874729540660705</v>
+      </c>
+      <c r="AD4">
         <f t="shared" si="5"/>
-        <v>0.9874729540660705</v>
-      </c>
-      <c r="AD4">
+        <v>8.2649588158046239E-2</v>
+      </c>
+      <c r="AE4" s="2">
         <f t="shared" si="6"/>
-        <v>8.2649588158046239E-2</v>
-      </c>
-      <c r="AE4" s="2">
-        <f t="shared" si="7"/>
         <v>1.6467493256652945</v>
       </c>
       <c r="AF4">
@@ -1100,19 +1134,19 @@
         <v>6.8394122354116682E-2</v>
       </c>
       <c r="AG4" s="1">
+        <f t="shared" si="7"/>
+        <v>4.0040681051189964E-2</v>
+      </c>
+      <c r="AH4" s="1">
+        <f t="shared" si="7"/>
+        <v>0.85447503670958291</v>
+      </c>
+      <c r="AI4">
         <f t="shared" si="8"/>
-        <v>4.0040681051189964E-2</v>
-      </c>
-      <c r="AH4" s="1">
-        <f t="shared" si="8"/>
-        <v>0.85447503670958291</v>
-      </c>
-      <c r="AI4">
+        <v>-4.6859977566318184E-2</v>
+      </c>
+      <c r="AJ4">
         <f t="shared" si="9"/>
-        <v>-4.6859977566318184E-2</v>
-      </c>
-      <c r="AJ4">
-        <f t="shared" si="10"/>
         <v>0.25888192004942501</v>
       </c>
       <c r="AK4" s="1">
@@ -1124,46 +1158,54 @@
         <v>156194.36397390001</v>
       </c>
       <c r="AM4" s="1">
-        <f t="shared" ref="AM4:AM18" si="12">(-2*AI4-3)/(-2*AI4+6)</f>
+        <f t="shared" ref="AM4:AM18" si="13">(-2*AI4-3)/(-2*AI4+6)</f>
         <v>-0.47693035883925938</v>
       </c>
-      <c r="AN4" s="1">
-        <f t="shared" si="4"/>
+      <c r="AN4" s="2">
+        <f t="shared" ref="AN4:AN18" si="14">1/(2+AM4*AS4-2*0.33*(1+AM4+AS4))</f>
         <v>-0.5288771838329086</v>
       </c>
       <c r="AO4" s="1">
         <v>321688.56653439248</v>
       </c>
       <c r="AP4">
-        <f t="shared" ref="AP4:AP18" si="13">AL4/AK4</f>
+        <f t="shared" ref="AP4:AP18" si="15">AL4/AK4</f>
         <v>1.2416889411726091</v>
       </c>
-      <c r="AQ4" s="1">
-        <f t="shared" ref="AQ4:AQ18" si="14">(2*AP4+3)/(3-AP4)</f>
+      <c r="AQ4">
+        <f t="shared" si="10"/>
+        <v>-0.4663050017803767</v>
+      </c>
+      <c r="AR4">
+        <f t="shared" si="11"/>
+        <v>1.2674374098477243</v>
+      </c>
+      <c r="AS4" s="1">
+        <f>(2*AP4+3)/(3-AP4)</f>
         <v>3.1185482539147857</v>
       </c>
-      <c r="AR4" s="1">
-        <f t="shared" ref="AR4:AR18" si="15">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
+      <c r="AT4" s="1">
+        <f>(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
         <v>9.1019084866706887E-3</v>
       </c>
-      <c r="AS4" s="1">
-        <f t="shared" ref="AS4:AS18" si="16">AS3+AR4</f>
+      <c r="AU4" s="1">
+        <f t="shared" ref="AU4:AU18" si="16">AU3+AT4</f>
         <v>1.4796567568510874E-2</v>
       </c>
-      <c r="AT4" s="1">
-        <f t="shared" ref="AT4:AT18" si="17">2*(1-AM4)*(AK4-AK3)*(1-AP4/3)/(9*AN4*AO4*AM4)</f>
+      <c r="AV4" s="1">
+        <f>2*(1-AM4)*(AK4-AK3)*(1-AP4/3)/(9*AN4*AO4*AM4)</f>
         <v>0.19423629628907327</v>
       </c>
-      <c r="AU4" s="1">
-        <f>AU3+AT4</f>
+      <c r="AW4" s="1">
+        <f>AW3+AV4</f>
         <v>0.28601455494808642</v>
       </c>
-      <c r="AV4">
-        <f t="shared" si="11"/>
+      <c r="AX4">
+        <f t="shared" si="12"/>
         <v>184.80683914850931</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>18.633378606600001</v>
       </c>
@@ -1250,15 +1292,15 @@
         <v>1.2796901620335754</v>
       </c>
       <c r="AC5">
+        <f t="shared" si="4"/>
+        <v>1.2959865974484497</v>
+      </c>
+      <c r="AD5">
         <f t="shared" si="5"/>
-        <v>1.2959865974484497</v>
-      </c>
-      <c r="AD5">
+        <v>-1.6296435414874244E-2</v>
+      </c>
+      <c r="AE5" s="2">
         <f t="shared" si="6"/>
-        <v>-1.6296435414874244E-2</v>
-      </c>
-      <c r="AE5" s="2">
-        <f t="shared" si="7"/>
         <v>2.5786011719554747</v>
       </c>
       <c r="AF5">
@@ -1266,19 +1308,19 @@
         <v>-0.22289211761642447</v>
       </c>
       <c r="AG5" s="1">
+        <f t="shared" si="7"/>
+        <v>-9.8946023572920483E-2</v>
+      </c>
+      <c r="AH5" s="1">
+        <f t="shared" si="7"/>
+        <v>0.93185184629018014</v>
+      </c>
+      <c r="AI5">
         <f t="shared" si="8"/>
-        <v>-9.8946023572920483E-2</v>
-      </c>
-      <c r="AH5" s="1">
-        <f t="shared" si="8"/>
-        <v>0.93185184629018014</v>
-      </c>
-      <c r="AI5">
+        <v>0.10618214039800114</v>
+      </c>
+      <c r="AJ5">
         <f t="shared" si="9"/>
-        <v>0.10618214039800114</v>
-      </c>
-      <c r="AJ5">
-        <f t="shared" si="10"/>
         <v>0.23249122202025849</v>
       </c>
       <c r="AK5">
@@ -1290,46 +1332,54 @@
         <v>306116.13573950005</v>
       </c>
       <c r="AM5" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.55503912765916352</v>
       </c>
-      <c r="AN5">
-        <f t="shared" si="4"/>
+      <c r="AN5" s="2">
+        <f t="shared" si="14"/>
         <v>-0.45639256014372104</v>
       </c>
       <c r="AO5" s="1">
         <v>321688.56653439248</v>
       </c>
       <c r="AP5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.2717737365754307</v>
       </c>
       <c r="AQ5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
+        <v>-0.35793676363642857</v>
+      </c>
+      <c r="AR5">
+        <f t="shared" si="11"/>
+        <v>1.3042096531654834</v>
+      </c>
+      <c r="AS5">
+        <f>(2*AP5+3)/(3-AP5)</f>
         <v>3.2076514461515222</v>
       </c>
-      <c r="AR5" s="1">
-        <f t="shared" si="15"/>
+      <c r="AT5" s="1">
+        <f>(1+2*AM5)*(AK5-AK4)*(1-AP5/3)/(3*AN5*AO5*AM5)</f>
         <v>-2.9806653636601756E-2</v>
       </c>
-      <c r="AS5">
+      <c r="AU5">
         <f t="shared" si="16"/>
         <v>-1.5010086068090882E-2</v>
       </c>
-      <c r="AT5" s="1">
-        <f t="shared" si="17"/>
+      <c r="AV5" s="1">
+        <f>2*(1-AM5)*(AK5-AK4)*(1-AP5/3)/(9*AN5*AO5*AM5)</f>
         <v>0.28071249576320323</v>
       </c>
-      <c r="AU5">
-        <f>AU4+AT5</f>
+      <c r="AW5">
+        <f>AW4+AV5</f>
         <v>0.56672705071128959</v>
       </c>
-      <c r="AV5">
-        <f t="shared" si="11"/>
+      <c r="AX5">
+        <f t="shared" si="12"/>
         <v>363.10386387041603</v>
       </c>
     </row>
-    <row r="6" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>29.2880362171</v>
       </c>
@@ -1416,15 +1466,15 @@
         <v>1.5621054671954515</v>
       </c>
       <c r="AC6">
+        <f t="shared" si="4"/>
+        <v>1.5586444276045079</v>
+      </c>
+      <c r="AD6">
         <f t="shared" si="5"/>
-        <v>1.5586444276045079</v>
-      </c>
-      <c r="AD6">
+        <v>3.4610395909435709E-3</v>
+      </c>
+      <c r="AE6" s="2">
         <f t="shared" si="6"/>
-        <v>3.4610395909435709E-3</v>
-      </c>
-      <c r="AE6" s="2">
-        <f t="shared" si="7"/>
         <v>3.4797714886515165</v>
       </c>
       <c r="AF6">
@@ -1432,19 +1482,19 @@
         <v>-0.43813118832954867</v>
       </c>
       <c r="AG6" s="1">
+        <f t="shared" si="7"/>
+        <v>1.9757475005817815E-2</v>
+      </c>
+      <c r="AH6" s="1">
+        <f t="shared" si="7"/>
+        <v>0.90117031669604186</v>
+      </c>
+      <c r="AI6">
         <f t="shared" si="8"/>
-        <v>1.9757475005817815E-2</v>
-      </c>
-      <c r="AH6" s="1">
-        <f t="shared" si="8"/>
-        <v>0.90117031669604186</v>
-      </c>
-      <c r="AI6">
+        <v>-2.1924240778651686E-2</v>
+      </c>
+      <c r="AJ6">
         <f t="shared" si="9"/>
-        <v>-2.1924240778651686E-2</v>
-      </c>
-      <c r="AJ6">
-        <f t="shared" si="10"/>
         <v>0.20430508583882104</v>
       </c>
       <c r="AK6">
@@ -1456,46 +1506,54 @@
         <v>501230.93967000005</v>
       </c>
       <c r="AM6" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.48911741044854795</v>
       </c>
-      <c r="AN6">
-        <f t="shared" si="4"/>
+      <c r="AN6" s="2">
+        <f t="shared" si="14"/>
         <v>-0.46751594691848863</v>
       </c>
       <c r="AO6" s="1">
         <v>321688.56653439248</v>
       </c>
       <c r="AP6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.3045855343355153</v>
       </c>
       <c r="AQ6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
+        <v>-0.27094612035282473</v>
+      </c>
+      <c r="AR6">
+        <f t="shared" si="11"/>
+        <v>1.3183581430222466</v>
+      </c>
+      <c r="AS6">
+        <f>(2*AP6+3)/(3-AP6)</f>
         <v>3.3084364810303923</v>
       </c>
-      <c r="AR6" s="1">
-        <f t="shared" si="15"/>
+      <c r="AT6" s="1">
+        <f>(1+2*AM6)*(AK6-AK5)*(1-AP6/3)/(3*AN6*AO6*AM6)</f>
         <v>7.9987691787397966E-3</v>
       </c>
-      <c r="AS6">
+      <c r="AU6">
         <f t="shared" si="16"/>
         <v>-7.0113168893510859E-3</v>
       </c>
-      <c r="AT6" s="1">
-        <f t="shared" si="17"/>
+      <c r="AV6" s="1">
+        <f>2*(1-AM6)*(AK6-AK5)*(1-AP6/3)/(9*AN6*AO6*AM6)</f>
         <v>0.36483676946881882</v>
       </c>
-      <c r="AU6">
-        <f t="shared" ref="AU6:AU18" si="18">AU5+AT6</f>
+      <c r="AW6">
+        <f t="shared" ref="AW6:AW18" si="17">AW5+AV6</f>
         <v>0.93156382018010842</v>
       </c>
-      <c r="AV6">
-        <f t="shared" si="11"/>
+      <c r="AX6">
+        <f t="shared" si="12"/>
         <v>594.72293735444919</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>41.434693351200004</v>
       </c>
@@ -1582,15 +1640,15 @@
         <v>1.6235844291454193</v>
       </c>
       <c r="AC7">
+        <f t="shared" si="4"/>
+        <v>1.7867522032264378</v>
+      </c>
+      <c r="AD7">
         <f t="shared" si="5"/>
-        <v>1.7867522032264378</v>
-      </c>
-      <c r="AD7">
+        <v>-0.16316777408101846</v>
+      </c>
+      <c r="AE7" s="2">
         <f t="shared" si="6"/>
-        <v>-0.16316777408101846</v>
-      </c>
-      <c r="AE7" s="2">
-        <f t="shared" si="7"/>
         <v>4.46032940890486</v>
       </c>
       <c r="AF7">
@@ -1598,19 +1656,19 @@
         <v>-0.87717768016458075</v>
       </c>
       <c r="AG7" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.16662881367196203</v>
+      </c>
+      <c r="AH7" s="1">
+        <f t="shared" si="7"/>
+        <v>0.98055792025334343</v>
+      </c>
+      <c r="AI7">
         <f t="shared" si="8"/>
-        <v>-0.16662881367196203</v>
-      </c>
-      <c r="AH7" s="1">
-        <f t="shared" si="8"/>
-        <v>0.98055792025334343</v>
-      </c>
-      <c r="AI7">
+        <v>0.16993265795957338</v>
+      </c>
+      <c r="AJ7">
         <f t="shared" si="9"/>
-        <v>0.16993265795957338</v>
-      </c>
-      <c r="AJ7">
-        <f t="shared" si="10"/>
         <v>0.18597079513518491</v>
       </c>
       <c r="AK7">
@@ -1622,46 +1680,54 @@
         <v>729574.25835999998</v>
       </c>
       <c r="AM7" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.59006817016431223</v>
       </c>
-      <c r="AN7">
-        <f t="shared" si="4"/>
+      <c r="AN7" s="2">
+        <f t="shared" si="14"/>
         <v>-0.40121531014248879</v>
       </c>
       <c r="AO7" s="1">
         <v>321688.56653439248</v>
       </c>
       <c r="AP7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.326301837188895</v>
       </c>
       <c r="AQ7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
+        <v>-0.20887469804261061</v>
+      </c>
+      <c r="AR7">
+        <f t="shared" si="11"/>
+        <v>1.3279356232650532</v>
+      </c>
+      <c r="AS7">
+        <f>(2*AP7+3)/(3-AP7)</f>
         <v>3.3773136638232351</v>
       </c>
-      <c r="AR7" s="1">
-        <f t="shared" si="15"/>
+      <c r="AT7" s="1">
+        <f>(1+2*AM7)*(AK7-AK6)*(1-AP7/3)/(3*AN7*AO7*AM7)</f>
         <v>-7.2962632494466009E-2</v>
       </c>
-      <c r="AS7">
+      <c r="AU7">
         <f t="shared" si="16"/>
         <v>-7.9973949383817092E-2</v>
       </c>
-      <c r="AT7" s="1">
+      <c r="AV7" s="1">
+        <f>2*(1-AM7)*(AK7-AK6)*(1-AP7/3)/(9*AN7*AO7*AM7)</f>
+        <v>0.42936203888380126</v>
+      </c>
+      <c r="AW7">
         <f t="shared" si="17"/>
-        <v>0.42936203888380126</v>
-      </c>
-      <c r="AU7">
-        <f t="shared" si="18"/>
         <v>1.3609258590639097</v>
       </c>
-      <c r="AV7">
-        <f t="shared" si="11"/>
+      <c r="AX7">
+        <f t="shared" si="12"/>
         <v>866.81967125087601</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>54.623573886000003</v>
       </c>
@@ -1748,15 +1814,15 @@
         <v>1.858851189179811</v>
       </c>
       <c r="AC8">
+        <f t="shared" si="4"/>
+        <v>1.9844183164678932</v>
+      </c>
+      <c r="AD8">
         <f t="shared" si="5"/>
-        <v>1.9844183164678932</v>
-      </c>
-      <c r="AD8">
+        <v>-0.12556712728808228</v>
+      </c>
+      <c r="AE8" s="2">
         <f t="shared" si="6"/>
-        <v>-0.12556712728808228</v>
-      </c>
-      <c r="AE8" s="2">
-        <f t="shared" si="7"/>
         <v>5.3807128307200633</v>
       </c>
       <c r="AF8">
@@ -1764,19 +1830,19 @@
         <v>-1.1413137577101891</v>
       </c>
       <c r="AG8" s="1">
+        <f t="shared" si="7"/>
+        <v>3.7600646792936177E-2</v>
+      </c>
+      <c r="AH8" s="1">
+        <f t="shared" si="7"/>
+        <v>0.92038342181520338</v>
+      </c>
+      <c r="AI8">
         <f t="shared" si="8"/>
-        <v>3.7600646792936177E-2</v>
-      </c>
-      <c r="AH8" s="1">
-        <f t="shared" si="8"/>
-        <v>0.92038342181520338</v>
-      </c>
-      <c r="AI8">
+        <v>-4.0853242139867352E-2</v>
+      </c>
+      <c r="AJ8">
         <f t="shared" si="9"/>
-        <v>-4.0853242139867352E-2</v>
-      </c>
-      <c r="AJ8">
-        <f t="shared" si="10"/>
         <v>0.17763610131296817</v>
       </c>
       <c r="AK8">
@@ -1788,46 +1854,54 @@
         <v>975027.36638299993</v>
       </c>
       <c r="AM8" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.47984780641150637</v>
       </c>
-      <c r="AN8">
-        <f t="shared" si="4"/>
+      <c r="AN8" s="2">
+        <f t="shared" si="14"/>
         <v>-0.44850110652476477</v>
       </c>
       <c r="AO8" s="1">
         <v>321688.56653439248</v>
       </c>
       <c r="AP8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.3362703631270985</v>
       </c>
       <c r="AQ8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
+        <v>-0.16786683170051719</v>
+      </c>
+      <c r="AR8">
+        <f t="shared" si="11"/>
+        <v>1.3303684809938174</v>
+      </c>
+      <c r="AS8">
+        <f>(2*AP8+3)/(3-AP8)</f>
         <v>3.4095327753589468</v>
       </c>
-      <c r="AR8" s="1">
-        <f t="shared" si="15"/>
+      <c r="AT8" s="1">
+        <f>(1+2*AM8)*(AK8-AK7)*(1-AP8/3)/(3*AN8*AO8*AM8)</f>
         <v>1.9326437567746158E-2</v>
       </c>
-      <c r="AS8">
+      <c r="AU8">
         <f t="shared" si="16"/>
         <v>-6.0647511816070934E-2</v>
       </c>
-      <c r="AT8" s="1">
+      <c r="AV8" s="1">
+        <f>2*(1-AM8)*(AK8-AK7)*(1-AP8/3)/(9*AN8*AO8*AM8)</f>
+        <v>0.47306986068765605</v>
+      </c>
+      <c r="AW8">
         <f t="shared" si="17"/>
-        <v>0.47306986068765605</v>
-      </c>
-      <c r="AU8">
-        <f t="shared" si="18"/>
         <v>1.8339957197515657</v>
       </c>
-      <c r="AV8">
-        <f t="shared" si="11"/>
+      <c r="AX8">
+        <f t="shared" si="12"/>
         <v>1159.9771004039569</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>68.694755584199996</v>
       </c>
@@ -1914,15 +1988,15 @@
         <v>1.8344607170093674</v>
       </c>
       <c r="AC9">
+        <f t="shared" si="4"/>
+        <v>2.1624663342283323</v>
+      </c>
+      <c r="AD9">
         <f t="shared" si="5"/>
-        <v>2.1624663342283323</v>
-      </c>
-      <c r="AD9">
+        <v>-0.32800561721896493</v>
+      </c>
+      <c r="AE9" s="2">
         <f t="shared" si="6"/>
-        <v>-0.32800561721896493</v>
-      </c>
-      <c r="AE9" s="2">
-        <f t="shared" si="7"/>
         <v>6.3933386030602106</v>
       </c>
       <c r="AF9">
@@ -1930,19 +2004,19 @@
         <v>-1.6679520373556325</v>
       </c>
       <c r="AG9" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.20243848993088265</v>
+      </c>
+      <c r="AH9" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0126257723401473</v>
+      </c>
+      <c r="AI9">
         <f t="shared" si="8"/>
-        <v>-0.20243848993088265</v>
-      </c>
-      <c r="AH9" s="1">
-        <f t="shared" si="8"/>
-        <v>1.0126257723401473</v>
-      </c>
-      <c r="AI9">
+        <v>0.19991441602661708</v>
+      </c>
+      <c r="AJ9">
         <f t="shared" si="9"/>
-        <v>0.19991441602661708</v>
-      </c>
-      <c r="AJ9">
-        <f t="shared" si="10"/>
         <v>0.17113074432652947</v>
       </c>
       <c r="AK9">
@@ -1954,46 +2028,54 @@
         <v>1241129.2505049999</v>
       </c>
       <c r="AM9" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.60709373519019416</v>
       </c>
-      <c r="AN9">
-        <f t="shared" si="4"/>
+      <c r="AN9" s="2">
+        <f t="shared" si="14"/>
         <v>-0.38286383632984489</v>
       </c>
       <c r="AO9" s="1">
         <v>321688.56653439248</v>
       </c>
       <c r="AP9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.3440925715499821</v>
       </c>
       <c r="AQ9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
+        <v>-0.13465370863326354</v>
+      </c>
+      <c r="AR9">
+        <f t="shared" si="11"/>
+        <v>1.3325151605340986</v>
+      </c>
+      <c r="AS9">
+        <f>(2*AP9+3)/(3-AP9)</f>
         <v>3.4350864338016085</v>
       </c>
-      <c r="AR9" s="1">
-        <f t="shared" si="15"/>
+      <c r="AT9" s="1">
+        <f>(1+2*AM9)*(AK9-AK8)*(1-AP9/3)/(3*AN9*AO9*AM9)</f>
         <v>-0.10210668721237282</v>
       </c>
-      <c r="AS9">
+      <c r="AU9">
         <f t="shared" si="16"/>
         <v>-0.16275419902844374</v>
       </c>
-      <c r="AT9" s="1">
+      <c r="AV9" s="1">
+        <f>2*(1-AM9)*(AK9-AK8)*(1-AP9/3)/(9*AN9*AO9*AM9)</f>
+        <v>0.51075199698844176</v>
+      </c>
+      <c r="AW9">
         <f t="shared" si="17"/>
-        <v>0.51075199698844176</v>
-      </c>
-      <c r="AU9">
-        <f t="shared" si="18"/>
         <v>2.3447477167400077</v>
       </c>
-      <c r="AV9">
-        <f t="shared" si="11"/>
+      <c r="AX9">
+        <f t="shared" si="12"/>
         <v>1476.9150446862989</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>83.406379524100004</v>
       </c>
@@ -2080,15 +2162,15 @@
         <v>1.8852923228709129</v>
       </c>
       <c r="AC10">
+        <f t="shared" si="4"/>
+        <v>2.3204251932412645</v>
+      </c>
+      <c r="AD10">
         <f t="shared" si="5"/>
-        <v>2.3204251932412645</v>
-      </c>
-      <c r="AD10">
+        <v>-0.43513287037035164</v>
+      </c>
+      <c r="AE10" s="2">
         <f t="shared" si="6"/>
-        <v>-0.43513287037035164</v>
-      </c>
-      <c r="AE10" s="2">
-        <f t="shared" si="7"/>
         <v>7.3773424148796956</v>
       </c>
       <c r="AF10">
@@ -2096,19 +2178,19 @@
         <v>-2.1175942717140872</v>
       </c>
       <c r="AG10" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.10712725315138671</v>
+      </c>
+      <c r="AH10" s="1">
+        <f t="shared" si="7"/>
+        <v>0.98400381181948493</v>
+      </c>
+      <c r="AI10">
         <f t="shared" si="8"/>
-        <v>-0.10712725315138671</v>
-      </c>
-      <c r="AH10" s="1">
-        <f t="shared" si="8"/>
-        <v>0.98400381181948493</v>
-      </c>
-      <c r="AI10">
+        <v>0.10886873797094514</v>
+      </c>
+      <c r="AJ10">
         <f t="shared" si="9"/>
-        <v>0.10886873797094514</v>
-      </c>
-      <c r="AJ10">
-        <f t="shared" si="10"/>
         <v>0.17079410969932632</v>
       </c>
       <c r="AK10">
@@ -2120,46 +2202,54 @@
         <v>1510068.0090015002</v>
       </c>
       <c r="AM10" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.55648415521673966</v>
       </c>
-      <c r="AN10">
-        <f t="shared" si="4"/>
+      <c r="AN10" s="2">
+        <f t="shared" si="14"/>
         <v>-0.40435584691954174</v>
       </c>
       <c r="AO10" s="1">
         <v>321688.56653439248</v>
       </c>
       <c r="AP10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.344498339943635</v>
       </c>
       <c r="AQ10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
+        <v>-0.11345849214686354</v>
+      </c>
+      <c r="AR10">
+        <f t="shared" si="11"/>
+        <v>1.3323063744073291</v>
+      </c>
+      <c r="AS10">
+        <f>(2*AP10+3)/(3-AP10)</f>
         <v>3.4364185896941812</v>
       </c>
-      <c r="AR10" s="1">
-        <f t="shared" si="15"/>
+      <c r="AT10" s="1">
+        <f>(1+2*AM10)*(AK10-AK9)*(1-AP10/3)/(3*AN10*AO10*AM10)</f>
         <v>-5.7342844738419059E-2</v>
       </c>
-      <c r="AS10">
+      <c r="AU10">
         <f t="shared" si="16"/>
         <v>-0.22009704376686279</v>
       </c>
-      <c r="AT10" s="1">
+      <c r="AV10" s="1">
+        <f>2*(1-AM10)*(AK10-AK9)*(1-AP10/3)/(9*AN10*AO10*AM10)</f>
+        <v>0.52671543555251588</v>
+      </c>
+      <c r="AW10">
         <f t="shared" si="17"/>
-        <v>0.52671543555251588</v>
-      </c>
-      <c r="AU10">
-        <f t="shared" si="18"/>
         <v>2.8714631522925238</v>
       </c>
-      <c r="AV10">
-        <f t="shared" si="11"/>
+      <c r="AX10">
+        <f t="shared" si="12"/>
         <v>1798.7786048701641</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>98.506007605299999</v>
       </c>
@@ -2246,15 +2336,15 @@
         <v>1.8993222021266298</v>
       </c>
       <c r="AC11">
+        <f t="shared" si="4"/>
+        <v>2.461649362791448</v>
+      </c>
+      <c r="AD11">
         <f t="shared" si="5"/>
-        <v>2.461649362791448</v>
-      </c>
-      <c r="AD11">
+        <v>-0.56232716066481814</v>
+      </c>
+      <c r="AE11" s="2">
         <f t="shared" si="6"/>
-        <v>-0.56232716066481814</v>
-      </c>
-      <c r="AE11" s="2">
-        <f t="shared" si="7"/>
         <v>8.3693944476711231</v>
       </c>
       <c r="AF11">
@@ -2262,19 +2352,19 @@
         <v>-2.60192872206337</v>
       </c>
       <c r="AG11" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.12719429029446649</v>
+      </c>
+      <c r="AH11" s="1">
+        <f t="shared" si="7"/>
+        <v>0.99205203279142751</v>
+      </c>
+      <c r="AI11">
         <f t="shared" si="8"/>
-        <v>-0.12719429029446649</v>
-      </c>
-      <c r="AH11" s="1">
-        <f t="shared" si="8"/>
-        <v>0.99205203279142751</v>
-      </c>
-      <c r="AI11">
+        <v>0.12821332560205365</v>
+      </c>
+      <c r="AJ11">
         <f t="shared" si="9"/>
-        <v>0.12821332560205365</v>
-      </c>
-      <c r="AJ11">
-        <f t="shared" si="10"/>
         <v>0.17413221977698445</v>
       </c>
       <c r="AK11">
@@ -2286,46 +2376,54 @@
         <v>1777141.4462240003</v>
       </c>
       <c r="AM11" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.56696875854937911</v>
       </c>
-      <c r="AN11">
-        <f t="shared" si="4"/>
+      <c r="AN11" s="2">
+        <f t="shared" si="14"/>
         <v>-0.40224882365837661</v>
       </c>
       <c r="AO11" s="1">
         <v>321688.56653439248</v>
       </c>
       <c r="AP11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.3404789959502508</v>
       </c>
       <c r="AQ11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
+        <v>-0.10010041669404979</v>
+      </c>
+      <c r="AR11">
+        <f t="shared" si="11"/>
+        <v>1.3314244469471184</v>
+      </c>
+      <c r="AS11">
+        <f>(2*AP11+3)/(3-AP11)</f>
         <v>3.4232516358860123</v>
       </c>
-      <c r="AR11" s="1">
-        <f t="shared" si="15"/>
+      <c r="AT11" s="1">
+        <f>(1+2*AM11)*(AK11-AK10)*(1-AP11/3)/(3*AN11*AO11*AM11)</f>
         <v>-6.8202942319204388E-2</v>
       </c>
-      <c r="AS11">
+      <c r="AU11">
         <f t="shared" si="16"/>
         <v>-0.28829998608606716</v>
       </c>
-      <c r="AT11" s="1">
+      <c r="AV11" s="1">
+        <f>2*(1-AM11)*(AK11-AK10)*(1-AP11/3)/(9*AN11*AO11*AM11)</f>
+        <v>0.53194893743643701</v>
+      </c>
+      <c r="AW11">
         <f t="shared" si="17"/>
-        <v>0.53194893743643701</v>
-      </c>
-      <c r="AU11">
-        <f t="shared" si="18"/>
         <v>3.4034120897289606</v>
       </c>
-      <c r="AV11">
-        <f t="shared" si="11"/>
+      <c r="AX11">
+        <f t="shared" si="12"/>
         <v>2119.4620586188844</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>114.008215518</v>
       </c>
@@ -2412,15 +2510,15 @@
         <v>1.8032093482882816</v>
       </c>
       <c r="AC12">
+        <f t="shared" si="4"/>
+        <v>2.5919560426629995</v>
+      </c>
+      <c r="AD12">
         <f t="shared" si="5"/>
-        <v>2.5919560426629995</v>
-      </c>
-      <c r="AD12">
+        <v>-0.78874669437471789</v>
+      </c>
+      <c r="AE12" s="2">
         <f t="shared" si="6"/>
-        <v>-0.78874669437471789</v>
-      </c>
-      <c r="AE12" s="2">
-        <f t="shared" si="7"/>
         <v>9.3997601185372393</v>
       </c>
       <c r="AF12">
@@ -2428,19 +2526,19 @@
         <v>-3.1972056023617181</v>
       </c>
       <c r="AG12" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.22641953370989976</v>
+      </c>
+      <c r="AH12" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0303656708661162</v>
+      </c>
+      <c r="AI12">
         <f t="shared" si="8"/>
-        <v>-0.22641953370989976</v>
-      </c>
-      <c r="AH12" s="1">
-        <f t="shared" si="8"/>
-        <v>1.0303656708661162</v>
-      </c>
-      <c r="AI12">
+        <v>0.21974677545261531</v>
+      </c>
+      <c r="AJ12">
         <f t="shared" si="9"/>
-        <v>0.21974677545261531</v>
-      </c>
-      <c r="AJ12">
-        <f t="shared" si="10"/>
         <v>0.17758935951636393</v>
       </c>
       <c r="AK12">
@@ -2452,46 +2550,54 @@
         <v>2050200.3846515003</v>
       </c>
       <c r="AM12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.61855760485003441</v>
       </c>
-      <c r="AN12">
-        <f t="shared" si="4"/>
+      <c r="AN12" s="2">
+        <f t="shared" si="14"/>
         <v>-0.38295554412189792</v>
       </c>
       <c r="AO12" s="1">
         <v>321688.56653439248</v>
       </c>
       <c r="AP12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.3363264367099101</v>
       </c>
       <c r="AQ12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
+        <v>-8.9122978407390807E-2</v>
+      </c>
+      <c r="AR12">
+        <f t="shared" si="11"/>
+        <v>1.3301795875108662</v>
+      </c>
+      <c r="AS12">
+        <f>(2*AP12+3)/(3-AP12)</f>
         <v>3.4097151019227301</v>
       </c>
-      <c r="AR12" s="1">
-        <f t="shared" si="15"/>
+      <c r="AT12" s="1">
+        <f>(1+2*AM12)*(AK12-AK11)*(1-AP12/3)/(3*AN12*AO12*AM12)</f>
         <v>-0.11990398582274546</v>
       </c>
-      <c r="AS12">
+      <c r="AU12">
         <f t="shared" si="16"/>
         <v>-0.40820397190881264</v>
       </c>
-      <c r="AT12" s="1">
+      <c r="AV12" s="1">
+        <f>2*(1-AM12)*(AK12-AK11)*(1-AP12/3)/(9*AN12*AO12*AM12)</f>
+        <v>0.54564616739325389</v>
+      </c>
+      <c r="AW12">
         <f t="shared" si="17"/>
-        <v>0.54564616739325389</v>
-      </c>
-      <c r="AU12">
-        <f t="shared" si="18"/>
         <v>3.9490582571222146</v>
       </c>
-      <c r="AV12">
-        <f t="shared" si="11"/>
+      <c r="AX12">
+        <f t="shared" si="12"/>
         <v>2450.0695611309498</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>129.77406091500001</v>
       </c>
@@ -2578,15 +2684,15 @@
         <v>1.7507299758379502</v>
       </c>
       <c r="AC13">
+        <f t="shared" si="4"/>
+        <v>2.7105266347417203</v>
+      </c>
+      <c r="AD13">
         <f t="shared" si="5"/>
-        <v>2.7105266347417203</v>
-      </c>
-      <c r="AD13">
+        <v>-0.95979665890377008</v>
+      </c>
+      <c r="AE13" s="2">
         <f t="shared" si="6"/>
-        <v>-0.95979665890377008</v>
-      </c>
-      <c r="AE13" s="2">
-        <f t="shared" si="7"/>
         <v>10.42127381778735</v>
       </c>
       <c r="AF13">
@@ -2594,19 +2700,19 @@
         <v>-3.7516952623620496</v>
       </c>
       <c r="AG13" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.17104996452905219</v>
+      </c>
+      <c r="AH13" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0215136992501108</v>
+      </c>
+      <c r="AI13">
         <f t="shared" si="8"/>
-        <v>-0.17104996452905219</v>
-      </c>
-      <c r="AH13" s="1">
-        <f t="shared" si="8"/>
-        <v>1.0215136992501108</v>
-      </c>
-      <c r="AI13">
+        <v>0.16744754833402556</v>
+      </c>
+      <c r="AJ13">
         <f t="shared" si="9"/>
-        <v>0.16744754833402556</v>
-      </c>
-      <c r="AJ13">
-        <f t="shared" si="10"/>
         <v>0.18407132000144219</v>
       </c>
       <c r="AK13">
@@ -2618,46 +2724,54 @@
         <v>2315571.1698899996</v>
       </c>
       <c r="AM13" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.58867314084627498</v>
       </c>
-      <c r="AN13">
-        <f t="shared" si="4"/>
+      <c r="AN13" s="2">
+        <f t="shared" si="14"/>
         <v>-0.40036164056212198</v>
       </c>
       <c r="AO13" s="1">
         <v>321688.56653439248</v>
       </c>
       <c r="AP13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.3285683804083501</v>
       </c>
       <c r="AQ13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
+        <v>-8.379704998582671E-2</v>
+      </c>
+      <c r="AR13">
+        <f t="shared" si="11"/>
+        <v>1.3284454741104303</v>
+      </c>
+      <c r="AS13">
+        <f>(2*AP13+3)/(3-AP13)</f>
         <v>3.3846055647785365</v>
       </c>
-      <c r="AR13" s="1">
-        <f t="shared" si="15"/>
+      <c r="AT13" s="1">
+        <f>(1+2*AM13)*(AK13-AK12)*(1-AP13/3)/(3*AN13*AO13*AM13)</f>
         <v>-9.0662968808093047E-2</v>
       </c>
-      <c r="AS13">
+      <c r="AU13">
         <f t="shared" si="16"/>
         <v>-0.49886694071690568</v>
       </c>
-      <c r="AT13" s="1">
+      <c r="AV13" s="1">
+        <f>2*(1-AM13)*(AK13-AK12)*(1-AP13/3)/(9*AN13*AO13*AM13)</f>
+        <v>0.54144100472129864</v>
+      </c>
+      <c r="AW13">
         <f t="shared" si="17"/>
-        <v>0.54144100472129864</v>
-      </c>
-      <c r="AU13">
-        <f t="shared" si="18"/>
         <v>4.4904992618435129</v>
       </c>
-      <c r="AV13">
-        <f t="shared" si="11"/>
+      <c r="AX13">
+        <f t="shared" si="12"/>
         <v>2773.2292757628188</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>145.475280191</v>
       </c>
@@ -2744,15 +2858,15 @@
         <v>1.6983816350330971</v>
       </c>
       <c r="AC14">
+        <f t="shared" si="4"/>
+        <v>2.8164327034808418</v>
+      </c>
+      <c r="AD14">
         <f t="shared" si="5"/>
-        <v>2.8164327034808418</v>
-      </c>
-      <c r="AD14">
+        <v>-1.1180510684477447</v>
+      </c>
+      <c r="AE14" s="2">
         <f t="shared" si="6"/>
-        <v>-1.1180510684477447</v>
-      </c>
-      <c r="AE14" s="2">
-        <f t="shared" si="7"/>
         <v>11.4366759110223</v>
       </c>
       <c r="AF14">
@@ -2760,19 +2874,19 @@
         <v>-4.3030199263169031</v>
       </c>
       <c r="AG14" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.15825440954397463</v>
+      </c>
+      <c r="AH14" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0154020932349503</v>
+      </c>
+      <c r="AI14">
         <f t="shared" si="8"/>
-        <v>-0.15825440954397463</v>
-      </c>
-      <c r="AH14" s="1">
-        <f t="shared" si="8"/>
-        <v>1.0154020932349503</v>
-      </c>
-      <c r="AI14">
+        <v>0.15585393274086612</v>
+      </c>
+      <c r="AJ14">
         <f t="shared" si="9"/>
-        <v>0.15585393274086612</v>
-      </c>
-      <c r="AJ14">
-        <f t="shared" si="10"/>
         <v>0.19373718441357646</v>
       </c>
       <c r="AK14">
@@ -2784,46 +2898,54 @@
         <v>2562275.2800349998</v>
       </c>
       <c r="AM14" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.58219721968660731</v>
       </c>
-      <c r="AN14">
-        <f t="shared" si="4"/>
+      <c r="AN14" s="2">
+        <f t="shared" si="14"/>
         <v>-0.41078114758824014</v>
       </c>
       <c r="AO14" s="1">
         <v>321688.56653439248</v>
       </c>
       <c r="AP14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.3170671445191622</v>
       </c>
       <c r="AQ14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
+        <v>-8.4116996567273006E-2</v>
+      </c>
+      <c r="AR14">
+        <f t="shared" si="11"/>
+        <v>1.3267376202319348</v>
+      </c>
+      <c r="AS14">
+        <f>(2*AP14+3)/(3-AP14)</f>
         <v>3.3478069375670798</v>
       </c>
-      <c r="AR14" s="1">
-        <f t="shared" si="15"/>
+      <c r="AT14" s="1">
+        <f>(1+2*AM14)*(AK14-AK13)*(1-AP14/3)/(3*AN14*AO14*AM14)</f>
         <v>-8.0926575351279909E-2</v>
       </c>
-      <c r="AS14">
+      <c r="AU14">
         <f t="shared" si="16"/>
         <v>-0.57979351606818563</v>
       </c>
-      <c r="AT14" s="1">
+      <c r="AV14" s="1">
+        <f>2*(1-AM14)*(AK14-AK13)*(1-AP14/3)/(9*AN14*AO14*AM14)</f>
+        <v>0.51924628354315705</v>
+      </c>
+      <c r="AW14">
         <f t="shared" si="17"/>
-        <v>0.51924628354315705</v>
-      </c>
-      <c r="AU14">
-        <f t="shared" si="18"/>
         <v>5.0097455453866697</v>
       </c>
-      <c r="AV14">
-        <f t="shared" si="11"/>
+      <c r="AX14">
+        <f t="shared" si="12"/>
         <v>3078.7193865813874</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>160.97110197399999</v>
       </c>
@@ -2910,15 +3032,15 @@
         <v>1.6503316009821023</v>
       </c>
       <c r="AC15">
+        <f t="shared" si="4"/>
+        <v>2.9150890236335414</v>
+      </c>
+      <c r="AD15">
         <f t="shared" si="5"/>
-        <v>2.9150890236335414</v>
-      </c>
-      <c r="AD15">
+        <v>-1.2647574226514391</v>
+      </c>
+      <c r="AE15" s="2">
         <f t="shared" si="6"/>
-        <v>-1.2647574226514391</v>
-      </c>
-      <c r="AE15" s="2">
-        <f t="shared" si="7"/>
         <v>12.453888443639299</v>
       </c>
       <c r="AF15">
@@ -2926,19 +3048,19 @@
         <v>-4.8516678876678974</v>
       </c>
       <c r="AG15" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.14670635420369438</v>
+      </c>
+      <c r="AH15" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0172125326169983</v>
+      </c>
+      <c r="AI15">
         <f t="shared" si="8"/>
-        <v>-0.14670635420369438</v>
-      </c>
-      <c r="AH15" s="1">
-        <f t="shared" si="8"/>
-        <v>1.0172125326169983</v>
-      </c>
-      <c r="AI15">
+        <v>0.14422389569489544</v>
+      </c>
+      <c r="AJ15">
         <f t="shared" si="9"/>
-        <v>0.14422389569489544</v>
-      </c>
-      <c r="AJ15">
-        <f t="shared" si="10"/>
         <v>0.20131398677779722</v>
       </c>
       <c r="AK15">
@@ -2950,46 +3072,54 @@
         <v>2810370.078675</v>
       </c>
       <c r="AM15" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.57575378308412029</v>
       </c>
-      <c r="AN15">
-        <f t="shared" si="4"/>
+      <c r="AN15" s="2">
+        <f t="shared" si="14"/>
         <v>-0.41980214875257982</v>
       </c>
       <c r="AO15" s="1">
         <v>321688.56653439248</v>
       </c>
       <c r="AP15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.3081084034470469</v>
       </c>
       <c r="AQ15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
+        <v>-8.3057565743880346E-2</v>
+      </c>
+      <c r="AR15">
+        <f t="shared" si="11"/>
+        <v>1.3248041835398001</v>
+      </c>
+      <c r="AS15">
+        <f>(2*AP15+3)/(3-AP15)</f>
         <v>3.3194897464687045</v>
       </c>
-      <c r="AR15" s="1">
-        <f t="shared" si="15"/>
+      <c r="AT15" s="1">
+        <f>(1+2*AM15)*(AK15-AK14)*(1-AP15/3)/(3*AN15*AO15*AM15)</f>
         <v>-7.4354366846326292E-2</v>
       </c>
-      <c r="AS15">
+      <c r="AU15">
         <f t="shared" si="16"/>
         <v>-0.65414788291451198</v>
       </c>
-      <c r="AT15" s="1">
+      <c r="AV15" s="1">
+        <f>2*(1-AM15)*(AK15-AK14)*(1-AP15/3)/(9*AN15*AO15*AM15)</f>
+        <v>0.51554817936427433</v>
+      </c>
+      <c r="AW15">
         <f t="shared" si="17"/>
-        <v>0.51554817936427433</v>
-      </c>
-      <c r="AU15">
-        <f t="shared" si="18"/>
         <v>5.5252937247509442</v>
       </c>
-      <c r="AV15">
-        <f t="shared" si="11"/>
+      <c r="AX15">
+        <f t="shared" si="12"/>
         <v>3385.3134271444919</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>176.24245648600001</v>
       </c>
@@ -3076,15 +3206,15 @@
         <v>1.5229187844645886</v>
       </c>
       <c r="AC16">
+        <f t="shared" si="4"/>
+        <v>3.0044632205799586</v>
+      </c>
+      <c r="AD16">
         <f t="shared" si="5"/>
-        <v>3.0044632205799586</v>
-      </c>
-      <c r="AD16">
+        <v>-1.48154443611537</v>
+      </c>
+      <c r="AE16" s="2">
         <f t="shared" si="6"/>
-        <v>-1.48154443611537</v>
-      </c>
-      <c r="AE16" s="2">
-        <f t="shared" si="7"/>
         <v>13.494096944178469</v>
       </c>
       <c r="AF16">
@@ -3092,19 +3222,19 @@
         <v>-5.4779494850354116</v>
       </c>
       <c r="AG16" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.21678701346393092</v>
+      </c>
+      <c r="AH16" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0402085005391708</v>
+      </c>
+      <c r="AI16">
         <f t="shared" si="8"/>
-        <v>-0.21678701346393092</v>
-      </c>
-      <c r="AH16" s="1">
-        <f t="shared" si="8"/>
-        <v>1.0402085005391708</v>
-      </c>
-      <c r="AI16">
+        <v>0.2084072696498479</v>
+      </c>
+      <c r="AJ16">
         <f t="shared" si="9"/>
-        <v>0.2084072696498479</v>
-      </c>
-      <c r="AJ16">
-        <f t="shared" si="10"/>
         <v>0.20892193612830198</v>
       </c>
       <c r="AK16">
@@ -3116,46 +3246,54 @@
         <v>3046157.0020749997</v>
       </c>
       <c r="AM16" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.61198299131390876</v>
       </c>
-      <c r="AN16">
-        <f t="shared" si="4"/>
+      <c r="AN16" s="2">
+        <f t="shared" si="14"/>
         <v>-0.40935962026646022</v>
       </c>
       <c r="AO16" s="1">
         <v>321688.56653439248</v>
       </c>
       <c r="AP16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.2991632296306435</v>
       </c>
       <c r="AQ16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
+        <v>-8.323701551483409E-2</v>
+      </c>
+      <c r="AR16">
+        <f t="shared" si="11"/>
+        <v>1.3231538634581774</v>
+      </c>
+      <c r="AS16">
+        <f>(2*AP16+3)/(3-AP16)</f>
         <v>3.2915130697965478</v>
       </c>
-      <c r="AR16" s="1">
-        <f t="shared" si="15"/>
+      <c r="AT16" s="1">
+        <f>(1+2*AM16)*(AK16-AK15)*(1-AP16/3)/(3*AN16*AO16*AM16)</f>
         <v>-0.1030877549133882</v>
       </c>
-      <c r="AS16">
+      <c r="AU16">
         <f t="shared" si="16"/>
         <v>-0.75723563782790015</v>
       </c>
-      <c r="AT16" s="1">
+      <c r="AV16" s="1">
+        <f>2*(1-AM16)*(AK16-AK15)*(1-AP16/3)/(9*AN16*AO16*AM16)</f>
+        <v>0.49464567664357112</v>
+      </c>
+      <c r="AW16">
         <f t="shared" si="17"/>
-        <v>0.49464567664357112</v>
-      </c>
-      <c r="AU16">
-        <f t="shared" si="18"/>
         <v>6.0199394013945149</v>
       </c>
-      <c r="AV16">
-        <f t="shared" si="11"/>
+      <c r="AX16">
+        <f t="shared" si="12"/>
         <v>3678.2700597738526</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>191.27767915699999</v>
       </c>
@@ -3242,15 +3380,15 @@
         <v>1.3844579482043651</v>
       </c>
       <c r="AC17">
+        <f t="shared" si="4"/>
+        <v>3.0857024773424628</v>
+      </c>
+      <c r="AD17">
         <f t="shared" si="5"/>
-        <v>3.0857024773424628</v>
-      </c>
-      <c r="AD17">
+        <v>-1.7012445291380978</v>
+      </c>
+      <c r="AE17" s="2">
         <f t="shared" si="6"/>
-        <v>-1.7012445291380978</v>
-      </c>
-      <c r="AE17" s="2">
-        <f t="shared" si="7"/>
         <v>14.54301115556521</v>
       </c>
       <c r="AF17">
@@ -3258,19 +3396,19 @@
         <v>-6.1177906209456347</v>
       </c>
       <c r="AG17" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.21970009302272775</v>
+      </c>
+      <c r="AH17" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0489142113867409</v>
+      </c>
+      <c r="AI17">
         <f t="shared" si="8"/>
-        <v>-0.21970009302272775</v>
-      </c>
-      <c r="AH17" s="1">
-        <f t="shared" si="8"/>
-        <v>1.0489142113867409</v>
-      </c>
-      <c r="AI17">
+        <v>0.20945477774799928</v>
+      </c>
+      <c r="AJ17">
         <f t="shared" si="9"/>
-        <v>0.20945477774799928</v>
-      </c>
-      <c r="AJ17">
-        <f t="shared" si="10"/>
         <v>0.21859571297315208</v>
       </c>
       <c r="AK17">
@@ -3282,46 +3420,54 @@
         <v>3263078.8216599999</v>
       </c>
       <c r="AM17" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.61258809357995303</v>
       </c>
-      <c r="AN17">
-        <f t="shared" si="4"/>
+      <c r="AN17" s="2">
+        <f t="shared" si="14"/>
         <v>-0.41666922216673835</v>
       </c>
       <c r="AO17" s="1">
         <v>321688.56653439248</v>
       </c>
       <c r="AP17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.2878623402009355</v>
       </c>
       <c r="AQ17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
+        <v>-8.6810945894206348E-2</v>
+      </c>
+      <c r="AR17">
+        <f t="shared" si="11"/>
+        <v>1.321653945538507</v>
+      </c>
+      <c r="AS17">
+        <f>(2*AP17+3)/(3-AP17)</f>
         <v>3.2565866701724411</v>
       </c>
-      <c r="AR17" s="1">
-        <f t="shared" si="15"/>
+      <c r="AT17" s="1">
+        <f>(1+2*AM17)*(AK17-AK16)*(1-AP17/3)/(3*AN17*AO17*AM17)</f>
         <v>-9.8607109684698033E-2</v>
       </c>
-      <c r="AS17">
+      <c r="AU17">
         <f t="shared" si="16"/>
         <v>-0.85584274751259815</v>
       </c>
-      <c r="AT17" s="1">
+      <c r="AV17" s="1">
+        <f>2*(1-AM17)*(AK17-AK16)*(1-AP17/3)/(9*AN17*AO17*AM17)</f>
+        <v>0.47077994947116886</v>
+      </c>
+      <c r="AW17">
         <f t="shared" si="17"/>
-        <v>0.47077994947116886</v>
-      </c>
-      <c r="AU17">
-        <f t="shared" si="18"/>
         <v>6.4907193508656835</v>
       </c>
-      <c r="AV17">
-        <f t="shared" si="11"/>
+      <c r="AX17">
+        <f t="shared" si="12"/>
         <v>3951.3515544303914</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>198.126511647</v>
       </c>
@@ -3408,15 +3554,15 @@
         <v>-0.38131419300644342</v>
       </c>
       <c r="AC18">
+        <f t="shared" si="4"/>
+        <v>3.0614212955280857</v>
+      </c>
+      <c r="AD18">
         <f t="shared" si="5"/>
-        <v>3.0614212955280857</v>
-      </c>
-      <c r="AD18">
+        <v>-3.4427354885345292</v>
+      </c>
+      <c r="AE18" s="2">
         <f t="shared" si="6"/>
-        <v>-3.4427354885345292</v>
-      </c>
-      <c r="AE18" s="2">
-        <f t="shared" si="7"/>
         <v>16.127682295602149</v>
       </c>
       <c r="AF18">
@@ -3424,19 +3570,19 @@
         <v>-8.3816029753064427</v>
       </c>
       <c r="AG18" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.7414909593964314</v>
+      </c>
+      <c r="AH18" s="1">
+        <f t="shared" si="7"/>
+        <v>1.5846711400369387</v>
+      </c>
+      <c r="AI18">
         <f t="shared" si="8"/>
-        <v>-1.7414909593964314</v>
-      </c>
-      <c r="AH18" s="1">
-        <f t="shared" si="8"/>
-        <v>1.5846711400369387</v>
-      </c>
-      <c r="AI18">
+        <v>1.0989604817033756</v>
+      </c>
+      <c r="AJ18">
         <f t="shared" si="9"/>
-        <v>1.0989604817033756</v>
-      </c>
-      <c r="AJ18">
-        <f t="shared" si="10"/>
         <v>0.29167715075058209</v>
       </c>
       <c r="AK18">
@@ -3448,46 +3594,54 @@
         <v>2984181.5885450002</v>
       </c>
       <c r="AM18" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-1.3671259627638381</v>
       </c>
-      <c r="AN18">
-        <f t="shared" si="4"/>
+      <c r="AN18" s="2">
+        <f t="shared" si="14"/>
         <v>-0.25851311149411677</v>
       </c>
       <c r="AO18" s="1">
         <v>321688.56653439248</v>
       </c>
       <c r="AP18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.2051709461851718</v>
       </c>
       <c r="AQ18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
+        <v>-0.17178852492101959</v>
+      </c>
+      <c r="AR18">
+        <f t="shared" si="11"/>
+        <v>1.3319236870982629</v>
+      </c>
+      <c r="AS18">
+        <f>(2*AP18+3)/(3-AP18)</f>
         <v>3.0144051216860492</v>
       </c>
-      <c r="AR18" s="1">
-        <f t="shared" si="15"/>
+      <c r="AT18" s="1">
+        <f>(1+2*AM18)*(AK18-AK17)*(1-AP18/3)/(3*AN18*AO18*AM18)</f>
         <v>0.17512802573479996</v>
       </c>
-      <c r="AS18">
+      <c r="AU18">
         <f t="shared" si="16"/>
         <v>-0.68071472177779824</v>
       </c>
-      <c r="AT18" s="1">
+      <c r="AV18" s="1">
+        <f>2*(1-AM18)*(AK18-AK17)*(1-AP18/3)/(9*AN18*AO18*AM18)</f>
+        <v>-0.15935789198111436</v>
+      </c>
+      <c r="AW18">
         <f t="shared" si="17"/>
-        <v>-0.15935789198111436</v>
-      </c>
-      <c r="AU18">
-        <f t="shared" si="18"/>
         <v>6.3313614588845688</v>
       </c>
-      <c r="AV18">
-        <f t="shared" si="11"/>
+      <c r="AX18">
+        <f t="shared" si="12"/>
         <v>3623.9884782688664</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>197.87447431800001</v>
       </c>
@@ -3574,7 +3728,7 @@
         <v>-1.9658156996697373</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>186.57943324600001</v>
       </c>
@@ -3661,7 +3815,7 @@
         <v>-3.381817502498885</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>183.777742348</v>
       </c>
@@ -3748,7 +3902,7 @@
         <v>-4.4086754197059319</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>184.13538001000001</v>
       </c>

--- a/SMP_3PP.xlsx
+++ b/SMP_3PP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t># avgT</t>
   </si>
@@ -141,10 +141,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>dev/deq_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>s_n_real_pred</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -177,19 +173,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>dratio_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K_phi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K_p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>dratio-M</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>dratio_pred</t>
+    <t>dev/deq-ratioF</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>K_phi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>K_p</t>
+    <t>dev/deq_pred</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -236,10 +240,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX22"/>
+  <dimension ref="A1:AY22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AX2" sqref="AX2:AX18"/>
+      <selection activeCell="AP3" sqref="AP3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -543,17 +548,17 @@
     <col min="28" max="28" width="11.5546875"/>
     <col min="31" max="31" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="13.109375" customWidth="1"/>
-    <col min="36" max="36" width="12.88671875" customWidth="1"/>
-    <col min="41" max="41" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.77734375" customWidth="1"/>
-    <col min="43" max="44" width="10.44140625" customWidth="1"/>
-    <col min="46" max="46" width="12.44140625" customWidth="1"/>
-    <col min="47" max="47" width="11.21875" customWidth="1"/>
-    <col min="50" max="50" width="13.33203125" customWidth="1"/>
-    <col min="51" max="1029" width="11.5546875"/>
+    <col min="36" max="37" width="12.88671875" customWidth="1"/>
+    <col min="42" max="42" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.77734375" customWidth="1"/>
+    <col min="44" max="45" width="10.44140625" customWidth="1"/>
+    <col min="47" max="47" width="12.44140625" customWidth="1"/>
+    <col min="48" max="48" width="11.21875" customWidth="1"/>
+    <col min="51" max="51" width="13.33203125" customWidth="1"/>
+    <col min="52" max="1030" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -639,73 +644,76 @@
         <v>27</v>
       </c>
       <c r="AC1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s">
         <v>39</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" t="s">
         <v>41</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>42</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>43</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>44</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS1" t="s">
         <v>45</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AT1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY1" t="s">
         <v>37</v>
       </c>
-      <c r="AK1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.20571021300299999</v>
       </c>
@@ -792,7 +800,7 @@
         <v>-1.2581269359657199E-9</v>
       </c>
       <c r="AC2">
-        <f>1.34 *((AK2/100000)^0.3-(2594/100000)^0.3)</f>
+        <f>1.34 *((AL2/100000)^0.3-(2594/100000)^0.3)</f>
         <v>6.5499842317292192E-3</v>
       </c>
       <c r="AD2">
@@ -807,57 +815,53 @@
         <f t="shared" ref="AF2:AF18" si="1">AB2-P2/2</f>
         <v>-1.2666885935459658E-6</v>
       </c>
-      <c r="AJ2">
-        <f>(( 1.588*EXP(-0.0005387*3*232))^2-AP2^2)/(2*AP2)+0.4</f>
-        <v>0.3253704366456277</v>
-      </c>
-      <c r="AK2">
-        <f t="shared" ref="AK2:AK18" si="2">(X2+Y2+Z2)/3</f>
+      <c r="AL2">
+        <f t="shared" ref="AL2:AL18" si="2">(X2+Y2+Z2)/3</f>
         <v>2722.5836246366666</v>
       </c>
-      <c r="AL2">
-        <f t="shared" ref="AL2:AL18" si="3">Z2-(Y2+X2)/2</f>
+      <c r="AM2">
+        <f t="shared" ref="AM2:AM18" si="3">Z2-(Y2+X2)/2</f>
         <v>3181.7856324049999</v>
       </c>
-      <c r="AM2" s="1">
-        <f>(-2*AI2-3)/(-2*AI2+6)</f>
+      <c r="AN2" s="1">
+        <f>(-2*AJ2-3)/(-2*AJ2+6)</f>
         <v>-0.5</v>
       </c>
-      <c r="AN2" s="2">
-        <f>1/(2+AM2*AS2-2*0.33*(1+AM2+AS2))</f>
+      <c r="AO2" s="2">
+        <f>1/(2+AN2*AT2-2*0.33*(1+AN2+AT2))</f>
         <v>-0.22624434389140272</v>
       </c>
-      <c r="AO2" s="1" t="e">
-        <f>3*(1-2*0.33)*(AK2-AK1)/(AC2-AC1)</f>
+      <c r="AP2" s="1" t="e">
+        <f>3*(1-2*0.33)*(AL2-AL1)/(AC2-AC1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AP2">
-        <f>AL2/AK2</f>
+      <c r="AQ2">
+        <f>AM2/AL2</f>
         <v>1.1686640599807525</v>
       </c>
-      <c r="AQ2">
-        <f>AL2/AK2-(1.35*(AK2/3255000)^-0.0723)</f>
-        <v>-1.0847555143299736</v>
-      </c>
       <c r="AR2">
-        <f>1.35*(AK2/3255000)^-0.0723-1.386/(AE2+1.27)+0.03463</f>
+        <f>-1.386/(AE2+1.27)+0.03463</f>
+        <v>-1.0567064074973553</v>
+      </c>
+      <c r="AS2">
+        <f>1.35*(AL2/3255000)^-0.0723-1.386/(AE2+1.27)+0.03463</f>
         <v>1.1967131668133708</v>
       </c>
-      <c r="AS2">
+      <c r="AT2">
         <v>5.25</v>
       </c>
-      <c r="AU2">
+      <c r="AV2">
         <v>0</v>
       </c>
-      <c r="AW2">
+      <c r="AX2">
         <v>0</v>
       </c>
-      <c r="AX2">
-        <f>(AS2*X2-4*X2*(1-0.01*P2-2*0.01*AF2)*(0.08/0.4)/(-0.08/0.4*0.01*P2-(2*0.08/0.4+3)*0.01*AF2+0.08/0.4+1))/1000</f>
+      <c r="AY2">
+        <f>(AT2*X2-4*X2*(1-0.01*P2-2*0.01*AF2)*(0.08/0.4)/(-0.08/0.4*0.01*P2-(2*0.08/0.4+3)*0.01*AF2+0.08/0.4+1))/1000</f>
         <v>7.7347556092954441</v>
       </c>
     </row>
-    <row r="3" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>3.3246957367399999</v>
       </c>
@@ -944,7 +948,7 @@
         <v>0.64105581271286516</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC18" si="4">1.34 *((AK3/100000)^0.3-(2594/100000)^0.3)</f>
+        <f t="shared" ref="AC3:AC18" si="4">1.34 *((AL3/100000)^0.3-(2594/100000)^0.3)</f>
         <v>0.59844690560600888</v>
       </c>
       <c r="AD3">
@@ -972,66 +976,70 @@
         <v>-6.2048018398319645E-2</v>
       </c>
       <c r="AJ3">
-        <f t="shared" ref="AJ3:AJ18" si="9">(( 1.588*EXP(-0.0005387*3*232))^2-AP3^2)/(2*AP3)+0.4</f>
-        <v>0.30435073086949244</v>
-      </c>
-      <c r="AK3" s="2">
+        <f>-(1.35-(1.35*(AL3/3255000)^-0.0723))+0.2354+1.382*AR3</f>
+        <v>-0.15235835383581275</v>
+      </c>
+      <c r="AK3">
+        <f>AI3+(1.35-(1.35*(AL3/3255000)^-0.0723))</f>
+        <v>-0.55523664901921022</v>
+      </c>
+      <c r="AL3" s="2">
         <f t="shared" si="2"/>
         <v>43859.805339299994</v>
       </c>
-      <c r="AL3" s="2">
+      <c r="AM3" s="2">
         <f t="shared" si="3"/>
         <v>52250.990047350002</v>
       </c>
-      <c r="AM3" s="1">
-        <f>(-2*AI3-3)/(-2*AI3+6)</f>
-        <v>-0.46960464792248324</v>
-      </c>
-      <c r="AN3" s="2">
-        <f>1/(2+AM3*AS3-2*0.33*(1+AM3+AS3))</f>
-        <v>-0.58419255427792149</v>
-      </c>
-      <c r="AO3" s="1">
-        <v>321688.56653439248</v>
-      </c>
-      <c r="AP3">
-        <f>AL3/AK3</f>
+      <c r="AN3" s="1">
+        <f>(-2*AJ3-3)/(-2*AJ3+6)</f>
+        <v>-0.42750268050089141</v>
+      </c>
+      <c r="AO3" s="2">
+        <f>1/(2+AN3*AT3-2*0.33*(1+AN3+AT3))</f>
+        <v>-0.6194803473057785</v>
+      </c>
+      <c r="AP3" s="3">
+        <v>200000</v>
+      </c>
+      <c r="AQ3">
+        <f>AM3/AL3</f>
         <v>1.1913183299181493</v>
       </c>
-      <c r="AQ3">
-        <f t="shared" ref="AQ3:AQ18" si="10">AL3/AK3-(1.35*(AK3/3255000)^-0.0723)</f>
-        <v>-0.65187030070274132</v>
-      </c>
       <c r="AR3">
-        <f t="shared" ref="AR3:AR18" si="11">1.35*(AK3/3255000)^-0.0723-1.386/(AE3+1.27)+0.03463</f>
+        <f t="shared" ref="AR3:AR18" si="9">-1.386/(AE3+1.27)+0.03463</f>
+        <v>-0.63744354881092868</v>
+      </c>
+      <c r="AS3">
+        <f t="shared" ref="AS3:AS18" si="10">1.35*(AL3/3255000)^-0.0723-1.386/(AE3+1.27)+0.03463</f>
         <v>1.2057450818099618</v>
       </c>
-      <c r="AS3" s="2">
-        <f>(2*AP3+3)/(3-AP3)</f>
+      <c r="AT3" s="2">
+        <f t="shared" ref="AT3:AT18" si="11">(2*AQ3+3)/(3-AQ3)</f>
         <v>2.976000005347935</v>
       </c>
-      <c r="AT3" s="2">
-        <f>(1+2*AM3)*(AK3-AK2)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
-        <v>5.694659081840186E-3</v>
-      </c>
       <c r="AU3" s="2">
-        <f>(AU2+AT3)</f>
-        <v>5.694659081840186E-3</v>
+        <f t="shared" ref="AU3:AU18" si="12">(1+2*AN3)*(AL3-AL2)*(1-AQ3/3)/(3*AO3*AP3*AN3)</f>
+        <v>2.2631334268668694E-2</v>
       </c>
       <c r="AV3" s="2">
-        <f>2*(1-AM3)*(AK3-AK2)*(1-AP3/3)/(9*AN3*AO3*AM3)</f>
-        <v>9.1778258659013137E-2</v>
+        <f>(AV2+AU3)</f>
+        <v>2.2631334268668694E-2</v>
       </c>
       <c r="AW3" s="2">
-        <f>AW2+AV3</f>
-        <v>9.1778258659013137E-2</v>
-      </c>
-      <c r="AX3">
-        <f t="shared" ref="AX3:AX18" si="12">(AS3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
+        <f t="shared" ref="AW3:AW18" si="13">2*(1-AN3)*(AL3-AL2)*(1-AQ3/3)/(9*AO3*AP3*AN3)</f>
+        <v>0.14854016008244036</v>
+      </c>
+      <c r="AX3" s="2">
+        <f>AX2+AW3</f>
+        <v>0.14854016008244036</v>
+      </c>
+      <c r="AY3">
+        <f t="shared" ref="AY3:AY18" si="14">(AT3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
         <v>61.931726521892458</v>
       </c>
     </row>
-    <row r="4" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>9.6041318680199996</v>
       </c>
@@ -1146,66 +1154,70 @@
         <v>-4.6859977566318184E-2</v>
       </c>
       <c r="AJ4">
-        <f t="shared" si="9"/>
-        <v>0.25888192004942501</v>
-      </c>
-      <c r="AK4" s="1">
+        <f t="shared" ref="AJ4:AJ22" si="15">-(1.35-(1.35*(AL4/3255000)^-0.0723))+0.2354+1.382*AR4</f>
+        <v>-1.545518579848526E-2</v>
+      </c>
+      <c r="AK4">
+        <f t="shared" ref="AK4:AK18" si="16">AI4+(1.35-(1.35*(AL4/3255000)^-0.0723))</f>
+        <v>-0.40485392051930391</v>
+      </c>
+      <c r="AL4" s="1">
         <f t="shared" si="2"/>
         <v>125791.86203140001</v>
       </c>
-      <c r="AL4" s="1">
+      <c r="AM4" s="1">
         <f t="shared" si="3"/>
         <v>156194.36397390001</v>
       </c>
-      <c r="AM4" s="1">
-        <f t="shared" ref="AM4:AM18" si="13">(-2*AI4-3)/(-2*AI4+6)</f>
-        <v>-0.47693035883925938</v>
-      </c>
-      <c r="AN4" s="2">
-        <f t="shared" ref="AN4:AN18" si="14">1/(2+AM4*AS4-2*0.33*(1+AM4+AS4))</f>
-        <v>-0.5288771838329086</v>
-      </c>
-      <c r="AO4" s="1">
-        <v>321688.56653439248</v>
-      </c>
-      <c r="AP4">
-        <f t="shared" ref="AP4:AP18" si="15">AL4/AK4</f>
+      <c r="AN4" s="1">
+        <f t="shared" ref="AN4:AN18" si="17">(-2*AJ4-3)/(-2*AJ4+6)</f>
+        <v>-0.49231201352057596</v>
+      </c>
+      <c r="AO4" s="2">
+        <f t="shared" ref="AO4:AO18" si="18">1/(2+AN4*AT4-2*0.33*(1+AN4+AT4))</f>
+        <v>-0.51850688776982978</v>
+      </c>
+      <c r="AP4" s="3">
+        <v>200000</v>
+      </c>
+      <c r="AQ4">
+        <f t="shared" ref="AQ4:AQ18" si="19">AM4/AL4</f>
         <v>1.2416889411726091</v>
       </c>
-      <c r="AQ4">
+      <c r="AR4">
+        <f t="shared" si="9"/>
+        <v>-0.44055653310526127</v>
+      </c>
+      <c r="AS4">
         <f t="shared" si="10"/>
-        <v>-0.4663050017803767</v>
-      </c>
-      <c r="AR4">
+        <v>1.2674374098477243</v>
+      </c>
+      <c r="AT4" s="1">
         <f t="shared" si="11"/>
-        <v>1.2674374098477243</v>
-      </c>
-      <c r="AS4" s="1">
-        <f>(2*AP4+3)/(3-AP4)</f>
         <v>3.1185482539147857</v>
       </c>
-      <c r="AT4" s="1">
-        <f>(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
-        <v>9.1019084866706887E-3</v>
-      </c>
       <c r="AU4" s="1">
-        <f t="shared" ref="AU4:AU18" si="16">AU3+AT4</f>
-        <v>1.4796567568510874E-2</v>
+        <f t="shared" si="12"/>
+        <v>4.820862028942767E-3</v>
       </c>
       <c r="AV4" s="1">
-        <f>2*(1-AM4)*(AK4-AK3)*(1-AP4/3)/(9*AN4*AO4*AM4)</f>
-        <v>0.19423629628907327</v>
+        <f t="shared" ref="AV4:AV18" si="20">AV3+AU4</f>
+        <v>2.7452196297611461E-2</v>
       </c>
       <c r="AW4" s="1">
-        <f>AW3+AV4</f>
-        <v>0.28601455494808642</v>
-      </c>
-      <c r="AX4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
+        <v>0.31192520696938253</v>
+      </c>
+      <c r="AX4" s="1">
+        <f>AX3+AW4</f>
+        <v>0.46046536705182289</v>
+      </c>
+      <c r="AY4">
+        <f t="shared" si="14"/>
         <v>184.80683914850931</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>18.633378606600001</v>
       </c>
@@ -1320,66 +1332,70 @@
         <v>0.10618214039800114</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="9"/>
-        <v>0.23249122202025849</v>
+        <f t="shared" si="15"/>
+        <v>6.5268329593767882E-2</v>
       </c>
       <c r="AK5">
+        <f t="shared" si="16"/>
+        <v>-0.17352835981385803</v>
+      </c>
+      <c r="AL5">
         <f t="shared" si="2"/>
         <v>240700.15517366666</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <f t="shared" si="3"/>
         <v>306116.13573950005</v>
       </c>
-      <c r="AM5" s="1">
+      <c r="AN5" s="1">
+        <f t="shared" si="17"/>
+        <v>-0.53335994747932103</v>
+      </c>
+      <c r="AO5" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.46819434198585363</v>
+      </c>
+      <c r="AP5" s="3">
+        <v>200000</v>
+      </c>
+      <c r="AQ5">
+        <f t="shared" si="19"/>
+        <v>1.2717737365754307</v>
+      </c>
+      <c r="AR5">
+        <f t="shared" si="9"/>
+        <v>-0.32550084704637583</v>
+      </c>
+      <c r="AS5">
+        <f t="shared" si="10"/>
+        <v>1.3042096531654834</v>
+      </c>
+      <c r="AT5">
+        <f t="shared" si="11"/>
+        <v>3.2076514461515222</v>
+      </c>
+      <c r="AU5" s="1">
+        <f t="shared" si="12"/>
+        <v>-2.9477338100347705E-2</v>
+      </c>
+      <c r="AV5">
+        <f t="shared" si="20"/>
+        <v>-2.0251418027362432E-3</v>
+      </c>
+      <c r="AW5" s="1">
         <f t="shared" si="13"/>
-        <v>-0.55503912765916352</v>
-      </c>
-      <c r="AN5" s="2">
+        <v>0.451633101135199</v>
+      </c>
+      <c r="AX5">
+        <f>AX4+AW5</f>
+        <v>0.91209846818702189</v>
+      </c>
+      <c r="AY5">
         <f t="shared" si="14"/>
-        <v>-0.45639256014372104</v>
-      </c>
-      <c r="AO5" s="1">
-        <v>321688.56653439248</v>
-      </c>
-      <c r="AP5">
-        <f t="shared" si="15"/>
-        <v>1.2717737365754307</v>
-      </c>
-      <c r="AQ5">
-        <f t="shared" si="10"/>
-        <v>-0.35793676363642857</v>
-      </c>
-      <c r="AR5">
-        <f t="shared" si="11"/>
-        <v>1.3042096531654834</v>
-      </c>
-      <c r="AS5">
-        <f>(2*AP5+3)/(3-AP5)</f>
-        <v>3.2076514461515222</v>
-      </c>
-      <c r="AT5" s="1">
-        <f>(1+2*AM5)*(AK5-AK4)*(1-AP5/3)/(3*AN5*AO5*AM5)</f>
-        <v>-2.9806653636601756E-2</v>
-      </c>
-      <c r="AU5">
-        <f t="shared" si="16"/>
-        <v>-1.5010086068090882E-2</v>
-      </c>
-      <c r="AV5" s="1">
-        <f>2*(1-AM5)*(AK5-AK4)*(1-AP5/3)/(9*AN5*AO5*AM5)</f>
-        <v>0.28071249576320323</v>
-      </c>
-      <c r="AW5">
-        <f>AW4+AV5</f>
-        <v>0.56672705071128959</v>
-      </c>
-      <c r="AX5">
-        <f t="shared" si="12"/>
         <v>363.10386387041603</v>
       </c>
     </row>
-    <row r="6" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>29.2880362171</v>
       </c>
@@ -1494,66 +1510,70 @@
         <v>-2.1924240778651686E-2</v>
       </c>
       <c r="AJ6">
-        <f t="shared" si="9"/>
-        <v>0.20430508583882104</v>
+        <f t="shared" si="15"/>
+        <v>0.10551786156579906</v>
       </c>
       <c r="AK6">
+        <f t="shared" si="16"/>
+        <v>-0.24745589546699159</v>
+      </c>
+      <c r="AL6">
         <f t="shared" si="2"/>
         <v>384207.03470800002</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <f t="shared" si="3"/>
         <v>501230.93967000005</v>
       </c>
-      <c r="AM6" s="1">
+      <c r="AN6" s="1">
+        <f t="shared" si="17"/>
+        <v>-0.55468224876810601</v>
+      </c>
+      <c r="AO6" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.43241209167461553</v>
+      </c>
+      <c r="AP6" s="3">
+        <v>200000</v>
+      </c>
+      <c r="AQ6">
+        <f t="shared" si="19"/>
+        <v>1.3045855343355153</v>
+      </c>
+      <c r="AR6">
+        <f t="shared" si="9"/>
+        <v>-0.25717351166609326</v>
+      </c>
+      <c r="AS6">
+        <f t="shared" si="10"/>
+        <v>1.3183581430222466</v>
+      </c>
+      <c r="AT6">
+        <f t="shared" si="11"/>
+        <v>3.3084364810303923</v>
+      </c>
+      <c r="AU6" s="1">
+        <f t="shared" si="12"/>
+        <v>-6.1632582390712329E-2</v>
+      </c>
+      <c r="AV6">
+        <f t="shared" si="20"/>
+        <v>-6.3657724193448575E-2</v>
+      </c>
+      <c r="AW6" s="1">
         <f t="shared" si="13"/>
-        <v>-0.48911741044854795</v>
-      </c>
-      <c r="AN6" s="2">
+        <v>0.58409620396144402</v>
+      </c>
+      <c r="AX6">
+        <f t="shared" ref="AX6:AX18" si="21">AX5+AW6</f>
+        <v>1.4961946721484658</v>
+      </c>
+      <c r="AY6">
         <f t="shared" si="14"/>
-        <v>-0.46751594691848863</v>
-      </c>
-      <c r="AO6" s="1">
-        <v>321688.56653439248</v>
-      </c>
-      <c r="AP6">
-        <f t="shared" si="15"/>
-        <v>1.3045855343355153</v>
-      </c>
-      <c r="AQ6">
-        <f t="shared" si="10"/>
-        <v>-0.27094612035282473</v>
-      </c>
-      <c r="AR6">
-        <f t="shared" si="11"/>
-        <v>1.3183581430222466</v>
-      </c>
-      <c r="AS6">
-        <f>(2*AP6+3)/(3-AP6)</f>
-        <v>3.3084364810303923</v>
-      </c>
-      <c r="AT6" s="1">
-        <f>(1+2*AM6)*(AK6-AK5)*(1-AP6/3)/(3*AN6*AO6*AM6)</f>
-        <v>7.9987691787397966E-3</v>
-      </c>
-      <c r="AU6">
-        <f t="shared" si="16"/>
-        <v>-7.0113168893510859E-3</v>
-      </c>
-      <c r="AV6" s="1">
-        <f>2*(1-AM6)*(AK6-AK5)*(1-AP6/3)/(9*AN6*AO6*AM6)</f>
-        <v>0.36483676946881882</v>
-      </c>
-      <c r="AW6">
-        <f t="shared" ref="AW6:AW18" si="17">AW5+AV6</f>
-        <v>0.93156382018010842</v>
-      </c>
-      <c r="AX6">
-        <f t="shared" si="12"/>
         <v>594.72293735444919</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>41.434693351200004</v>
       </c>
@@ -1668,66 +1688,70 @@
         <v>0.16993265795957338</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="9"/>
-        <v>0.18597079513518491</v>
+        <f t="shared" si="15"/>
+        <v>0.13416959489386848</v>
       </c>
       <c r="AK7">
+        <f t="shared" si="16"/>
+        <v>-1.5243877271932188E-2</v>
+      </c>
+      <c r="AL7">
         <f t="shared" si="2"/>
         <v>550081.61634333339</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <f t="shared" si="3"/>
         <v>729574.25835999998</v>
       </c>
-      <c r="AM7" s="1">
+      <c r="AN7" s="1">
+        <f t="shared" si="17"/>
+        <v>-0.57022550670905781</v>
+      </c>
+      <c r="AO7" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.41008672621717485</v>
+      </c>
+      <c r="AP7" s="3">
+        <v>200000</v>
+      </c>
+      <c r="AQ7">
+        <f t="shared" si="19"/>
+        <v>1.326301837188895</v>
+      </c>
+      <c r="AR7">
+        <f t="shared" si="9"/>
+        <v>-0.20724091196645231</v>
+      </c>
+      <c r="AS7">
+        <f t="shared" si="10"/>
+        <v>1.3279356232650532</v>
+      </c>
+      <c r="AT7">
+        <f t="shared" si="11"/>
+        <v>3.3773136638232351</v>
+      </c>
+      <c r="AU7" s="1">
+        <f t="shared" si="12"/>
+        <v>-9.2637537063181688E-2</v>
+      </c>
+      <c r="AV7">
+        <f t="shared" si="20"/>
+        <v>-0.15629526125663026</v>
+      </c>
+      <c r="AW7" s="1">
         <f t="shared" si="13"/>
-        <v>-0.59006817016431223</v>
-      </c>
-      <c r="AN7" s="2">
+        <v>0.69045104545825298</v>
+      </c>
+      <c r="AX7">
+        <f t="shared" si="21"/>
+        <v>2.1866457176067189</v>
+      </c>
+      <c r="AY7">
         <f t="shared" si="14"/>
-        <v>-0.40121531014248879</v>
-      </c>
-      <c r="AO7" s="1">
-        <v>321688.56653439248</v>
-      </c>
-      <c r="AP7">
-        <f t="shared" si="15"/>
-        <v>1.326301837188895</v>
-      </c>
-      <c r="AQ7">
-        <f t="shared" si="10"/>
-        <v>-0.20887469804261061</v>
-      </c>
-      <c r="AR7">
-        <f t="shared" si="11"/>
-        <v>1.3279356232650532</v>
-      </c>
-      <c r="AS7">
-        <f>(2*AP7+3)/(3-AP7)</f>
-        <v>3.3773136638232351</v>
-      </c>
-      <c r="AT7" s="1">
-        <f>(1+2*AM7)*(AK7-AK6)*(1-AP7/3)/(3*AN7*AO7*AM7)</f>
-        <v>-7.2962632494466009E-2</v>
-      </c>
-      <c r="AU7">
-        <f t="shared" si="16"/>
-        <v>-7.9973949383817092E-2</v>
-      </c>
-      <c r="AV7" s="1">
-        <f>2*(1-AM7)*(AK7-AK6)*(1-AP7/3)/(9*AN7*AO7*AM7)</f>
-        <v>0.42936203888380126</v>
-      </c>
-      <c r="AW7">
-        <f t="shared" si="17"/>
-        <v>1.3609258590639097</v>
-      </c>
-      <c r="AX7">
-        <f t="shared" si="12"/>
         <v>866.81967125087601</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>54.623573886000003</v>
       </c>
@@ -1842,66 +1866,70 @@
         <v>-4.0853242139867352E-2</v>
       </c>
       <c r="AJ8">
-        <f t="shared" si="9"/>
-        <v>0.17763610131296817</v>
+        <f t="shared" si="15"/>
+        <v>0.14938883230930661</v>
       </c>
       <c r="AK8">
+        <f t="shared" si="16"/>
+        <v>-0.19499043696748292</v>
+      </c>
+      <c r="AL8">
         <f t="shared" si="2"/>
         <v>729663.24277466664</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <f t="shared" si="3"/>
         <v>975027.36638299993</v>
       </c>
-      <c r="AM8" s="1">
+      <c r="AN8" s="1">
+        <f t="shared" si="17"/>
+        <v>-0.57860884395730894</v>
+      </c>
+      <c r="AO8" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.39980879347393827</v>
+      </c>
+      <c r="AP8" s="3">
+        <v>200000</v>
+      </c>
+      <c r="AQ8">
+        <f t="shared" si="19"/>
+        <v>1.3362703631270985</v>
+      </c>
+      <c r="AR8">
+        <f t="shared" si="9"/>
+        <v>-0.17376871383379811</v>
+      </c>
+      <c r="AS8">
+        <f t="shared" si="10"/>
+        <v>1.3303684809938174</v>
+      </c>
+      <c r="AT8">
+        <f t="shared" si="11"/>
+        <v>3.4095327753589468</v>
+      </c>
+      <c r="AU8" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.11280702455269184</v>
+      </c>
+      <c r="AV8">
+        <f t="shared" si="20"/>
+        <v>-0.26910228580932211</v>
+      </c>
+      <c r="AW8" s="1">
         <f t="shared" si="13"/>
-        <v>-0.47984780641150637</v>
-      </c>
-      <c r="AN8" s="2">
+        <v>0.75512354443689012</v>
+      </c>
+      <c r="AX8">
+        <f t="shared" si="21"/>
+        <v>2.9417692620436089</v>
+      </c>
+      <c r="AY8">
         <f t="shared" si="14"/>
-        <v>-0.44850110652476477</v>
-      </c>
-      <c r="AO8" s="1">
-        <v>321688.56653439248</v>
-      </c>
-      <c r="AP8">
-        <f t="shared" si="15"/>
-        <v>1.3362703631270985</v>
-      </c>
-      <c r="AQ8">
-        <f t="shared" si="10"/>
-        <v>-0.16786683170051719</v>
-      </c>
-      <c r="AR8">
-        <f t="shared" si="11"/>
-        <v>1.3303684809938174</v>
-      </c>
-      <c r="AS8">
-        <f>(2*AP8+3)/(3-AP8)</f>
-        <v>3.4095327753589468</v>
-      </c>
-      <c r="AT8" s="1">
-        <f>(1+2*AM8)*(AK8-AK7)*(1-AP8/3)/(3*AN8*AO8*AM8)</f>
-        <v>1.9326437567746158E-2</v>
-      </c>
-      <c r="AU8">
-        <f t="shared" si="16"/>
-        <v>-6.0647511816070934E-2</v>
-      </c>
-      <c r="AV8" s="1">
-        <f>2*(1-AM8)*(AK8-AK7)*(1-AP8/3)/(9*AN8*AO8*AM8)</f>
-        <v>0.47306986068765605</v>
-      </c>
-      <c r="AW8">
-        <f t="shared" si="17"/>
-        <v>1.8339957197515657</v>
-      </c>
-      <c r="AX8">
-        <f t="shared" si="12"/>
         <v>1159.9771004039569</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>68.694755584199996</v>
       </c>
@@ -2016,66 +2044,70 @@
         <v>0.19991441602661708</v>
       </c>
       <c r="AJ9">
-        <f t="shared" si="9"/>
-        <v>0.17113074432652947</v>
+        <f t="shared" si="15"/>
+        <v>0.16205487282812436</v>
       </c>
       <c r="AK9">
+        <f t="shared" si="16"/>
+        <v>7.1168135843371561E-2</v>
+      </c>
+      <c r="AL9">
         <f t="shared" si="2"/>
         <v>923395.66245333327</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <f t="shared" si="3"/>
         <v>1241129.2505049999</v>
       </c>
-      <c r="AM9" s="1">
+      <c r="AN9" s="1">
+        <f t="shared" si="17"/>
+        <v>-0.58565433732837102</v>
+      </c>
+      <c r="AO9" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.39178835848765997</v>
+      </c>
+      <c r="AP9" s="3">
+        <v>200000</v>
+      </c>
+      <c r="AQ9">
+        <f t="shared" si="19"/>
+        <v>1.3440925715499821</v>
+      </c>
+      <c r="AR9">
+        <f t="shared" si="9"/>
+        <v>-0.14623111964914701</v>
+      </c>
+      <c r="AS9">
+        <f t="shared" si="10"/>
+        <v>1.3325151605340986</v>
+      </c>
+      <c r="AT9">
+        <f t="shared" si="11"/>
+        <v>3.4350864338016085</v>
+      </c>
+      <c r="AU9" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.13306146965170226</v>
+      </c>
+      <c r="AV9">
+        <f t="shared" si="20"/>
+        <v>-0.40216375546102434</v>
+      </c>
+      <c r="AW9" s="1">
         <f t="shared" si="13"/>
-        <v>-0.60709373519019416</v>
-      </c>
-      <c r="AN9" s="2">
+        <v>0.82108897640385925</v>
+      </c>
+      <c r="AX9">
+        <f t="shared" si="21"/>
+        <v>3.762858238447468</v>
+      </c>
+      <c r="AY9">
         <f t="shared" si="14"/>
-        <v>-0.38286383632984489</v>
-      </c>
-      <c r="AO9" s="1">
-        <v>321688.56653439248</v>
-      </c>
-      <c r="AP9">
-        <f t="shared" si="15"/>
-        <v>1.3440925715499821</v>
-      </c>
-      <c r="AQ9">
-        <f t="shared" si="10"/>
-        <v>-0.13465370863326354</v>
-      </c>
-      <c r="AR9">
-        <f t="shared" si="11"/>
-        <v>1.3325151605340986</v>
-      </c>
-      <c r="AS9">
-        <f>(2*AP9+3)/(3-AP9)</f>
-        <v>3.4350864338016085</v>
-      </c>
-      <c r="AT9" s="1">
-        <f>(1+2*AM9)*(AK9-AK8)*(1-AP9/3)/(3*AN9*AO9*AM9)</f>
-        <v>-0.10210668721237282</v>
-      </c>
-      <c r="AU9">
-        <f t="shared" si="16"/>
-        <v>-0.16275419902844374</v>
-      </c>
-      <c r="AV9" s="1">
-        <f>2*(1-AM9)*(AK9-AK8)*(1-AP9/3)/(9*AN9*AO9*AM9)</f>
-        <v>0.51075199698844176</v>
-      </c>
-      <c r="AW9">
-        <f t="shared" si="17"/>
-        <v>2.3447477167400077</v>
-      </c>
-      <c r="AX9">
-        <f t="shared" si="12"/>
         <v>1476.9150446862989</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>83.406379524100004</v>
       </c>
@@ -2190,66 +2222,70 @@
         <v>0.10886873797094514</v>
       </c>
       <c r="AJ10">
-        <f t="shared" si="9"/>
-        <v>0.17079410969932632</v>
+        <f t="shared" si="15"/>
+        <v>0.16970789957235849</v>
       </c>
       <c r="AK10">
+        <f t="shared" si="16"/>
+        <v>9.119058804466923E-4</v>
+      </c>
+      <c r="AL10">
         <f t="shared" si="2"/>
         <v>1123146.0568890001</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <f t="shared" si="3"/>
         <v>1510068.0090015002</v>
       </c>
-      <c r="AM10" s="1">
+      <c r="AN10" s="1">
+        <f t="shared" si="17"/>
+        <v>-0.5899419001028462</v>
+      </c>
+      <c r="AO10" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.38971739576075359</v>
+      </c>
+      <c r="AP10" s="3">
+        <v>200000</v>
+      </c>
+      <c r="AQ10">
+        <f t="shared" si="19"/>
+        <v>1.344498339943635</v>
+      </c>
+      <c r="AR10">
+        <f t="shared" si="9"/>
+        <v>-0.12565045768316929</v>
+      </c>
+      <c r="AS10">
+        <f t="shared" si="10"/>
+        <v>1.3323063744073291</v>
+      </c>
+      <c r="AT10">
+        <f t="shared" si="11"/>
+        <v>3.4364185896941812</v>
+      </c>
+      <c r="AU10" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.143740046321019</v>
+      </c>
+      <c r="AV10">
+        <f t="shared" si="20"/>
+        <v>-0.54590380178204334</v>
+      </c>
+      <c r="AW10" s="1">
         <f t="shared" si="13"/>
-        <v>-0.55648415521673966</v>
-      </c>
-      <c r="AN10" s="2">
+        <v>0.84698500590264159</v>
+      </c>
+      <c r="AX10">
+        <f t="shared" si="21"/>
+        <v>4.6098432443501096</v>
+      </c>
+      <c r="AY10">
         <f t="shared" si="14"/>
-        <v>-0.40435584691954174</v>
-      </c>
-      <c r="AO10" s="1">
-        <v>321688.56653439248</v>
-      </c>
-      <c r="AP10">
-        <f t="shared" si="15"/>
-        <v>1.344498339943635</v>
-      </c>
-      <c r="AQ10">
-        <f t="shared" si="10"/>
-        <v>-0.11345849214686354</v>
-      </c>
-      <c r="AR10">
-        <f t="shared" si="11"/>
-        <v>1.3323063744073291</v>
-      </c>
-      <c r="AS10">
-        <f>(2*AP10+3)/(3-AP10)</f>
-        <v>3.4364185896941812</v>
-      </c>
-      <c r="AT10" s="1">
-        <f>(1+2*AM10)*(AK10-AK9)*(1-AP10/3)/(3*AN10*AO10*AM10)</f>
-        <v>-5.7342844738419059E-2</v>
-      </c>
-      <c r="AU10">
-        <f t="shared" si="16"/>
-        <v>-0.22009704376686279</v>
-      </c>
-      <c r="AV10" s="1">
-        <f>2*(1-AM10)*(AK10-AK9)*(1-AP10/3)/(9*AN10*AO10*AM10)</f>
-        <v>0.52671543555251588</v>
-      </c>
-      <c r="AW10">
-        <f t="shared" si="17"/>
-        <v>2.8714631522925238</v>
-      </c>
-      <c r="AX10">
-        <f t="shared" si="12"/>
         <v>1798.7786048701641</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>98.506007605299999</v>
       </c>
@@ -2364,66 +2400,70 @@
         <v>0.12821332560205365</v>
       </c>
       <c r="AJ11">
-        <f t="shared" si="9"/>
-        <v>0.17413221977698445</v>
+        <f t="shared" si="15"/>
+        <v>0.1751272500507948</v>
       </c>
       <c r="AK11">
+        <f t="shared" si="16"/>
+        <v>3.7633912957753174E-2</v>
+      </c>
+      <c r="AL11">
         <f t="shared" si="2"/>
         <v>1325751.0573406667</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <f t="shared" si="3"/>
         <v>1777141.4462240003</v>
       </c>
-      <c r="AM11" s="1">
+      <c r="AN11" s="1">
+        <f t="shared" si="17"/>
+        <v>-0.59299210914223155</v>
+      </c>
+      <c r="AO11" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.39094073116548811</v>
+      </c>
+      <c r="AP11" s="3">
+        <v>200000</v>
+      </c>
+      <c r="AQ11">
+        <f t="shared" si="19"/>
+        <v>1.3404789959502508</v>
+      </c>
+      <c r="AR11">
+        <f t="shared" si="9"/>
+        <v>-0.10915496569718211</v>
+      </c>
+      <c r="AS11">
+        <f t="shared" si="10"/>
+        <v>1.3314244469471184</v>
+      </c>
+      <c r="AT11">
+        <f t="shared" si="11"/>
+        <v>3.4232516358860123</v>
+      </c>
+      <c r="AU11" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.14985687322663219</v>
+      </c>
+      <c r="AV11">
+        <f t="shared" si="20"/>
+        <v>-0.69576067500867556</v>
+      </c>
+      <c r="AW11" s="1">
         <f t="shared" si="13"/>
-        <v>-0.56696875854937911</v>
-      </c>
-      <c r="AN11" s="2">
+        <v>0.85570277145999196</v>
+      </c>
+      <c r="AX11">
+        <f t="shared" si="21"/>
+        <v>5.4655460158101015</v>
+      </c>
+      <c r="AY11">
         <f t="shared" si="14"/>
-        <v>-0.40224882365837661</v>
-      </c>
-      <c r="AO11" s="1">
-        <v>321688.56653439248</v>
-      </c>
-      <c r="AP11">
-        <f t="shared" si="15"/>
-        <v>1.3404789959502508</v>
-      </c>
-      <c r="AQ11">
-        <f t="shared" si="10"/>
-        <v>-0.10010041669404979</v>
-      </c>
-      <c r="AR11">
-        <f t="shared" si="11"/>
-        <v>1.3314244469471184</v>
-      </c>
-      <c r="AS11">
-        <f>(2*AP11+3)/(3-AP11)</f>
-        <v>3.4232516358860123</v>
-      </c>
-      <c r="AT11" s="1">
-        <f>(1+2*AM11)*(AK11-AK10)*(1-AP11/3)/(3*AN11*AO11*AM11)</f>
-        <v>-6.8202942319204388E-2</v>
-      </c>
-      <c r="AU11">
-        <f t="shared" si="16"/>
-        <v>-0.28829998608606716</v>
-      </c>
-      <c r="AV11" s="1">
-        <f>2*(1-AM11)*(AK11-AK10)*(1-AP11/3)/(9*AN11*AO11*AM11)</f>
-        <v>0.53194893743643701</v>
-      </c>
-      <c r="AW11">
-        <f t="shared" si="17"/>
-        <v>3.4034120897289606</v>
-      </c>
-      <c r="AX11">
-        <f t="shared" si="12"/>
         <v>2119.4620586188844</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>114.008215518</v>
       </c>
@@ -2538,66 +2578,70 @@
         <v>0.21974677545261531</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="9"/>
-        <v>0.17758935951636393</v>
+        <f t="shared" si="15"/>
+        <v>0.17918651336520805</v>
       </c>
       <c r="AK12">
+        <f t="shared" si="16"/>
+        <v>0.14429736033531446</v>
+      </c>
+      <c r="AL12">
         <f t="shared" si="2"/>
         <v>1534206.2600356666</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <f t="shared" si="3"/>
         <v>2050200.3846515003</v>
       </c>
-      <c r="AM12" s="1">
+      <c r="AN12" s="1">
+        <f t="shared" si="17"/>
+        <v>-0.59528448843615822</v>
+      </c>
+      <c r="AO12" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.3925764245555905</v>
+      </c>
+      <c r="AP12" s="3">
+        <v>200000</v>
+      </c>
+      <c r="AQ12">
+        <f t="shared" si="19"/>
+        <v>1.3363264367099101</v>
+      </c>
+      <c r="AR12">
+        <f t="shared" si="9"/>
+        <v>-9.5269827606434737E-2</v>
+      </c>
+      <c r="AS12">
+        <f t="shared" si="10"/>
+        <v>1.3301795875108662</v>
+      </c>
+      <c r="AT12">
+        <f t="shared" si="11"/>
+        <v>3.4097151019227301</v>
+      </c>
+      <c r="AU12" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.15711287295175458</v>
+      </c>
+      <c r="AV12">
+        <f t="shared" si="20"/>
+        <v>-0.85287354796043013</v>
+      </c>
+      <c r="AW12" s="1">
         <f t="shared" si="13"/>
-        <v>-0.61855760485003441</v>
-      </c>
-      <c r="AN12" s="2">
+        <v>0.87681193188650219</v>
+      </c>
+      <c r="AX12">
+        <f t="shared" si="21"/>
+        <v>6.3423579476966037</v>
+      </c>
+      <c r="AY12">
         <f t="shared" si="14"/>
-        <v>-0.38295554412189792</v>
-      </c>
-      <c r="AO12" s="1">
-        <v>321688.56653439248</v>
-      </c>
-      <c r="AP12">
-        <f t="shared" si="15"/>
-        <v>1.3363264367099101</v>
-      </c>
-      <c r="AQ12">
-        <f t="shared" si="10"/>
-        <v>-8.9122978407390807E-2</v>
-      </c>
-      <c r="AR12">
-        <f t="shared" si="11"/>
-        <v>1.3301795875108662</v>
-      </c>
-      <c r="AS12">
-        <f>(2*AP12+3)/(3-AP12)</f>
-        <v>3.4097151019227301</v>
-      </c>
-      <c r="AT12" s="1">
-        <f>(1+2*AM12)*(AK12-AK11)*(1-AP12/3)/(3*AN12*AO12*AM12)</f>
-        <v>-0.11990398582274546</v>
-      </c>
-      <c r="AU12">
-        <f t="shared" si="16"/>
-        <v>-0.40820397190881264</v>
-      </c>
-      <c r="AV12" s="1">
-        <f>2*(1-AM12)*(AK12-AK11)*(1-AP12/3)/(9*AN12*AO12*AM12)</f>
-        <v>0.54564616739325389</v>
-      </c>
-      <c r="AW12">
-        <f t="shared" si="17"/>
-        <v>3.9490582571222146</v>
-      </c>
-      <c r="AX12">
-        <f t="shared" si="12"/>
         <v>2450.0695611309498</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>129.77406091500001</v>
       </c>
@@ -2712,66 +2756,70 @@
         <v>0.16744754833402556</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="9"/>
-        <v>0.18407132000144219</v>
+        <f t="shared" si="15"/>
+        <v>0.18178805081003913</v>
       </c>
       <c r="AK13">
+        <f t="shared" si="16"/>
+        <v>0.10508211793984881</v>
+      </c>
+      <c r="AL13">
         <f t="shared" si="2"/>
         <v>1742907.02988</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <f t="shared" si="3"/>
         <v>2315571.1698899996</v>
       </c>
-      <c r="AM13" s="1">
+      <c r="AN13" s="1">
+        <f t="shared" si="17"/>
+        <v>-0.5967571215832207</v>
+      </c>
+      <c r="AO13" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.39686202041161939</v>
+      </c>
+      <c r="AP13" s="3">
+        <v>200000</v>
+      </c>
+      <c r="AQ13">
+        <f t="shared" si="19"/>
+        <v>1.3285683804083501</v>
+      </c>
+      <c r="AR13">
+        <f t="shared" si="9"/>
+        <v>-8.3919956283746461E-2</v>
+      </c>
+      <c r="AS13">
+        <f t="shared" si="10"/>
+        <v>1.3284454741104303</v>
+      </c>
+      <c r="AT13">
+        <f t="shared" si="11"/>
+        <v>3.3846055647785365</v>
+      </c>
+      <c r="AU13" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.15834922638133994</v>
+      </c>
+      <c r="AV13">
+        <f t="shared" si="20"/>
+        <v>-1.0112227743417701</v>
+      </c>
+      <c r="AW13" s="1">
         <f t="shared" si="13"/>
-        <v>-0.58867314084627498</v>
-      </c>
-      <c r="AN13" s="2">
+        <v>0.87106509848003344</v>
+      </c>
+      <c r="AX13">
+        <f t="shared" si="21"/>
+        <v>7.2134230461766373</v>
+      </c>
+      <c r="AY13">
         <f t="shared" si="14"/>
-        <v>-0.40036164056212198</v>
-      </c>
-      <c r="AO13" s="1">
-        <v>321688.56653439248</v>
-      </c>
-      <c r="AP13">
-        <f t="shared" si="15"/>
-        <v>1.3285683804083501</v>
-      </c>
-      <c r="AQ13">
-        <f t="shared" si="10"/>
-        <v>-8.379704998582671E-2</v>
-      </c>
-      <c r="AR13">
-        <f t="shared" si="11"/>
-        <v>1.3284454741104303</v>
-      </c>
-      <c r="AS13">
-        <f>(2*AP13+3)/(3-AP13)</f>
-        <v>3.3846055647785365</v>
-      </c>
-      <c r="AT13" s="1">
-        <f>(1+2*AM13)*(AK13-AK12)*(1-AP13/3)/(3*AN13*AO13*AM13)</f>
-        <v>-9.0662968808093047E-2</v>
-      </c>
-      <c r="AU13">
-        <f t="shared" si="16"/>
-        <v>-0.49886694071690568</v>
-      </c>
-      <c r="AV13" s="1">
-        <f>2*(1-AM13)*(AK13-AK12)*(1-AP13/3)/(9*AN13*AO13*AM13)</f>
-        <v>0.54144100472129864</v>
-      </c>
-      <c r="AW13">
-        <f t="shared" si="17"/>
-        <v>4.4904992618435129</v>
-      </c>
-      <c r="AX13">
-        <f t="shared" si="12"/>
         <v>2773.2292757628188</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>145.475280191</v>
       </c>
@@ -2886,66 +2934,70 @@
         <v>0.15585393274086612</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="9"/>
-        <v>0.19373718441357646</v>
+        <f t="shared" si="15"/>
+        <v>0.18369904926551572</v>
       </c>
       <c r="AK14">
+        <f t="shared" si="16"/>
+        <v>0.10466979165443102</v>
+      </c>
+      <c r="AL14">
         <f t="shared" si="2"/>
         <v>1945440.1324166667</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <f t="shared" si="3"/>
         <v>2562275.2800349998</v>
       </c>
-      <c r="AM14" s="1">
+      <c r="AN14" s="1">
+        <f t="shared" si="17"/>
+        <v>-0.59784059967966541</v>
+      </c>
+      <c r="AO14" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.40380665461588899</v>
+      </c>
+      <c r="AP14" s="3">
+        <v>200000</v>
+      </c>
+      <c r="AQ14">
+        <f t="shared" si="19"/>
+        <v>1.3170671445191622</v>
+      </c>
+      <c r="AR14">
+        <f t="shared" si="9"/>
+        <v>-7.4446520854500264E-2</v>
+      </c>
+      <c r="AS14">
+        <f t="shared" si="10"/>
+        <v>1.3267376202319348</v>
+      </c>
+      <c r="AT14">
+        <f t="shared" si="11"/>
+        <v>3.3478069375670798</v>
+      </c>
+      <c r="AU14" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.15349015496720697</v>
+      </c>
+      <c r="AV14">
+        <f t="shared" si="20"/>
+        <v>-1.1647129293089771</v>
+      </c>
+      <c r="AW14" s="1">
         <f t="shared" si="13"/>
-        <v>-0.58219721968660731</v>
-      </c>
-      <c r="AN14" s="2">
+        <v>0.83555225560996038</v>
+      </c>
+      <c r="AX14">
+        <f t="shared" si="21"/>
+        <v>8.0489753017865979</v>
+      </c>
+      <c r="AY14">
         <f t="shared" si="14"/>
-        <v>-0.41078114758824014</v>
-      </c>
-      <c r="AO14" s="1">
-        <v>321688.56653439248</v>
-      </c>
-      <c r="AP14">
-        <f t="shared" si="15"/>
-        <v>1.3170671445191622</v>
-      </c>
-      <c r="AQ14">
-        <f t="shared" si="10"/>
-        <v>-8.4116996567273006E-2</v>
-      </c>
-      <c r="AR14">
-        <f t="shared" si="11"/>
-        <v>1.3267376202319348</v>
-      </c>
-      <c r="AS14">
-        <f>(2*AP14+3)/(3-AP14)</f>
-        <v>3.3478069375670798</v>
-      </c>
-      <c r="AT14" s="1">
-        <f>(1+2*AM14)*(AK14-AK13)*(1-AP14/3)/(3*AN14*AO14*AM14)</f>
-        <v>-8.0926575351279909E-2</v>
-      </c>
-      <c r="AU14">
-        <f t="shared" si="16"/>
-        <v>-0.57979351606818563</v>
-      </c>
-      <c r="AV14" s="1">
-        <f>2*(1-AM14)*(AK14-AK13)*(1-AP14/3)/(9*AN14*AO14*AM14)</f>
-        <v>0.51924628354315705</v>
-      </c>
-      <c r="AW14">
-        <f t="shared" si="17"/>
-        <v>5.0097455453866697</v>
-      </c>
-      <c r="AX14">
-        <f t="shared" si="12"/>
         <v>3078.7193865813874</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>160.97110197399999</v>
       </c>
@@ -3060,66 +3112,70 @@
         <v>0.14422389569489544</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="9"/>
-        <v>0.20131398677779722</v>
+        <f t="shared" si="15"/>
+        <v>0.18485398142106957</v>
       </c>
       <c r="AK15">
+        <f t="shared" si="16"/>
+        <v>0.10305792650396825</v>
+      </c>
+      <c r="AL15">
         <f t="shared" si="2"/>
         <v>2148422.9221899998</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <f t="shared" si="3"/>
         <v>2810370.078675</v>
       </c>
-      <c r="AM15" s="1">
+      <c r="AN15" s="1">
+        <f t="shared" si="17"/>
+        <v>-0.59849612428685828</v>
+      </c>
+      <c r="AO15" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.40940693688198654</v>
+      </c>
+      <c r="AP15" s="3">
+        <v>200000</v>
+      </c>
+      <c r="AQ15">
+        <f t="shared" si="19"/>
+        <v>1.3081084034470469</v>
+      </c>
+      <c r="AR15">
+        <f t="shared" si="9"/>
+        <v>-6.6361785651127075E-2</v>
+      </c>
+      <c r="AS15">
+        <f t="shared" si="10"/>
+        <v>1.3248041835398001</v>
+      </c>
+      <c r="AT15">
+        <f t="shared" si="11"/>
+        <v>3.3194897464687045</v>
+      </c>
+      <c r="AU15" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.15338816201209646</v>
+      </c>
+      <c r="AV15">
+        <f t="shared" si="20"/>
+        <v>-1.3181010913210736</v>
+      </c>
+      <c r="AW15" s="1">
         <f t="shared" si="13"/>
-        <v>-0.57575378308412029</v>
-      </c>
-      <c r="AN15" s="2">
+        <v>0.82978013691087993</v>
+      </c>
+      <c r="AX15">
+        <f t="shared" si="21"/>
+        <v>8.8787554386974783</v>
+      </c>
+      <c r="AY15">
         <f t="shared" si="14"/>
-        <v>-0.41980214875257982</v>
-      </c>
-      <c r="AO15" s="1">
-        <v>321688.56653439248</v>
-      </c>
-      <c r="AP15">
-        <f t="shared" si="15"/>
-        <v>1.3081084034470469</v>
-      </c>
-      <c r="AQ15">
-        <f t="shared" si="10"/>
-        <v>-8.3057565743880346E-2</v>
-      </c>
-      <c r="AR15">
-        <f t="shared" si="11"/>
-        <v>1.3248041835398001</v>
-      </c>
-      <c r="AS15">
-        <f>(2*AP15+3)/(3-AP15)</f>
-        <v>3.3194897464687045</v>
-      </c>
-      <c r="AT15" s="1">
-        <f>(1+2*AM15)*(AK15-AK14)*(1-AP15/3)/(3*AN15*AO15*AM15)</f>
-        <v>-7.4354366846326292E-2</v>
-      </c>
-      <c r="AU15">
-        <f t="shared" si="16"/>
-        <v>-0.65414788291451198</v>
-      </c>
-      <c r="AV15" s="1">
-        <f>2*(1-AM15)*(AK15-AK14)*(1-AP15/3)/(9*AN15*AO15*AM15)</f>
-        <v>0.51554817936427433</v>
-      </c>
-      <c r="AW15">
-        <f t="shared" si="17"/>
-        <v>5.5252937247509442</v>
-      </c>
-      <c r="AX15">
-        <f t="shared" si="12"/>
         <v>3385.3134271444919</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>176.24245648600001</v>
       </c>
@@ -3234,66 +3290,70 @@
         <v>0.2084072696498479</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="9"/>
-        <v>0.20892193612830198</v>
+        <f t="shared" si="15"/>
+        <v>0.18592174565362865</v>
       </c>
       <c r="AK16">
+        <f t="shared" si="16"/>
+        <v>0.17600702450437045</v>
+      </c>
+      <c r="AL16">
         <f t="shared" si="2"/>
         <v>2344706.9102633335</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <f t="shared" si="3"/>
         <v>3046157.0020749997</v>
       </c>
-      <c r="AM16" s="1">
+      <c r="AN16" s="1">
+        <f t="shared" si="17"/>
+        <v>-0.59910265219160341</v>
+      </c>
+      <c r="AO16" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.41511946703841091</v>
+      </c>
+      <c r="AP16" s="3">
+        <v>200000</v>
+      </c>
+      <c r="AQ16">
+        <f t="shared" si="19"/>
+        <v>1.2991632296306435</v>
+      </c>
+      <c r="AR16">
+        <f t="shared" si="9"/>
+        <v>-5.9246381687300155E-2</v>
+      </c>
+      <c r="AS16">
+        <f t="shared" si="10"/>
+        <v>1.3231538634581774</v>
+      </c>
+      <c r="AT16">
+        <f t="shared" si="11"/>
+        <v>3.2915130697965478</v>
+      </c>
+      <c r="AU16" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.14781412441165123</v>
+      </c>
+      <c r="AV16">
+        <f t="shared" si="20"/>
+        <v>-1.4659152157327249</v>
+      </c>
+      <c r="AW16" s="1">
         <f t="shared" si="13"/>
-        <v>-0.61198299131390876</v>
-      </c>
-      <c r="AN16" s="2">
+        <v>0.79503408217255178</v>
+      </c>
+      <c r="AX16">
+        <f t="shared" si="21"/>
+        <v>9.6737895208700309</v>
+      </c>
+      <c r="AY16">
         <f t="shared" si="14"/>
-        <v>-0.40935962026646022</v>
-      </c>
-      <c r="AO16" s="1">
-        <v>321688.56653439248</v>
-      </c>
-      <c r="AP16">
-        <f t="shared" si="15"/>
-        <v>1.2991632296306435</v>
-      </c>
-      <c r="AQ16">
-        <f t="shared" si="10"/>
-        <v>-8.323701551483409E-2</v>
-      </c>
-      <c r="AR16">
-        <f t="shared" si="11"/>
-        <v>1.3231538634581774</v>
-      </c>
-      <c r="AS16">
-        <f>(2*AP16+3)/(3-AP16)</f>
-        <v>3.2915130697965478</v>
-      </c>
-      <c r="AT16" s="1">
-        <f>(1+2*AM16)*(AK16-AK15)*(1-AP16/3)/(3*AN16*AO16*AM16)</f>
-        <v>-0.1030877549133882</v>
-      </c>
-      <c r="AU16">
-        <f t="shared" si="16"/>
-        <v>-0.75723563782790015</v>
-      </c>
-      <c r="AV16" s="1">
-        <f>2*(1-AM16)*(AK16-AK15)*(1-AP16/3)/(9*AN16*AO16*AM16)</f>
-        <v>0.49464567664357112</v>
-      </c>
-      <c r="AW16">
-        <f t="shared" si="17"/>
-        <v>6.0199394013945149</v>
-      </c>
-      <c r="AX16">
-        <f t="shared" si="12"/>
         <v>3678.2700597738526</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>191.27767915699999</v>
       </c>
@@ -3408,66 +3468,70 @@
         <v>0.20945477774799928</v>
       </c>
       <c r="AJ17">
-        <f t="shared" si="9"/>
-        <v>0.21859571297315208</v>
+        <f t="shared" si="15"/>
+        <v>0.18680055744587248</v>
       </c>
       <c r="AK17">
+        <f t="shared" si="16"/>
+        <v>0.18478149165285754</v>
+      </c>
+      <c r="AL17">
         <f t="shared" si="2"/>
         <v>2533717.0905633331</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <f t="shared" si="3"/>
         <v>3263078.8216599999</v>
       </c>
-      <c r="AM17" s="1">
+      <c r="AN17" s="1">
+        <f t="shared" si="17"/>
+        <v>-0.59960219383322921</v>
+      </c>
+      <c r="AO17" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.42260670925861493</v>
+      </c>
+      <c r="AP17" s="3">
+        <v>200000</v>
+      </c>
+      <c r="AQ17">
+        <f t="shared" si="19"/>
+        <v>1.2878623402009355</v>
+      </c>
+      <c r="AR17">
+        <f t="shared" si="9"/>
+        <v>-5.3019340556634771E-2</v>
+      </c>
+      <c r="AS17">
+        <f t="shared" si="10"/>
+        <v>1.321653945538507</v>
+      </c>
+      <c r="AT17">
+        <f t="shared" si="11"/>
+        <v>3.2565866701724411</v>
+      </c>
+      <c r="AU17" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.14133530826710883</v>
+      </c>
+      <c r="AV17">
+        <f t="shared" si="20"/>
+        <v>-1.6072505239998338</v>
+      </c>
+      <c r="AW17" s="1">
         <f t="shared" si="13"/>
-        <v>-0.61258809357995303</v>
-      </c>
-      <c r="AN17" s="2">
+        <v>0.75661074142170237</v>
+      </c>
+      <c r="AX17">
+        <f t="shared" si="21"/>
+        <v>10.430400262291734</v>
+      </c>
+      <c r="AY17">
         <f t="shared" si="14"/>
-        <v>-0.41666922216673835</v>
-      </c>
-      <c r="AO17" s="1">
-        <v>321688.56653439248</v>
-      </c>
-      <c r="AP17">
-        <f t="shared" si="15"/>
-        <v>1.2878623402009355</v>
-      </c>
-      <c r="AQ17">
-        <f t="shared" si="10"/>
-        <v>-8.6810945894206348E-2</v>
-      </c>
-      <c r="AR17">
-        <f t="shared" si="11"/>
-        <v>1.321653945538507</v>
-      </c>
-      <c r="AS17">
-        <f>(2*AP17+3)/(3-AP17)</f>
-        <v>3.2565866701724411</v>
-      </c>
-      <c r="AT17" s="1">
-        <f>(1+2*AM17)*(AK17-AK16)*(1-AP17/3)/(3*AN17*AO17*AM17)</f>
-        <v>-9.8607109684698033E-2</v>
-      </c>
-      <c r="AU17">
-        <f t="shared" si="16"/>
-        <v>-0.85584274751259815</v>
-      </c>
-      <c r="AV17" s="1">
-        <f>2*(1-AM17)*(AK17-AK16)*(1-AP17/3)/(9*AN17*AO17*AM17)</f>
-        <v>0.47077994947116886</v>
-      </c>
-      <c r="AW17">
-        <f t="shared" si="17"/>
-        <v>6.4907193508656835</v>
-      </c>
-      <c r="AX17">
-        <f t="shared" si="12"/>
         <v>3951.3515544303914</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>198.126511647</v>
       </c>
@@ -3582,66 +3646,70 @@
         <v>1.0989604817033756</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="9"/>
-        <v>0.29167715075058209</v>
+        <f t="shared" si="15"/>
+        <v>0.20012001760723436</v>
       </c>
       <c r="AK18">
+        <f t="shared" si="16"/>
+        <v>1.0720010105971842</v>
+      </c>
+      <c r="AL18">
         <f t="shared" si="2"/>
         <v>2476147.9672166668</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <f t="shared" si="3"/>
         <v>2984181.5885450002</v>
       </c>
-      <c r="AM18" s="1">
+      <c r="AN18" s="1">
+        <f t="shared" si="17"/>
+        <v>-0.60721174775295872</v>
+      </c>
+      <c r="AO18" s="2">
+        <f t="shared" si="18"/>
+        <v>-0.48097044540939665</v>
+      </c>
+      <c r="AP18" s="3">
+        <v>200000</v>
+      </c>
+      <c r="AQ18">
+        <f t="shared" si="19"/>
+        <v>1.2051709461851718</v>
+      </c>
+      <c r="AR18">
+        <f t="shared" si="9"/>
+        <v>-4.5035784007928355E-2</v>
+      </c>
+      <c r="AS18">
+        <f t="shared" si="10"/>
+        <v>1.3319236870982629</v>
+      </c>
+      <c r="AT18">
+        <f t="shared" si="11"/>
+        <v>3.0144051216860492</v>
+      </c>
+      <c r="AU18" s="1">
+        <f t="shared" si="12"/>
+        <v>4.2145772412018542E-2</v>
+      </c>
+      <c r="AV18">
+        <f t="shared" si="20"/>
+        <v>-1.5651047515878154</v>
+      </c>
+      <c r="AW18" s="1">
         <f t="shared" si="13"/>
-        <v>-1.3671259627638381</v>
-      </c>
-      <c r="AN18" s="2">
+        <v>-0.21060248203023815</v>
+      </c>
+      <c r="AX18">
+        <f t="shared" si="21"/>
+        <v>10.219797780261496</v>
+      </c>
+      <c r="AY18">
         <f t="shared" si="14"/>
-        <v>-0.25851311149411677</v>
-      </c>
-      <c r="AO18" s="1">
-        <v>321688.56653439248</v>
-      </c>
-      <c r="AP18">
-        <f t="shared" si="15"/>
-        <v>1.2051709461851718</v>
-      </c>
-      <c r="AQ18">
-        <f t="shared" si="10"/>
-        <v>-0.17178852492101959</v>
-      </c>
-      <c r="AR18">
-        <f t="shared" si="11"/>
-        <v>1.3319236870982629</v>
-      </c>
-      <c r="AS18">
-        <f>(2*AP18+3)/(3-AP18)</f>
-        <v>3.0144051216860492</v>
-      </c>
-      <c r="AT18" s="1">
-        <f>(1+2*AM18)*(AK18-AK17)*(1-AP18/3)/(3*AN18*AO18*AM18)</f>
-        <v>0.17512802573479996</v>
-      </c>
-      <c r="AU18">
-        <f t="shared" si="16"/>
-        <v>-0.68071472177779824</v>
-      </c>
-      <c r="AV18" s="1">
-        <f>2*(1-AM18)*(AK18-AK17)*(1-AP18/3)/(9*AN18*AO18*AM18)</f>
-        <v>-0.15935789198111436</v>
-      </c>
-      <c r="AW18">
-        <f t="shared" si="17"/>
-        <v>6.3313614588845688</v>
-      </c>
-      <c r="AX18">
-        <f t="shared" si="12"/>
         <v>3623.9884782688664</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>197.87447431800001</v>
       </c>
@@ -3728,7 +3796,7 @@
         <v>-1.9658156996697373</v>
       </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>186.57943324600001</v>
       </c>
@@ -3815,7 +3883,7 @@
         <v>-3.381817502498885</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>183.777742348</v>
       </c>
@@ -3902,7 +3970,7 @@
         <v>-4.4086754197059319</v>
       </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>184.13538001000001</v>
       </c>

--- a/SMP_3PP.xlsx
+++ b/SMP_3PP.xlsx
@@ -525,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY22"/>
+  <dimension ref="A1:AY23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AP3" sqref="AP3"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1000,7 +1000,7 @@
         <v>-0.6194803473057785</v>
       </c>
       <c r="AP3" s="3">
-        <v>200000</v>
+        <v>136735.30180419001</v>
       </c>
       <c r="AQ3">
         <f>AM3/AL3</f>
@@ -1020,19 +1020,19 @@
       </c>
       <c r="AU3" s="2">
         <f t="shared" ref="AU3:AU18" si="12">(1+2*AN3)*(AL3-AL2)*(1-AQ3/3)/(3*AO3*AP3*AN3)</f>
-        <v>2.2631334268668694E-2</v>
+        <v>3.3102401457492811E-2</v>
       </c>
       <c r="AV3" s="2">
         <f>(AV2+AU3)</f>
-        <v>2.2631334268668694E-2</v>
+        <v>3.3102401457492811E-2</v>
       </c>
       <c r="AW3" s="2">
         <f t="shared" ref="AW3:AW18" si="13">2*(1-AN3)*(AL3-AL2)*(1-AQ3/3)/(9*AO3*AP3*AN3)</f>
-        <v>0.14854016008244036</v>
+        <v>0.21726673086245912</v>
       </c>
       <c r="AX3" s="2">
         <f>AX2+AW3</f>
-        <v>0.14854016008244036</v>
+        <v>0.21726673086245912</v>
       </c>
       <c r="AY3">
         <f t="shared" ref="AY3:AY18" si="14">(AT3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
@@ -1154,7 +1154,7 @@
         <v>-4.6859977566318184E-2</v>
       </c>
       <c r="AJ4">
-        <f t="shared" ref="AJ4:AJ22" si="15">-(1.35-(1.35*(AL4/3255000)^-0.0723))+0.2354+1.382*AR4</f>
+        <f t="shared" ref="AJ4:AJ18" si="15">-(1.35-(1.35*(AL4/3255000)^-0.0723))+0.2354+1.382*AR4</f>
         <v>-1.545518579848526E-2</v>
       </c>
       <c r="AK4">
@@ -1178,7 +1178,7 @@
         <v>-0.51850688776982978</v>
       </c>
       <c r="AP4" s="3">
-        <v>200000</v>
+        <v>136735.30180419001</v>
       </c>
       <c r="AQ4">
         <f t="shared" ref="AQ4:AQ18" si="19">AM4/AL4</f>
@@ -1198,19 +1198,19 @@
       </c>
       <c r="AU4" s="1">
         <f t="shared" si="12"/>
-        <v>4.820862028942767E-3</v>
+        <v>7.0513787812402978E-3</v>
       </c>
       <c r="AV4" s="1">
         <f t="shared" ref="AV4:AV18" si="20">AV3+AU4</f>
-        <v>2.7452196297611461E-2</v>
+        <v>4.015378023873311E-2</v>
       </c>
       <c r="AW4" s="1">
         <f t="shared" si="13"/>
-        <v>0.31192520696938253</v>
+        <v>0.45624678170684979</v>
       </c>
       <c r="AX4" s="1">
         <f>AX3+AW4</f>
-        <v>0.46046536705182289</v>
+        <v>0.67351351256930891</v>
       </c>
       <c r="AY4">
         <f t="shared" si="14"/>
@@ -1356,7 +1356,7 @@
         <v>-0.46819434198585363</v>
       </c>
       <c r="AP5" s="3">
-        <v>200000</v>
+        <v>136735.30180419001</v>
       </c>
       <c r="AQ5">
         <f t="shared" si="19"/>
@@ -1376,19 +1376,19 @@
       </c>
       <c r="AU5" s="1">
         <f t="shared" si="12"/>
-        <v>-2.9477338100347705E-2</v>
+        <v>-4.3115914780457128E-2</v>
       </c>
       <c r="AV5">
         <f t="shared" si="20"/>
-        <v>-2.0251418027362432E-3</v>
+        <v>-2.962134541724018E-3</v>
       </c>
       <c r="AW5" s="1">
         <f t="shared" si="13"/>
-        <v>0.451633101135199</v>
+        <v>0.66059473329272955</v>
       </c>
       <c r="AX5">
         <f>AX4+AW5</f>
-        <v>0.91209846818702189</v>
+        <v>1.3341082458620384</v>
       </c>
       <c r="AY5">
         <f t="shared" si="14"/>
@@ -1534,7 +1534,7 @@
         <v>-0.43241209167461553</v>
       </c>
       <c r="AP6" s="3">
-        <v>200000</v>
+        <v>136735.30180419001</v>
       </c>
       <c r="AQ6">
         <f t="shared" si="19"/>
@@ -1554,19 +1554,19 @@
       </c>
       <c r="AU6" s="1">
         <f t="shared" si="12"/>
-        <v>-6.1632582390712329E-2</v>
+        <v>-9.014874955843144E-2</v>
       </c>
       <c r="AV6">
         <f t="shared" si="20"/>
-        <v>-6.3657724193448575E-2</v>
+        <v>-9.3110884100155458E-2</v>
       </c>
       <c r="AW6" s="1">
         <f t="shared" si="13"/>
-        <v>0.58409620396144402</v>
+        <v>0.85434587301806131</v>
       </c>
       <c r="AX6">
         <f t="shared" ref="AX6:AX18" si="21">AX5+AW6</f>
-        <v>1.4961946721484658</v>
+        <v>2.1884541188800997</v>
       </c>
       <c r="AY6">
         <f t="shared" si="14"/>
@@ -1712,7 +1712,7 @@
         <v>-0.41008672621717485</v>
       </c>
       <c r="AP7" s="3">
-        <v>200000</v>
+        <v>136735.30180419001</v>
       </c>
       <c r="AQ7">
         <f t="shared" si="19"/>
@@ -1732,19 +1732,19 @@
       </c>
       <c r="AU7" s="1">
         <f t="shared" si="12"/>
-        <v>-9.2637537063181688E-2</v>
+        <v>-0.13549907864443383</v>
       </c>
       <c r="AV7">
         <f t="shared" si="20"/>
-        <v>-0.15629526125663026</v>
+        <v>-0.22860996274458928</v>
       </c>
       <c r="AW7" s="1">
         <f t="shared" si="13"/>
-        <v>0.69045104545825298</v>
+        <v>1.0099089793899816</v>
       </c>
       <c r="AX7">
         <f t="shared" si="21"/>
-        <v>2.1866457176067189</v>
+        <v>3.1983630982700815</v>
       </c>
       <c r="AY7">
         <f t="shared" si="14"/>
@@ -1890,7 +1890,7 @@
         <v>-0.39980879347393827</v>
       </c>
       <c r="AP8" s="3">
-        <v>200000</v>
+        <v>136735.30180419001</v>
       </c>
       <c r="AQ8">
         <f t="shared" si="19"/>
@@ -1910,19 +1910,19 @@
       </c>
       <c r="AU8" s="1">
         <f t="shared" si="12"/>
-        <v>-0.11280702455269184</v>
+        <v>-0.165000585897321</v>
       </c>
       <c r="AV8">
         <f t="shared" si="20"/>
-        <v>-0.26910228580932211</v>
+        <v>-0.39361054864191025</v>
       </c>
       <c r="AW8" s="1">
         <f t="shared" si="13"/>
-        <v>0.75512354443689012</v>
+        <v>1.1045041543379264</v>
       </c>
       <c r="AX8">
         <f t="shared" si="21"/>
-        <v>2.9417692620436089</v>
+        <v>4.3028672526080083</v>
       </c>
       <c r="AY8">
         <f t="shared" si="14"/>
@@ -2068,7 +2068,7 @@
         <v>-0.39178835848765997</v>
       </c>
       <c r="AP9" s="3">
-        <v>200000</v>
+        <v>136735.30180419001</v>
       </c>
       <c r="AQ9">
         <f t="shared" si="19"/>
@@ -2088,19 +2088,19 @@
       </c>
       <c r="AU9" s="1">
         <f t="shared" si="12"/>
-        <v>-0.13306146965170226</v>
+        <v>-0.1946263589519131</v>
       </c>
       <c r="AV9">
         <f t="shared" si="20"/>
-        <v>-0.40216375546102434</v>
+        <v>-0.58823690759382341</v>
       </c>
       <c r="AW9" s="1">
         <f t="shared" si="13"/>
-        <v>0.82108897640385925</v>
+        <v>1.2009904765920494</v>
       </c>
       <c r="AX9">
         <f t="shared" si="21"/>
-        <v>3.762858238447468</v>
+        <v>5.5038577292000577</v>
       </c>
       <c r="AY9">
         <f t="shared" si="14"/>
@@ -2246,7 +2246,7 @@
         <v>-0.38971739576075359</v>
       </c>
       <c r="AP10" s="3">
-        <v>200000</v>
+        <v>136735.30180419001</v>
       </c>
       <c r="AQ10">
         <f t="shared" si="19"/>
@@ -2266,19 +2266,19 @@
       </c>
       <c r="AU10" s="1">
         <f t="shared" si="12"/>
-        <v>-0.143740046321019</v>
+        <v>-0.21024570015848582</v>
       </c>
       <c r="AV10">
         <f t="shared" si="20"/>
-        <v>-0.54590380178204334</v>
+        <v>-0.79848260775230928</v>
       </c>
       <c r="AW10" s="1">
         <f t="shared" si="13"/>
-        <v>0.84698500590264159</v>
+        <v>1.2388680826778082</v>
       </c>
       <c r="AX10">
         <f t="shared" si="21"/>
-        <v>4.6098432443501096</v>
+        <v>6.7427258118778663</v>
       </c>
       <c r="AY10">
         <f t="shared" si="14"/>
@@ -2424,7 +2424,7 @@
         <v>-0.39094073116548811</v>
       </c>
       <c r="AP11" s="3">
-        <v>200000</v>
+        <v>136735.30180419001</v>
       </c>
       <c r="AQ11">
         <f t="shared" si="19"/>
@@ -2444,19 +2444,19 @@
       </c>
       <c r="AU11" s="1">
         <f t="shared" si="12"/>
-        <v>-0.14985687322663219</v>
+        <v>-0.21919266092853293</v>
       </c>
       <c r="AV11">
         <f t="shared" si="20"/>
-        <v>-0.69576067500867556</v>
+        <v>-1.0176752686808421</v>
       </c>
       <c r="AW11" s="1">
         <f t="shared" si="13"/>
-        <v>0.85570277145999196</v>
+        <v>1.2516193845615522</v>
       </c>
       <c r="AX11">
         <f t="shared" si="21"/>
-        <v>5.4655460158101015</v>
+        <v>7.9943451964394185</v>
       </c>
       <c r="AY11">
         <f t="shared" si="14"/>
@@ -2602,7 +2602,7 @@
         <v>-0.3925764245555905</v>
       </c>
       <c r="AP12" s="3">
-        <v>200000</v>
+        <v>136735.30180419001</v>
       </c>
       <c r="AQ12">
         <f t="shared" si="19"/>
@@ -2622,19 +2622,19 @@
       </c>
       <c r="AU12" s="1">
         <f t="shared" si="12"/>
-        <v>-0.15711287295175458</v>
+        <v>-0.2298058670711767</v>
       </c>
       <c r="AV12">
         <f t="shared" si="20"/>
-        <v>-0.85287354796043013</v>
+        <v>-1.2474811357520188</v>
       </c>
       <c r="AW12" s="1">
         <f t="shared" si="13"/>
-        <v>0.87681193188650219</v>
+        <v>1.2824953326861108</v>
       </c>
       <c r="AX12">
         <f t="shared" si="21"/>
-        <v>6.3423579476966037</v>
+        <v>9.2768405291255291</v>
       </c>
       <c r="AY12">
         <f t="shared" si="14"/>
@@ -2780,7 +2780,7 @@
         <v>-0.39686202041161939</v>
       </c>
       <c r="AP13" s="3">
-        <v>200000</v>
+        <v>136735.30180419001</v>
       </c>
       <c r="AQ13">
         <f t="shared" si="19"/>
@@ -2800,19 +2800,19 @@
       </c>
       <c r="AU13" s="1">
         <f t="shared" si="12"/>
-        <v>-0.15834922638133994</v>
+        <v>-0.23161425658474344</v>
       </c>
       <c r="AV13">
         <f t="shared" si="20"/>
-        <v>-1.0112227743417701</v>
+        <v>-1.4790953923367622</v>
       </c>
       <c r="AW13" s="1">
         <f t="shared" si="13"/>
-        <v>0.87106509848003344</v>
+        <v>1.2740895540310879</v>
       </c>
       <c r="AX13">
         <f t="shared" si="21"/>
-        <v>7.2134230461766373</v>
+        <v>10.550930083156617</v>
       </c>
       <c r="AY13">
         <f t="shared" si="14"/>
@@ -2958,7 +2958,7 @@
         <v>-0.40380665461588899</v>
       </c>
       <c r="AP14" s="3">
-        <v>200000</v>
+        <v>136735.30180419001</v>
       </c>
       <c r="AQ14">
         <f t="shared" si="19"/>
@@ -2978,19 +2978,19 @@
       </c>
       <c r="AU14" s="1">
         <f t="shared" si="12"/>
-        <v>-0.15349015496720697</v>
+        <v>-0.22450698969752603</v>
       </c>
       <c r="AV14">
         <f t="shared" si="20"/>
-        <v>-1.1647129293089771</v>
+        <v>-1.7036023820342883</v>
       </c>
       <c r="AW14" s="1">
         <f t="shared" si="13"/>
-        <v>0.83555225560996038</v>
+        <v>1.2221456267475126</v>
       </c>
       <c r="AX14">
         <f t="shared" si="21"/>
-        <v>8.0489753017865979</v>
+        <v>11.773075709904129</v>
       </c>
       <c r="AY14">
         <f t="shared" si="14"/>
@@ -3136,7 +3136,7 @@
         <v>-0.40940693688198654</v>
       </c>
       <c r="AP15" s="3">
-        <v>200000</v>
+        <v>136735.30180419001</v>
       </c>
       <c r="AQ15">
         <f t="shared" si="19"/>
@@ -3156,19 +3156,19 @@
       </c>
       <c r="AU15" s="1">
         <f t="shared" si="12"/>
-        <v>-0.15338816201209646</v>
+        <v>-0.22435780663541297</v>
       </c>
       <c r="AV15">
         <f t="shared" si="20"/>
-        <v>-1.3181010913210736</v>
+        <v>-1.9279601886697013</v>
       </c>
       <c r="AW15" s="1">
         <f t="shared" si="13"/>
-        <v>0.82978013691087993</v>
+        <v>1.2137028637990732</v>
       </c>
       <c r="AX15">
         <f t="shared" si="21"/>
-        <v>8.8787554386974783</v>
+        <v>12.986778573703202</v>
       </c>
       <c r="AY15">
         <f t="shared" si="14"/>
@@ -3314,7 +3314,7 @@
         <v>-0.41511946703841091</v>
       </c>
       <c r="AP16" s="3">
-        <v>200000</v>
+        <v>136735.30180419001</v>
       </c>
       <c r="AQ16">
         <f t="shared" si="19"/>
@@ -3334,19 +3334,19 @@
       </c>
       <c r="AU16" s="1">
         <f t="shared" si="12"/>
-        <v>-0.14781412441165123</v>
+        <v>-0.2162047729610112</v>
       </c>
       <c r="AV16">
         <f t="shared" si="20"/>
-        <v>-1.4659152157327249</v>
+        <v>-2.1441649616307124</v>
       </c>
       <c r="AW16" s="1">
         <f t="shared" si="13"/>
-        <v>0.79503408217255178</v>
+        <v>1.162880502229146</v>
       </c>
       <c r="AX16">
         <f t="shared" si="21"/>
-        <v>9.6737895208700309</v>
+        <v>14.149659075932348</v>
       </c>
       <c r="AY16">
         <f t="shared" si="14"/>
@@ -3492,7 +3492,7 @@
         <v>-0.42260670925861493</v>
       </c>
       <c r="AP17" s="3">
-        <v>200000</v>
+        <v>136735.30180419001</v>
       </c>
       <c r="AQ17">
         <f t="shared" si="19"/>
@@ -3512,19 +3512,19 @@
       </c>
       <c r="AU17" s="1">
         <f t="shared" si="12"/>
-        <v>-0.14133530826710883</v>
+        <v>-0.20672833774778393</v>
       </c>
       <c r="AV17">
         <f t="shared" si="20"/>
-        <v>-1.6072505239998338</v>
+        <v>-2.3508932993784963</v>
       </c>
       <c r="AW17" s="1">
         <f t="shared" si="13"/>
-        <v>0.75661074142170237</v>
+        <v>1.1066794477189175</v>
       </c>
       <c r="AX17">
         <f t="shared" si="21"/>
-        <v>10.430400262291734</v>
+        <v>15.256338523651266</v>
       </c>
       <c r="AY17">
         <f t="shared" si="14"/>
@@ -3670,7 +3670,7 @@
         <v>-0.48097044540939665</v>
       </c>
       <c r="AP18" s="3">
-        <v>200000</v>
+        <v>136735.30180419001</v>
       </c>
       <c r="AQ18">
         <f t="shared" si="19"/>
@@ -3690,19 +3690,19 @@
       </c>
       <c r="AU18" s="1">
         <f t="shared" si="12"/>
-        <v>4.2145772412018542E-2</v>
+        <v>6.164578109078641E-2</v>
       </c>
       <c r="AV18">
         <f t="shared" si="20"/>
-        <v>-1.5651047515878154</v>
+        <v>-2.2892475182877101</v>
       </c>
       <c r="AW18" s="1">
         <f t="shared" si="13"/>
-        <v>-0.21060248203023815</v>
+        <v>-0.30804405190377054</v>
       </c>
       <c r="AX18">
         <f t="shared" si="21"/>
-        <v>10.219797780261496</v>
+        <v>14.948294471747495</v>
       </c>
       <c r="AY18">
         <f t="shared" si="14"/>
@@ -4055,6 +4055,12 @@
       <c r="AB22">
         <f t="shared" si="0"/>
         <v>-4.8106132613426222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="W23">
+        <f>MIN(W2:W22)</f>
+        <v>4.2240728909899996</v>
       </c>
     </row>
   </sheetData>
